--- a/hast2_1/tests/STAGES_v220/Results_stage0_v220.xlsx
+++ b/hast2_1/tests/STAGES_v220/Results_stage0_v220.xlsx
@@ -8,15 +8,16 @@
   </bookViews>
   <sheets>
     <sheet name="Clonee 220 kV" sheetId="1" r:id="rId1"/>
-    <sheet name="Corduff 220 kV" sheetId="2" r:id="rId2"/>
-    <sheet name="Woodland 220 kV" sheetId="3" r:id="rId3"/>
+    <sheet name="Corduff 110 kV" sheetId="2" r:id="rId2"/>
+    <sheet name="Corduff 220 kV" sheetId="3" r:id="rId3"/>
+    <sheet name="Woodland 220 kV" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="32">
   <si>
     <t>Terminal</t>
   </si>
@@ -66,6 +67,9 @@
     <t>Frequency in Hz</t>
   </si>
   <si>
+    <t>Clonee 220 kV_Corduff 110 kV</t>
+  </si>
+  <si>
     <t>Clonee 220 kV_Corduff 220 kV</t>
   </si>
   <si>
@@ -75,10 +79,25 @@
     <t>c:Z_12</t>
   </si>
   <si>
+    <t>Corduff 110 kV</t>
+  </si>
+  <si>
+    <t>Corduff 110 kV_Clonee 220 kV</t>
+  </si>
+  <si>
+    <t>Corduff 110 kV_Corduff 220 kV</t>
+  </si>
+  <si>
+    <t>Corduff 110 kV_Woodland 220 kV</t>
+  </si>
+  <si>
     <t>Corduff 220 kV</t>
   </si>
   <si>
     <t>Corduff 220 kV_Clonee 220 kV</t>
+  </si>
+  <si>
+    <t>Corduff 220 kV_Corduff 110 kV</t>
   </si>
   <si>
     <t>Corduff 220 kV_Woodland 220 kV</t>
@@ -88,6 +107,9 @@
   </si>
   <si>
     <t>Woodland 220 kV_Clonee 220 kV</t>
+  </si>
+  <si>
+    <t>Woodland 220 kV_Corduff 110 kV</t>
   </si>
   <si>
     <t>Woodland 220 kV_Corduff 220 kV</t>
@@ -878,7 +900,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Corduff 220 kV'!$B$38</c:f>
+              <c:f>'Corduff 110 kV'!$B$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -899,7 +921,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Corduff 220 kV'!$A$41:$A$81</c:f>
+              <c:f>'Corduff 110 kV'!$A$41:$A$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -1028,129 +1050,129 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Corduff 220 kV'!$B$41:$B$81</c:f>
+              <c:f>'Corduff 110 kV'!$B$41:$B$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>8.177883999999999</c:v>
+                  <c:v>3.583228</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.278695</c:v>
+                  <c:v>7.829267999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39.737107</c:v>
+                  <c:v>11.139512</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.191863</c:v>
+                  <c:v>7.280465</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.981238</c:v>
+                  <c:v>11.226001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>61.60369</c:v>
+                  <c:v>17.322719</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50.58106</c:v>
+                  <c:v>14.762832</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.945852</c:v>
+                  <c:v>19.519794</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.271320999999999</c:v>
+                  <c:v>26.583023</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.280967</c:v>
+                  <c:v>35.274408</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>47.958731</c:v>
+                  <c:v>42.054772</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>84.15586400000001</c:v>
+                  <c:v>32.467953</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>72.093655</c:v>
+                  <c:v>41.094577</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>56.498202</c:v>
+                  <c:v>38.048852</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30.392696</c:v>
+                  <c:v>60.828872</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.916946</c:v>
+                  <c:v>75.731503</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>14.206881</c:v>
+                  <c:v>150.52167</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11.115701</c:v>
+                  <c:v>89.25584000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.424647999999999</c:v>
+                  <c:v>181.551647</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.851747</c:v>
+                  <c:v>339.289972</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.635696</c:v>
+                  <c:v>173.387614</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.699662</c:v>
+                  <c:v>115.273193</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.824301</c:v>
+                  <c:v>86.05020999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.545652</c:v>
+                  <c:v>77.775564</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.356386</c:v>
+                  <c:v>69.021946</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.107858999999999</c:v>
+                  <c:v>55.794132</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9.812360999999999</c:v>
+                  <c:v>53.36069699999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>11.401085</c:v>
+                  <c:v>46.611806</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>13.124544</c:v>
+                  <c:v>40.566109</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>14.995382</c:v>
+                  <c:v>36.807175</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>16.966586</c:v>
+                  <c:v>32.937537</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>19.137967</c:v>
+                  <c:v>29.839638</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>21.088136</c:v>
+                  <c:v>28.691137</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>23.105796</c:v>
+                  <c:v>27.035308</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>23.747504</c:v>
+                  <c:v>24.875474</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>26.827764</c:v>
+                  <c:v>23.149733</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>29.318155</c:v>
+                  <c:v>22.103807</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>32.293503</c:v>
+                  <c:v>20.417299</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>34.815922</c:v>
+                  <c:v>19.960267</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>40.514823</c:v>
+                  <c:v>20.168576</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1161,7 +1183,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Corduff 220 kV'!$C$38</c:f>
+              <c:f>'Corduff 110 kV'!$C$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1182,7 +1204,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Corduff 220 kV'!$A$41:$A$81</c:f>
+              <c:f>'Corduff 110 kV'!$A$41:$A$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -1311,129 +1333,129 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Corduff 220 kV'!$C$41:$C$81</c:f>
+              <c:f>'Corduff 110 kV'!$C$41:$C$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>9.045693</c:v>
+                  <c:v>3.652575</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.382377</c:v>
+                  <c:v>8.008365</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43.127152</c:v>
+                  <c:v>11.465645</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.987459</c:v>
+                  <c:v>7.533410000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.031497</c:v>
+                  <c:v>11.321255</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>92.509884</c:v>
+                  <c:v>18.560437</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>48.642613</c:v>
+                  <c:v>13.468721</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.779789</c:v>
+                  <c:v>19.748802</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.362319</c:v>
+                  <c:v>26.590373</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21.668729</c:v>
+                  <c:v>35.408799</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>55.583249</c:v>
+                  <c:v>42.871323</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>114.355382</c:v>
+                  <c:v>32.097028</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>73.006311</c:v>
+                  <c:v>39.091474</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>48.379344</c:v>
+                  <c:v>39.278865</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>28.56503</c:v>
+                  <c:v>61.74160799999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.219609</c:v>
+                  <c:v>76.052465</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>13.987996</c:v>
+                  <c:v>150.972995</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11.029437</c:v>
+                  <c:v>89.140619</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.350207000000001</c:v>
+                  <c:v>181.628186</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.822805000000001</c:v>
+                  <c:v>339.092917</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.632109</c:v>
+                  <c:v>173.385943</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.701593</c:v>
+                  <c:v>115.346927</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.828585</c:v>
+                  <c:v>85.880589</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.56283</c:v>
+                  <c:v>78.56260999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.372303</c:v>
+                  <c:v>68.79570699999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.117355999999999</c:v>
+                  <c:v>55.632276</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9.829367999999999</c:v>
+                  <c:v>53.326257</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>11.439799</c:v>
+                  <c:v>46.640744</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>13.236114</c:v>
+                  <c:v>40.568391</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>15.028586</c:v>
+                  <c:v>36.8256</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>16.957717</c:v>
+                  <c:v>32.93985</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>19.001217</c:v>
+                  <c:v>29.812636</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>20.812118</c:v>
+                  <c:v>28.70084</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>22.136611</c:v>
+                  <c:v>27.175164</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>24.081461</c:v>
+                  <c:v>24.820439</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>26.731787</c:v>
+                  <c:v>23.124739</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>29.0464</c:v>
+                  <c:v>21.964177</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>31.854199</c:v>
+                  <c:v>20.489453</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>34.451729</c:v>
+                  <c:v>19.959667</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>39.333604</c:v>
+                  <c:v>20.129558</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1562,7 +1584,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Woodland 220 kV'!$B$38</c:f>
+              <c:f>'Corduff 220 kV'!$B$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1583,7 +1605,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Woodland 220 kV'!$A$41:$A$81</c:f>
+              <c:f>'Corduff 220 kV'!$A$41:$A$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -1712,129 +1734,129 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Woodland 220 kV'!$B$41:$B$81</c:f>
+              <c:f>'Corduff 220 kV'!$B$41:$B$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>7.367824000000001</c:v>
+                  <c:v>8.177883999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.152296</c:v>
+                  <c:v>20.278695</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.189236</c:v>
+                  <c:v>39.737107</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.612144000000001</c:v>
+                  <c:v>11.191863</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.866213</c:v>
+                  <c:v>19.981238</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36.809568</c:v>
+                  <c:v>61.60369</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.414451</c:v>
+                  <c:v>50.58106</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.467956</c:v>
+                  <c:v>15.945852</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.23629</c:v>
+                  <c:v>5.271320999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29.713243</c:v>
+                  <c:v>20.280967</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40.881482</c:v>
+                  <c:v>47.958731</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40.998227</c:v>
+                  <c:v>84.15586400000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16.848503</c:v>
+                  <c:v>72.093655</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>17.548311</c:v>
+                  <c:v>56.498202</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>22.565267</c:v>
+                  <c:v>30.392696</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>28.099499</c:v>
+                  <c:v>20.916946</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>35.565362</c:v>
+                  <c:v>14.206881</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>37.450872</c:v>
+                  <c:v>11.115701</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>39.8016</c:v>
+                  <c:v>7.424647999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42.74782800000001</c:v>
+                  <c:v>4.851747</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43.770332</c:v>
+                  <c:v>2.635696</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>48.256409</c:v>
+                  <c:v>1.699662</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>54.163716</c:v>
+                  <c:v>2.824301</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>54.35412700000001</c:v>
+                  <c:v>4.545652</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>62.650786</c:v>
+                  <c:v>6.356386</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>72.607091</c:v>
+                  <c:v>8.107858999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>76.726371</c:v>
+                  <c:v>9.812360999999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>76.614946</c:v>
+                  <c:v>11.401085</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>66.44721899999999</c:v>
+                  <c:v>13.124544</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>81.20571700000001</c:v>
+                  <c:v>14.995382</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>86.955961</c:v>
+                  <c:v>16.966586</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>103.119539</c:v>
+                  <c:v>19.137967</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>113.177914</c:v>
+                  <c:v>21.088136</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>140.965952</c:v>
+                  <c:v>23.105796</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>74.659814</c:v>
+                  <c:v>23.747504</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>97.57382</c:v>
+                  <c:v>26.827764</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>105.030865</c:v>
+                  <c:v>29.318155</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>113.228346</c:v>
+                  <c:v>32.293503</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>112.799061</c:v>
+                  <c:v>34.815922</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>155.160951</c:v>
+                  <c:v>40.514823</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1845,7 +1867,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Woodland 220 kV'!$C$38</c:f>
+              <c:f>'Corduff 220 kV'!$C$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1866,7 +1888,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Woodland 220 kV'!$A$41:$A$81</c:f>
+              <c:f>'Corduff 220 kV'!$A$41:$A$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -1995,129 +2017,129 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Woodland 220 kV'!$C$41:$C$81</c:f>
+              <c:f>'Corduff 220 kV'!$C$41:$C$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>7.613001</c:v>
+                  <c:v>9.045693</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.47319</c:v>
+                  <c:v>22.382377</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.397425</c:v>
+                  <c:v>43.127152</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.082808</c:v>
+                  <c:v>13.987459</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.479752</c:v>
+                  <c:v>26.031497</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.932754</c:v>
+                  <c:v>92.509884</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.590424</c:v>
+                  <c:v>48.642613</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.902071</c:v>
+                  <c:v>14.779789</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26.764243</c:v>
+                  <c:v>5.362319</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>35.549476</c:v>
+                  <c:v>21.668729</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43.081693</c:v>
+                  <c:v>55.583249</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>34.367026</c:v>
+                  <c:v>114.355382</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>27.739542</c:v>
+                  <c:v>73.006311</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>38.126596</c:v>
+                  <c:v>48.379344</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>39.691474</c:v>
+                  <c:v>28.56503</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>46.252948</c:v>
+                  <c:v>20.219609</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>57.556987</c:v>
+                  <c:v>13.987996</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>56.36849300000001</c:v>
+                  <c:v>11.029437</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>58.295152</c:v>
+                  <c:v>7.350207000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>61.503086</c:v>
+                  <c:v>4.822805000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>60.319662</c:v>
+                  <c:v>2.632109</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>68.25407299999999</c:v>
+                  <c:v>1.701593</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>75.94569200000001</c:v>
+                  <c:v>2.828585</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>75.99045100000001</c:v>
+                  <c:v>4.56283</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>90.93864000000001</c:v>
+                  <c:v>6.372303</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>109.338026</c:v>
+                  <c:v>8.117355999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>116.849286</c:v>
+                  <c:v>9.829367999999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>102.498733</c:v>
+                  <c:v>11.439799</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>90.817554</c:v>
+                  <c:v>13.236114</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>116.003369</c:v>
+                  <c:v>15.028586</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>127.738508</c:v>
+                  <c:v>16.957717</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>161.647604</c:v>
+                  <c:v>19.001217</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>177.616517</c:v>
+                  <c:v>20.812118</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>198.437988</c:v>
+                  <c:v>22.136611</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>92.13547199999999</c:v>
+                  <c:v>24.081461</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>134.997659</c:v>
+                  <c:v>26.731787</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>143.19978</c:v>
+                  <c:v>29.0464</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>163.073941</c:v>
+                  <c:v>31.854199</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>159.818393</c:v>
+                  <c:v>34.451729</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>258.611496</c:v>
+                  <c:v>39.333604</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2215,6 +2237,690 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>step0</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Woodland 220 kV'!$B$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>step0_Base_Case</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Woodland 220 kV'!$A$41:$A$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Woodland 220 kV'!$B$41:$B$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>7.367824000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.152296</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.189236</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.612144000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.866213</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36.809568</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.414451</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.467956</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.23629</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29.713243</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40.881482</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40.998227</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16.848503</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.548311</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22.565267</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>28.099499</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35.565362</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37.450872</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>39.8016</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42.74782800000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43.770332</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>48.256409</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>54.163716</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>54.35412700000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>62.650786</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>72.607091</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>76.726371</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>76.614946</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>66.44721899999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>81.20571700000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>86.955961</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>103.119539</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>113.177914</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>140.965952</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>74.659814</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>97.57382</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>105.030865</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>113.228346</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>112.799061</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>155.160951</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Woodland 220 kV'!$C$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>step0_CLO2-CDU2-ckt1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="01E6F6"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Woodland 220 kV'!$A$41:$A$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Woodland 220 kV'!$C$41:$C$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>7.613001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.47319</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.397425</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.082808</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.479752</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.932754</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.590424</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.902071</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26.764243</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35.549476</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43.081693</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34.367026</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27.739542</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38.126596</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39.691474</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>46.252948</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>57.556987</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>56.36849300000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>58.295152</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>61.503086</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>60.319662</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>68.25407299999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>75.94569200000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>75.99045100000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>90.93864000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>109.338026</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>116.849286</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>102.498733</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>90.817554</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>116.003369</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>127.738508</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>161.647604</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>177.616517</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>198.437988</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>92.13547199999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>134.997659</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>143.19978</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>163.073941</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>159.818393</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>258.611496</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="50040001"/>
+        <c:axId val="50040002"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="50040001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency in Hz</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50040002"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="50040002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Impendance in Ohms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50040001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2286,6 +2992,41 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2605,13 +3346,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A32:I80"/>
+  <dimension ref="A32:K80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
@@ -2628,8 +3369,10 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
         <v>1</v>
       </c>
@@ -2648,8 +3391,12 @@
         <v>17</v>
       </c>
       <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="J33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
         <v>2</v>
       </c>
@@ -2668,8 +3415,12 @@
         <v>220</v>
       </c>
       <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="J34" s="1">
+        <v>220</v>
+      </c>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
         <v>3</v>
       </c>
@@ -2688,8 +3439,12 @@
         <v>9</v>
       </c>
       <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="J35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
         <v>4</v>
       </c>
@@ -2714,8 +3469,14 @@
       <c r="I36" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="J36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
         <v>5</v>
       </c>
@@ -2728,8 +3489,10 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
         <v>6</v>
       </c>
@@ -2754,8 +3517,14 @@
       <c r="I38" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="J38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
         <v>7</v>
       </c>
@@ -2769,19 +3538,25 @@
         <v>7</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
         <v>15</v>
       </c>
@@ -2789,7 +3564,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:11">
       <c r="A41" s="1">
         <v>50</v>
       </c>
@@ -2803,19 +3578,25 @@
         <v>50</v>
       </c>
       <c r="F41">
+        <v>3.032037</v>
+      </c>
+      <c r="G41">
+        <v>2.483493</v>
+      </c>
+      <c r="H41">
         <v>7.616954</v>
       </c>
-      <c r="G41">
+      <c r="I41">
         <v>5.710516999999999</v>
       </c>
-      <c r="H41">
+      <c r="J41">
         <v>6.526167</v>
       </c>
-      <c r="I41">
+      <c r="K41">
         <v>7.538771000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:11">
       <c r="A42" s="1">
         <v>100</v>
       </c>
@@ -2829,19 +3610,25 @@
         <v>100</v>
       </c>
       <c r="F42">
+        <v>7.822211</v>
+      </c>
+      <c r="G42">
+        <v>6.658963000000001</v>
+      </c>
+      <c r="H42">
         <v>19.067335</v>
       </c>
-      <c r="G42">
+      <c r="I42">
         <v>15.128627</v>
       </c>
-      <c r="H42">
+      <c r="J42">
         <v>16.661733</v>
       </c>
-      <c r="I42">
+      <c r="K42">
         <v>18.210473</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:11">
       <c r="A43" s="1">
         <v>150</v>
       </c>
@@ -2855,19 +3642,25 @@
         <v>150</v>
       </c>
       <c r="F43">
+        <v>17.384717</v>
+      </c>
+      <c r="G43">
+        <v>16.226204</v>
+      </c>
+      <c r="H43">
         <v>38.400972</v>
       </c>
-      <c r="G43">
+      <c r="I43">
         <v>35.180322</v>
       </c>
-      <c r="H43">
+      <c r="J43">
         <v>35.385651</v>
       </c>
-      <c r="I43">
+      <c r="K43">
         <v>33.867124</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:11">
       <c r="A44" s="1">
         <v>200</v>
       </c>
@@ -2881,19 +3674,25 @@
         <v>200</v>
       </c>
       <c r="F44">
+        <v>5.443902</v>
+      </c>
+      <c r="G44">
+        <v>6.395862</v>
+      </c>
+      <c r="H44">
         <v>10.533597</v>
       </c>
-      <c r="G44">
+      <c r="I44">
         <v>12.461905</v>
       </c>
-      <c r="H44">
+      <c r="J44">
         <v>10.162542</v>
       </c>
-      <c r="I44">
+      <c r="K44">
         <v>7.917559</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:11">
       <c r="A45" s="1">
         <v>250</v>
       </c>
@@ -2907,19 +3706,25 @@
         <v>250</v>
       </c>
       <c r="F45">
+        <v>5.591971</v>
+      </c>
+      <c r="G45">
+        <v>4.496051</v>
+      </c>
+      <c r="H45">
         <v>17.195813</v>
       </c>
-      <c r="G45">
+      <c r="I45">
         <v>10.475897</v>
       </c>
-      <c r="H45">
+      <c r="J45">
         <v>11.20732</v>
       </c>
-      <c r="I45">
+      <c r="K45">
         <v>12.928409</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:11">
       <c r="A46" s="1">
         <v>300</v>
       </c>
@@ -2933,19 +3738,25 @@
         <v>300</v>
       </c>
       <c r="F46">
+        <v>15.992804</v>
+      </c>
+      <c r="G46">
+        <v>12.156685</v>
+      </c>
+      <c r="H46">
         <v>54.93826600000001</v>
       </c>
-      <c r="G46">
+      <c r="I46">
         <v>39.358243</v>
       </c>
-      <c r="H46">
+      <c r="J46">
         <v>38.797862</v>
       </c>
-      <c r="I46">
+      <c r="K46">
         <v>31.664034</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:11">
       <c r="A47" s="1">
         <v>350</v>
       </c>
@@ -2959,19 +3770,25 @@
         <v>350</v>
       </c>
       <c r="F47">
+        <v>14.564876</v>
+      </c>
+      <c r="G47">
+        <v>5.263637</v>
+      </c>
+      <c r="H47">
         <v>43.483297</v>
       </c>
-      <c r="G47">
+      <c r="I47">
         <v>17.03965</v>
       </c>
-      <c r="H47">
+      <c r="J47">
         <v>22.014847</v>
       </c>
-      <c r="I47">
+      <c r="K47">
         <v>13.155294</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:11">
       <c r="A48" s="1">
         <v>400</v>
       </c>
@@ -2985,19 +3802,25 @@
         <v>400</v>
       </c>
       <c r="F48">
+        <v>4.936188</v>
+      </c>
+      <c r="G48">
+        <v>1.41646</v>
+      </c>
+      <c r="H48">
         <v>13.571006</v>
       </c>
-      <c r="G48">
+      <c r="I48">
         <v>4.619344</v>
       </c>
-      <c r="H48">
+      <c r="J48">
         <v>3.593918</v>
       </c>
-      <c r="I48">
+      <c r="K48">
         <v>17.361006</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:11">
       <c r="A49" s="1">
         <v>450</v>
       </c>
@@ -3011,19 +3834,25 @@
         <v>450</v>
       </c>
       <c r="F49">
+        <v>2.146044</v>
+      </c>
+      <c r="G49">
+        <v>2.258988</v>
+      </c>
+      <c r="H49">
         <v>4.602694000000001</v>
       </c>
-      <c r="G49">
+      <c r="I49">
         <v>2.058611</v>
       </c>
-      <c r="H49">
+      <c r="J49">
         <v>7.206778999999999</v>
       </c>
-      <c r="I49">
+      <c r="K49">
         <v>25.948198</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:11">
       <c r="A50" s="1">
         <v>500</v>
       </c>
@@ -3037,19 +3866,25 @@
         <v>500</v>
       </c>
       <c r="F50">
+        <v>8.565154</v>
+      </c>
+      <c r="G50">
+        <v>6.452026</v>
+      </c>
+      <c r="H50">
         <v>17.968659</v>
       </c>
-      <c r="G50">
+      <c r="I50">
         <v>9.399245000000001</v>
       </c>
-      <c r="H50">
+      <c r="J50">
         <v>17.009994</v>
       </c>
-      <c r="I50">
+      <c r="K50">
         <v>34.533328</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:11">
       <c r="A51" s="1">
         <v>550</v>
       </c>
@@ -3063,19 +3898,25 @@
         <v>550</v>
       </c>
       <c r="F51">
+        <v>21.402044</v>
+      </c>
+      <c r="G51">
+        <v>15.642112</v>
+      </c>
+      <c r="H51">
         <v>42.66742</v>
       </c>
-      <c r="G51">
+      <c r="I51">
         <v>25.227782</v>
       </c>
-      <c r="H51">
+      <c r="J51">
         <v>32.815845</v>
       </c>
-      <c r="I51">
+      <c r="K51">
         <v>42.029403</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:11">
       <c r="A52" s="1">
         <v>600</v>
       </c>
@@ -3089,19 +3930,25 @@
         <v>600</v>
       </c>
       <c r="F52">
+        <v>29.932394</v>
+      </c>
+      <c r="G52">
+        <v>24.774093</v>
+      </c>
+      <c r="H52">
         <v>74.0312</v>
       </c>
-      <c r="G52">
+      <c r="I52">
         <v>48.287295</v>
       </c>
-      <c r="H52">
+      <c r="J52">
         <v>47.45081500000001</v>
       </c>
-      <c r="I52">
+      <c r="K52">
         <v>33.51667</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:11">
       <c r="A53" s="1">
         <v>650</v>
       </c>
@@ -3115,19 +3962,25 @@
         <v>650</v>
       </c>
       <c r="F53">
+        <v>19.932985</v>
+      </c>
+      <c r="G53">
+        <v>14.688644</v>
+      </c>
+      <c r="H53">
         <v>62.173136</v>
       </c>
-      <c r="G53">
+      <c r="I53">
         <v>26.206891</v>
       </c>
-      <c r="H53">
+      <c r="J53">
         <v>29.653277</v>
       </c>
-      <c r="I53">
+      <c r="K53">
         <v>27.125488</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:11">
       <c r="A54" s="1">
         <v>700</v>
       </c>
@@ -3141,19 +3994,25 @@
         <v>700</v>
       </c>
       <c r="F54">
+        <v>23.561379</v>
+      </c>
+      <c r="G54">
+        <v>9.186596</v>
+      </c>
+      <c r="H54">
         <v>48.62262800000001</v>
       </c>
-      <c r="G54">
+      <c r="I54">
         <v>14.68128</v>
       </c>
-      <c r="H54">
+      <c r="J54">
         <v>17.532101</v>
       </c>
-      <c r="I54">
+      <c r="K54">
         <v>37.411601</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:11">
       <c r="A55" s="1">
         <v>750</v>
       </c>
@@ -3167,19 +4026,25 @@
         <v>750</v>
       </c>
       <c r="F55">
+        <v>17.213036</v>
+      </c>
+      <c r="G55">
+        <v>6.775133</v>
+      </c>
+      <c r="H55">
         <v>26.67355</v>
       </c>
-      <c r="G55">
+      <c r="I55">
         <v>11.159158</v>
       </c>
-      <c r="H55">
+      <c r="J55">
         <v>7.461583</v>
       </c>
-      <c r="I55">
+      <c r="K55">
         <v>38.970165</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:11">
       <c r="A56" s="1">
         <v>800</v>
       </c>
@@ -3193,19 +4058,25 @@
         <v>800</v>
       </c>
       <c r="F56">
+        <v>13.247001</v>
+      </c>
+      <c r="G56">
+        <v>6.800375</v>
+      </c>
+      <c r="H56">
         <v>18.55902</v>
       </c>
-      <c r="G56">
+      <c r="I56">
         <v>8.583908000000001</v>
       </c>
-      <c r="H56">
+      <c r="J56">
         <v>2.462679</v>
       </c>
-      <c r="I56">
+      <c r="K56">
         <v>45.469017</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:11">
       <c r="A57" s="1">
         <v>850</v>
       </c>
@@ -3219,19 +4090,25 @@
         <v>850</v>
       </c>
       <c r="F57">
+        <v>17.300433</v>
+      </c>
+      <c r="G57">
+        <v>9.654264999999999</v>
+      </c>
+      <c r="H57">
         <v>12.816734</v>
       </c>
-      <c r="G57">
+      <c r="I57">
         <v>6.620744</v>
       </c>
-      <c r="H57">
+      <c r="J57">
         <v>4.094957</v>
       </c>
-      <c r="I57">
+      <c r="K57">
         <v>56.81973000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:11">
       <c r="A58" s="1">
         <v>900</v>
       </c>
@@ -3245,19 +4122,25 @@
         <v>900</v>
       </c>
       <c r="F58">
+        <v>6.336917</v>
+      </c>
+      <c r="G58">
+        <v>6.62402</v>
+      </c>
+      <c r="H58">
         <v>9.854863</v>
       </c>
-      <c r="G58">
+      <c r="I58">
         <v>4.866738</v>
       </c>
-      <c r="H58">
+      <c r="J58">
         <v>5.627946</v>
       </c>
-      <c r="I58">
+      <c r="K58">
         <v>55.90490699999999</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:11">
       <c r="A59" s="1">
         <v>950</v>
       </c>
@@ -3271,19 +4154,25 @@
         <v>950</v>
       </c>
       <c r="F59">
+        <v>9.163814</v>
+      </c>
+      <c r="G59">
+        <v>6.816024000000001</v>
+      </c>
+      <c r="H59">
         <v>6.549277</v>
       </c>
-      <c r="G59">
+      <c r="I59">
         <v>2.853438</v>
       </c>
-      <c r="H59">
+      <c r="J59">
         <v>8.335001</v>
       </c>
-      <c r="I59">
+      <c r="K59">
         <v>58.05771899999999</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:11">
       <c r="A60" s="1">
         <v>1000</v>
       </c>
@@ -3297,19 +4186,25 @@
         <v>1000</v>
       </c>
       <c r="F60">
+        <v>10.675495</v>
+      </c>
+      <c r="G60">
+        <v>9.785569000000001</v>
+      </c>
+      <c r="H60">
         <v>4.261851</v>
       </c>
-      <c r="G60">
+      <c r="I60">
         <v>1.759982</v>
       </c>
-      <c r="H60">
+      <c r="J60">
         <v>10.366053</v>
       </c>
-      <c r="I60">
+      <c r="K60">
         <v>61.480769</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:11">
       <c r="A61" s="1">
         <v>1050</v>
       </c>
@@ -3323,19 +4218,25 @@
         <v>1050</v>
       </c>
       <c r="F61">
+        <v>3.49981</v>
+      </c>
+      <c r="G61">
+        <v>6.175339</v>
+      </c>
+      <c r="H61">
         <v>2.328484</v>
       </c>
-      <c r="G61">
+      <c r="I61">
         <v>1.0527</v>
       </c>
-      <c r="H61">
+      <c r="J61">
         <v>11.619127</v>
       </c>
-      <c r="I61">
+      <c r="K61">
         <v>60.466624</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:11">
       <c r="A62" s="1">
         <v>1100</v>
       </c>
@@ -3349,19 +4250,25 @@
         <v>1100</v>
       </c>
       <c r="F62">
+        <v>0.560128</v>
+      </c>
+      <c r="G62">
+        <v>2.488208</v>
+      </c>
+      <c r="H62">
         <v>1.500329</v>
       </c>
-      <c r="G62">
+      <c r="I62">
         <v>0.6402369999999999</v>
       </c>
-      <c r="H62">
+      <c r="J62">
         <v>13.786169</v>
       </c>
-      <c r="I62">
+      <c r="K62">
         <v>68.71561</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:11">
       <c r="A63" s="1">
         <v>1150</v>
       </c>
@@ -3375,19 +4282,25 @@
         <v>1150</v>
       </c>
       <c r="F63">
+        <v>2.857702</v>
+      </c>
+      <c r="G63">
+        <v>7.72602</v>
+      </c>
+      <c r="H63">
         <v>2.619051</v>
       </c>
-      <c r="G63">
+      <c r="I63">
         <v>1.655139</v>
       </c>
-      <c r="H63">
+      <c r="J63">
         <v>16.603015</v>
       </c>
-      <c r="I63">
+      <c r="K63">
         <v>76.915499</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:11">
       <c r="A64" s="1">
         <v>1200</v>
       </c>
@@ -3401,19 +4314,25 @@
         <v>1200</v>
       </c>
       <c r="F64">
+        <v>3.757037</v>
+      </c>
+      <c r="G64">
+        <v>14.238688</v>
+      </c>
+      <c r="H64">
         <v>4.112217</v>
       </c>
-      <c r="G64">
+      <c r="I64">
         <v>2.171074</v>
       </c>
-      <c r="H64">
+      <c r="J64">
         <v>17.447826</v>
       </c>
-      <c r="I64">
+      <c r="K64">
         <v>77.42549699999999</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:11">
       <c r="A65" s="1">
         <v>1250</v>
       </c>
@@ -3427,19 +4346,25 @@
         <v>1250</v>
       </c>
       <c r="F65">
+        <v>0.8656739999999999</v>
+      </c>
+      <c r="G65">
+        <v>6.776766</v>
+      </c>
+      <c r="H65">
         <v>5.892848000000001</v>
       </c>
-      <c r="G65">
+      <c r="I65">
         <v>3.633344</v>
       </c>
-      <c r="H65">
+      <c r="J65">
         <v>21.003162</v>
       </c>
-      <c r="I65">
+      <c r="K65">
         <v>93.004475</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:11">
       <c r="A66" s="1">
         <v>1300</v>
       </c>
@@ -3453,19 +4378,25 @@
         <v>1300</v>
       </c>
       <c r="F66">
+        <v>0.922168</v>
+      </c>
+      <c r="G66">
+        <v>6.632109</v>
+      </c>
+      <c r="H66">
         <v>7.630881</v>
       </c>
-      <c r="G66">
+      <c r="I66">
         <v>5.077219</v>
       </c>
-      <c r="H66">
+      <c r="J66">
         <v>25.122854</v>
       </c>
-      <c r="I66">
+      <c r="K66">
         <v>112.468556</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:11">
       <c r="A67" s="1">
         <v>1350</v>
       </c>
@@ -3479,19 +4410,25 @@
         <v>1350</v>
       </c>
       <c r="F67">
+        <v>3.56241</v>
+      </c>
+      <c r="G67">
+        <v>6.434983</v>
+      </c>
+      <c r="H67">
         <v>9.206704999999999</v>
       </c>
-      <c r="G67">
+      <c r="I67">
         <v>5.890652999999999</v>
       </c>
-      <c r="H67">
+      <c r="J67">
         <v>27.178456</v>
       </c>
-      <c r="I67">
+      <c r="K67">
         <v>120.800891</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:11">
       <c r="A68" s="1">
         <v>1400</v>
       </c>
@@ -3505,19 +4442,25 @@
         <v>1400</v>
       </c>
       <c r="F68">
+        <v>2.681136</v>
+      </c>
+      <c r="G68">
+        <v>3.571881</v>
+      </c>
+      <c r="H68">
         <v>10.459271</v>
       </c>
-      <c r="G68">
+      <c r="I68">
         <v>5.992871</v>
       </c>
-      <c r="H68">
+      <c r="J68">
         <v>27.982608</v>
       </c>
-      <c r="I68">
+      <c r="K68">
         <v>106.625966</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:11">
       <c r="A69" s="1">
         <v>1450</v>
       </c>
@@ -3531,19 +4474,25 @@
         <v>1450</v>
       </c>
       <c r="F69">
+        <v>2.471844</v>
+      </c>
+      <c r="G69">
+        <v>2.387076</v>
+      </c>
+      <c r="H69">
         <v>11.858408</v>
       </c>
-      <c r="G69">
+      <c r="I69">
         <v>5.967439</v>
       </c>
-      <c r="H69">
+      <c r="J69">
         <v>24.870776</v>
       </c>
-      <c r="I69">
+      <c r="K69">
         <v>94.794624</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:11">
       <c r="A70" s="1">
         <v>1500</v>
       </c>
@@ -3557,19 +4506,25 @@
         <v>1500</v>
       </c>
       <c r="F70">
+        <v>2.292549</v>
+      </c>
+      <c r="G70">
+        <v>3.614172</v>
+      </c>
+      <c r="H70">
         <v>13.981019</v>
       </c>
-      <c r="G70">
+      <c r="I70">
         <v>8.461114</v>
       </c>
-      <c r="H70">
+      <c r="J70">
         <v>31.192519</v>
       </c>
-      <c r="I70">
+      <c r="K70">
         <v>122.000938</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:11">
       <c r="A71" s="1">
         <v>1550</v>
       </c>
@@ -3583,19 +4538,25 @@
         <v>1550</v>
       </c>
       <c r="F71">
+        <v>2.233015</v>
+      </c>
+      <c r="G71">
+        <v>1.973316</v>
+      </c>
+      <c r="H71">
         <v>16.063651</v>
       </c>
-      <c r="G71">
+      <c r="I71">
         <v>10.683245</v>
       </c>
-      <c r="H71">
+      <c r="J71">
         <v>34.289611</v>
       </c>
-      <c r="I71">
+      <c r="K71">
         <v>134.650862</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:11">
       <c r="A72" s="1">
         <v>1600</v>
       </c>
@@ -3609,19 +4570,25 @@
         <v>1600</v>
       </c>
       <c r="F72">
+        <v>1.563377</v>
+      </c>
+      <c r="G72">
+        <v>1.888898</v>
+      </c>
+      <c r="H72">
         <v>18.686173</v>
       </c>
-      <c r="G72">
+      <c r="I72">
         <v>14.745049</v>
       </c>
-      <c r="H72">
+      <c r="J72">
         <v>41.696018</v>
       </c>
-      <c r="I72">
+      <c r="K72">
         <v>171.934909</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:11">
       <c r="A73" s="1">
         <v>1650</v>
       </c>
@@ -3635,19 +4602,25 @@
         <v>1650</v>
       </c>
       <c r="F73">
+        <v>2.666182</v>
+      </c>
+      <c r="G73">
+        <v>3.268919</v>
+      </c>
+      <c r="H73">
         <v>20.745468</v>
       </c>
-      <c r="G73">
+      <c r="I73">
         <v>16.839499</v>
       </c>
-      <c r="H73">
+      <c r="J73">
         <v>46.465658</v>
       </c>
-      <c r="I73">
+      <c r="K73">
         <v>189.806268</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:11">
       <c r="A74" s="1">
         <v>1700</v>
       </c>
@@ -3661,19 +4634,25 @@
         <v>1700</v>
       </c>
       <c r="F74">
+        <v>3.403757</v>
+      </c>
+      <c r="G74">
+        <v>8.045511999999999</v>
+      </c>
+      <c r="H74">
         <v>23.320198</v>
       </c>
-      <c r="G74">
+      <c r="I74">
         <v>20.020791</v>
       </c>
-      <c r="H74">
+      <c r="J74">
         <v>59.179002</v>
       </c>
-      <c r="I74">
+      <c r="K74">
         <v>214.209313</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:11">
       <c r="A75" s="1">
         <v>1750</v>
       </c>
@@ -3687,19 +4666,25 @@
         <v>1750</v>
       </c>
       <c r="F75">
+        <v>0.9753059999999999</v>
+      </c>
+      <c r="G75">
+        <v>2.490465</v>
+      </c>
+      <c r="H75">
         <v>21.183311</v>
       </c>
-      <c r="G75">
+      <c r="I75">
         <v>10.14749</v>
       </c>
-      <c r="H75">
+      <c r="J75">
         <v>32.053332</v>
       </c>
-      <c r="I75">
+      <c r="K75">
         <v>99.890225</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:11">
       <c r="A76" s="1">
         <v>1800</v>
       </c>
@@ -3713,19 +4698,25 @@
         <v>1800</v>
       </c>
       <c r="F76">
+        <v>1.466334</v>
+      </c>
+      <c r="G76">
+        <v>2.077316</v>
+      </c>
+      <c r="H76">
         <v>25.267385</v>
       </c>
-      <c r="G76">
+      <c r="I76">
         <v>15.828087</v>
       </c>
-      <c r="H76">
+      <c r="J76">
         <v>42.814744</v>
       </c>
-      <c r="I76">
+      <c r="K76">
         <v>147.635278</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:11">
       <c r="A77" s="1">
         <v>1850</v>
       </c>
@@ -3739,19 +4730,25 @@
         <v>1850</v>
       </c>
       <c r="F77">
+        <v>0.333316</v>
+      </c>
+      <c r="G77">
+        <v>6.587652</v>
+      </c>
+      <c r="H77">
         <v>27.845484</v>
       </c>
-      <c r="G77">
+      <c r="I77">
         <v>18.36131</v>
       </c>
-      <c r="H77">
+      <c r="J77">
         <v>47.260513</v>
       </c>
-      <c r="I77">
+      <c r="K77">
         <v>157.543962</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:11">
       <c r="A78" s="1">
         <v>1900</v>
       </c>
@@ -3765,19 +4762,25 @@
         <v>1900</v>
       </c>
       <c r="F78">
+        <v>2.808292</v>
+      </c>
+      <c r="G78">
+        <v>7.149445</v>
+      </c>
+      <c r="H78">
         <v>31.158949</v>
       </c>
-      <c r="G78">
+      <c r="I78">
         <v>22.070597</v>
       </c>
-      <c r="H78">
+      <c r="J78">
         <v>52.040869</v>
       </c>
-      <c r="I78">
+      <c r="K78">
         <v>181.120958</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:11">
       <c r="A79" s="1">
         <v>1950</v>
       </c>
@@ -3791,19 +4794,25 @@
         <v>1950</v>
       </c>
       <c r="F79">
+        <v>3.173919</v>
+      </c>
+      <c r="G79">
+        <v>4.40313</v>
+      </c>
+      <c r="H79">
         <v>33.284847</v>
       </c>
-      <c r="G79">
+      <c r="I79">
         <v>21.882322</v>
       </c>
-      <c r="H79">
+      <c r="J79">
         <v>52.254215</v>
       </c>
-      <c r="I79">
+      <c r="K79">
         <v>177.238592</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:11">
       <c r="A80" s="1">
         <v>2000</v>
       </c>
@@ -3817,31 +4826,40 @@
         <v>2000</v>
       </c>
       <c r="F80">
+        <v>1.844088</v>
+      </c>
+      <c r="G80">
+        <v>2.986045</v>
+      </c>
+      <c r="H80">
         <v>41.335368</v>
       </c>
-      <c r="G80">
+      <c r="I80">
         <v>39.040208</v>
       </c>
-      <c r="H80">
+      <c r="J80">
         <v>74.110573</v>
       </c>
-      <c r="I80">
+      <c r="K80">
         <v>289.40461</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="14">
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F32:K32"/>
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
     <mergeCell ref="F35:G35"/>
     <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3850,71 +4868,81 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A32:I80"/>
+  <dimension ref="A32:K80"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C32" s="1"/>
       <c r="E32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C33" s="1"/>
       <c r="E33" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="J33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B34" s="1">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="C34" s="1"/>
       <c r="E34" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F34" s="1">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="J34" s="1">
+        <v>110</v>
+      </c>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
         <v>3</v>
       </c>
@@ -3933,8 +4961,12 @@
         <v>9</v>
       </c>
       <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="J35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
         <v>4</v>
       </c>
@@ -3959,8 +4991,14 @@
       <c r="I36" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="J36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
         <v>5</v>
       </c>
@@ -3973,8 +5011,10 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
         <v>6</v>
       </c>
@@ -3999,8 +5039,14 @@
       <c r="I38" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="J38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
         <v>7</v>
       </c>
@@ -4014,19 +5060,25 @@
         <v>7</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
         <v>15</v>
       </c>
@@ -4034,1059 +5086,1302 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:11">
       <c r="A41" s="1">
         <v>50</v>
       </c>
       <c r="B41">
-        <v>8.177883999999999</v>
+        <v>3.583228</v>
       </c>
       <c r="C41">
-        <v>9.045693</v>
+        <v>3.652575</v>
       </c>
       <c r="E41" s="1">
         <v>50</v>
       </c>
       <c r="F41">
-        <v>7.616954</v>
+        <v>3.032037</v>
       </c>
       <c r="G41">
-        <v>5.710516999999999</v>
+        <v>2.483493</v>
       </c>
       <c r="H41">
-        <v>6.225482</v>
+        <v>3.193106</v>
       </c>
       <c r="I41">
-        <v>5.75264</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>3.441093</v>
+      </c>
+      <c r="J41">
+        <v>2.633348</v>
+      </c>
+      <c r="K41">
+        <v>2.496391</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1">
         <v>100</v>
       </c>
       <c r="B42">
-        <v>20.278695</v>
+        <v>7.829267999999999</v>
       </c>
       <c r="C42">
-        <v>22.382377</v>
+        <v>8.008365</v>
       </c>
       <c r="E42" s="1">
         <v>100</v>
       </c>
       <c r="F42">
-        <v>19.067335</v>
+        <v>7.822211</v>
       </c>
       <c r="G42">
-        <v>15.128627</v>
+        <v>6.658963000000001</v>
       </c>
       <c r="H42">
-        <v>16.180265</v>
+        <v>8.177826</v>
       </c>
       <c r="I42">
-        <v>15.312774</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>8.791442</v>
+      </c>
+      <c r="J42">
+        <v>6.9884</v>
+      </c>
+      <c r="K42">
+        <v>6.728803999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1">
         <v>150</v>
       </c>
       <c r="B43">
-        <v>39.737107</v>
+        <v>11.139512</v>
       </c>
       <c r="C43">
-        <v>43.127152</v>
+        <v>11.465645</v>
       </c>
       <c r="E43" s="1">
         <v>150</v>
       </c>
       <c r="F43">
-        <v>38.400972</v>
+        <v>17.384717</v>
       </c>
       <c r="G43">
-        <v>35.180322</v>
+        <v>16.226204</v>
       </c>
       <c r="H43">
-        <v>35.728177</v>
+        <v>17.817365</v>
       </c>
       <c r="I43">
-        <v>35.688283</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>18.858437</v>
+      </c>
+      <c r="J43">
+        <v>16.544443</v>
+      </c>
+      <c r="K43">
+        <v>16.455814</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1">
         <v>200</v>
       </c>
       <c r="B44">
-        <v>11.191863</v>
+        <v>7.280465</v>
       </c>
       <c r="C44">
-        <v>13.987459</v>
+        <v>7.533410000000001</v>
       </c>
       <c r="E44" s="1">
         <v>200</v>
       </c>
       <c r="F44">
-        <v>10.533597</v>
+        <v>5.443902</v>
       </c>
       <c r="G44">
-        <v>12.461905</v>
+        <v>6.395862</v>
       </c>
       <c r="H44">
-        <v>11.132556</v>
+        <v>5.312112</v>
       </c>
       <c r="I44">
-        <v>12.581973</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>5.451698</v>
+      </c>
+      <c r="J44">
+        <v>6.07897</v>
+      </c>
+      <c r="K44">
+        <v>6.481036</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1">
         <v>250</v>
       </c>
       <c r="B45">
-        <v>19.981238</v>
+        <v>11.226001</v>
       </c>
       <c r="C45">
-        <v>26.031497</v>
+        <v>11.321255</v>
       </c>
       <c r="E45" s="1">
         <v>250</v>
       </c>
       <c r="F45">
-        <v>17.195813</v>
+        <v>5.591971</v>
       </c>
       <c r="G45">
-        <v>10.475897</v>
+        <v>4.496051</v>
       </c>
       <c r="H45">
-        <v>11.397066</v>
+        <v>6.178711</v>
       </c>
       <c r="I45">
-        <v>10.64086</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>7.758551</v>
+      </c>
+      <c r="J45">
+        <v>4.520197</v>
+      </c>
+      <c r="K45">
+        <v>4.547461</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1">
         <v>300</v>
       </c>
       <c r="B46">
-        <v>61.60369</v>
+        <v>17.322719</v>
       </c>
       <c r="C46">
-        <v>92.509884</v>
+        <v>18.560437</v>
       </c>
       <c r="E46" s="1">
         <v>300</v>
       </c>
       <c r="F46">
-        <v>54.93826600000001</v>
+        <v>15.992804</v>
       </c>
       <c r="G46">
-        <v>39.358243</v>
+        <v>12.156685</v>
       </c>
       <c r="H46">
-        <v>40.322492</v>
+        <v>17.784594</v>
       </c>
       <c r="I46">
-        <v>41.018539</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>26.559468</v>
+      </c>
+      <c r="J46">
+        <v>12.183847</v>
+      </c>
+      <c r="K46">
+        <v>12.652843</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1">
         <v>350</v>
       </c>
       <c r="B47">
-        <v>50.58106</v>
+        <v>14.762832</v>
       </c>
       <c r="C47">
-        <v>48.642613</v>
+        <v>13.468721</v>
       </c>
       <c r="E47" s="1">
         <v>350</v>
       </c>
       <c r="F47">
-        <v>43.483297</v>
+        <v>14.564876</v>
       </c>
       <c r="G47">
-        <v>17.03965</v>
+        <v>5.263637</v>
       </c>
       <c r="H47">
-        <v>28.154772</v>
+        <v>16.963109</v>
       </c>
       <c r="I47">
-        <v>17.669775</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>16.068373</v>
+      </c>
+      <c r="J47">
+        <v>9.273930999999999</v>
+      </c>
+      <c r="K47">
+        <v>5.476296</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1">
         <v>400</v>
       </c>
       <c r="B48">
-        <v>15.945852</v>
+        <v>19.519794</v>
       </c>
       <c r="C48">
-        <v>14.779789</v>
+        <v>19.748802</v>
       </c>
       <c r="E48" s="1">
         <v>400</v>
       </c>
       <c r="F48">
-        <v>13.571006</v>
+        <v>4.936188</v>
       </c>
       <c r="G48">
-        <v>4.619344</v>
+        <v>1.41646</v>
       </c>
       <c r="H48">
-        <v>7.803354</v>
+        <v>5.916066000000001</v>
       </c>
       <c r="I48">
-        <v>4.770729</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>5.358086</v>
+      </c>
+      <c r="J48">
+        <v>2.60227</v>
+      </c>
+      <c r="K48">
+        <v>1.468582</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1">
         <v>450</v>
       </c>
       <c r="B49">
-        <v>5.271320999999999</v>
+        <v>26.583023</v>
       </c>
       <c r="C49">
-        <v>5.362319</v>
+        <v>26.590373</v>
       </c>
       <c r="E49" s="1">
         <v>450</v>
       </c>
       <c r="F49">
-        <v>4.602694000000001</v>
+        <v>2.146044</v>
       </c>
       <c r="G49">
-        <v>2.058611</v>
+        <v>2.258988</v>
       </c>
       <c r="H49">
-        <v>2.996337</v>
+        <v>2.114082</v>
       </c>
       <c r="I49">
-        <v>2.125864</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>2.114898</v>
+      </c>
+      <c r="J49">
+        <v>2.246584</v>
+      </c>
+      <c r="K49">
+        <v>2.287283</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1">
         <v>500</v>
       </c>
       <c r="B50">
-        <v>20.280967</v>
+        <v>35.274408</v>
       </c>
       <c r="C50">
-        <v>21.668729</v>
+        <v>35.408799</v>
       </c>
       <c r="E50" s="1">
         <v>500</v>
       </c>
       <c r="F50">
-        <v>17.968659</v>
+        <v>8.565154</v>
       </c>
       <c r="G50">
-        <v>9.399245000000001</v>
+        <v>6.452026</v>
       </c>
       <c r="H50">
-        <v>12.45005</v>
+        <v>9.168005000000001</v>
       </c>
       <c r="I50">
-        <v>9.664922000000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>9.563288</v>
+      </c>
+      <c r="J50">
+        <v>7.215369</v>
+      </c>
+      <c r="K50">
+        <v>6.552224</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1">
         <v>550</v>
       </c>
       <c r="B51">
-        <v>47.958731</v>
+        <v>42.054772</v>
       </c>
       <c r="C51">
-        <v>55.583249</v>
+        <v>42.871323</v>
       </c>
       <c r="E51" s="1">
         <v>550</v>
       </c>
       <c r="F51">
-        <v>42.66742</v>
+        <v>21.402044</v>
       </c>
       <c r="G51">
-        <v>25.227782</v>
+        <v>15.642112</v>
       </c>
       <c r="H51">
-        <v>30.249508</v>
+        <v>23.167331</v>
       </c>
       <c r="I51">
-        <v>25.828186</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>25.837009</v>
+      </c>
+      <c r="J51">
+        <v>17.252217</v>
+      </c>
+      <c r="K51">
+        <v>15.873696</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1">
         <v>600</v>
       </c>
       <c r="B52">
-        <v>84.15586400000001</v>
+        <v>32.467953</v>
       </c>
       <c r="C52">
-        <v>114.355382</v>
+        <v>32.097028</v>
       </c>
       <c r="E52" s="1">
         <v>600</v>
       </c>
       <c r="F52">
-        <v>74.0312</v>
+        <v>29.932394</v>
       </c>
       <c r="G52">
-        <v>48.287295</v>
+        <v>24.774093</v>
       </c>
       <c r="H52">
-        <v>51.29153400000001</v>
+        <v>32.558476</v>
       </c>
       <c r="I52">
-        <v>49.376896</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>43.011688</v>
+      </c>
+      <c r="J52">
+        <v>24.610742</v>
+      </c>
+      <c r="K52">
+        <v>25.23328</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1">
         <v>650</v>
       </c>
       <c r="B53">
-        <v>72.093655</v>
+        <v>41.094577</v>
       </c>
       <c r="C53">
-        <v>73.006311</v>
+        <v>39.091474</v>
       </c>
       <c r="E53" s="1">
         <v>650</v>
       </c>
       <c r="F53">
-        <v>62.173136</v>
+        <v>19.932985</v>
       </c>
       <c r="G53">
-        <v>26.206891</v>
+        <v>14.688644</v>
       </c>
       <c r="H53">
-        <v>39.002327</v>
+        <v>22.317416</v>
       </c>
       <c r="I53">
-        <v>26.653504</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>24.874586</v>
+      </c>
+      <c r="J53">
+        <v>15.514909</v>
+      </c>
+      <c r="K53">
+        <v>14.813388</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1">
         <v>700</v>
       </c>
       <c r="B54">
-        <v>56.498202</v>
+        <v>38.048852</v>
       </c>
       <c r="C54">
-        <v>48.379344</v>
+        <v>39.278865</v>
       </c>
       <c r="E54" s="1">
         <v>700</v>
       </c>
       <c r="F54">
-        <v>48.62262800000001</v>
+        <v>23.561379</v>
       </c>
       <c r="G54">
-        <v>14.68128</v>
+        <v>9.186596</v>
       </c>
       <c r="H54">
-        <v>29.008036</v>
+        <v>26.941594</v>
       </c>
       <c r="I54">
-        <v>15.132953</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>23.611594</v>
+      </c>
+      <c r="J54">
+        <v>15.230878</v>
+      </c>
+      <c r="K54">
+        <v>9.402819000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1">
         <v>750</v>
       </c>
       <c r="B55">
-        <v>30.392696</v>
+        <v>60.828872</v>
       </c>
       <c r="C55">
-        <v>28.56503</v>
+        <v>61.74160799999999</v>
       </c>
       <c r="E55" s="1">
         <v>750</v>
       </c>
       <c r="F55">
-        <v>26.67355</v>
+        <v>17.213036</v>
       </c>
       <c r="G55">
-        <v>11.159158</v>
+        <v>6.775133</v>
       </c>
       <c r="H55">
-        <v>17.349716</v>
+        <v>19.750251</v>
       </c>
       <c r="I55">
-        <v>11.396176</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>18.466475</v>
+      </c>
+      <c r="J55">
+        <v>10.862991</v>
+      </c>
+      <c r="K55">
+        <v>6.953626</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1">
         <v>800</v>
       </c>
       <c r="B56">
-        <v>20.916946</v>
+        <v>75.731503</v>
       </c>
       <c r="C56">
-        <v>20.219609</v>
+        <v>76.052465</v>
       </c>
       <c r="E56" s="1">
         <v>800</v>
       </c>
       <c r="F56">
-        <v>18.55902</v>
+        <v>13.247001</v>
       </c>
       <c r="G56">
-        <v>8.583908000000001</v>
+        <v>6.800375</v>
       </c>
       <c r="H56">
-        <v>12.601856</v>
+        <v>14.76071</v>
       </c>
       <c r="I56">
-        <v>8.73502</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>14.29982</v>
+      </c>
+      <c r="J56">
+        <v>9.410761000000001</v>
+      </c>
+      <c r="K56">
+        <v>6.915427999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1">
         <v>850</v>
       </c>
       <c r="B57">
-        <v>14.206881</v>
+        <v>150.52167</v>
       </c>
       <c r="C57">
-        <v>13.987996</v>
+        <v>150.972995</v>
       </c>
       <c r="E57" s="1">
         <v>850</v>
       </c>
       <c r="F57">
-        <v>12.816734</v>
+        <v>17.300433</v>
       </c>
       <c r="G57">
-        <v>6.620744</v>
+        <v>9.654264999999999</v>
       </c>
       <c r="H57">
-        <v>9.275408000000001</v>
+        <v>19.021235</v>
       </c>
       <c r="I57">
-        <v>6.712081</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>18.771779</v>
+      </c>
+      <c r="J57">
+        <v>13.004591</v>
+      </c>
+      <c r="K57">
+        <v>9.841509</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1">
         <v>900</v>
       </c>
       <c r="B58">
-        <v>11.115701</v>
+        <v>89.25584000000001</v>
       </c>
       <c r="C58">
-        <v>11.029437</v>
+        <v>89.140619</v>
       </c>
       <c r="E58" s="1">
         <v>900</v>
       </c>
       <c r="F58">
-        <v>9.854863</v>
+        <v>6.336917</v>
       </c>
       <c r="G58">
-        <v>4.866738</v>
+        <v>6.62402</v>
       </c>
       <c r="H58">
-        <v>6.982161</v>
+        <v>8.297332000000001</v>
       </c>
       <c r="I58">
-        <v>4.91389</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>7.863971</v>
+      </c>
+      <c r="J58">
+        <v>3.763029</v>
+      </c>
+      <c r="K58">
+        <v>6.670174</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1">
         <v>950</v>
       </c>
       <c r="B59">
-        <v>7.424647999999999</v>
+        <v>181.551647</v>
       </c>
       <c r="C59">
-        <v>7.350207000000001</v>
+        <v>181.628186</v>
       </c>
       <c r="E59" s="1">
         <v>950</v>
       </c>
       <c r="F59">
-        <v>6.549277</v>
+        <v>9.163814</v>
       </c>
       <c r="G59">
-        <v>2.853438</v>
+        <v>6.816024000000001</v>
       </c>
       <c r="H59">
-        <v>4.267408000000001</v>
+        <v>9.776388000000001</v>
       </c>
       <c r="I59">
-        <v>2.866213</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>9.75671</v>
+      </c>
+      <c r="J59">
+        <v>7.932604</v>
+      </c>
+      <c r="K59">
+        <v>7.027077999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1">
         <v>1000</v>
       </c>
       <c r="B60">
-        <v>4.851747</v>
+        <v>339.289972</v>
       </c>
       <c r="C60">
-        <v>4.822805000000001</v>
+        <v>339.092917</v>
       </c>
       <c r="E60" s="1">
         <v>1000</v>
       </c>
       <c r="F60">
-        <v>4.261851</v>
+        <v>10.675495</v>
       </c>
       <c r="G60">
-        <v>1.759982</v>
+        <v>9.785569000000001</v>
       </c>
       <c r="H60">
-        <v>2.709729</v>
+        <v>11.1888</v>
       </c>
       <c r="I60">
-        <v>1.773787</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>11.124537</v>
+      </c>
+      <c r="J60">
+        <v>9.795697000000001</v>
+      </c>
+      <c r="K60">
+        <v>9.894357000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1">
         <v>1050</v>
       </c>
       <c r="B61">
-        <v>2.635696</v>
+        <v>173.387614</v>
       </c>
       <c r="C61">
-        <v>2.632109</v>
+        <v>173.385943</v>
       </c>
       <c r="E61" s="1">
         <v>1050</v>
       </c>
       <c r="F61">
-        <v>2.328484</v>
+        <v>3.49981</v>
       </c>
       <c r="G61">
-        <v>1.0527</v>
+        <v>6.175339</v>
       </c>
       <c r="H61">
-        <v>1.522669</v>
+        <v>2.923503</v>
       </c>
       <c r="I61">
-        <v>1.056658</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>2.920428</v>
+      </c>
+      <c r="J61">
+        <v>5.144007</v>
+      </c>
+      <c r="K61">
+        <v>6.167729</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1">
         <v>1100</v>
       </c>
       <c r="B62">
-        <v>1.699662</v>
+        <v>115.273193</v>
       </c>
       <c r="C62">
-        <v>1.701593</v>
+        <v>115.346927</v>
       </c>
       <c r="E62" s="1">
         <v>1100</v>
       </c>
       <c r="F62">
-        <v>1.500329</v>
+        <v>0.560128</v>
       </c>
       <c r="G62">
-        <v>0.6402369999999999</v>
+        <v>2.488208</v>
       </c>
       <c r="H62">
-        <v>0.9533450000000001</v>
+        <v>1.183216</v>
       </c>
       <c r="I62">
-        <v>0.636313</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>1.184645</v>
+      </c>
+      <c r="J62">
+        <v>1.473247</v>
+      </c>
+      <c r="K62">
+        <v>2.593152</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1">
         <v>1150</v>
       </c>
       <c r="B63">
-        <v>2.824301</v>
+        <v>86.05020999999999</v>
       </c>
       <c r="C63">
-        <v>2.828585</v>
+        <v>85.880589</v>
       </c>
       <c r="E63" s="1">
         <v>1150</v>
       </c>
       <c r="F63">
-        <v>2.619051</v>
+        <v>2.857702</v>
       </c>
       <c r="G63">
-        <v>1.655139</v>
+        <v>7.72602</v>
       </c>
       <c r="H63">
-        <v>2.028014</v>
+        <v>1.736223</v>
       </c>
       <c r="I63">
-        <v>1.634063</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>1.707228</v>
+      </c>
+      <c r="J63">
+        <v>5.577643</v>
+      </c>
+      <c r="K63">
+        <v>7.468408999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1">
         <v>1200</v>
       </c>
       <c r="B64">
-        <v>4.545652</v>
+        <v>77.775564</v>
       </c>
       <c r="C64">
-        <v>4.56283</v>
+        <v>78.56260999999999</v>
       </c>
       <c r="E64" s="1">
         <v>1200</v>
       </c>
       <c r="F64">
-        <v>4.112217</v>
+        <v>3.757037</v>
       </c>
       <c r="G64">
-        <v>2.171074</v>
+        <v>14.238688</v>
       </c>
       <c r="H64">
-        <v>2.845913</v>
+        <v>1.953787</v>
       </c>
       <c r="I64">
-        <v>2.129205</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>1.948396</v>
+      </c>
+      <c r="J64">
+        <v>10.025246</v>
+      </c>
+      <c r="K64">
+        <v>13.751151</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1">
         <v>1250</v>
       </c>
       <c r="B65">
-        <v>6.356386</v>
+        <v>69.021946</v>
       </c>
       <c r="C65">
-        <v>6.372303</v>
+        <v>68.79570699999999</v>
       </c>
       <c r="E65" s="1">
         <v>1250</v>
       </c>
       <c r="F65">
-        <v>5.892848000000001</v>
+        <v>0.8656739999999999</v>
       </c>
       <c r="G65">
-        <v>3.633344</v>
+        <v>6.776766</v>
       </c>
       <c r="H65">
-        <v>4.447322</v>
+        <v>1.889625</v>
       </c>
       <c r="I65">
-        <v>3.547209</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>1.968446</v>
+      </c>
+      <c r="J65">
+        <v>3.948523</v>
+      </c>
+      <c r="K65">
+        <v>6.523839</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1">
         <v>1300</v>
       </c>
       <c r="B66">
-        <v>8.107858999999999</v>
+        <v>55.794132</v>
       </c>
       <c r="C66">
-        <v>8.117355999999999</v>
+        <v>55.632276</v>
       </c>
       <c r="E66" s="1">
         <v>1300</v>
       </c>
       <c r="F66">
-        <v>7.630881</v>
+        <v>0.922168</v>
       </c>
       <c r="G66">
-        <v>5.077219</v>
+        <v>6.632109</v>
       </c>
       <c r="H66">
-        <v>6.08536</v>
+        <v>2.021508</v>
       </c>
       <c r="I66">
-        <v>4.934837</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>2.114366</v>
+      </c>
+      <c r="J66">
+        <v>3.491494</v>
+      </c>
+      <c r="K66">
+        <v>6.405912</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1">
         <v>1350</v>
       </c>
       <c r="B67">
-        <v>9.812360999999999</v>
+        <v>53.36069699999999</v>
       </c>
       <c r="C67">
-        <v>9.829367999999999</v>
+        <v>53.326257</v>
       </c>
       <c r="E67" s="1">
         <v>1350</v>
       </c>
       <c r="F67">
-        <v>9.206704999999999</v>
+        <v>3.56241</v>
       </c>
       <c r="G67">
-        <v>5.890652999999999</v>
+        <v>6.434983</v>
       </c>
       <c r="H67">
-        <v>7.176842</v>
+        <v>2.926635</v>
       </c>
       <c r="I67">
-        <v>5.699039</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>2.870811</v>
+      </c>
+      <c r="J67">
+        <v>4.966012999999999</v>
+      </c>
+      <c r="K67">
+        <v>6.200222</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1">
         <v>1400</v>
       </c>
       <c r="B68">
-        <v>11.401085</v>
+        <v>46.611806</v>
       </c>
       <c r="C68">
-        <v>11.439799</v>
+        <v>46.640744</v>
       </c>
       <c r="E68" s="1">
         <v>1400</v>
       </c>
       <c r="F68">
-        <v>10.459271</v>
+        <v>2.681136</v>
       </c>
       <c r="G68">
-        <v>5.992871</v>
+        <v>3.571881</v>
       </c>
       <c r="H68">
-        <v>8.157719999999999</v>
+        <v>2.608833</v>
       </c>
       <c r="I68">
-        <v>5.76355</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>2.568854</v>
+      </c>
+      <c r="J68">
+        <v>3.355349</v>
+      </c>
+      <c r="K68">
+        <v>3.419324</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1">
         <v>1450</v>
       </c>
       <c r="B69">
-        <v>13.124544</v>
+        <v>40.566109</v>
       </c>
       <c r="C69">
-        <v>13.236114</v>
+        <v>40.568391</v>
       </c>
       <c r="E69" s="1">
         <v>1450</v>
       </c>
       <c r="F69">
-        <v>11.858408</v>
+        <v>2.471844</v>
       </c>
       <c r="G69">
-        <v>5.967439</v>
+        <v>2.387076</v>
       </c>
       <c r="H69">
-        <v>7.855964</v>
+        <v>2.532491</v>
       </c>
       <c r="I69">
-        <v>5.721258</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>2.532529</v>
+      </c>
+      <c r="J69">
+        <v>2.269589</v>
+      </c>
+      <c r="K69">
+        <v>2.252751</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1">
         <v>1500</v>
       </c>
       <c r="B70">
-        <v>14.995382</v>
+        <v>36.807175</v>
       </c>
       <c r="C70">
-        <v>15.028586</v>
+        <v>36.8256</v>
       </c>
       <c r="E70" s="1">
         <v>1500</v>
       </c>
       <c r="F70">
-        <v>13.981019</v>
+        <v>2.292549</v>
       </c>
       <c r="G70">
-        <v>8.461114</v>
+        <v>3.614172</v>
       </c>
       <c r="H70">
-        <v>10.487143</v>
+        <v>2.418047</v>
       </c>
       <c r="I70">
-        <v>8.051691</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>2.413665</v>
+      </c>
+      <c r="J70">
+        <v>2.80833</v>
+      </c>
+      <c r="K70">
+        <v>3.407302</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1">
         <v>1550</v>
       </c>
       <c r="B71">
-        <v>16.966586</v>
+        <v>32.937537</v>
       </c>
       <c r="C71">
-        <v>16.957717</v>
+        <v>32.93985</v>
       </c>
       <c r="E71" s="1">
         <v>1550</v>
       </c>
       <c r="F71">
-        <v>16.063651</v>
+        <v>2.233015</v>
       </c>
       <c r="G71">
-        <v>10.683245</v>
+        <v>1.973316</v>
       </c>
       <c r="H71">
-        <v>12.432926</v>
+        <v>2.368704</v>
       </c>
       <c r="I71">
-        <v>10.12111</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>2.365181</v>
+      </c>
+      <c r="J71">
+        <v>1.938237</v>
+      </c>
+      <c r="K71">
+        <v>1.892551</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1">
         <v>1600</v>
       </c>
       <c r="B72">
-        <v>19.137967</v>
+        <v>29.839638</v>
       </c>
       <c r="C72">
-        <v>19.001217</v>
+        <v>29.812636</v>
       </c>
       <c r="E72" s="1">
         <v>1600</v>
       </c>
       <c r="F72">
-        <v>18.686173</v>
+        <v>1.563377</v>
       </c>
       <c r="G72">
-        <v>14.745049</v>
+        <v>1.888898</v>
       </c>
       <c r="H72">
-        <v>15.869377</v>
+        <v>2.092302</v>
       </c>
       <c r="I72">
-        <v>13.850725</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>2.130713</v>
+      </c>
+      <c r="J72">
+        <v>0.48611</v>
+      </c>
+      <c r="K72">
+        <v>1.68352</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1">
         <v>1650</v>
       </c>
       <c r="B73">
-        <v>21.088136</v>
+        <v>28.691137</v>
       </c>
       <c r="C73">
-        <v>20.812118</v>
+        <v>28.70084</v>
       </c>
       <c r="E73" s="1">
         <v>1650</v>
       </c>
       <c r="F73">
-        <v>20.745468</v>
+        <v>2.666182</v>
       </c>
       <c r="G73">
-        <v>16.839499</v>
+        <v>3.268919</v>
       </c>
       <c r="H73">
-        <v>18.25067</v>
+        <v>2.535165</v>
       </c>
       <c r="I73">
-        <v>15.761333</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>2.473144</v>
+      </c>
+      <c r="J73">
+        <v>2.762243</v>
+      </c>
+      <c r="K73">
+        <v>2.981101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1">
         <v>1700</v>
       </c>
       <c r="B74">
-        <v>23.105796</v>
+        <v>27.035308</v>
       </c>
       <c r="C74">
-        <v>22.136611</v>
+        <v>27.175164</v>
       </c>
       <c r="E74" s="1">
         <v>1700</v>
       </c>
       <c r="F74">
-        <v>23.320198</v>
+        <v>3.403757</v>
       </c>
       <c r="G74">
-        <v>20.020791</v>
+        <v>8.045511999999999</v>
       </c>
       <c r="H74">
-        <v>24.028737</v>
+        <v>2.606655</v>
       </c>
       <c r="I74">
-        <v>18.548087</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>2.181452</v>
+      </c>
+      <c r="J74">
+        <v>6.173961</v>
+      </c>
+      <c r="K74">
+        <v>7.446447</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1">
         <v>1750</v>
       </c>
       <c r="B75">
-        <v>23.747504</v>
+        <v>24.875474</v>
       </c>
       <c r="C75">
-        <v>24.081461</v>
+        <v>24.820439</v>
       </c>
       <c r="E75" s="1">
         <v>1750</v>
       </c>
       <c r="F75">
-        <v>21.183311</v>
+        <v>0.9753059999999999</v>
       </c>
       <c r="G75">
-        <v>10.14749</v>
+        <v>2.490465</v>
       </c>
       <c r="H75">
-        <v>13.620692</v>
+        <v>1.817551</v>
       </c>
       <c r="I75">
-        <v>9.358292</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>1.99797</v>
+      </c>
+      <c r="J75">
+        <v>1.495956</v>
+      </c>
+      <c r="K75">
+        <v>2.327818</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1">
         <v>1800</v>
       </c>
       <c r="B76">
-        <v>26.827764</v>
+        <v>23.149733</v>
       </c>
       <c r="C76">
-        <v>26.731787</v>
+        <v>23.124739</v>
       </c>
       <c r="E76" s="1">
         <v>1800</v>
       </c>
       <c r="F76">
-        <v>25.267385</v>
+        <v>1.466334</v>
       </c>
       <c r="G76">
-        <v>15.828087</v>
+        <v>2.077316</v>
       </c>
       <c r="H76">
-        <v>18.788736</v>
+        <v>1.969132</v>
       </c>
       <c r="I76">
-        <v>14.470092</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>2.02444</v>
+      </c>
+      <c r="J76">
+        <v>1.275982</v>
+      </c>
+      <c r="K76">
+        <v>1.936215</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1">
         <v>1850</v>
       </c>
       <c r="B77">
-        <v>29.318155</v>
+        <v>22.103807</v>
       </c>
       <c r="C77">
-        <v>29.0464</v>
+        <v>21.964177</v>
       </c>
       <c r="E77" s="1">
         <v>1850</v>
       </c>
       <c r="F77">
-        <v>27.845484</v>
+        <v>0.333316</v>
       </c>
       <c r="G77">
-        <v>18.36131</v>
+        <v>6.587652</v>
       </c>
       <c r="H77">
-        <v>21.638178</v>
+        <v>1.312857</v>
       </c>
       <c r="I77">
-        <v>16.689807</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>1.626145</v>
+      </c>
+      <c r="J77">
+        <v>3.701392</v>
+      </c>
+      <c r="K77">
+        <v>6.024259</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1">
         <v>1900</v>
       </c>
       <c r="B78">
-        <v>32.293503</v>
+        <v>20.417299</v>
       </c>
       <c r="C78">
-        <v>31.854199</v>
+        <v>20.489453</v>
       </c>
       <c r="E78" s="1">
         <v>1900</v>
       </c>
       <c r="F78">
-        <v>31.158949</v>
+        <v>2.808292</v>
       </c>
       <c r="G78">
-        <v>22.070597</v>
+        <v>7.149445</v>
       </c>
       <c r="H78">
-        <v>24.484654</v>
+        <v>2.447093</v>
       </c>
       <c r="I78">
-        <v>19.86222</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>2.513833</v>
+      </c>
+      <c r="J78">
+        <v>4.303453</v>
+      </c>
+      <c r="K78">
+        <v>6.391245</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1">
         <v>1950</v>
       </c>
       <c r="B79">
-        <v>34.815922</v>
+        <v>19.960267</v>
       </c>
       <c r="C79">
-        <v>34.451729</v>
+        <v>19.959667</v>
       </c>
       <c r="E79" s="1">
         <v>1950</v>
       </c>
       <c r="F79">
-        <v>33.284847</v>
+        <v>3.173919</v>
       </c>
       <c r="G79">
-        <v>21.882322</v>
+        <v>4.40313</v>
       </c>
       <c r="H79">
-        <v>25.089215</v>
+        <v>2.837223</v>
       </c>
       <c r="I79">
-        <v>19.740229</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>2.726997</v>
+      </c>
+      <c r="J79">
+        <v>3.419316</v>
+      </c>
+      <c r="K79">
+        <v>3.850047</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1">
         <v>2000</v>
       </c>
       <c r="B80">
-        <v>40.514823</v>
+        <v>20.168576</v>
       </c>
       <c r="C80">
-        <v>39.333604</v>
+        <v>20.129558</v>
       </c>
       <c r="E80" s="1">
         <v>2000</v>
       </c>
       <c r="F80">
-        <v>41.335368</v>
+        <v>1.844088</v>
       </c>
       <c r="G80">
-        <v>39.040208</v>
+        <v>2.986045</v>
       </c>
       <c r="H80">
-        <v>37.060108</v>
+        <v>2.268769</v>
       </c>
       <c r="I80">
-        <v>34.902481</v>
+        <v>2.284618</v>
+      </c>
+      <c r="J80">
+        <v>1.107591</v>
+      </c>
+      <c r="K80">
+        <v>2.771621</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="14">
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F32:K32"/>
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
     <mergeCell ref="F35:G35"/>
     <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5095,51 +6390,57 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A32:I80"/>
+  <dimension ref="A32:K80"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C32" s="1"/>
       <c r="E32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C33" s="1"/>
       <c r="E33" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="J33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
         <v>2</v>
       </c>
@@ -5158,8 +6459,12 @@
         <v>220</v>
       </c>
       <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="J34" s="1">
+        <v>220</v>
+      </c>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
         <v>3</v>
       </c>
@@ -5178,8 +6483,12 @@
         <v>9</v>
       </c>
       <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="J35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
         <v>4</v>
       </c>
@@ -5204,8 +6513,14 @@
       <c r="I36" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="J36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
         <v>5</v>
       </c>
@@ -5218,8 +6533,10 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
         <v>6</v>
       </c>
@@ -5244,8 +6561,14 @@
       <c r="I38" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="J38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
         <v>7</v>
       </c>
@@ -5259,19 +6582,25 @@
         <v>7</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
         <v>15</v>
       </c>
@@ -5279,1059 +6608,2824 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:11">
       <c r="A41" s="1">
         <v>50</v>
       </c>
       <c r="B41">
-        <v>7.367824000000001</v>
+        <v>8.177883999999999</v>
       </c>
       <c r="C41">
-        <v>7.613001</v>
+        <v>9.045693</v>
       </c>
       <c r="E41" s="1">
         <v>50</v>
       </c>
       <c r="F41">
-        <v>6.526167</v>
+        <v>7.616954</v>
       </c>
       <c r="G41">
-        <v>7.538771000000001</v>
+        <v>5.710516999999999</v>
       </c>
       <c r="H41">
+        <v>3.193106</v>
+      </c>
+      <c r="I41">
+        <v>3.441093</v>
+      </c>
+      <c r="J41">
         <v>6.225482</v>
       </c>
-      <c r="I41">
+      <c r="K41">
         <v>5.75264</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:11">
       <c r="A42" s="1">
         <v>100</v>
       </c>
       <c r="B42">
-        <v>18.152296</v>
+        <v>20.278695</v>
       </c>
       <c r="C42">
-        <v>18.47319</v>
+        <v>22.382377</v>
       </c>
       <c r="E42" s="1">
         <v>100</v>
       </c>
       <c r="F42">
-        <v>16.661733</v>
+        <v>19.067335</v>
       </c>
       <c r="G42">
-        <v>18.210473</v>
+        <v>15.128627</v>
       </c>
       <c r="H42">
+        <v>8.177826</v>
+      </c>
+      <c r="I42">
+        <v>8.791442</v>
+      </c>
+      <c r="J42">
         <v>16.180265</v>
       </c>
-      <c r="I42">
+      <c r="K42">
         <v>15.312774</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:11">
       <c r="A43" s="1">
         <v>150</v>
       </c>
       <c r="B43">
-        <v>35.189236</v>
+        <v>39.737107</v>
       </c>
       <c r="C43">
-        <v>34.397425</v>
+        <v>43.127152</v>
       </c>
       <c r="E43" s="1">
         <v>150</v>
       </c>
       <c r="F43">
-        <v>35.385651</v>
+        <v>38.400972</v>
       </c>
       <c r="G43">
-        <v>33.867124</v>
+        <v>35.180322</v>
       </c>
       <c r="H43">
+        <v>17.817365</v>
+      </c>
+      <c r="I43">
+        <v>18.858437</v>
+      </c>
+      <c r="J43">
         <v>35.728177</v>
       </c>
-      <c r="I43">
+      <c r="K43">
         <v>35.688283</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:11">
       <c r="A44" s="1">
         <v>200</v>
       </c>
       <c r="B44">
-        <v>8.612144000000001</v>
+        <v>11.191863</v>
       </c>
       <c r="C44">
-        <v>8.082808</v>
+        <v>13.987459</v>
       </c>
       <c r="E44" s="1">
         <v>200</v>
       </c>
       <c r="F44">
-        <v>10.162542</v>
+        <v>10.533597</v>
       </c>
       <c r="G44">
-        <v>7.917559</v>
+        <v>12.461905</v>
       </c>
       <c r="H44">
+        <v>5.312112</v>
+      </c>
+      <c r="I44">
+        <v>5.451698</v>
+      </c>
+      <c r="J44">
         <v>11.132556</v>
       </c>
-      <c r="I44">
+      <c r="K44">
         <v>12.581973</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:11">
       <c r="A45" s="1">
         <v>250</v>
       </c>
       <c r="B45">
-        <v>12.866213</v>
+        <v>19.981238</v>
       </c>
       <c r="C45">
-        <v>13.479752</v>
+        <v>26.031497</v>
       </c>
       <c r="E45" s="1">
         <v>250</v>
       </c>
       <c r="F45">
-        <v>11.20732</v>
+        <v>17.195813</v>
       </c>
       <c r="G45">
-        <v>12.928409</v>
+        <v>10.475897</v>
       </c>
       <c r="H45">
+        <v>6.178711</v>
+      </c>
+      <c r="I45">
+        <v>7.758551</v>
+      </c>
+      <c r="J45">
         <v>11.397066</v>
       </c>
-      <c r="I45">
+      <c r="K45">
         <v>10.64086</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:11">
       <c r="A46" s="1">
         <v>300</v>
       </c>
       <c r="B46">
-        <v>36.809568</v>
+        <v>61.60369</v>
       </c>
       <c r="C46">
-        <v>32.932754</v>
+        <v>92.509884</v>
       </c>
       <c r="E46" s="1">
         <v>300</v>
       </c>
       <c r="F46">
-        <v>38.797862</v>
+        <v>54.93826600000001</v>
       </c>
       <c r="G46">
-        <v>31.664034</v>
+        <v>39.358243</v>
       </c>
       <c r="H46">
+        <v>17.784594</v>
+      </c>
+      <c r="I46">
+        <v>26.559468</v>
+      </c>
+      <c r="J46">
         <v>40.322492</v>
       </c>
-      <c r="I46">
+      <c r="K46">
         <v>41.018539</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:11">
       <c r="A47" s="1">
         <v>350</v>
       </c>
       <c r="B47">
-        <v>9.414451</v>
+        <v>50.58106</v>
       </c>
       <c r="C47">
-        <v>13.590424</v>
+        <v>48.642613</v>
       </c>
       <c r="E47" s="1">
         <v>350</v>
       </c>
       <c r="F47">
-        <v>22.014847</v>
+        <v>43.483297</v>
       </c>
       <c r="G47">
-        <v>13.155294</v>
+        <v>17.03965</v>
       </c>
       <c r="H47">
+        <v>16.963109</v>
+      </c>
+      <c r="I47">
+        <v>16.068373</v>
+      </c>
+      <c r="J47">
         <v>28.154772</v>
       </c>
-      <c r="I47">
+      <c r="K47">
         <v>17.669775</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:11">
       <c r="A48" s="1">
         <v>400</v>
       </c>
       <c r="B48">
-        <v>11.467956</v>
+        <v>15.945852</v>
       </c>
       <c r="C48">
-        <v>17.902071</v>
+        <v>14.779789</v>
       </c>
       <c r="E48" s="1">
         <v>400</v>
       </c>
       <c r="F48">
-        <v>3.593918</v>
+        <v>13.571006</v>
       </c>
       <c r="G48">
-        <v>17.361006</v>
+        <v>4.619344</v>
       </c>
       <c r="H48">
+        <v>5.916066000000001</v>
+      </c>
+      <c r="I48">
+        <v>5.358086</v>
+      </c>
+      <c r="J48">
         <v>7.803354</v>
       </c>
-      <c r="I48">
+      <c r="K48">
         <v>4.770729</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:11">
       <c r="A49" s="1">
         <v>450</v>
       </c>
       <c r="B49">
-        <v>20.23629</v>
+        <v>5.271320999999999</v>
       </c>
       <c r="C49">
-        <v>26.764243</v>
+        <v>5.362319</v>
       </c>
       <c r="E49" s="1">
         <v>450</v>
       </c>
       <c r="F49">
-        <v>7.206778999999999</v>
+        <v>4.602694000000001</v>
       </c>
       <c r="G49">
-        <v>25.948198</v>
+        <v>2.058611</v>
       </c>
       <c r="H49">
+        <v>2.114082</v>
+      </c>
+      <c r="I49">
+        <v>2.114898</v>
+      </c>
+      <c r="J49">
         <v>2.996337</v>
       </c>
-      <c r="I49">
+      <c r="K49">
         <v>2.125864</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:11">
       <c r="A50" s="1">
         <v>500</v>
       </c>
       <c r="B50">
-        <v>29.713243</v>
+        <v>20.280967</v>
       </c>
       <c r="C50">
-        <v>35.549476</v>
+        <v>21.668729</v>
       </c>
       <c r="E50" s="1">
         <v>500</v>
       </c>
       <c r="F50">
-        <v>17.009994</v>
+        <v>17.968659</v>
       </c>
       <c r="G50">
-        <v>34.533328</v>
+        <v>9.399245000000001</v>
       </c>
       <c r="H50">
+        <v>9.168005000000001</v>
+      </c>
+      <c r="I50">
+        <v>9.563288</v>
+      </c>
+      <c r="J50">
         <v>12.45005</v>
       </c>
-      <c r="I50">
+      <c r="K50">
         <v>9.664922000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:11">
       <c r="A51" s="1">
         <v>550</v>
       </c>
       <c r="B51">
-        <v>40.881482</v>
+        <v>47.958731</v>
       </c>
       <c r="C51">
-        <v>43.081693</v>
+        <v>55.583249</v>
       </c>
       <c r="E51" s="1">
         <v>550</v>
       </c>
       <c r="F51">
-        <v>32.815845</v>
+        <v>42.66742</v>
       </c>
       <c r="G51">
-        <v>42.029403</v>
+        <v>25.227782</v>
       </c>
       <c r="H51">
+        <v>23.167331</v>
+      </c>
+      <c r="I51">
+        <v>25.837009</v>
+      </c>
+      <c r="J51">
         <v>30.249508</v>
       </c>
-      <c r="I51">
+      <c r="K51">
         <v>25.828186</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:11">
       <c r="A52" s="1">
         <v>600</v>
       </c>
       <c r="B52">
-        <v>40.998227</v>
+        <v>84.15586400000001</v>
       </c>
       <c r="C52">
-        <v>34.367026</v>
+        <v>114.355382</v>
       </c>
       <c r="E52" s="1">
         <v>600</v>
       </c>
       <c r="F52">
-        <v>47.45081500000001</v>
+        <v>74.0312</v>
       </c>
       <c r="G52">
-        <v>33.51667</v>
+        <v>48.287295</v>
       </c>
       <c r="H52">
+        <v>32.558476</v>
+      </c>
+      <c r="I52">
+        <v>43.011688</v>
+      </c>
+      <c r="J52">
         <v>51.29153400000001</v>
       </c>
-      <c r="I52">
+      <c r="K52">
         <v>49.376896</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:11">
       <c r="A53" s="1">
         <v>650</v>
       </c>
       <c r="B53">
-        <v>16.848503</v>
+        <v>72.093655</v>
       </c>
       <c r="C53">
-        <v>27.739542</v>
+        <v>73.006311</v>
       </c>
       <c r="E53" s="1">
         <v>650</v>
       </c>
       <c r="F53">
-        <v>29.653277</v>
+        <v>62.173136</v>
       </c>
       <c r="G53">
-        <v>27.125488</v>
+        <v>26.206891</v>
       </c>
       <c r="H53">
+        <v>22.317416</v>
+      </c>
+      <c r="I53">
+        <v>24.874586</v>
+      </c>
+      <c r="J53">
         <v>39.002327</v>
       </c>
-      <c r="I53">
+      <c r="K53">
         <v>26.653504</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:11">
       <c r="A54" s="1">
         <v>700</v>
       </c>
       <c r="B54">
-        <v>17.548311</v>
+        <v>56.498202</v>
       </c>
       <c r="C54">
-        <v>38.126596</v>
+        <v>48.379344</v>
       </c>
       <c r="E54" s="1">
         <v>700</v>
       </c>
       <c r="F54">
-        <v>17.532101</v>
+        <v>48.62262800000001</v>
       </c>
       <c r="G54">
-        <v>37.411601</v>
+        <v>14.68128</v>
       </c>
       <c r="H54">
+        <v>26.941594</v>
+      </c>
+      <c r="I54">
+        <v>23.611594</v>
+      </c>
+      <c r="J54">
         <v>29.008036</v>
       </c>
-      <c r="I54">
+      <c r="K54">
         <v>15.132953</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:11">
       <c r="A55" s="1">
         <v>750</v>
       </c>
       <c r="B55">
-        <v>22.565267</v>
+        <v>30.392696</v>
       </c>
       <c r="C55">
-        <v>39.691474</v>
+        <v>28.56503</v>
       </c>
       <c r="E55" s="1">
         <v>750</v>
       </c>
       <c r="F55">
-        <v>7.461583</v>
+        <v>26.67355</v>
       </c>
       <c r="G55">
-        <v>38.970165</v>
+        <v>11.159158</v>
       </c>
       <c r="H55">
+        <v>19.750251</v>
+      </c>
+      <c r="I55">
+        <v>18.466475</v>
+      </c>
+      <c r="J55">
         <v>17.349716</v>
       </c>
-      <c r="I55">
+      <c r="K55">
         <v>11.396176</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:11">
       <c r="A56" s="1">
         <v>800</v>
       </c>
       <c r="B56">
-        <v>28.099499</v>
+        <v>20.916946</v>
       </c>
       <c r="C56">
-        <v>46.252948</v>
+        <v>20.219609</v>
       </c>
       <c r="E56" s="1">
         <v>800</v>
       </c>
       <c r="F56">
-        <v>2.462679</v>
+        <v>18.55902</v>
       </c>
       <c r="G56">
-        <v>45.469017</v>
+        <v>8.583908000000001</v>
       </c>
       <c r="H56">
+        <v>14.76071</v>
+      </c>
+      <c r="I56">
+        <v>14.29982</v>
+      </c>
+      <c r="J56">
         <v>12.601856</v>
       </c>
-      <c r="I56">
+      <c r="K56">
         <v>8.73502</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:11">
       <c r="A57" s="1">
         <v>850</v>
       </c>
       <c r="B57">
-        <v>35.565362</v>
+        <v>14.206881</v>
       </c>
       <c r="C57">
-        <v>57.556987</v>
+        <v>13.987996</v>
       </c>
       <c r="E57" s="1">
         <v>850</v>
       </c>
       <c r="F57">
-        <v>4.094957</v>
+        <v>12.816734</v>
       </c>
       <c r="G57">
-        <v>56.81973000000001</v>
+        <v>6.620744</v>
       </c>
       <c r="H57">
+        <v>19.021235</v>
+      </c>
+      <c r="I57">
+        <v>18.771779</v>
+      </c>
+      <c r="J57">
         <v>9.275408000000001</v>
       </c>
-      <c r="I57">
+      <c r="K57">
         <v>6.712081</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:11">
       <c r="A58" s="1">
         <v>900</v>
       </c>
       <c r="B58">
-        <v>37.450872</v>
+        <v>11.115701</v>
       </c>
       <c r="C58">
-        <v>56.36849300000001</v>
+        <v>11.029437</v>
       </c>
       <c r="E58" s="1">
         <v>900</v>
       </c>
       <c r="F58">
-        <v>5.627946</v>
+        <v>9.854863</v>
       </c>
       <c r="G58">
-        <v>55.90490699999999</v>
+        <v>4.866738</v>
       </c>
       <c r="H58">
+        <v>8.297332000000001</v>
+      </c>
+      <c r="I58">
+        <v>7.863971</v>
+      </c>
+      <c r="J58">
         <v>6.982161</v>
       </c>
-      <c r="I58">
+      <c r="K58">
         <v>4.91389</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:11">
       <c r="A59" s="1">
         <v>950</v>
       </c>
       <c r="B59">
-        <v>39.8016</v>
+        <v>7.424647999999999</v>
       </c>
       <c r="C59">
-        <v>58.295152</v>
+        <v>7.350207000000001</v>
       </c>
       <c r="E59" s="1">
         <v>950</v>
       </c>
       <c r="F59">
-        <v>8.335001</v>
+        <v>6.549277</v>
       </c>
       <c r="G59">
-        <v>58.05771899999999</v>
+        <v>2.853438</v>
       </c>
       <c r="H59">
+        <v>9.776388000000001</v>
+      </c>
+      <c r="I59">
+        <v>9.75671</v>
+      </c>
+      <c r="J59">
         <v>4.267408000000001</v>
       </c>
-      <c r="I59">
+      <c r="K59">
         <v>2.866213</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:11">
       <c r="A60" s="1">
         <v>1000</v>
       </c>
       <c r="B60">
-        <v>42.74782800000001</v>
+        <v>4.851747</v>
       </c>
       <c r="C60">
-        <v>61.503086</v>
+        <v>4.822805000000001</v>
       </c>
       <c r="E60" s="1">
         <v>1000</v>
       </c>
       <c r="F60">
-        <v>10.366053</v>
+        <v>4.261851</v>
       </c>
       <c r="G60">
-        <v>61.480769</v>
+        <v>1.759982</v>
       </c>
       <c r="H60">
+        <v>11.1888</v>
+      </c>
+      <c r="I60">
+        <v>11.124537</v>
+      </c>
+      <c r="J60">
         <v>2.709729</v>
       </c>
-      <c r="I60">
+      <c r="K60">
         <v>1.773787</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:11">
       <c r="A61" s="1">
         <v>1050</v>
       </c>
       <c r="B61">
-        <v>43.770332</v>
+        <v>2.635696</v>
       </c>
       <c r="C61">
-        <v>60.319662</v>
+        <v>2.632109</v>
       </c>
       <c r="E61" s="1">
         <v>1050</v>
       </c>
       <c r="F61">
-        <v>11.619127</v>
+        <v>2.328484</v>
       </c>
       <c r="G61">
-        <v>60.466624</v>
+        <v>1.0527</v>
       </c>
       <c r="H61">
+        <v>2.923503</v>
+      </c>
+      <c r="I61">
+        <v>2.920428</v>
+      </c>
+      <c r="J61">
         <v>1.522669</v>
       </c>
-      <c r="I61">
+      <c r="K61">
         <v>1.056658</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:11">
       <c r="A62" s="1">
         <v>1100</v>
       </c>
       <c r="B62">
-        <v>48.256409</v>
+        <v>1.699662</v>
       </c>
       <c r="C62">
-        <v>68.25407299999999</v>
+        <v>1.701593</v>
       </c>
       <c r="E62" s="1">
         <v>1100</v>
       </c>
       <c r="F62">
-        <v>13.786169</v>
+        <v>1.500329</v>
       </c>
       <c r="G62">
-        <v>68.71561</v>
+        <v>0.6402369999999999</v>
       </c>
       <c r="H62">
+        <v>1.183216</v>
+      </c>
+      <c r="I62">
+        <v>1.184645</v>
+      </c>
+      <c r="J62">
         <v>0.9533450000000001</v>
       </c>
-      <c r="I62">
+      <c r="K62">
         <v>0.636313</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:11">
       <c r="A63" s="1">
         <v>1150</v>
       </c>
       <c r="B63">
-        <v>54.163716</v>
+        <v>2.824301</v>
       </c>
       <c r="C63">
-        <v>75.94569200000001</v>
+        <v>2.828585</v>
       </c>
       <c r="E63" s="1">
         <v>1150</v>
       </c>
       <c r="F63">
-        <v>16.603015</v>
+        <v>2.619051</v>
       </c>
       <c r="G63">
-        <v>76.915499</v>
+        <v>1.655139</v>
       </c>
       <c r="H63">
+        <v>1.736223</v>
+      </c>
+      <c r="I63">
+        <v>1.707228</v>
+      </c>
+      <c r="J63">
         <v>2.028014</v>
       </c>
-      <c r="I63">
+      <c r="K63">
         <v>1.634063</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:11">
       <c r="A64" s="1">
         <v>1200</v>
       </c>
       <c r="B64">
-        <v>54.35412700000001</v>
+        <v>4.545652</v>
       </c>
       <c r="C64">
-        <v>75.99045100000001</v>
+        <v>4.56283</v>
       </c>
       <c r="E64" s="1">
         <v>1200</v>
       </c>
       <c r="F64">
-        <v>17.447826</v>
+        <v>4.112217</v>
       </c>
       <c r="G64">
-        <v>77.42549699999999</v>
+        <v>2.171074</v>
       </c>
       <c r="H64">
+        <v>1.953787</v>
+      </c>
+      <c r="I64">
+        <v>1.948396</v>
+      </c>
+      <c r="J64">
         <v>2.845913</v>
       </c>
-      <c r="I64">
+      <c r="K64">
         <v>2.129205</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:11">
       <c r="A65" s="1">
         <v>1250</v>
       </c>
       <c r="B65">
-        <v>62.650786</v>
+        <v>6.356386</v>
       </c>
       <c r="C65">
-        <v>90.93864000000001</v>
+        <v>6.372303</v>
       </c>
       <c r="E65" s="1">
         <v>1250</v>
       </c>
       <c r="F65">
-        <v>21.003162</v>
+        <v>5.892848000000001</v>
       </c>
       <c r="G65">
-        <v>93.004475</v>
+        <v>3.633344</v>
       </c>
       <c r="H65">
+        <v>1.889625</v>
+      </c>
+      <c r="I65">
+        <v>1.968446</v>
+      </c>
+      <c r="J65">
         <v>4.447322</v>
       </c>
-      <c r="I65">
+      <c r="K65">
         <v>3.547209</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:11">
       <c r="A66" s="1">
         <v>1300</v>
       </c>
       <c r="B66">
-        <v>72.607091</v>
+        <v>8.107858999999999</v>
       </c>
       <c r="C66">
-        <v>109.338026</v>
+        <v>8.117355999999999</v>
       </c>
       <c r="E66" s="1">
         <v>1300</v>
       </c>
       <c r="F66">
-        <v>25.122854</v>
+        <v>7.630881</v>
       </c>
       <c r="G66">
-        <v>112.468556</v>
+        <v>5.077219</v>
       </c>
       <c r="H66">
+        <v>2.021508</v>
+      </c>
+      <c r="I66">
+        <v>2.114366</v>
+      </c>
+      <c r="J66">
         <v>6.08536</v>
       </c>
-      <c r="I66">
+      <c r="K66">
         <v>4.934837</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:11">
       <c r="A67" s="1">
         <v>1350</v>
       </c>
       <c r="B67">
-        <v>76.726371</v>
+        <v>9.812360999999999</v>
       </c>
       <c r="C67">
-        <v>116.849286</v>
+        <v>9.829367999999999</v>
       </c>
       <c r="E67" s="1">
         <v>1350</v>
       </c>
       <c r="F67">
-        <v>27.178456</v>
+        <v>9.206704999999999</v>
       </c>
       <c r="G67">
-        <v>120.800891</v>
+        <v>5.890652999999999</v>
       </c>
       <c r="H67">
+        <v>2.926635</v>
+      </c>
+      <c r="I67">
+        <v>2.870811</v>
+      </c>
+      <c r="J67">
         <v>7.176842</v>
       </c>
-      <c r="I67">
+      <c r="K67">
         <v>5.699039</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:11">
       <c r="A68" s="1">
         <v>1400</v>
       </c>
       <c r="B68">
-        <v>76.614946</v>
+        <v>11.401085</v>
       </c>
       <c r="C68">
-        <v>102.498733</v>
+        <v>11.439799</v>
       </c>
       <c r="E68" s="1">
         <v>1400</v>
       </c>
       <c r="F68">
-        <v>27.982608</v>
+        <v>10.459271</v>
       </c>
       <c r="G68">
-        <v>106.625966</v>
+        <v>5.992871</v>
       </c>
       <c r="H68">
+        <v>2.608833</v>
+      </c>
+      <c r="I68">
+        <v>2.568854</v>
+      </c>
+      <c r="J68">
         <v>8.157719999999999</v>
       </c>
-      <c r="I68">
+      <c r="K68">
         <v>5.76355</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:11">
       <c r="A69" s="1">
         <v>1450</v>
       </c>
       <c r="B69">
-        <v>66.44721899999999</v>
+        <v>13.124544</v>
       </c>
       <c r="C69">
-        <v>90.817554</v>
+        <v>13.236114</v>
       </c>
       <c r="E69" s="1">
         <v>1450</v>
       </c>
       <c r="F69">
-        <v>24.870776</v>
+        <v>11.858408</v>
       </c>
       <c r="G69">
-        <v>94.794624</v>
+        <v>5.967439</v>
       </c>
       <c r="H69">
+        <v>2.532491</v>
+      </c>
+      <c r="I69">
+        <v>2.532529</v>
+      </c>
+      <c r="J69">
         <v>7.855964</v>
       </c>
-      <c r="I69">
+      <c r="K69">
         <v>5.721258</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:11">
       <c r="A70" s="1">
         <v>1500</v>
       </c>
       <c r="B70">
-        <v>81.20571700000001</v>
+        <v>14.995382</v>
       </c>
       <c r="C70">
-        <v>116.003369</v>
+        <v>15.028586</v>
       </c>
       <c r="E70" s="1">
         <v>1500</v>
       </c>
       <c r="F70">
-        <v>31.192519</v>
+        <v>13.981019</v>
       </c>
       <c r="G70">
-        <v>122.000938</v>
+        <v>8.461114</v>
       </c>
       <c r="H70">
+        <v>2.418047</v>
+      </c>
+      <c r="I70">
+        <v>2.413665</v>
+      </c>
+      <c r="J70">
         <v>10.487143</v>
       </c>
-      <c r="I70">
+      <c r="K70">
         <v>8.051691</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:11">
       <c r="A71" s="1">
         <v>1550</v>
       </c>
       <c r="B71">
-        <v>86.955961</v>
+        <v>16.966586</v>
       </c>
       <c r="C71">
-        <v>127.738508</v>
+        <v>16.957717</v>
       </c>
       <c r="E71" s="1">
         <v>1550</v>
       </c>
       <c r="F71">
-        <v>34.289611</v>
+        <v>16.063651</v>
       </c>
       <c r="G71">
-        <v>134.650862</v>
+        <v>10.683245</v>
       </c>
       <c r="H71">
+        <v>2.368704</v>
+      </c>
+      <c r="I71">
+        <v>2.365181</v>
+      </c>
+      <c r="J71">
         <v>12.432926</v>
       </c>
-      <c r="I71">
+      <c r="K71">
         <v>10.12111</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:11">
       <c r="A72" s="1">
         <v>1600</v>
       </c>
       <c r="B72">
-        <v>103.119539</v>
+        <v>19.137967</v>
       </c>
       <c r="C72">
-        <v>161.647604</v>
+        <v>19.001217</v>
       </c>
       <c r="E72" s="1">
         <v>1600</v>
       </c>
       <c r="F72">
-        <v>41.696018</v>
+        <v>18.686173</v>
       </c>
       <c r="G72">
-        <v>171.934909</v>
+        <v>14.745049</v>
       </c>
       <c r="H72">
+        <v>2.092302</v>
+      </c>
+      <c r="I72">
+        <v>2.130713</v>
+      </c>
+      <c r="J72">
         <v>15.869377</v>
       </c>
-      <c r="I72">
+      <c r="K72">
         <v>13.850725</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:11">
       <c r="A73" s="1">
         <v>1650</v>
       </c>
       <c r="B73">
-        <v>113.177914</v>
+        <v>21.088136</v>
       </c>
       <c r="C73">
-        <v>177.616517</v>
+        <v>20.812118</v>
       </c>
       <c r="E73" s="1">
         <v>1650</v>
       </c>
       <c r="F73">
-        <v>46.465658</v>
+        <v>20.745468</v>
       </c>
       <c r="G73">
-        <v>189.806268</v>
+        <v>16.839499</v>
       </c>
       <c r="H73">
+        <v>2.535165</v>
+      </c>
+      <c r="I73">
+        <v>2.473144</v>
+      </c>
+      <c r="J73">
         <v>18.25067</v>
       </c>
-      <c r="I73">
+      <c r="K73">
         <v>15.761333</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:11">
       <c r="A74" s="1">
         <v>1700</v>
       </c>
       <c r="B74">
-        <v>140.965952</v>
+        <v>23.105796</v>
       </c>
       <c r="C74">
-        <v>198.437988</v>
+        <v>22.136611</v>
       </c>
       <c r="E74" s="1">
         <v>1700</v>
       </c>
       <c r="F74">
-        <v>59.179002</v>
+        <v>23.320198</v>
       </c>
       <c r="G74">
-        <v>214.209313</v>
+        <v>20.020791</v>
       </c>
       <c r="H74">
+        <v>2.606655</v>
+      </c>
+      <c r="I74">
+        <v>2.181452</v>
+      </c>
+      <c r="J74">
         <v>24.028737</v>
       </c>
-      <c r="I74">
+      <c r="K74">
         <v>18.548087</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:11">
       <c r="A75" s="1">
         <v>1750</v>
       </c>
       <c r="B75">
-        <v>74.659814</v>
+        <v>23.747504</v>
       </c>
       <c r="C75">
-        <v>92.13547199999999</v>
+        <v>24.081461</v>
       </c>
       <c r="E75" s="1">
         <v>1750</v>
       </c>
       <c r="F75">
-        <v>32.053332</v>
+        <v>21.183311</v>
       </c>
       <c r="G75">
-        <v>99.890225</v>
+        <v>10.14749</v>
       </c>
       <c r="H75">
+        <v>1.817551</v>
+      </c>
+      <c r="I75">
+        <v>1.99797</v>
+      </c>
+      <c r="J75">
         <v>13.620692</v>
       </c>
-      <c r="I75">
+      <c r="K75">
         <v>9.358292</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:11">
       <c r="A76" s="1">
         <v>1800</v>
       </c>
       <c r="B76">
-        <v>97.57382</v>
+        <v>26.827764</v>
       </c>
       <c r="C76">
-        <v>134.997659</v>
+        <v>26.731787</v>
       </c>
       <c r="E76" s="1">
         <v>1800</v>
       </c>
       <c r="F76">
-        <v>42.814744</v>
+        <v>25.267385</v>
       </c>
       <c r="G76">
-        <v>147.635278</v>
+        <v>15.828087</v>
       </c>
       <c r="H76">
+        <v>1.969132</v>
+      </c>
+      <c r="I76">
+        <v>2.02444</v>
+      </c>
+      <c r="J76">
         <v>18.788736</v>
       </c>
-      <c r="I76">
+      <c r="K76">
         <v>14.470092</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:11">
       <c r="A77" s="1">
         <v>1850</v>
       </c>
       <c r="B77">
-        <v>105.030865</v>
+        <v>29.318155</v>
       </c>
       <c r="C77">
-        <v>143.19978</v>
+        <v>29.0464</v>
       </c>
       <c r="E77" s="1">
         <v>1850</v>
       </c>
       <c r="F77">
-        <v>47.260513</v>
+        <v>27.845484</v>
       </c>
       <c r="G77">
-        <v>157.543962</v>
+        <v>18.36131</v>
       </c>
       <c r="H77">
+        <v>1.312857</v>
+      </c>
+      <c r="I77">
+        <v>1.626145</v>
+      </c>
+      <c r="J77">
         <v>21.638178</v>
       </c>
-      <c r="I77">
+      <c r="K77">
         <v>16.689807</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:11">
       <c r="A78" s="1">
         <v>1900</v>
       </c>
       <c r="B78">
-        <v>113.228346</v>
+        <v>32.293503</v>
       </c>
       <c r="C78">
-        <v>163.073941</v>
+        <v>31.854199</v>
       </c>
       <c r="E78" s="1">
         <v>1900</v>
       </c>
       <c r="F78">
-        <v>52.040869</v>
+        <v>31.158949</v>
       </c>
       <c r="G78">
-        <v>181.120958</v>
+        <v>22.070597</v>
       </c>
       <c r="H78">
+        <v>2.447093</v>
+      </c>
+      <c r="I78">
+        <v>2.513833</v>
+      </c>
+      <c r="J78">
         <v>24.484654</v>
       </c>
-      <c r="I78">
+      <c r="K78">
         <v>19.86222</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:11">
       <c r="A79" s="1">
         <v>1950</v>
       </c>
       <c r="B79">
-        <v>112.799061</v>
+        <v>34.815922</v>
       </c>
       <c r="C79">
-        <v>159.818393</v>
+        <v>34.451729</v>
       </c>
       <c r="E79" s="1">
         <v>1950</v>
       </c>
       <c r="F79">
-        <v>52.254215</v>
+        <v>33.284847</v>
       </c>
       <c r="G79">
-        <v>177.238592</v>
+        <v>21.882322</v>
       </c>
       <c r="H79">
+        <v>2.837223</v>
+      </c>
+      <c r="I79">
+        <v>2.726997</v>
+      </c>
+      <c r="J79">
         <v>25.089215</v>
       </c>
-      <c r="I79">
+      <c r="K79">
         <v>19.740229</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:11">
       <c r="A80" s="1">
         <v>2000</v>
       </c>
       <c r="B80">
-        <v>155.160951</v>
+        <v>40.514823</v>
       </c>
       <c r="C80">
-        <v>258.611496</v>
+        <v>39.333604</v>
       </c>
       <c r="E80" s="1">
         <v>2000</v>
       </c>
       <c r="F80">
-        <v>74.110573</v>
+        <v>41.335368</v>
       </c>
       <c r="G80">
-        <v>289.40461</v>
+        <v>39.040208</v>
       </c>
       <c r="H80">
+        <v>2.268769</v>
+      </c>
+      <c r="I80">
+        <v>2.284618</v>
+      </c>
+      <c r="J80">
         <v>37.060108</v>
       </c>
-      <c r="I80">
+      <c r="K80">
         <v>34.902481</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="14">
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F32:K32"/>
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
     <mergeCell ref="F35:G35"/>
     <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A32:K80"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="E33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="1">
+        <v>220</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="E34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34" s="1">
+        <v>220</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1">
+        <v>220</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1">
+        <v>220</v>
+      </c>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="E35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="E37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1">
+        <v>50</v>
+      </c>
+      <c r="B41">
+        <v>7.367824000000001</v>
+      </c>
+      <c r="C41">
+        <v>7.613001</v>
+      </c>
+      <c r="E41" s="1">
+        <v>50</v>
+      </c>
+      <c r="F41">
+        <v>6.526167</v>
+      </c>
+      <c r="G41">
+        <v>7.538771000000001</v>
+      </c>
+      <c r="H41">
+        <v>2.633348</v>
+      </c>
+      <c r="I41">
+        <v>2.496391</v>
+      </c>
+      <c r="J41">
+        <v>6.225482</v>
+      </c>
+      <c r="K41">
+        <v>5.75264</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1">
+        <v>100</v>
+      </c>
+      <c r="B42">
+        <v>18.152296</v>
+      </c>
+      <c r="C42">
+        <v>18.47319</v>
+      </c>
+      <c r="E42" s="1">
+        <v>100</v>
+      </c>
+      <c r="F42">
+        <v>16.661733</v>
+      </c>
+      <c r="G42">
+        <v>18.210473</v>
+      </c>
+      <c r="H42">
+        <v>6.9884</v>
+      </c>
+      <c r="I42">
+        <v>6.728803999999999</v>
+      </c>
+      <c r="J42">
+        <v>16.180265</v>
+      </c>
+      <c r="K42">
+        <v>15.312774</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1">
+        <v>150</v>
+      </c>
+      <c r="B43">
+        <v>35.189236</v>
+      </c>
+      <c r="C43">
+        <v>34.397425</v>
+      </c>
+      <c r="E43" s="1">
+        <v>150</v>
+      </c>
+      <c r="F43">
+        <v>35.385651</v>
+      </c>
+      <c r="G43">
+        <v>33.867124</v>
+      </c>
+      <c r="H43">
+        <v>16.544443</v>
+      </c>
+      <c r="I43">
+        <v>16.455814</v>
+      </c>
+      <c r="J43">
+        <v>35.728177</v>
+      </c>
+      <c r="K43">
+        <v>35.688283</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1">
+        <v>200</v>
+      </c>
+      <c r="B44">
+        <v>8.612144000000001</v>
+      </c>
+      <c r="C44">
+        <v>8.082808</v>
+      </c>
+      <c r="E44" s="1">
+        <v>200</v>
+      </c>
+      <c r="F44">
+        <v>10.162542</v>
+      </c>
+      <c r="G44">
+        <v>7.917559</v>
+      </c>
+      <c r="H44">
+        <v>6.07897</v>
+      </c>
+      <c r="I44">
+        <v>6.481036</v>
+      </c>
+      <c r="J44">
+        <v>11.132556</v>
+      </c>
+      <c r="K44">
+        <v>12.581973</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1">
+        <v>250</v>
+      </c>
+      <c r="B45">
+        <v>12.866213</v>
+      </c>
+      <c r="C45">
+        <v>13.479752</v>
+      </c>
+      <c r="E45" s="1">
+        <v>250</v>
+      </c>
+      <c r="F45">
+        <v>11.20732</v>
+      </c>
+      <c r="G45">
+        <v>12.928409</v>
+      </c>
+      <c r="H45">
+        <v>4.520197</v>
+      </c>
+      <c r="I45">
+        <v>4.547461</v>
+      </c>
+      <c r="J45">
+        <v>11.397066</v>
+      </c>
+      <c r="K45">
+        <v>10.64086</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="1">
+        <v>300</v>
+      </c>
+      <c r="B46">
+        <v>36.809568</v>
+      </c>
+      <c r="C46">
+        <v>32.932754</v>
+      </c>
+      <c r="E46" s="1">
+        <v>300</v>
+      </c>
+      <c r="F46">
+        <v>38.797862</v>
+      </c>
+      <c r="G46">
+        <v>31.664034</v>
+      </c>
+      <c r="H46">
+        <v>12.183847</v>
+      </c>
+      <c r="I46">
+        <v>12.652843</v>
+      </c>
+      <c r="J46">
+        <v>40.322492</v>
+      </c>
+      <c r="K46">
+        <v>41.018539</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="1">
+        <v>350</v>
+      </c>
+      <c r="B47">
+        <v>9.414451</v>
+      </c>
+      <c r="C47">
+        <v>13.590424</v>
+      </c>
+      <c r="E47" s="1">
+        <v>350</v>
+      </c>
+      <c r="F47">
+        <v>22.014847</v>
+      </c>
+      <c r="G47">
+        <v>13.155294</v>
+      </c>
+      <c r="H47">
+        <v>9.273930999999999</v>
+      </c>
+      <c r="I47">
+        <v>5.476296</v>
+      </c>
+      <c r="J47">
+        <v>28.154772</v>
+      </c>
+      <c r="K47">
+        <v>17.669775</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="1">
+        <v>400</v>
+      </c>
+      <c r="B48">
+        <v>11.467956</v>
+      </c>
+      <c r="C48">
+        <v>17.902071</v>
+      </c>
+      <c r="E48" s="1">
+        <v>400</v>
+      </c>
+      <c r="F48">
+        <v>3.593918</v>
+      </c>
+      <c r="G48">
+        <v>17.361006</v>
+      </c>
+      <c r="H48">
+        <v>2.60227</v>
+      </c>
+      <c r="I48">
+        <v>1.468582</v>
+      </c>
+      <c r="J48">
+        <v>7.803354</v>
+      </c>
+      <c r="K48">
+        <v>4.770729</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="1">
+        <v>450</v>
+      </c>
+      <c r="B49">
+        <v>20.23629</v>
+      </c>
+      <c r="C49">
+        <v>26.764243</v>
+      </c>
+      <c r="E49" s="1">
+        <v>450</v>
+      </c>
+      <c r="F49">
+        <v>7.206778999999999</v>
+      </c>
+      <c r="G49">
+        <v>25.948198</v>
+      </c>
+      <c r="H49">
+        <v>2.246584</v>
+      </c>
+      <c r="I49">
+        <v>2.287283</v>
+      </c>
+      <c r="J49">
+        <v>2.996337</v>
+      </c>
+      <c r="K49">
+        <v>2.125864</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="1">
+        <v>500</v>
+      </c>
+      <c r="B50">
+        <v>29.713243</v>
+      </c>
+      <c r="C50">
+        <v>35.549476</v>
+      </c>
+      <c r="E50" s="1">
+        <v>500</v>
+      </c>
+      <c r="F50">
+        <v>17.009994</v>
+      </c>
+      <c r="G50">
+        <v>34.533328</v>
+      </c>
+      <c r="H50">
+        <v>7.215369</v>
+      </c>
+      <c r="I50">
+        <v>6.552224</v>
+      </c>
+      <c r="J50">
+        <v>12.45005</v>
+      </c>
+      <c r="K50">
+        <v>9.664922000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="1">
+        <v>550</v>
+      </c>
+      <c r="B51">
+        <v>40.881482</v>
+      </c>
+      <c r="C51">
+        <v>43.081693</v>
+      </c>
+      <c r="E51" s="1">
+        <v>550</v>
+      </c>
+      <c r="F51">
+        <v>32.815845</v>
+      </c>
+      <c r="G51">
+        <v>42.029403</v>
+      </c>
+      <c r="H51">
+        <v>17.252217</v>
+      </c>
+      <c r="I51">
+        <v>15.873696</v>
+      </c>
+      <c r="J51">
+        <v>30.249508</v>
+      </c>
+      <c r="K51">
+        <v>25.828186</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="1">
+        <v>600</v>
+      </c>
+      <c r="B52">
+        <v>40.998227</v>
+      </c>
+      <c r="C52">
+        <v>34.367026</v>
+      </c>
+      <c r="E52" s="1">
+        <v>600</v>
+      </c>
+      <c r="F52">
+        <v>47.45081500000001</v>
+      </c>
+      <c r="G52">
+        <v>33.51667</v>
+      </c>
+      <c r="H52">
+        <v>24.610742</v>
+      </c>
+      <c r="I52">
+        <v>25.23328</v>
+      </c>
+      <c r="J52">
+        <v>51.29153400000001</v>
+      </c>
+      <c r="K52">
+        <v>49.376896</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="1">
+        <v>650</v>
+      </c>
+      <c r="B53">
+        <v>16.848503</v>
+      </c>
+      <c r="C53">
+        <v>27.739542</v>
+      </c>
+      <c r="E53" s="1">
+        <v>650</v>
+      </c>
+      <c r="F53">
+        <v>29.653277</v>
+      </c>
+      <c r="G53">
+        <v>27.125488</v>
+      </c>
+      <c r="H53">
+        <v>15.514909</v>
+      </c>
+      <c r="I53">
+        <v>14.813388</v>
+      </c>
+      <c r="J53">
+        <v>39.002327</v>
+      </c>
+      <c r="K53">
+        <v>26.653504</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="1">
+        <v>700</v>
+      </c>
+      <c r="B54">
+        <v>17.548311</v>
+      </c>
+      <c r="C54">
+        <v>38.126596</v>
+      </c>
+      <c r="E54" s="1">
+        <v>700</v>
+      </c>
+      <c r="F54">
+        <v>17.532101</v>
+      </c>
+      <c r="G54">
+        <v>37.411601</v>
+      </c>
+      <c r="H54">
+        <v>15.230878</v>
+      </c>
+      <c r="I54">
+        <v>9.402819000000001</v>
+      </c>
+      <c r="J54">
+        <v>29.008036</v>
+      </c>
+      <c r="K54">
+        <v>15.132953</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="1">
+        <v>750</v>
+      </c>
+      <c r="B55">
+        <v>22.565267</v>
+      </c>
+      <c r="C55">
+        <v>39.691474</v>
+      </c>
+      <c r="E55" s="1">
+        <v>750</v>
+      </c>
+      <c r="F55">
+        <v>7.461583</v>
+      </c>
+      <c r="G55">
+        <v>38.970165</v>
+      </c>
+      <c r="H55">
+        <v>10.862991</v>
+      </c>
+      <c r="I55">
+        <v>6.953626</v>
+      </c>
+      <c r="J55">
+        <v>17.349716</v>
+      </c>
+      <c r="K55">
+        <v>11.396176</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="1">
+        <v>800</v>
+      </c>
+      <c r="B56">
+        <v>28.099499</v>
+      </c>
+      <c r="C56">
+        <v>46.252948</v>
+      </c>
+      <c r="E56" s="1">
+        <v>800</v>
+      </c>
+      <c r="F56">
+        <v>2.462679</v>
+      </c>
+      <c r="G56">
+        <v>45.469017</v>
+      </c>
+      <c r="H56">
+        <v>9.410761000000001</v>
+      </c>
+      <c r="I56">
+        <v>6.915427999999999</v>
+      </c>
+      <c r="J56">
+        <v>12.601856</v>
+      </c>
+      <c r="K56">
+        <v>8.73502</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="1">
+        <v>850</v>
+      </c>
+      <c r="B57">
+        <v>35.565362</v>
+      </c>
+      <c r="C57">
+        <v>57.556987</v>
+      </c>
+      <c r="E57" s="1">
+        <v>850</v>
+      </c>
+      <c r="F57">
+        <v>4.094957</v>
+      </c>
+      <c r="G57">
+        <v>56.81973000000001</v>
+      </c>
+      <c r="H57">
+        <v>13.004591</v>
+      </c>
+      <c r="I57">
+        <v>9.841509</v>
+      </c>
+      <c r="J57">
+        <v>9.275408000000001</v>
+      </c>
+      <c r="K57">
+        <v>6.712081</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="1">
+        <v>900</v>
+      </c>
+      <c r="B58">
+        <v>37.450872</v>
+      </c>
+      <c r="C58">
+        <v>56.36849300000001</v>
+      </c>
+      <c r="E58" s="1">
+        <v>900</v>
+      </c>
+      <c r="F58">
+        <v>5.627946</v>
+      </c>
+      <c r="G58">
+        <v>55.90490699999999</v>
+      </c>
+      <c r="H58">
+        <v>3.763029</v>
+      </c>
+      <c r="I58">
+        <v>6.670174</v>
+      </c>
+      <c r="J58">
+        <v>6.982161</v>
+      </c>
+      <c r="K58">
+        <v>4.91389</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="1">
+        <v>950</v>
+      </c>
+      <c r="B59">
+        <v>39.8016</v>
+      </c>
+      <c r="C59">
+        <v>58.295152</v>
+      </c>
+      <c r="E59" s="1">
+        <v>950</v>
+      </c>
+      <c r="F59">
+        <v>8.335001</v>
+      </c>
+      <c r="G59">
+        <v>58.05771899999999</v>
+      </c>
+      <c r="H59">
+        <v>7.932604</v>
+      </c>
+      <c r="I59">
+        <v>7.027077999999999</v>
+      </c>
+      <c r="J59">
+        <v>4.267408000000001</v>
+      </c>
+      <c r="K59">
+        <v>2.866213</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B60">
+        <v>42.74782800000001</v>
+      </c>
+      <c r="C60">
+        <v>61.503086</v>
+      </c>
+      <c r="E60" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F60">
+        <v>10.366053</v>
+      </c>
+      <c r="G60">
+        <v>61.480769</v>
+      </c>
+      <c r="H60">
+        <v>9.795697000000001</v>
+      </c>
+      <c r="I60">
+        <v>9.894357000000001</v>
+      </c>
+      <c r="J60">
+        <v>2.709729</v>
+      </c>
+      <c r="K60">
+        <v>1.773787</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="1">
+        <v>1050</v>
+      </c>
+      <c r="B61">
+        <v>43.770332</v>
+      </c>
+      <c r="C61">
+        <v>60.319662</v>
+      </c>
+      <c r="E61" s="1">
+        <v>1050</v>
+      </c>
+      <c r="F61">
+        <v>11.619127</v>
+      </c>
+      <c r="G61">
+        <v>60.466624</v>
+      </c>
+      <c r="H61">
+        <v>5.144007</v>
+      </c>
+      <c r="I61">
+        <v>6.167729</v>
+      </c>
+      <c r="J61">
+        <v>1.522669</v>
+      </c>
+      <c r="K61">
+        <v>1.056658</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="1">
+        <v>1100</v>
+      </c>
+      <c r="B62">
+        <v>48.256409</v>
+      </c>
+      <c r="C62">
+        <v>68.25407299999999</v>
+      </c>
+      <c r="E62" s="1">
+        <v>1100</v>
+      </c>
+      <c r="F62">
+        <v>13.786169</v>
+      </c>
+      <c r="G62">
+        <v>68.71561</v>
+      </c>
+      <c r="H62">
+        <v>1.473247</v>
+      </c>
+      <c r="I62">
+        <v>2.593152</v>
+      </c>
+      <c r="J62">
+        <v>0.9533450000000001</v>
+      </c>
+      <c r="K62">
+        <v>0.636313</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="1">
+        <v>1150</v>
+      </c>
+      <c r="B63">
+        <v>54.163716</v>
+      </c>
+      <c r="C63">
+        <v>75.94569200000001</v>
+      </c>
+      <c r="E63" s="1">
+        <v>1150</v>
+      </c>
+      <c r="F63">
+        <v>16.603015</v>
+      </c>
+      <c r="G63">
+        <v>76.915499</v>
+      </c>
+      <c r="H63">
+        <v>5.577643</v>
+      </c>
+      <c r="I63">
+        <v>7.468408999999999</v>
+      </c>
+      <c r="J63">
+        <v>2.028014</v>
+      </c>
+      <c r="K63">
+        <v>1.634063</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="1">
+        <v>1200</v>
+      </c>
+      <c r="B64">
+        <v>54.35412700000001</v>
+      </c>
+      <c r="C64">
+        <v>75.99045100000001</v>
+      </c>
+      <c r="E64" s="1">
+        <v>1200</v>
+      </c>
+      <c r="F64">
+        <v>17.447826</v>
+      </c>
+      <c r="G64">
+        <v>77.42549699999999</v>
+      </c>
+      <c r="H64">
+        <v>10.025246</v>
+      </c>
+      <c r="I64">
+        <v>13.751151</v>
+      </c>
+      <c r="J64">
+        <v>2.845913</v>
+      </c>
+      <c r="K64">
+        <v>2.129205</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="1">
+        <v>1250</v>
+      </c>
+      <c r="B65">
+        <v>62.650786</v>
+      </c>
+      <c r="C65">
+        <v>90.93864000000001</v>
+      </c>
+      <c r="E65" s="1">
+        <v>1250</v>
+      </c>
+      <c r="F65">
+        <v>21.003162</v>
+      </c>
+      <c r="G65">
+        <v>93.004475</v>
+      </c>
+      <c r="H65">
+        <v>3.948523</v>
+      </c>
+      <c r="I65">
+        <v>6.523839</v>
+      </c>
+      <c r="J65">
+        <v>4.447322</v>
+      </c>
+      <c r="K65">
+        <v>3.547209</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="1">
+        <v>1300</v>
+      </c>
+      <c r="B66">
+        <v>72.607091</v>
+      </c>
+      <c r="C66">
+        <v>109.338026</v>
+      </c>
+      <c r="E66" s="1">
+        <v>1300</v>
+      </c>
+      <c r="F66">
+        <v>25.122854</v>
+      </c>
+      <c r="G66">
+        <v>112.468556</v>
+      </c>
+      <c r="H66">
+        <v>3.491494</v>
+      </c>
+      <c r="I66">
+        <v>6.405912</v>
+      </c>
+      <c r="J66">
+        <v>6.08536</v>
+      </c>
+      <c r="K66">
+        <v>4.934837</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="1">
+        <v>1350</v>
+      </c>
+      <c r="B67">
+        <v>76.726371</v>
+      </c>
+      <c r="C67">
+        <v>116.849286</v>
+      </c>
+      <c r="E67" s="1">
+        <v>1350</v>
+      </c>
+      <c r="F67">
+        <v>27.178456</v>
+      </c>
+      <c r="G67">
+        <v>120.800891</v>
+      </c>
+      <c r="H67">
+        <v>4.966012999999999</v>
+      </c>
+      <c r="I67">
+        <v>6.200222</v>
+      </c>
+      <c r="J67">
+        <v>7.176842</v>
+      </c>
+      <c r="K67">
+        <v>5.699039</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="1">
+        <v>1400</v>
+      </c>
+      <c r="B68">
+        <v>76.614946</v>
+      </c>
+      <c r="C68">
+        <v>102.498733</v>
+      </c>
+      <c r="E68" s="1">
+        <v>1400</v>
+      </c>
+      <c r="F68">
+        <v>27.982608</v>
+      </c>
+      <c r="G68">
+        <v>106.625966</v>
+      </c>
+      <c r="H68">
+        <v>3.355349</v>
+      </c>
+      <c r="I68">
+        <v>3.419324</v>
+      </c>
+      <c r="J68">
+        <v>8.157719999999999</v>
+      </c>
+      <c r="K68">
+        <v>5.76355</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="1">
+        <v>1450</v>
+      </c>
+      <c r="B69">
+        <v>66.44721899999999</v>
+      </c>
+      <c r="C69">
+        <v>90.817554</v>
+      </c>
+      <c r="E69" s="1">
+        <v>1450</v>
+      </c>
+      <c r="F69">
+        <v>24.870776</v>
+      </c>
+      <c r="G69">
+        <v>94.794624</v>
+      </c>
+      <c r="H69">
+        <v>2.269589</v>
+      </c>
+      <c r="I69">
+        <v>2.252751</v>
+      </c>
+      <c r="J69">
+        <v>7.855964</v>
+      </c>
+      <c r="K69">
+        <v>5.721258</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="1">
+        <v>1500</v>
+      </c>
+      <c r="B70">
+        <v>81.20571700000001</v>
+      </c>
+      <c r="C70">
+        <v>116.003369</v>
+      </c>
+      <c r="E70" s="1">
+        <v>1500</v>
+      </c>
+      <c r="F70">
+        <v>31.192519</v>
+      </c>
+      <c r="G70">
+        <v>122.000938</v>
+      </c>
+      <c r="H70">
+        <v>2.80833</v>
+      </c>
+      <c r="I70">
+        <v>3.407302</v>
+      </c>
+      <c r="J70">
+        <v>10.487143</v>
+      </c>
+      <c r="K70">
+        <v>8.051691</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="1">
+        <v>1550</v>
+      </c>
+      <c r="B71">
+        <v>86.955961</v>
+      </c>
+      <c r="C71">
+        <v>127.738508</v>
+      </c>
+      <c r="E71" s="1">
+        <v>1550</v>
+      </c>
+      <c r="F71">
+        <v>34.289611</v>
+      </c>
+      <c r="G71">
+        <v>134.650862</v>
+      </c>
+      <c r="H71">
+        <v>1.938237</v>
+      </c>
+      <c r="I71">
+        <v>1.892551</v>
+      </c>
+      <c r="J71">
+        <v>12.432926</v>
+      </c>
+      <c r="K71">
+        <v>10.12111</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="1">
+        <v>1600</v>
+      </c>
+      <c r="B72">
+        <v>103.119539</v>
+      </c>
+      <c r="C72">
+        <v>161.647604</v>
+      </c>
+      <c r="E72" s="1">
+        <v>1600</v>
+      </c>
+      <c r="F72">
+        <v>41.696018</v>
+      </c>
+      <c r="G72">
+        <v>171.934909</v>
+      </c>
+      <c r="H72">
+        <v>0.48611</v>
+      </c>
+      <c r="I72">
+        <v>1.68352</v>
+      </c>
+      <c r="J72">
+        <v>15.869377</v>
+      </c>
+      <c r="K72">
+        <v>13.850725</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="1">
+        <v>1650</v>
+      </c>
+      <c r="B73">
+        <v>113.177914</v>
+      </c>
+      <c r="C73">
+        <v>177.616517</v>
+      </c>
+      <c r="E73" s="1">
+        <v>1650</v>
+      </c>
+      <c r="F73">
+        <v>46.465658</v>
+      </c>
+      <c r="G73">
+        <v>189.806268</v>
+      </c>
+      <c r="H73">
+        <v>2.762243</v>
+      </c>
+      <c r="I73">
+        <v>2.981101</v>
+      </c>
+      <c r="J73">
+        <v>18.25067</v>
+      </c>
+      <c r="K73">
+        <v>15.761333</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="1">
+        <v>1700</v>
+      </c>
+      <c r="B74">
+        <v>140.965952</v>
+      </c>
+      <c r="C74">
+        <v>198.437988</v>
+      </c>
+      <c r="E74" s="1">
+        <v>1700</v>
+      </c>
+      <c r="F74">
+        <v>59.179002</v>
+      </c>
+      <c r="G74">
+        <v>214.209313</v>
+      </c>
+      <c r="H74">
+        <v>6.173961</v>
+      </c>
+      <c r="I74">
+        <v>7.446447</v>
+      </c>
+      <c r="J74">
+        <v>24.028737</v>
+      </c>
+      <c r="K74">
+        <v>18.548087</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="1">
+        <v>1750</v>
+      </c>
+      <c r="B75">
+        <v>74.659814</v>
+      </c>
+      <c r="C75">
+        <v>92.13547199999999</v>
+      </c>
+      <c r="E75" s="1">
+        <v>1750</v>
+      </c>
+      <c r="F75">
+        <v>32.053332</v>
+      </c>
+      <c r="G75">
+        <v>99.890225</v>
+      </c>
+      <c r="H75">
+        <v>1.495956</v>
+      </c>
+      <c r="I75">
+        <v>2.327818</v>
+      </c>
+      <c r="J75">
+        <v>13.620692</v>
+      </c>
+      <c r="K75">
+        <v>9.358292</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="1">
+        <v>1800</v>
+      </c>
+      <c r="B76">
+        <v>97.57382</v>
+      </c>
+      <c r="C76">
+        <v>134.997659</v>
+      </c>
+      <c r="E76" s="1">
+        <v>1800</v>
+      </c>
+      <c r="F76">
+        <v>42.814744</v>
+      </c>
+      <c r="G76">
+        <v>147.635278</v>
+      </c>
+      <c r="H76">
+        <v>1.275982</v>
+      </c>
+      <c r="I76">
+        <v>1.936215</v>
+      </c>
+      <c r="J76">
+        <v>18.788736</v>
+      </c>
+      <c r="K76">
+        <v>14.470092</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="1">
+        <v>1850</v>
+      </c>
+      <c r="B77">
+        <v>105.030865</v>
+      </c>
+      <c r="C77">
+        <v>143.19978</v>
+      </c>
+      <c r="E77" s="1">
+        <v>1850</v>
+      </c>
+      <c r="F77">
+        <v>47.260513</v>
+      </c>
+      <c r="G77">
+        <v>157.543962</v>
+      </c>
+      <c r="H77">
+        <v>3.701392</v>
+      </c>
+      <c r="I77">
+        <v>6.024259</v>
+      </c>
+      <c r="J77">
+        <v>21.638178</v>
+      </c>
+      <c r="K77">
+        <v>16.689807</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="1">
+        <v>1900</v>
+      </c>
+      <c r="B78">
+        <v>113.228346</v>
+      </c>
+      <c r="C78">
+        <v>163.073941</v>
+      </c>
+      <c r="E78" s="1">
+        <v>1900</v>
+      </c>
+      <c r="F78">
+        <v>52.040869</v>
+      </c>
+      <c r="G78">
+        <v>181.120958</v>
+      </c>
+      <c r="H78">
+        <v>4.303453</v>
+      </c>
+      <c r="I78">
+        <v>6.391245</v>
+      </c>
+      <c r="J78">
+        <v>24.484654</v>
+      </c>
+      <c r="K78">
+        <v>19.86222</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="1">
+        <v>1950</v>
+      </c>
+      <c r="B79">
+        <v>112.799061</v>
+      </c>
+      <c r="C79">
+        <v>159.818393</v>
+      </c>
+      <c r="E79" s="1">
+        <v>1950</v>
+      </c>
+      <c r="F79">
+        <v>52.254215</v>
+      </c>
+      <c r="G79">
+        <v>177.238592</v>
+      </c>
+      <c r="H79">
+        <v>3.419316</v>
+      </c>
+      <c r="I79">
+        <v>3.850047</v>
+      </c>
+      <c r="J79">
+        <v>25.089215</v>
+      </c>
+      <c r="K79">
+        <v>19.740229</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B80">
+        <v>155.160951</v>
+      </c>
+      <c r="C80">
+        <v>258.611496</v>
+      </c>
+      <c r="E80" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F80">
+        <v>74.110573</v>
+      </c>
+      <c r="G80">
+        <v>289.40461</v>
+      </c>
+      <c r="H80">
+        <v>1.107591</v>
+      </c>
+      <c r="I80">
+        <v>2.771621</v>
+      </c>
+      <c r="J80">
+        <v>37.060108</v>
+      </c>
+      <c r="K80">
+        <v>34.902481</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/hast2_1/tests/STAGES_v220/Results_stage0_v220.xlsx
+++ b/hast2_1/tests/STAGES_v220/Results_stage0_v220.xlsx
@@ -17,15 +17,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="31">
   <si>
     <t>Terminal</t>
   </si>
   <si>
     <t>Terminal Name</t>
-  </si>
-  <si>
-    <t>Nom Voltage (kV)</t>
   </si>
   <si>
     <t>Study Case</t>
@@ -216,7 +213,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Clonee 220 kV'!$B$38</c:f>
+              <c:f>'Clonee 220 kV'!$B$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -237,7 +234,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Clonee 220 kV'!$A$41:$A$81</c:f>
+              <c:f>'Clonee 220 kV'!$A$40:$A$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -366,7 +363,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Clonee 220 kV'!$B$41:$B$81</c:f>
+              <c:f>'Clonee 220 kV'!$B$40:$B$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -499,7 +496,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Clonee 220 kV'!$C$38</c:f>
+              <c:f>'Clonee 220 kV'!$C$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -520,7 +517,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Clonee 220 kV'!$A$41:$A$81</c:f>
+              <c:f>'Clonee 220 kV'!$A$40:$A$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -649,7 +646,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Clonee 220 kV'!$C$41:$C$81</c:f>
+              <c:f>'Clonee 220 kV'!$C$40:$C$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -900,7 +897,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Corduff 110 kV'!$B$38</c:f>
+              <c:f>'Corduff 110 kV'!$B$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -921,7 +918,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Corduff 110 kV'!$A$41:$A$81</c:f>
+              <c:f>'Corduff 110 kV'!$A$40:$A$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -1050,7 +1047,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Corduff 110 kV'!$B$41:$B$81</c:f>
+              <c:f>'Corduff 110 kV'!$B$40:$B$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -1183,7 +1180,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Corduff 110 kV'!$C$38</c:f>
+              <c:f>'Corduff 110 kV'!$C$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1204,7 +1201,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Corduff 110 kV'!$A$41:$A$81</c:f>
+              <c:f>'Corduff 110 kV'!$A$40:$A$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -1333,7 +1330,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Corduff 110 kV'!$C$41:$C$81</c:f>
+              <c:f>'Corduff 110 kV'!$C$40:$C$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -1584,7 +1581,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Corduff 220 kV'!$B$38</c:f>
+              <c:f>'Corduff 220 kV'!$B$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1605,7 +1602,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Corduff 220 kV'!$A$41:$A$81</c:f>
+              <c:f>'Corduff 220 kV'!$A$40:$A$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -1734,7 +1731,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Corduff 220 kV'!$B$41:$B$81</c:f>
+              <c:f>'Corduff 220 kV'!$B$40:$B$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -1867,7 +1864,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Corduff 220 kV'!$C$38</c:f>
+              <c:f>'Corduff 220 kV'!$C$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1888,7 +1885,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Corduff 220 kV'!$A$41:$A$81</c:f>
+              <c:f>'Corduff 220 kV'!$A$40:$A$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -2017,7 +2014,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Corduff 220 kV'!$C$41:$C$81</c:f>
+              <c:f>'Corduff 220 kV'!$C$40:$C$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -2268,7 +2265,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Woodland 220 kV'!$B$38</c:f>
+              <c:f>'Woodland 220 kV'!$B$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2289,7 +2286,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Woodland 220 kV'!$A$41:$A$81</c:f>
+              <c:f>'Woodland 220 kV'!$A$40:$A$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -2418,7 +2415,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Woodland 220 kV'!$B$41:$B$81</c:f>
+              <c:f>'Woodland 220 kV'!$B$40:$B$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -2551,7 +2548,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Woodland 220 kV'!$C$38</c:f>
+              <c:f>'Woodland 220 kV'!$C$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2572,7 +2569,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Woodland 220 kV'!$A$41:$A$81</c:f>
+              <c:f>'Woodland 220 kV'!$A$40:$A$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -2701,7 +2698,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Woodland 220 kV'!$C$41:$C$81</c:f>
+              <c:f>'Woodland 220 kV'!$C$40:$C$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -3346,7 +3343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A32:K80"/>
+  <dimension ref="A32:K79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3357,14 +3354,14 @@
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C32" s="1"/>
       <c r="E32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -3377,22 +3374,22 @@
         <v>1</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C33" s="1"/>
       <c r="E33" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K33" s="1"/>
     </row>
@@ -3400,23 +3397,23 @@
       <c r="A34" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="1">
-        <v>220</v>
+      <c r="B34" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C34" s="1"/>
       <c r="E34" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F34" s="1">
-        <v>220</v>
+      <c r="F34" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="G34" s="1"/>
-      <c r="H34" s="1">
-        <v>220</v>
+      <c r="H34" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="I34" s="1"/>
-      <c r="J34" s="1">
-        <v>220</v>
+      <c r="J34" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="K34" s="1"/>
     </row>
@@ -3427,77 +3424,85 @@
       <c r="B35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E35" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G35" s="1"/>
+      <c r="G35" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I35" s="1"/>
+      <c r="I35" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="J35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K35" s="1"/>
+      <c r="K35" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
       <c r="E36" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
+      <c r="B37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
+      <c r="F37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>13</v>
@@ -3506,1350 +3511,1317 @@
         <v>6</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>15</v>
+      <c r="A40" s="1">
+        <v>50</v>
+      </c>
+      <c r="B40">
+        <v>8.821742</v>
+      </c>
+      <c r="C40">
+        <v>12.957254</v>
+      </c>
+      <c r="E40" s="1">
+        <v>50</v>
+      </c>
+      <c r="F40">
+        <v>3.032037</v>
+      </c>
+      <c r="G40">
+        <v>2.483493</v>
+      </c>
+      <c r="H40">
+        <v>7.616954</v>
+      </c>
+      <c r="I40">
+        <v>5.710516999999999</v>
+      </c>
+      <c r="J40">
+        <v>6.526167</v>
+      </c>
+      <c r="K40">
+        <v>7.538771000000001</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B41">
-        <v>8.821742</v>
+        <v>21.281185</v>
       </c>
       <c r="C41">
-        <v>12.957254</v>
+        <v>28.630952</v>
       </c>
       <c r="E41" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F41">
-        <v>3.032037</v>
+        <v>7.822211</v>
       </c>
       <c r="G41">
-        <v>2.483493</v>
+        <v>6.658963000000001</v>
       </c>
       <c r="H41">
-        <v>7.616954</v>
+        <v>19.067335</v>
       </c>
       <c r="I41">
-        <v>5.710516999999999</v>
+        <v>15.128627</v>
       </c>
       <c r="J41">
-        <v>6.526167</v>
+        <v>16.661733</v>
       </c>
       <c r="K41">
-        <v>7.538771000000001</v>
+        <v>18.210473</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="1">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="B42">
-        <v>21.281185</v>
+        <v>39.214426</v>
       </c>
       <c r="C42">
-        <v>28.630952</v>
+        <v>42.324689</v>
       </c>
       <c r="E42" s="1">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="F42">
-        <v>7.822211</v>
+        <v>17.384717</v>
       </c>
       <c r="G42">
-        <v>6.658963000000001</v>
+        <v>16.226204</v>
       </c>
       <c r="H42">
-        <v>19.067335</v>
+        <v>38.400972</v>
       </c>
       <c r="I42">
-        <v>15.128627</v>
+        <v>35.180322</v>
       </c>
       <c r="J42">
-        <v>16.661733</v>
+        <v>35.385651</v>
       </c>
       <c r="K42">
-        <v>18.210473</v>
+        <v>33.867124</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="1">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="B43">
-        <v>39.214426</v>
+        <v>11.181858</v>
       </c>
       <c r="C43">
-        <v>42.324689</v>
+        <v>23.559856</v>
       </c>
       <c r="E43" s="1">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="F43">
-        <v>17.384717</v>
+        <v>5.443902</v>
       </c>
       <c r="G43">
-        <v>16.226204</v>
+        <v>6.395862</v>
       </c>
       <c r="H43">
-        <v>38.400972</v>
+        <v>10.533597</v>
       </c>
       <c r="I43">
-        <v>35.180322</v>
+        <v>12.461905</v>
       </c>
       <c r="J43">
-        <v>35.385651</v>
+        <v>10.162542</v>
       </c>
       <c r="K43">
-        <v>33.867124</v>
+        <v>7.917559</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="B44">
-        <v>11.181858</v>
+        <v>20.209482</v>
       </c>
       <c r="C44">
-        <v>23.559856</v>
+        <v>37.687392</v>
       </c>
       <c r="E44" s="1">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F44">
-        <v>5.443902</v>
+        <v>5.591971</v>
       </c>
       <c r="G44">
-        <v>6.395862</v>
+        <v>4.496051</v>
       </c>
       <c r="H44">
-        <v>10.533597</v>
+        <v>17.195813</v>
       </c>
       <c r="I44">
-        <v>12.461905</v>
+        <v>10.475897</v>
       </c>
       <c r="J44">
-        <v>10.162542</v>
+        <v>11.20732</v>
       </c>
       <c r="K44">
-        <v>7.917559</v>
+        <v>12.928409</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="B45">
-        <v>20.209482</v>
+        <v>55.665317</v>
       </c>
       <c r="C45">
-        <v>37.687392</v>
+        <v>56.505259</v>
       </c>
       <c r="E45" s="1">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="F45">
-        <v>5.591971</v>
+        <v>15.992804</v>
       </c>
       <c r="G45">
-        <v>4.496051</v>
+        <v>12.156685</v>
       </c>
       <c r="H45">
-        <v>17.195813</v>
+        <v>54.93826600000001</v>
       </c>
       <c r="I45">
-        <v>10.475897</v>
+        <v>39.358243</v>
       </c>
       <c r="J45">
-        <v>11.20732</v>
+        <v>38.797862</v>
       </c>
       <c r="K45">
-        <v>12.928409</v>
+        <v>31.664034</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="B46">
-        <v>55.665317</v>
+        <v>31.577405</v>
       </c>
       <c r="C46">
-        <v>56.505259</v>
+        <v>48.205792</v>
       </c>
       <c r="E46" s="1">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="F46">
-        <v>15.992804</v>
+        <v>14.564876</v>
       </c>
       <c r="G46">
-        <v>12.156685</v>
+        <v>5.263637</v>
       </c>
       <c r="H46">
-        <v>54.93826600000001</v>
+        <v>43.483297</v>
       </c>
       <c r="I46">
-        <v>39.358243</v>
+        <v>17.03965</v>
       </c>
       <c r="J46">
-        <v>38.797862</v>
+        <v>22.014847</v>
       </c>
       <c r="K46">
-        <v>31.664034</v>
+        <v>13.155294</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="B47">
-        <v>31.577405</v>
+        <v>6.425269</v>
       </c>
       <c r="C47">
-        <v>48.205792</v>
+        <v>59.21463000000001</v>
       </c>
       <c r="E47" s="1">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="F47">
-        <v>14.564876</v>
+        <v>4.936188</v>
       </c>
       <c r="G47">
-        <v>5.263637</v>
+        <v>1.41646</v>
       </c>
       <c r="H47">
-        <v>43.483297</v>
+        <v>13.571006</v>
       </c>
       <c r="I47">
-        <v>17.03965</v>
+        <v>4.619344</v>
       </c>
       <c r="J47">
-        <v>22.014847</v>
+        <v>3.593918</v>
       </c>
       <c r="K47">
-        <v>13.155294</v>
+        <v>17.361006</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="B48">
-        <v>6.425269</v>
+        <v>17.650503</v>
       </c>
       <c r="C48">
-        <v>59.21463000000001</v>
+        <v>72.74673799999999</v>
       </c>
       <c r="E48" s="1">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="F48">
-        <v>4.936188</v>
+        <v>2.146044</v>
       </c>
       <c r="G48">
-        <v>1.41646</v>
+        <v>2.258988</v>
       </c>
       <c r="H48">
-        <v>13.571006</v>
+        <v>4.602694000000001</v>
       </c>
       <c r="I48">
-        <v>4.619344</v>
+        <v>2.058611</v>
       </c>
       <c r="J48">
-        <v>3.593918</v>
+        <v>7.206778999999999</v>
       </c>
       <c r="K48">
-        <v>17.361006</v>
+        <v>25.948198</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="1">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="B49">
-        <v>17.650503</v>
+        <v>32.070075</v>
       </c>
       <c r="C49">
-        <v>72.74673799999999</v>
+        <v>86.22182600000001</v>
       </c>
       <c r="E49" s="1">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="F49">
-        <v>2.146044</v>
+        <v>8.565154</v>
       </c>
       <c r="G49">
-        <v>2.258988</v>
+        <v>6.452026</v>
       </c>
       <c r="H49">
-        <v>4.602694000000001</v>
+        <v>17.968659</v>
       </c>
       <c r="I49">
-        <v>2.058611</v>
+        <v>9.399245000000001</v>
       </c>
       <c r="J49">
-        <v>7.206778999999999</v>
+        <v>17.009994</v>
       </c>
       <c r="K49">
-        <v>25.948198</v>
+        <v>34.533328</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="1">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="B50">
-        <v>32.070075</v>
+        <v>54.187498</v>
       </c>
       <c r="C50">
-        <v>86.22182600000001</v>
+        <v>97.007689</v>
       </c>
       <c r="E50" s="1">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="F50">
-        <v>8.565154</v>
+        <v>21.402044</v>
       </c>
       <c r="G50">
-        <v>6.452026</v>
+        <v>15.642112</v>
       </c>
       <c r="H50">
-        <v>17.968659</v>
+        <v>42.66742</v>
       </c>
       <c r="I50">
-        <v>9.399245000000001</v>
+        <v>25.227782</v>
       </c>
       <c r="J50">
-        <v>17.009994</v>
+        <v>32.815845</v>
       </c>
       <c r="K50">
-        <v>34.533328</v>
+        <v>42.029403</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="1">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="B51">
-        <v>54.187498</v>
+        <v>73.369848</v>
       </c>
       <c r="C51">
-        <v>97.007689</v>
+        <v>87.517253</v>
       </c>
       <c r="E51" s="1">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="F51">
-        <v>21.402044</v>
+        <v>29.932394</v>
       </c>
       <c r="G51">
-        <v>15.642112</v>
+        <v>24.774093</v>
       </c>
       <c r="H51">
-        <v>42.66742</v>
+        <v>74.0312</v>
       </c>
       <c r="I51">
-        <v>25.227782</v>
+        <v>48.287295</v>
       </c>
       <c r="J51">
-        <v>32.815845</v>
+        <v>47.45081500000001</v>
       </c>
       <c r="K51">
-        <v>42.029403</v>
+        <v>33.51667</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="1">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="B52">
-        <v>73.369848</v>
+        <v>46.363414</v>
       </c>
       <c r="C52">
-        <v>87.517253</v>
+        <v>94.94122</v>
       </c>
       <c r="E52" s="1">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="F52">
-        <v>29.932394</v>
+        <v>19.932985</v>
       </c>
       <c r="G52">
-        <v>24.774093</v>
+        <v>14.688644</v>
       </c>
       <c r="H52">
-        <v>74.0312</v>
+        <v>62.173136</v>
       </c>
       <c r="I52">
-        <v>48.287295</v>
+        <v>26.206891</v>
       </c>
       <c r="J52">
-        <v>47.45081500000001</v>
+        <v>29.653277</v>
       </c>
       <c r="K52">
-        <v>33.51667</v>
+        <v>27.125488</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="1">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="B53">
-        <v>46.363414</v>
+        <v>21.563238</v>
       </c>
       <c r="C53">
-        <v>94.94122</v>
+        <v>110.455529</v>
       </c>
       <c r="E53" s="1">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="F53">
-        <v>19.932985</v>
+        <v>23.561379</v>
       </c>
       <c r="G53">
-        <v>14.688644</v>
+        <v>9.186596</v>
       </c>
       <c r="H53">
-        <v>62.173136</v>
+        <v>48.62262800000001</v>
       </c>
       <c r="I53">
-        <v>26.206891</v>
+        <v>14.68128</v>
       </c>
       <c r="J53">
-        <v>29.653277</v>
+        <v>17.532101</v>
       </c>
       <c r="K53">
-        <v>27.125488</v>
+        <v>37.411601</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="1">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="B54">
-        <v>21.563238</v>
+        <v>5.959748</v>
       </c>
       <c r="C54">
-        <v>110.455529</v>
+        <v>116.956808</v>
       </c>
       <c r="E54" s="1">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="F54">
-        <v>23.561379</v>
+        <v>17.213036</v>
       </c>
       <c r="G54">
-        <v>9.186596</v>
+        <v>6.775133</v>
       </c>
       <c r="H54">
-        <v>48.62262800000001</v>
+        <v>26.67355</v>
       </c>
       <c r="I54">
-        <v>14.68128</v>
+        <v>11.159158</v>
       </c>
       <c r="J54">
-        <v>17.532101</v>
+        <v>7.461583</v>
       </c>
       <c r="K54">
-        <v>37.411601</v>
+        <v>38.970165</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="1">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="B55">
-        <v>5.959748</v>
+        <v>11.022803</v>
       </c>
       <c r="C55">
-        <v>116.956808</v>
+        <v>129.72328</v>
       </c>
       <c r="E55" s="1">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="F55">
-        <v>17.213036</v>
+        <v>13.247001</v>
       </c>
       <c r="G55">
-        <v>6.775133</v>
+        <v>6.800375</v>
       </c>
       <c r="H55">
-        <v>26.67355</v>
+        <v>18.55902</v>
       </c>
       <c r="I55">
-        <v>11.159158</v>
+        <v>8.583908000000001</v>
       </c>
       <c r="J55">
-        <v>7.461583</v>
+        <v>2.462679</v>
       </c>
       <c r="K55">
-        <v>38.970165</v>
+        <v>45.469017</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="1">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="B56">
-        <v>11.022803</v>
+        <v>17.556403</v>
       </c>
       <c r="C56">
-        <v>129.72328</v>
+        <v>146.238603</v>
       </c>
       <c r="E56" s="1">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="F56">
-        <v>13.247001</v>
+        <v>17.300433</v>
       </c>
       <c r="G56">
-        <v>6.800375</v>
+        <v>9.654264999999999</v>
       </c>
       <c r="H56">
-        <v>18.55902</v>
+        <v>12.816734</v>
       </c>
       <c r="I56">
-        <v>8.583908000000001</v>
+        <v>6.620744</v>
       </c>
       <c r="J56">
-        <v>2.462679</v>
+        <v>4.094957</v>
       </c>
       <c r="K56">
-        <v>45.469017</v>
+        <v>56.81973000000001</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="1">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="B57">
-        <v>17.556403</v>
+        <v>21.438589</v>
       </c>
       <c r="C57">
-        <v>146.238603</v>
+        <v>148.401482</v>
       </c>
       <c r="E57" s="1">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="F57">
-        <v>17.300433</v>
+        <v>6.336917</v>
       </c>
       <c r="G57">
-        <v>9.654264999999999</v>
+        <v>6.62402</v>
       </c>
       <c r="H57">
-        <v>12.816734</v>
+        <v>9.854863</v>
       </c>
       <c r="I57">
-        <v>6.620744</v>
+        <v>4.866738</v>
       </c>
       <c r="J57">
-        <v>4.094957</v>
+        <v>5.627946</v>
       </c>
       <c r="K57">
-        <v>56.81973000000001</v>
+        <v>55.90490699999999</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="1">
-        <v>900</v>
+        <v>950</v>
       </c>
       <c r="B58">
-        <v>21.438589</v>
+        <v>26.09926</v>
       </c>
       <c r="C58">
-        <v>148.401482</v>
+        <v>158.163439</v>
       </c>
       <c r="E58" s="1">
-        <v>900</v>
+        <v>950</v>
       </c>
       <c r="F58">
-        <v>6.336917</v>
+        <v>9.163814</v>
       </c>
       <c r="G58">
-        <v>6.62402</v>
+        <v>6.816024000000001</v>
       </c>
       <c r="H58">
-        <v>9.854863</v>
+        <v>6.549277</v>
       </c>
       <c r="I58">
-        <v>4.866738</v>
+        <v>2.853438</v>
       </c>
       <c r="J58">
-        <v>5.627946</v>
+        <v>8.335001</v>
       </c>
       <c r="K58">
-        <v>55.90490699999999</v>
+        <v>58.05771899999999</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="1">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="B59">
-        <v>26.09926</v>
+        <v>29.945767</v>
       </c>
       <c r="C59">
-        <v>158.163439</v>
+        <v>167.367935</v>
       </c>
       <c r="E59" s="1">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="F59">
-        <v>9.163814</v>
+        <v>10.675495</v>
       </c>
       <c r="G59">
-        <v>6.816024000000001</v>
+        <v>9.785569000000001</v>
       </c>
       <c r="H59">
-        <v>6.549277</v>
+        <v>4.261851</v>
       </c>
       <c r="I59">
-        <v>2.853438</v>
+        <v>1.759982</v>
       </c>
       <c r="J59">
-        <v>8.335001</v>
+        <v>10.366053</v>
       </c>
       <c r="K59">
-        <v>58.05771899999999</v>
+        <v>61.480769</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="1">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="B60">
-        <v>29.945767</v>
+        <v>33.207627</v>
       </c>
       <c r="C60">
-        <v>167.367935</v>
+        <v>169.983231</v>
       </c>
       <c r="E60" s="1">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="F60">
-        <v>10.675495</v>
+        <v>3.49981</v>
       </c>
       <c r="G60">
-        <v>9.785569000000001</v>
+        <v>6.175339</v>
       </c>
       <c r="H60">
-        <v>4.261851</v>
+        <v>2.328484</v>
       </c>
       <c r="I60">
-        <v>1.759982</v>
+        <v>1.0527</v>
       </c>
       <c r="J60">
-        <v>10.366053</v>
+        <v>11.619127</v>
       </c>
       <c r="K60">
-        <v>61.480769</v>
+        <v>60.466624</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="1">
-        <v>1050</v>
+        <v>1100</v>
       </c>
       <c r="B61">
-        <v>33.207627</v>
+        <v>36.987286</v>
       </c>
       <c r="C61">
-        <v>169.983231</v>
+        <v>187.11852</v>
       </c>
       <c r="E61" s="1">
-        <v>1050</v>
+        <v>1100</v>
       </c>
       <c r="F61">
-        <v>3.49981</v>
+        <v>0.560128</v>
       </c>
       <c r="G61">
-        <v>6.175339</v>
+        <v>2.488208</v>
       </c>
       <c r="H61">
-        <v>2.328484</v>
+        <v>1.500329</v>
       </c>
       <c r="I61">
-        <v>1.0527</v>
+        <v>0.6402369999999999</v>
       </c>
       <c r="J61">
-        <v>11.619127</v>
+        <v>13.786169</v>
       </c>
       <c r="K61">
-        <v>60.466624</v>
+        <v>68.71561</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="1">
-        <v>1100</v>
+        <v>1150</v>
       </c>
       <c r="B62">
-        <v>36.987286</v>
+        <v>40.5018</v>
       </c>
       <c r="C62">
-        <v>187.11852</v>
+        <v>199.5125</v>
       </c>
       <c r="E62" s="1">
-        <v>1100</v>
+        <v>1150</v>
       </c>
       <c r="F62">
-        <v>0.560128</v>
+        <v>2.857702</v>
       </c>
       <c r="G62">
-        <v>2.488208</v>
+        <v>7.72602</v>
       </c>
       <c r="H62">
-        <v>1.500329</v>
+        <v>2.619051</v>
       </c>
       <c r="I62">
-        <v>0.6402369999999999</v>
+        <v>1.655139</v>
       </c>
       <c r="J62">
-        <v>13.786169</v>
+        <v>16.603015</v>
       </c>
       <c r="K62">
-        <v>68.71561</v>
+        <v>76.915499</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="1">
-        <v>1150</v>
+        <v>1200</v>
       </c>
       <c r="B63">
-        <v>40.5018</v>
+        <v>43.633087</v>
       </c>
       <c r="C63">
-        <v>199.5125</v>
+        <v>207.629818</v>
       </c>
       <c r="E63" s="1">
-        <v>1150</v>
+        <v>1200</v>
       </c>
       <c r="F63">
-        <v>2.857702</v>
+        <v>3.757037</v>
       </c>
       <c r="G63">
-        <v>7.72602</v>
+        <v>14.238688</v>
       </c>
       <c r="H63">
-        <v>2.619051</v>
+        <v>4.112217</v>
       </c>
       <c r="I63">
-        <v>1.655139</v>
+        <v>2.171074</v>
       </c>
       <c r="J63">
-        <v>16.603015</v>
+        <v>17.447826</v>
       </c>
       <c r="K63">
-        <v>76.915499</v>
+        <v>77.42549699999999</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="1">
-        <v>1200</v>
+        <v>1250</v>
       </c>
       <c r="B64">
-        <v>43.633087</v>
+        <v>47.553487</v>
       </c>
       <c r="C64">
-        <v>207.629818</v>
+        <v>230.20928</v>
       </c>
       <c r="E64" s="1">
-        <v>1200</v>
+        <v>1250</v>
       </c>
       <c r="F64">
-        <v>3.757037</v>
+        <v>0.8656739999999999</v>
       </c>
       <c r="G64">
-        <v>14.238688</v>
+        <v>6.776766</v>
       </c>
       <c r="H64">
-        <v>4.112217</v>
+        <v>5.892848000000001</v>
       </c>
       <c r="I64">
-        <v>2.171074</v>
+        <v>3.633344</v>
       </c>
       <c r="J64">
-        <v>17.447826</v>
+        <v>21.003162</v>
       </c>
       <c r="K64">
-        <v>77.42549699999999</v>
+        <v>93.004475</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="1">
-        <v>1250</v>
+        <v>1300</v>
       </c>
       <c r="B65">
-        <v>47.553487</v>
+        <v>51.4674</v>
       </c>
       <c r="C65">
-        <v>230.20928</v>
+        <v>254.529507</v>
       </c>
       <c r="E65" s="1">
-        <v>1250</v>
+        <v>1300</v>
       </c>
       <c r="F65">
-        <v>0.8656739999999999</v>
+        <v>0.922168</v>
       </c>
       <c r="G65">
-        <v>6.776766</v>
+        <v>6.632109</v>
       </c>
       <c r="H65">
-        <v>5.892848000000001</v>
+        <v>7.630881</v>
       </c>
       <c r="I65">
-        <v>3.633344</v>
+        <v>5.077219</v>
       </c>
       <c r="J65">
-        <v>21.003162</v>
+        <v>25.122854</v>
       </c>
       <c r="K65">
-        <v>93.004475</v>
+        <v>112.468556</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="1">
-        <v>1300</v>
+        <v>1350</v>
       </c>
       <c r="B66">
-        <v>51.4674</v>
+        <v>54.839709</v>
       </c>
       <c r="C66">
-        <v>254.529507</v>
+        <v>270.331639</v>
       </c>
       <c r="E66" s="1">
-        <v>1300</v>
+        <v>1350</v>
       </c>
       <c r="F66">
-        <v>0.922168</v>
+        <v>3.56241</v>
       </c>
       <c r="G66">
-        <v>6.632109</v>
+        <v>6.434983</v>
       </c>
       <c r="H66">
-        <v>7.630881</v>
+        <v>9.206704999999999</v>
       </c>
       <c r="I66">
-        <v>5.077219</v>
+        <v>5.890652999999999</v>
       </c>
       <c r="J66">
-        <v>25.122854</v>
+        <v>27.178456</v>
       </c>
       <c r="K66">
-        <v>112.468556</v>
+        <v>120.800891</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="1">
-        <v>1350</v>
+        <v>1400</v>
       </c>
       <c r="B67">
-        <v>54.839709</v>
+        <v>56.526449</v>
       </c>
       <c r="C67">
-        <v>270.331639</v>
+        <v>243.832556</v>
       </c>
       <c r="E67" s="1">
-        <v>1350</v>
+        <v>1400</v>
       </c>
       <c r="F67">
-        <v>3.56241</v>
+        <v>2.681136</v>
       </c>
       <c r="G67">
-        <v>6.434983</v>
+        <v>3.571881</v>
       </c>
       <c r="H67">
-        <v>9.206704999999999</v>
+        <v>10.459271</v>
       </c>
       <c r="I67">
-        <v>5.890652999999999</v>
+        <v>5.992871</v>
       </c>
       <c r="J67">
-        <v>27.178456</v>
+        <v>27.982608</v>
       </c>
       <c r="K67">
-        <v>120.800891</v>
+        <v>106.625966</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="1">
-        <v>1400</v>
+        <v>1450</v>
       </c>
       <c r="B68">
-        <v>56.526449</v>
+        <v>59.286418</v>
       </c>
       <c r="C68">
-        <v>243.832556</v>
+        <v>256.428747</v>
       </c>
       <c r="E68" s="1">
-        <v>1400</v>
+        <v>1450</v>
       </c>
       <c r="F68">
-        <v>2.681136</v>
+        <v>2.471844</v>
       </c>
       <c r="G68">
-        <v>3.571881</v>
+        <v>2.387076</v>
       </c>
       <c r="H68">
-        <v>10.459271</v>
+        <v>11.858408</v>
       </c>
       <c r="I68">
-        <v>5.992871</v>
+        <v>5.967439</v>
       </c>
       <c r="J68">
-        <v>27.982608</v>
+        <v>24.870776</v>
       </c>
       <c r="K68">
-        <v>106.625966</v>
+        <v>94.794624</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="1">
-        <v>1450</v>
+        <v>1500</v>
       </c>
       <c r="B69">
-        <v>59.286418</v>
+        <v>64.04996800000001</v>
       </c>
       <c r="C69">
-        <v>256.428747</v>
+        <v>286.949487</v>
       </c>
       <c r="E69" s="1">
-        <v>1450</v>
+        <v>1500</v>
       </c>
       <c r="F69">
-        <v>2.471844</v>
+        <v>2.292549</v>
       </c>
       <c r="G69">
-        <v>2.387076</v>
+        <v>3.614172</v>
       </c>
       <c r="H69">
-        <v>11.858408</v>
+        <v>13.981019</v>
       </c>
       <c r="I69">
-        <v>5.967439</v>
+        <v>8.461114</v>
       </c>
       <c r="J69">
-        <v>24.870776</v>
+        <v>31.192519</v>
       </c>
       <c r="K69">
-        <v>94.794624</v>
+        <v>122.000938</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="1">
-        <v>1500</v>
+        <v>1550</v>
       </c>
       <c r="B70">
-        <v>64.04996800000001</v>
+        <v>68.319491</v>
       </c>
       <c r="C70">
-        <v>286.949487</v>
+        <v>311.697845</v>
       </c>
       <c r="E70" s="1">
-        <v>1500</v>
+        <v>1550</v>
       </c>
       <c r="F70">
-        <v>2.292549</v>
+        <v>2.233015</v>
       </c>
       <c r="G70">
-        <v>3.614172</v>
+        <v>1.973316</v>
       </c>
       <c r="H70">
-        <v>13.981019</v>
+        <v>16.063651</v>
       </c>
       <c r="I70">
-        <v>8.461114</v>
+        <v>10.683245</v>
       </c>
       <c r="J70">
-        <v>31.192519</v>
+        <v>34.289611</v>
       </c>
       <c r="K70">
-        <v>122.000938</v>
+        <v>134.650862</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="1">
-        <v>1550</v>
+        <v>1600</v>
       </c>
       <c r="B71">
-        <v>68.319491</v>
+        <v>73.95109100000001</v>
       </c>
       <c r="C71">
-        <v>311.697845</v>
+        <v>356.712605</v>
       </c>
       <c r="E71" s="1">
-        <v>1550</v>
+        <v>1600</v>
       </c>
       <c r="F71">
-        <v>2.233015</v>
+        <v>1.563377</v>
       </c>
       <c r="G71">
-        <v>1.973316</v>
+        <v>1.888898</v>
       </c>
       <c r="H71">
-        <v>16.063651</v>
+        <v>18.686173</v>
       </c>
       <c r="I71">
-        <v>10.683245</v>
+        <v>14.745049</v>
       </c>
       <c r="J71">
-        <v>34.289611</v>
+        <v>41.696018</v>
       </c>
       <c r="K71">
-        <v>134.650862</v>
+        <v>171.934909</v>
       </c>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="1">
-        <v>1600</v>
+        <v>1650</v>
       </c>
       <c r="B72">
-        <v>73.95109100000001</v>
+        <v>78.033475</v>
       </c>
       <c r="C72">
-        <v>356.712605</v>
+        <v>374.014385</v>
       </c>
       <c r="E72" s="1">
-        <v>1600</v>
+        <v>1650</v>
       </c>
       <c r="F72">
-        <v>1.563377</v>
+        <v>2.666182</v>
       </c>
       <c r="G72">
-        <v>1.888898</v>
+        <v>3.268919</v>
       </c>
       <c r="H72">
-        <v>18.686173</v>
+        <v>20.745468</v>
       </c>
       <c r="I72">
-        <v>14.745049</v>
+        <v>16.839499</v>
       </c>
       <c r="J72">
-        <v>41.696018</v>
+        <v>46.465658</v>
       </c>
       <c r="K72">
-        <v>171.934909</v>
+        <v>189.806268</v>
       </c>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="1">
-        <v>1650</v>
+        <v>1700</v>
       </c>
       <c r="B73">
-        <v>78.033475</v>
+        <v>82.49533199999999</v>
       </c>
       <c r="C73">
-        <v>374.014385</v>
+        <v>352.370034</v>
       </c>
       <c r="E73" s="1">
-        <v>1650</v>
+        <v>1700</v>
       </c>
       <c r="F73">
-        <v>2.666182</v>
+        <v>3.403757</v>
       </c>
       <c r="G73">
-        <v>3.268919</v>
+        <v>8.045511999999999</v>
       </c>
       <c r="H73">
-        <v>20.745468</v>
+        <v>23.320198</v>
       </c>
       <c r="I73">
-        <v>16.839499</v>
+        <v>20.020791</v>
       </c>
       <c r="J73">
-        <v>46.465658</v>
+        <v>59.179002</v>
       </c>
       <c r="K73">
-        <v>189.806268</v>
+        <v>214.209313</v>
       </c>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="1">
-        <v>1700</v>
+        <v>1750</v>
       </c>
       <c r="B74">
-        <v>82.49533199999999</v>
+        <v>76.68362500000001</v>
       </c>
       <c r="C74">
-        <v>352.370034</v>
+        <v>286.493373</v>
       </c>
       <c r="E74" s="1">
-        <v>1700</v>
+        <v>1750</v>
       </c>
       <c r="F74">
-        <v>3.403757</v>
+        <v>0.9753059999999999</v>
       </c>
       <c r="G74">
-        <v>8.045511999999999</v>
+        <v>2.490465</v>
       </c>
       <c r="H74">
-        <v>23.320198</v>
+        <v>21.183311</v>
       </c>
       <c r="I74">
-        <v>20.020791</v>
+        <v>10.14749</v>
       </c>
       <c r="J74">
-        <v>59.179002</v>
+        <v>32.053332</v>
       </c>
       <c r="K74">
-        <v>214.209313</v>
+        <v>99.890225</v>
       </c>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="1">
-        <v>1750</v>
+        <v>1800</v>
       </c>
       <c r="B75">
-        <v>76.68362500000001</v>
+        <v>85.200863</v>
       </c>
       <c r="C75">
-        <v>286.493373</v>
+        <v>352.090361</v>
       </c>
       <c r="E75" s="1">
-        <v>1750</v>
+        <v>1800</v>
       </c>
       <c r="F75">
-        <v>0.9753059999999999</v>
+        <v>1.466334</v>
       </c>
       <c r="G75">
-        <v>2.490465</v>
+        <v>2.077316</v>
       </c>
       <c r="H75">
-        <v>21.183311</v>
+        <v>25.267385</v>
       </c>
       <c r="I75">
-        <v>10.14749</v>
+        <v>15.828087</v>
       </c>
       <c r="J75">
-        <v>32.053332</v>
+        <v>42.814744</v>
       </c>
       <c r="K75">
-        <v>99.890225</v>
+        <v>147.635278</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="1">
-        <v>1800</v>
+        <v>1850</v>
       </c>
       <c r="B76">
-        <v>85.200863</v>
+        <v>89.475703</v>
       </c>
       <c r="C76">
-        <v>352.090361</v>
+        <v>361.173392</v>
       </c>
       <c r="E76" s="1">
-        <v>1800</v>
+        <v>1850</v>
       </c>
       <c r="F76">
-        <v>1.466334</v>
+        <v>0.333316</v>
       </c>
       <c r="G76">
-        <v>2.077316</v>
+        <v>6.587652</v>
       </c>
       <c r="H76">
-        <v>25.267385</v>
+        <v>27.845484</v>
       </c>
       <c r="I76">
-        <v>15.828087</v>
+        <v>18.36131</v>
       </c>
       <c r="J76">
-        <v>42.814744</v>
+        <v>47.260513</v>
       </c>
       <c r="K76">
-        <v>147.635278</v>
+        <v>157.543962</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="1">
-        <v>1850</v>
+        <v>1900</v>
       </c>
       <c r="B77">
-        <v>89.475703</v>
+        <v>95.67699399999999</v>
       </c>
       <c r="C77">
-        <v>361.173392</v>
+        <v>404.226119</v>
       </c>
       <c r="E77" s="1">
-        <v>1850</v>
+        <v>1900</v>
       </c>
       <c r="F77">
-        <v>0.333316</v>
+        <v>2.808292</v>
       </c>
       <c r="G77">
-        <v>6.587652</v>
+        <v>7.149445</v>
       </c>
       <c r="H77">
-        <v>27.845484</v>
+        <v>31.158949</v>
       </c>
       <c r="I77">
-        <v>18.36131</v>
+        <v>22.070597</v>
       </c>
       <c r="J77">
-        <v>47.260513</v>
+        <v>52.040869</v>
       </c>
       <c r="K77">
-        <v>157.543962</v>
+        <v>181.120958</v>
       </c>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="1">
-        <v>1900</v>
+        <v>1950</v>
       </c>
       <c r="B78">
-        <v>95.67699399999999</v>
+        <v>99.098152</v>
       </c>
       <c r="C78">
-        <v>404.226119</v>
+        <v>409.067357</v>
       </c>
       <c r="E78" s="1">
-        <v>1900</v>
+        <v>1950</v>
       </c>
       <c r="F78">
-        <v>2.808292</v>
+        <v>3.173919</v>
       </c>
       <c r="G78">
-        <v>7.149445</v>
+        <v>4.40313</v>
       </c>
       <c r="H78">
-        <v>31.158949</v>
+        <v>33.284847</v>
       </c>
       <c r="I78">
-        <v>22.070597</v>
+        <v>21.882322</v>
       </c>
       <c r="J78">
-        <v>52.040869</v>
+        <v>52.254215</v>
       </c>
       <c r="K78">
-        <v>181.120958</v>
+        <v>177.238592</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="1">
-        <v>1950</v>
+        <v>2000</v>
       </c>
       <c r="B79">
-        <v>99.098152</v>
+        <v>113.660148</v>
       </c>
       <c r="C79">
-        <v>409.067357</v>
+        <v>544.3387389999999</v>
       </c>
       <c r="E79" s="1">
-        <v>1950</v>
+        <v>2000</v>
       </c>
       <c r="F79">
-        <v>3.173919</v>
+        <v>1.844088</v>
       </c>
       <c r="G79">
-        <v>4.40313</v>
+        <v>2.986045</v>
       </c>
       <c r="H79">
-        <v>33.284847</v>
+        <v>41.335368</v>
       </c>
       <c r="I79">
-        <v>21.882322</v>
+        <v>39.040208</v>
       </c>
       <c r="J79">
-        <v>52.254215</v>
+        <v>74.110573</v>
       </c>
       <c r="K79">
-        <v>177.238592</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
-      <c r="A80" s="1">
-        <v>2000</v>
-      </c>
-      <c r="B80">
-        <v>113.660148</v>
-      </c>
-      <c r="C80">
-        <v>544.3387389999999</v>
-      </c>
-      <c r="E80" s="1">
-        <v>2000</v>
-      </c>
-      <c r="F80">
-        <v>1.844088</v>
-      </c>
-      <c r="G80">
-        <v>2.986045</v>
-      </c>
-      <c r="H80">
-        <v>41.335368</v>
-      </c>
-      <c r="I80">
-        <v>39.040208</v>
-      </c>
-      <c r="J80">
-        <v>74.110573</v>
-      </c>
-      <c r="K80">
         <v>289.40461</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="10">
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
     <mergeCell ref="F32:K32"/>
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="H33:I33"/>
@@ -4857,9 +4829,6 @@
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="H34:I34"/>
     <mergeCell ref="J34:K34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4868,7 +4837,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A32:K80"/>
+  <dimension ref="A32:K79"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4879,14 +4848,14 @@
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C32" s="1"/>
       <c r="E32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -4899,22 +4868,22 @@
         <v>1</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C33" s="1"/>
       <c r="E33" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K33" s="1"/>
     </row>
@@ -4922,23 +4891,23 @@
       <c r="A34" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="1">
-        <v>110</v>
+      <c r="B34" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C34" s="1"/>
       <c r="E34" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F34" s="1">
-        <v>110</v>
+      <c r="F34" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="G34" s="1"/>
-      <c r="H34" s="1">
-        <v>110</v>
+      <c r="H34" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="I34" s="1"/>
-      <c r="J34" s="1">
-        <v>110</v>
+      <c r="J34" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="K34" s="1"/>
     </row>
@@ -4949,77 +4918,85 @@
       <c r="B35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E35" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G35" s="1"/>
+      <c r="G35" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I35" s="1"/>
+      <c r="I35" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="J35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K35" s="1"/>
+      <c r="K35" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
       <c r="E36" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
+      <c r="B37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
+      <c r="F37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>13</v>
@@ -5028,1350 +5005,1317 @@
         <v>6</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>15</v>
+      <c r="A40" s="1">
+        <v>50</v>
+      </c>
+      <c r="B40">
+        <v>3.583228</v>
+      </c>
+      <c r="C40">
+        <v>3.652575</v>
+      </c>
+      <c r="E40" s="1">
+        <v>50</v>
+      </c>
+      <c r="F40">
+        <v>3.032037</v>
+      </c>
+      <c r="G40">
+        <v>2.483493</v>
+      </c>
+      <c r="H40">
+        <v>3.193106</v>
+      </c>
+      <c r="I40">
+        <v>3.441093</v>
+      </c>
+      <c r="J40">
+        <v>2.633348</v>
+      </c>
+      <c r="K40">
+        <v>2.496391</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B41">
-        <v>3.583228</v>
+        <v>7.829267999999999</v>
       </c>
       <c r="C41">
-        <v>3.652575</v>
+        <v>8.008365</v>
       </c>
       <c r="E41" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F41">
-        <v>3.032037</v>
+        <v>7.822211</v>
       </c>
       <c r="G41">
-        <v>2.483493</v>
+        <v>6.658963000000001</v>
       </c>
       <c r="H41">
-        <v>3.193106</v>
+        <v>8.177826</v>
       </c>
       <c r="I41">
-        <v>3.441093</v>
+        <v>8.791442</v>
       </c>
       <c r="J41">
-        <v>2.633348</v>
+        <v>6.9884</v>
       </c>
       <c r="K41">
-        <v>2.496391</v>
+        <v>6.728803999999999</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="1">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="B42">
-        <v>7.829267999999999</v>
+        <v>11.139512</v>
       </c>
       <c r="C42">
-        <v>8.008365</v>
+        <v>11.465645</v>
       </c>
       <c r="E42" s="1">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="F42">
-        <v>7.822211</v>
+        <v>17.384717</v>
       </c>
       <c r="G42">
-        <v>6.658963000000001</v>
+        <v>16.226204</v>
       </c>
       <c r="H42">
-        <v>8.177826</v>
+        <v>17.817365</v>
       </c>
       <c r="I42">
-        <v>8.791442</v>
+        <v>18.858437</v>
       </c>
       <c r="J42">
-        <v>6.9884</v>
+        <v>16.544443</v>
       </c>
       <c r="K42">
-        <v>6.728803999999999</v>
+        <v>16.455814</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="1">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="B43">
-        <v>11.139512</v>
+        <v>7.280465</v>
       </c>
       <c r="C43">
-        <v>11.465645</v>
+        <v>7.533410000000001</v>
       </c>
       <c r="E43" s="1">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="F43">
-        <v>17.384717</v>
+        <v>5.443902</v>
       </c>
       <c r="G43">
-        <v>16.226204</v>
+        <v>6.395862</v>
       </c>
       <c r="H43">
-        <v>17.817365</v>
+        <v>5.312112</v>
       </c>
       <c r="I43">
-        <v>18.858437</v>
+        <v>5.451698</v>
       </c>
       <c r="J43">
-        <v>16.544443</v>
+        <v>6.07897</v>
       </c>
       <c r="K43">
-        <v>16.455814</v>
+        <v>6.481036</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="B44">
-        <v>7.280465</v>
+        <v>11.226001</v>
       </c>
       <c r="C44">
-        <v>7.533410000000001</v>
+        <v>11.321255</v>
       </c>
       <c r="E44" s="1">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F44">
-        <v>5.443902</v>
+        <v>5.591971</v>
       </c>
       <c r="G44">
-        <v>6.395862</v>
+        <v>4.496051</v>
       </c>
       <c r="H44">
-        <v>5.312112</v>
+        <v>6.178711</v>
       </c>
       <c r="I44">
-        <v>5.451698</v>
+        <v>7.758551</v>
       </c>
       <c r="J44">
-        <v>6.07897</v>
+        <v>4.520197</v>
       </c>
       <c r="K44">
-        <v>6.481036</v>
+        <v>4.547461</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="B45">
-        <v>11.226001</v>
+        <v>17.322719</v>
       </c>
       <c r="C45">
-        <v>11.321255</v>
+        <v>18.560437</v>
       </c>
       <c r="E45" s="1">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="F45">
-        <v>5.591971</v>
+        <v>15.992804</v>
       </c>
       <c r="G45">
-        <v>4.496051</v>
+        <v>12.156685</v>
       </c>
       <c r="H45">
-        <v>6.178711</v>
+        <v>17.784594</v>
       </c>
       <c r="I45">
-        <v>7.758551</v>
+        <v>26.559468</v>
       </c>
       <c r="J45">
-        <v>4.520197</v>
+        <v>12.183847</v>
       </c>
       <c r="K45">
-        <v>4.547461</v>
+        <v>12.652843</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="B46">
-        <v>17.322719</v>
+        <v>14.762832</v>
       </c>
       <c r="C46">
-        <v>18.560437</v>
+        <v>13.468721</v>
       </c>
       <c r="E46" s="1">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="F46">
-        <v>15.992804</v>
+        <v>14.564876</v>
       </c>
       <c r="G46">
-        <v>12.156685</v>
+        <v>5.263637</v>
       </c>
       <c r="H46">
-        <v>17.784594</v>
+        <v>16.963109</v>
       </c>
       <c r="I46">
-        <v>26.559468</v>
+        <v>16.068373</v>
       </c>
       <c r="J46">
-        <v>12.183847</v>
+        <v>9.273930999999999</v>
       </c>
       <c r="K46">
-        <v>12.652843</v>
+        <v>5.476296</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="B47">
-        <v>14.762832</v>
+        <v>19.519794</v>
       </c>
       <c r="C47">
-        <v>13.468721</v>
+        <v>19.748802</v>
       </c>
       <c r="E47" s="1">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="F47">
-        <v>14.564876</v>
+        <v>4.936188</v>
       </c>
       <c r="G47">
-        <v>5.263637</v>
+        <v>1.41646</v>
       </c>
       <c r="H47">
-        <v>16.963109</v>
+        <v>5.916066000000001</v>
       </c>
       <c r="I47">
-        <v>16.068373</v>
+        <v>5.358086</v>
       </c>
       <c r="J47">
-        <v>9.273930999999999</v>
+        <v>2.60227</v>
       </c>
       <c r="K47">
-        <v>5.476296</v>
+        <v>1.468582</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="B48">
-        <v>19.519794</v>
+        <v>26.583023</v>
       </c>
       <c r="C48">
-        <v>19.748802</v>
+        <v>26.590373</v>
       </c>
       <c r="E48" s="1">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="F48">
-        <v>4.936188</v>
+        <v>2.146044</v>
       </c>
       <c r="G48">
-        <v>1.41646</v>
+        <v>2.258988</v>
       </c>
       <c r="H48">
-        <v>5.916066000000001</v>
+        <v>2.114082</v>
       </c>
       <c r="I48">
-        <v>5.358086</v>
+        <v>2.114898</v>
       </c>
       <c r="J48">
-        <v>2.60227</v>
+        <v>2.246584</v>
       </c>
       <c r="K48">
-        <v>1.468582</v>
+        <v>2.287283</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="1">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="B49">
-        <v>26.583023</v>
+        <v>35.274408</v>
       </c>
       <c r="C49">
-        <v>26.590373</v>
+        <v>35.408799</v>
       </c>
       <c r="E49" s="1">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="F49">
-        <v>2.146044</v>
+        <v>8.565154</v>
       </c>
       <c r="G49">
-        <v>2.258988</v>
+        <v>6.452026</v>
       </c>
       <c r="H49">
-        <v>2.114082</v>
+        <v>9.168005000000001</v>
       </c>
       <c r="I49">
-        <v>2.114898</v>
+        <v>9.563288</v>
       </c>
       <c r="J49">
-        <v>2.246584</v>
+        <v>7.215369</v>
       </c>
       <c r="K49">
-        <v>2.287283</v>
+        <v>6.552224</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="1">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="B50">
-        <v>35.274408</v>
+        <v>42.054772</v>
       </c>
       <c r="C50">
-        <v>35.408799</v>
+        <v>42.871323</v>
       </c>
       <c r="E50" s="1">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="F50">
-        <v>8.565154</v>
+        <v>21.402044</v>
       </c>
       <c r="G50">
-        <v>6.452026</v>
+        <v>15.642112</v>
       </c>
       <c r="H50">
-        <v>9.168005000000001</v>
+        <v>23.167331</v>
       </c>
       <c r="I50">
-        <v>9.563288</v>
+        <v>25.837009</v>
       </c>
       <c r="J50">
-        <v>7.215369</v>
+        <v>17.252217</v>
       </c>
       <c r="K50">
-        <v>6.552224</v>
+        <v>15.873696</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="1">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="B51">
-        <v>42.054772</v>
+        <v>32.467953</v>
       </c>
       <c r="C51">
-        <v>42.871323</v>
+        <v>32.097028</v>
       </c>
       <c r="E51" s="1">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="F51">
-        <v>21.402044</v>
+        <v>29.932394</v>
       </c>
       <c r="G51">
-        <v>15.642112</v>
+        <v>24.774093</v>
       </c>
       <c r="H51">
-        <v>23.167331</v>
+        <v>32.558476</v>
       </c>
       <c r="I51">
-        <v>25.837009</v>
+        <v>43.011688</v>
       </c>
       <c r="J51">
-        <v>17.252217</v>
+        <v>24.610742</v>
       </c>
       <c r="K51">
-        <v>15.873696</v>
+        <v>25.23328</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="1">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="B52">
-        <v>32.467953</v>
+        <v>41.094577</v>
       </c>
       <c r="C52">
-        <v>32.097028</v>
+        <v>39.091474</v>
       </c>
       <c r="E52" s="1">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="F52">
-        <v>29.932394</v>
+        <v>19.932985</v>
       </c>
       <c r="G52">
-        <v>24.774093</v>
+        <v>14.688644</v>
       </c>
       <c r="H52">
-        <v>32.558476</v>
+        <v>22.317416</v>
       </c>
       <c r="I52">
-        <v>43.011688</v>
+        <v>24.874586</v>
       </c>
       <c r="J52">
-        <v>24.610742</v>
+        <v>15.514909</v>
       </c>
       <c r="K52">
-        <v>25.23328</v>
+        <v>14.813388</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="1">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="B53">
-        <v>41.094577</v>
+        <v>38.048852</v>
       </c>
       <c r="C53">
-        <v>39.091474</v>
+        <v>39.278865</v>
       </c>
       <c r="E53" s="1">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="F53">
-        <v>19.932985</v>
+        <v>23.561379</v>
       </c>
       <c r="G53">
-        <v>14.688644</v>
+        <v>9.186596</v>
       </c>
       <c r="H53">
-        <v>22.317416</v>
+        <v>26.941594</v>
       </c>
       <c r="I53">
-        <v>24.874586</v>
+        <v>23.611594</v>
       </c>
       <c r="J53">
-        <v>15.514909</v>
+        <v>15.230878</v>
       </c>
       <c r="K53">
-        <v>14.813388</v>
+        <v>9.402819000000001</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="1">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="B54">
-        <v>38.048852</v>
+        <v>60.828872</v>
       </c>
       <c r="C54">
-        <v>39.278865</v>
+        <v>61.74160799999999</v>
       </c>
       <c r="E54" s="1">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="F54">
-        <v>23.561379</v>
+        <v>17.213036</v>
       </c>
       <c r="G54">
-        <v>9.186596</v>
+        <v>6.775133</v>
       </c>
       <c r="H54">
-        <v>26.941594</v>
+        <v>19.750251</v>
       </c>
       <c r="I54">
-        <v>23.611594</v>
+        <v>18.466475</v>
       </c>
       <c r="J54">
-        <v>15.230878</v>
+        <v>10.862991</v>
       </c>
       <c r="K54">
-        <v>9.402819000000001</v>
+        <v>6.953626</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="1">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="B55">
-        <v>60.828872</v>
+        <v>75.731503</v>
       </c>
       <c r="C55">
-        <v>61.74160799999999</v>
+        <v>76.052465</v>
       </c>
       <c r="E55" s="1">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="F55">
-        <v>17.213036</v>
+        <v>13.247001</v>
       </c>
       <c r="G55">
-        <v>6.775133</v>
+        <v>6.800375</v>
       </c>
       <c r="H55">
-        <v>19.750251</v>
+        <v>14.76071</v>
       </c>
       <c r="I55">
-        <v>18.466475</v>
+        <v>14.29982</v>
       </c>
       <c r="J55">
-        <v>10.862991</v>
+        <v>9.410761000000001</v>
       </c>
       <c r="K55">
-        <v>6.953626</v>
+        <v>6.915427999999999</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="1">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="B56">
-        <v>75.731503</v>
+        <v>150.52167</v>
       </c>
       <c r="C56">
-        <v>76.052465</v>
+        <v>150.972995</v>
       </c>
       <c r="E56" s="1">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="F56">
-        <v>13.247001</v>
+        <v>17.300433</v>
       </c>
       <c r="G56">
-        <v>6.800375</v>
+        <v>9.654264999999999</v>
       </c>
       <c r="H56">
-        <v>14.76071</v>
+        <v>19.021235</v>
       </c>
       <c r="I56">
-        <v>14.29982</v>
+        <v>18.771779</v>
       </c>
       <c r="J56">
-        <v>9.410761000000001</v>
+        <v>13.004591</v>
       </c>
       <c r="K56">
-        <v>6.915427999999999</v>
+        <v>9.841509</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="1">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="B57">
-        <v>150.52167</v>
+        <v>89.25584000000001</v>
       </c>
       <c r="C57">
-        <v>150.972995</v>
+        <v>89.140619</v>
       </c>
       <c r="E57" s="1">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="F57">
-        <v>17.300433</v>
+        <v>6.336917</v>
       </c>
       <c r="G57">
-        <v>9.654264999999999</v>
+        <v>6.62402</v>
       </c>
       <c r="H57">
-        <v>19.021235</v>
+        <v>8.297332000000001</v>
       </c>
       <c r="I57">
-        <v>18.771779</v>
+        <v>7.863971</v>
       </c>
       <c r="J57">
-        <v>13.004591</v>
+        <v>3.763029</v>
       </c>
       <c r="K57">
-        <v>9.841509</v>
+        <v>6.670174</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="1">
-        <v>900</v>
+        <v>950</v>
       </c>
       <c r="B58">
-        <v>89.25584000000001</v>
+        <v>181.551647</v>
       </c>
       <c r="C58">
-        <v>89.140619</v>
+        <v>181.628186</v>
       </c>
       <c r="E58" s="1">
-        <v>900</v>
+        <v>950</v>
       </c>
       <c r="F58">
-        <v>6.336917</v>
+        <v>9.163814</v>
       </c>
       <c r="G58">
-        <v>6.62402</v>
+        <v>6.816024000000001</v>
       </c>
       <c r="H58">
-        <v>8.297332000000001</v>
+        <v>9.776388000000001</v>
       </c>
       <c r="I58">
-        <v>7.863971</v>
+        <v>9.75671</v>
       </c>
       <c r="J58">
-        <v>3.763029</v>
+        <v>7.932604</v>
       </c>
       <c r="K58">
-        <v>6.670174</v>
+        <v>7.027077999999999</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="1">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="B59">
-        <v>181.551647</v>
+        <v>339.289972</v>
       </c>
       <c r="C59">
-        <v>181.628186</v>
+        <v>339.092917</v>
       </c>
       <c r="E59" s="1">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="F59">
-        <v>9.163814</v>
+        <v>10.675495</v>
       </c>
       <c r="G59">
-        <v>6.816024000000001</v>
+        <v>9.785569000000001</v>
       </c>
       <c r="H59">
-        <v>9.776388000000001</v>
+        <v>11.1888</v>
       </c>
       <c r="I59">
-        <v>9.75671</v>
+        <v>11.124537</v>
       </c>
       <c r="J59">
-        <v>7.932604</v>
+        <v>9.795697000000001</v>
       </c>
       <c r="K59">
-        <v>7.027077999999999</v>
+        <v>9.894357000000001</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="1">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="B60">
-        <v>339.289972</v>
+        <v>173.387614</v>
       </c>
       <c r="C60">
-        <v>339.092917</v>
+        <v>173.385943</v>
       </c>
       <c r="E60" s="1">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="F60">
-        <v>10.675495</v>
+        <v>3.49981</v>
       </c>
       <c r="G60">
-        <v>9.785569000000001</v>
+        <v>6.175339</v>
       </c>
       <c r="H60">
-        <v>11.1888</v>
+        <v>2.923503</v>
       </c>
       <c r="I60">
-        <v>11.124537</v>
+        <v>2.920428</v>
       </c>
       <c r="J60">
-        <v>9.795697000000001</v>
+        <v>5.144007</v>
       </c>
       <c r="K60">
-        <v>9.894357000000001</v>
+        <v>6.167729</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="1">
-        <v>1050</v>
+        <v>1100</v>
       </c>
       <c r="B61">
-        <v>173.387614</v>
+        <v>115.273193</v>
       </c>
       <c r="C61">
-        <v>173.385943</v>
+        <v>115.346927</v>
       </c>
       <c r="E61" s="1">
-        <v>1050</v>
+        <v>1100</v>
       </c>
       <c r="F61">
-        <v>3.49981</v>
+        <v>0.560128</v>
       </c>
       <c r="G61">
-        <v>6.175339</v>
+        <v>2.488208</v>
       </c>
       <c r="H61">
-        <v>2.923503</v>
+        <v>1.183216</v>
       </c>
       <c r="I61">
-        <v>2.920428</v>
+        <v>1.184645</v>
       </c>
       <c r="J61">
-        <v>5.144007</v>
+        <v>1.473247</v>
       </c>
       <c r="K61">
-        <v>6.167729</v>
+        <v>2.593152</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="1">
-        <v>1100</v>
+        <v>1150</v>
       </c>
       <c r="B62">
-        <v>115.273193</v>
+        <v>86.05020999999999</v>
       </c>
       <c r="C62">
-        <v>115.346927</v>
+        <v>85.880589</v>
       </c>
       <c r="E62" s="1">
-        <v>1100</v>
+        <v>1150</v>
       </c>
       <c r="F62">
-        <v>0.560128</v>
+        <v>2.857702</v>
       </c>
       <c r="G62">
-        <v>2.488208</v>
+        <v>7.72602</v>
       </c>
       <c r="H62">
-        <v>1.183216</v>
+        <v>1.736223</v>
       </c>
       <c r="I62">
-        <v>1.184645</v>
+        <v>1.707228</v>
       </c>
       <c r="J62">
-        <v>1.473247</v>
+        <v>5.577643</v>
       </c>
       <c r="K62">
-        <v>2.593152</v>
+        <v>7.468408999999999</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="1">
-        <v>1150</v>
+        <v>1200</v>
       </c>
       <c r="B63">
-        <v>86.05020999999999</v>
+        <v>77.775564</v>
       </c>
       <c r="C63">
-        <v>85.880589</v>
+        <v>78.56260999999999</v>
       </c>
       <c r="E63" s="1">
-        <v>1150</v>
+        <v>1200</v>
       </c>
       <c r="F63">
-        <v>2.857702</v>
+        <v>3.757037</v>
       </c>
       <c r="G63">
-        <v>7.72602</v>
+        <v>14.238688</v>
       </c>
       <c r="H63">
-        <v>1.736223</v>
+        <v>1.953787</v>
       </c>
       <c r="I63">
-        <v>1.707228</v>
+        <v>1.948396</v>
       </c>
       <c r="J63">
-        <v>5.577643</v>
+        <v>10.025246</v>
       </c>
       <c r="K63">
-        <v>7.468408999999999</v>
+        <v>13.751151</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="1">
-        <v>1200</v>
+        <v>1250</v>
       </c>
       <c r="B64">
-        <v>77.775564</v>
+        <v>69.021946</v>
       </c>
       <c r="C64">
-        <v>78.56260999999999</v>
+        <v>68.79570699999999</v>
       </c>
       <c r="E64" s="1">
-        <v>1200</v>
+        <v>1250</v>
       </c>
       <c r="F64">
-        <v>3.757037</v>
+        <v>0.8656739999999999</v>
       </c>
       <c r="G64">
-        <v>14.238688</v>
+        <v>6.776766</v>
       </c>
       <c r="H64">
-        <v>1.953787</v>
+        <v>1.889625</v>
       </c>
       <c r="I64">
-        <v>1.948396</v>
+        <v>1.968446</v>
       </c>
       <c r="J64">
-        <v>10.025246</v>
+        <v>3.948523</v>
       </c>
       <c r="K64">
-        <v>13.751151</v>
+        <v>6.523839</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="1">
-        <v>1250</v>
+        <v>1300</v>
       </c>
       <c r="B65">
-        <v>69.021946</v>
+        <v>55.794132</v>
       </c>
       <c r="C65">
-        <v>68.79570699999999</v>
+        <v>55.632276</v>
       </c>
       <c r="E65" s="1">
-        <v>1250</v>
+        <v>1300</v>
       </c>
       <c r="F65">
-        <v>0.8656739999999999</v>
+        <v>0.922168</v>
       </c>
       <c r="G65">
-        <v>6.776766</v>
+        <v>6.632109</v>
       </c>
       <c r="H65">
-        <v>1.889625</v>
+        <v>2.021508</v>
       </c>
       <c r="I65">
-        <v>1.968446</v>
+        <v>2.114366</v>
       </c>
       <c r="J65">
-        <v>3.948523</v>
+        <v>3.491494</v>
       </c>
       <c r="K65">
-        <v>6.523839</v>
+        <v>6.405912</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="1">
-        <v>1300</v>
+        <v>1350</v>
       </c>
       <c r="B66">
-        <v>55.794132</v>
+        <v>53.36069699999999</v>
       </c>
       <c r="C66">
-        <v>55.632276</v>
+        <v>53.326257</v>
       </c>
       <c r="E66" s="1">
-        <v>1300</v>
+        <v>1350</v>
       </c>
       <c r="F66">
-        <v>0.922168</v>
+        <v>3.56241</v>
       </c>
       <c r="G66">
-        <v>6.632109</v>
+        <v>6.434983</v>
       </c>
       <c r="H66">
-        <v>2.021508</v>
+        <v>2.926635</v>
       </c>
       <c r="I66">
-        <v>2.114366</v>
+        <v>2.870811</v>
       </c>
       <c r="J66">
-        <v>3.491494</v>
+        <v>4.966012999999999</v>
       </c>
       <c r="K66">
-        <v>6.405912</v>
+        <v>6.200222</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="1">
-        <v>1350</v>
+        <v>1400</v>
       </c>
       <c r="B67">
-        <v>53.36069699999999</v>
+        <v>46.611806</v>
       </c>
       <c r="C67">
-        <v>53.326257</v>
+        <v>46.640744</v>
       </c>
       <c r="E67" s="1">
-        <v>1350</v>
+        <v>1400</v>
       </c>
       <c r="F67">
-        <v>3.56241</v>
+        <v>2.681136</v>
       </c>
       <c r="G67">
-        <v>6.434983</v>
+        <v>3.571881</v>
       </c>
       <c r="H67">
-        <v>2.926635</v>
+        <v>2.608833</v>
       </c>
       <c r="I67">
-        <v>2.870811</v>
+        <v>2.568854</v>
       </c>
       <c r="J67">
-        <v>4.966012999999999</v>
+        <v>3.355349</v>
       </c>
       <c r="K67">
-        <v>6.200222</v>
+        <v>3.419324</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="1">
-        <v>1400</v>
+        <v>1450</v>
       </c>
       <c r="B68">
-        <v>46.611806</v>
+        <v>40.566109</v>
       </c>
       <c r="C68">
-        <v>46.640744</v>
+        <v>40.568391</v>
       </c>
       <c r="E68" s="1">
-        <v>1400</v>
+        <v>1450</v>
       </c>
       <c r="F68">
-        <v>2.681136</v>
+        <v>2.471844</v>
       </c>
       <c r="G68">
-        <v>3.571881</v>
+        <v>2.387076</v>
       </c>
       <c r="H68">
-        <v>2.608833</v>
+        <v>2.532491</v>
       </c>
       <c r="I68">
-        <v>2.568854</v>
+        <v>2.532529</v>
       </c>
       <c r="J68">
-        <v>3.355349</v>
+        <v>2.269589</v>
       </c>
       <c r="K68">
-        <v>3.419324</v>
+        <v>2.252751</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="1">
-        <v>1450</v>
+        <v>1500</v>
       </c>
       <c r="B69">
-        <v>40.566109</v>
+        <v>36.807175</v>
       </c>
       <c r="C69">
-        <v>40.568391</v>
+        <v>36.8256</v>
       </c>
       <c r="E69" s="1">
-        <v>1450</v>
+        <v>1500</v>
       </c>
       <c r="F69">
-        <v>2.471844</v>
+        <v>2.292549</v>
       </c>
       <c r="G69">
-        <v>2.387076</v>
+        <v>3.614172</v>
       </c>
       <c r="H69">
-        <v>2.532491</v>
+        <v>2.418047</v>
       </c>
       <c r="I69">
-        <v>2.532529</v>
+        <v>2.413665</v>
       </c>
       <c r="J69">
-        <v>2.269589</v>
+        <v>2.80833</v>
       </c>
       <c r="K69">
-        <v>2.252751</v>
+        <v>3.407302</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="1">
-        <v>1500</v>
+        <v>1550</v>
       </c>
       <c r="B70">
-        <v>36.807175</v>
+        <v>32.937537</v>
       </c>
       <c r="C70">
-        <v>36.8256</v>
+        <v>32.93985</v>
       </c>
       <c r="E70" s="1">
-        <v>1500</v>
+        <v>1550</v>
       </c>
       <c r="F70">
-        <v>2.292549</v>
+        <v>2.233015</v>
       </c>
       <c r="G70">
-        <v>3.614172</v>
+        <v>1.973316</v>
       </c>
       <c r="H70">
-        <v>2.418047</v>
+        <v>2.368704</v>
       </c>
       <c r="I70">
-        <v>2.413665</v>
+        <v>2.365181</v>
       </c>
       <c r="J70">
-        <v>2.80833</v>
+        <v>1.938237</v>
       </c>
       <c r="K70">
-        <v>3.407302</v>
+        <v>1.892551</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="1">
-        <v>1550</v>
+        <v>1600</v>
       </c>
       <c r="B71">
-        <v>32.937537</v>
+        <v>29.839638</v>
       </c>
       <c r="C71">
-        <v>32.93985</v>
+        <v>29.812636</v>
       </c>
       <c r="E71" s="1">
-        <v>1550</v>
+        <v>1600</v>
       </c>
       <c r="F71">
-        <v>2.233015</v>
+        <v>1.563377</v>
       </c>
       <c r="G71">
-        <v>1.973316</v>
+        <v>1.888898</v>
       </c>
       <c r="H71">
-        <v>2.368704</v>
+        <v>2.092302</v>
       </c>
       <c r="I71">
-        <v>2.365181</v>
+        <v>2.130713</v>
       </c>
       <c r="J71">
-        <v>1.938237</v>
+        <v>0.48611</v>
       </c>
       <c r="K71">
-        <v>1.892551</v>
+        <v>1.68352</v>
       </c>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="1">
-        <v>1600</v>
+        <v>1650</v>
       </c>
       <c r="B72">
-        <v>29.839638</v>
+        <v>28.691137</v>
       </c>
       <c r="C72">
-        <v>29.812636</v>
+        <v>28.70084</v>
       </c>
       <c r="E72" s="1">
-        <v>1600</v>
+        <v>1650</v>
       </c>
       <c r="F72">
-        <v>1.563377</v>
+        <v>2.666182</v>
       </c>
       <c r="G72">
-        <v>1.888898</v>
+        <v>3.268919</v>
       </c>
       <c r="H72">
-        <v>2.092302</v>
+        <v>2.535165</v>
       </c>
       <c r="I72">
-        <v>2.130713</v>
+        <v>2.473144</v>
       </c>
       <c r="J72">
-        <v>0.48611</v>
+        <v>2.762243</v>
       </c>
       <c r="K72">
-        <v>1.68352</v>
+        <v>2.981101</v>
       </c>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="1">
-        <v>1650</v>
+        <v>1700</v>
       </c>
       <c r="B73">
-        <v>28.691137</v>
+        <v>27.035308</v>
       </c>
       <c r="C73">
-        <v>28.70084</v>
+        <v>27.175164</v>
       </c>
       <c r="E73" s="1">
-        <v>1650</v>
+        <v>1700</v>
       </c>
       <c r="F73">
-        <v>2.666182</v>
+        <v>3.403757</v>
       </c>
       <c r="G73">
-        <v>3.268919</v>
+        <v>8.045511999999999</v>
       </c>
       <c r="H73">
-        <v>2.535165</v>
+        <v>2.606655</v>
       </c>
       <c r="I73">
-        <v>2.473144</v>
+        <v>2.181452</v>
       </c>
       <c r="J73">
-        <v>2.762243</v>
+        <v>6.173961</v>
       </c>
       <c r="K73">
-        <v>2.981101</v>
+        <v>7.446447</v>
       </c>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="1">
-        <v>1700</v>
+        <v>1750</v>
       </c>
       <c r="B74">
-        <v>27.035308</v>
+        <v>24.875474</v>
       </c>
       <c r="C74">
-        <v>27.175164</v>
+        <v>24.820439</v>
       </c>
       <c r="E74" s="1">
-        <v>1700</v>
+        <v>1750</v>
       </c>
       <c r="F74">
-        <v>3.403757</v>
+        <v>0.9753059999999999</v>
       </c>
       <c r="G74">
-        <v>8.045511999999999</v>
+        <v>2.490465</v>
       </c>
       <c r="H74">
-        <v>2.606655</v>
+        <v>1.817551</v>
       </c>
       <c r="I74">
-        <v>2.181452</v>
+        <v>1.99797</v>
       </c>
       <c r="J74">
-        <v>6.173961</v>
+        <v>1.495956</v>
       </c>
       <c r="K74">
-        <v>7.446447</v>
+        <v>2.327818</v>
       </c>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="1">
-        <v>1750</v>
+        <v>1800</v>
       </c>
       <c r="B75">
-        <v>24.875474</v>
+        <v>23.149733</v>
       </c>
       <c r="C75">
-        <v>24.820439</v>
+        <v>23.124739</v>
       </c>
       <c r="E75" s="1">
-        <v>1750</v>
+        <v>1800</v>
       </c>
       <c r="F75">
-        <v>0.9753059999999999</v>
+        <v>1.466334</v>
       </c>
       <c r="G75">
-        <v>2.490465</v>
+        <v>2.077316</v>
       </c>
       <c r="H75">
-        <v>1.817551</v>
+        <v>1.969132</v>
       </c>
       <c r="I75">
-        <v>1.99797</v>
+        <v>2.02444</v>
       </c>
       <c r="J75">
-        <v>1.495956</v>
+        <v>1.275982</v>
       </c>
       <c r="K75">
-        <v>2.327818</v>
+        <v>1.936215</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="1">
-        <v>1800</v>
+        <v>1850</v>
       </c>
       <c r="B76">
-        <v>23.149733</v>
+        <v>22.103807</v>
       </c>
       <c r="C76">
-        <v>23.124739</v>
+        <v>21.964177</v>
       </c>
       <c r="E76" s="1">
-        <v>1800</v>
+        <v>1850</v>
       </c>
       <c r="F76">
-        <v>1.466334</v>
+        <v>0.333316</v>
       </c>
       <c r="G76">
-        <v>2.077316</v>
+        <v>6.587652</v>
       </c>
       <c r="H76">
-        <v>1.969132</v>
+        <v>1.312857</v>
       </c>
       <c r="I76">
-        <v>2.02444</v>
+        <v>1.626145</v>
       </c>
       <c r="J76">
-        <v>1.275982</v>
+        <v>3.701392</v>
       </c>
       <c r="K76">
-        <v>1.936215</v>
+        <v>6.024259</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="1">
-        <v>1850</v>
+        <v>1900</v>
       </c>
       <c r="B77">
-        <v>22.103807</v>
+        <v>20.417299</v>
       </c>
       <c r="C77">
-        <v>21.964177</v>
+        <v>20.489453</v>
       </c>
       <c r="E77" s="1">
-        <v>1850</v>
+        <v>1900</v>
       </c>
       <c r="F77">
-        <v>0.333316</v>
+        <v>2.808292</v>
       </c>
       <c r="G77">
-        <v>6.587652</v>
+        <v>7.149445</v>
       </c>
       <c r="H77">
-        <v>1.312857</v>
+        <v>2.447093</v>
       </c>
       <c r="I77">
-        <v>1.626145</v>
+        <v>2.513833</v>
       </c>
       <c r="J77">
-        <v>3.701392</v>
+        <v>4.303453</v>
       </c>
       <c r="K77">
-        <v>6.024259</v>
+        <v>6.391245</v>
       </c>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="1">
-        <v>1900</v>
+        <v>1950</v>
       </c>
       <c r="B78">
-        <v>20.417299</v>
+        <v>19.960267</v>
       </c>
       <c r="C78">
-        <v>20.489453</v>
+        <v>19.959667</v>
       </c>
       <c r="E78" s="1">
-        <v>1900</v>
+        <v>1950</v>
       </c>
       <c r="F78">
-        <v>2.808292</v>
+        <v>3.173919</v>
       </c>
       <c r="G78">
-        <v>7.149445</v>
+        <v>4.40313</v>
       </c>
       <c r="H78">
-        <v>2.447093</v>
+        <v>2.837223</v>
       </c>
       <c r="I78">
-        <v>2.513833</v>
+        <v>2.726997</v>
       </c>
       <c r="J78">
-        <v>4.303453</v>
+        <v>3.419316</v>
       </c>
       <c r="K78">
-        <v>6.391245</v>
+        <v>3.850047</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="1">
-        <v>1950</v>
+        <v>2000</v>
       </c>
       <c r="B79">
-        <v>19.960267</v>
+        <v>20.168576</v>
       </c>
       <c r="C79">
-        <v>19.959667</v>
+        <v>20.129558</v>
       </c>
       <c r="E79" s="1">
-        <v>1950</v>
+        <v>2000</v>
       </c>
       <c r="F79">
-        <v>3.173919</v>
+        <v>1.844088</v>
       </c>
       <c r="G79">
-        <v>4.40313</v>
+        <v>2.986045</v>
       </c>
       <c r="H79">
-        <v>2.837223</v>
+        <v>2.268769</v>
       </c>
       <c r="I79">
-        <v>2.726997</v>
+        <v>2.284618</v>
       </c>
       <c r="J79">
-        <v>3.419316</v>
+        <v>1.107591</v>
       </c>
       <c r="K79">
-        <v>3.850047</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
-      <c r="A80" s="1">
-        <v>2000</v>
-      </c>
-      <c r="B80">
-        <v>20.168576</v>
-      </c>
-      <c r="C80">
-        <v>20.129558</v>
-      </c>
-      <c r="E80" s="1">
-        <v>2000</v>
-      </c>
-      <c r="F80">
-        <v>1.844088</v>
-      </c>
-      <c r="G80">
-        <v>2.986045</v>
-      </c>
-      <c r="H80">
-        <v>2.268769</v>
-      </c>
-      <c r="I80">
-        <v>2.284618</v>
-      </c>
-      <c r="J80">
-        <v>1.107591</v>
-      </c>
-      <c r="K80">
         <v>2.771621</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="10">
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
     <mergeCell ref="F32:K32"/>
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="H33:I33"/>
@@ -6379,9 +6323,6 @@
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="H34:I34"/>
     <mergeCell ref="J34:K34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6390,7 +6331,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A32:K80"/>
+  <dimension ref="A32:K79"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6401,14 +6342,14 @@
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C32" s="1"/>
       <c r="E32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -6421,22 +6362,22 @@
         <v>1</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C33" s="1"/>
       <c r="E33" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K33" s="1"/>
     </row>
@@ -6444,23 +6385,23 @@
       <c r="A34" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="1">
-        <v>220</v>
+      <c r="B34" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C34" s="1"/>
       <c r="E34" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F34" s="1">
-        <v>220</v>
+      <c r="F34" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="G34" s="1"/>
-      <c r="H34" s="1">
-        <v>220</v>
+      <c r="H34" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="I34" s="1"/>
-      <c r="J34" s="1">
-        <v>220</v>
+      <c r="J34" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="K34" s="1"/>
     </row>
@@ -6471,77 +6412,85 @@
       <c r="B35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E35" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G35" s="1"/>
+      <c r="G35" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I35" s="1"/>
+      <c r="I35" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="J35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K35" s="1"/>
+      <c r="K35" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
       <c r="E36" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
+      <c r="B37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
+      <c r="F37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>13</v>
@@ -6550,1350 +6499,1317 @@
         <v>6</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>15</v>
+      <c r="A40" s="1">
+        <v>50</v>
+      </c>
+      <c r="B40">
+        <v>8.177883999999999</v>
+      </c>
+      <c r="C40">
+        <v>9.045693</v>
+      </c>
+      <c r="E40" s="1">
+        <v>50</v>
+      </c>
+      <c r="F40">
+        <v>7.616954</v>
+      </c>
+      <c r="G40">
+        <v>5.710516999999999</v>
+      </c>
+      <c r="H40">
+        <v>3.193106</v>
+      </c>
+      <c r="I40">
+        <v>3.441093</v>
+      </c>
+      <c r="J40">
+        <v>6.225482</v>
+      </c>
+      <c r="K40">
+        <v>5.75264</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B41">
-        <v>8.177883999999999</v>
+        <v>20.278695</v>
       </c>
       <c r="C41">
-        <v>9.045693</v>
+        <v>22.382377</v>
       </c>
       <c r="E41" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F41">
-        <v>7.616954</v>
+        <v>19.067335</v>
       </c>
       <c r="G41">
-        <v>5.710516999999999</v>
+        <v>15.128627</v>
       </c>
       <c r="H41">
-        <v>3.193106</v>
+        <v>8.177826</v>
       </c>
       <c r="I41">
-        <v>3.441093</v>
+        <v>8.791442</v>
       </c>
       <c r="J41">
-        <v>6.225482</v>
+        <v>16.180265</v>
       </c>
       <c r="K41">
-        <v>5.75264</v>
+        <v>15.312774</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="1">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="B42">
-        <v>20.278695</v>
+        <v>39.737107</v>
       </c>
       <c r="C42">
-        <v>22.382377</v>
+        <v>43.127152</v>
       </c>
       <c r="E42" s="1">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="F42">
-        <v>19.067335</v>
+        <v>38.400972</v>
       </c>
       <c r="G42">
-        <v>15.128627</v>
+        <v>35.180322</v>
       </c>
       <c r="H42">
-        <v>8.177826</v>
+        <v>17.817365</v>
       </c>
       <c r="I42">
-        <v>8.791442</v>
+        <v>18.858437</v>
       </c>
       <c r="J42">
-        <v>16.180265</v>
+        <v>35.728177</v>
       </c>
       <c r="K42">
-        <v>15.312774</v>
+        <v>35.688283</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="1">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="B43">
-        <v>39.737107</v>
+        <v>11.191863</v>
       </c>
       <c r="C43">
-        <v>43.127152</v>
+        <v>13.987459</v>
       </c>
       <c r="E43" s="1">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="F43">
-        <v>38.400972</v>
+        <v>10.533597</v>
       </c>
       <c r="G43">
-        <v>35.180322</v>
+        <v>12.461905</v>
       </c>
       <c r="H43">
-        <v>17.817365</v>
+        <v>5.312112</v>
       </c>
       <c r="I43">
-        <v>18.858437</v>
+        <v>5.451698</v>
       </c>
       <c r="J43">
-        <v>35.728177</v>
+        <v>11.132556</v>
       </c>
       <c r="K43">
-        <v>35.688283</v>
+        <v>12.581973</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="B44">
-        <v>11.191863</v>
+        <v>19.981238</v>
       </c>
       <c r="C44">
-        <v>13.987459</v>
+        <v>26.031497</v>
       </c>
       <c r="E44" s="1">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F44">
-        <v>10.533597</v>
+        <v>17.195813</v>
       </c>
       <c r="G44">
-        <v>12.461905</v>
+        <v>10.475897</v>
       </c>
       <c r="H44">
-        <v>5.312112</v>
+        <v>6.178711</v>
       </c>
       <c r="I44">
-        <v>5.451698</v>
+        <v>7.758551</v>
       </c>
       <c r="J44">
-        <v>11.132556</v>
+        <v>11.397066</v>
       </c>
       <c r="K44">
-        <v>12.581973</v>
+        <v>10.64086</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="B45">
-        <v>19.981238</v>
+        <v>61.60369</v>
       </c>
       <c r="C45">
-        <v>26.031497</v>
+        <v>92.509884</v>
       </c>
       <c r="E45" s="1">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="F45">
-        <v>17.195813</v>
+        <v>54.93826600000001</v>
       </c>
       <c r="G45">
-        <v>10.475897</v>
+        <v>39.358243</v>
       </c>
       <c r="H45">
-        <v>6.178711</v>
+        <v>17.784594</v>
       </c>
       <c r="I45">
-        <v>7.758551</v>
+        <v>26.559468</v>
       </c>
       <c r="J45">
-        <v>11.397066</v>
+        <v>40.322492</v>
       </c>
       <c r="K45">
-        <v>10.64086</v>
+        <v>41.018539</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="B46">
-        <v>61.60369</v>
+        <v>50.58106</v>
       </c>
       <c r="C46">
-        <v>92.509884</v>
+        <v>48.642613</v>
       </c>
       <c r="E46" s="1">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="F46">
-        <v>54.93826600000001</v>
+        <v>43.483297</v>
       </c>
       <c r="G46">
-        <v>39.358243</v>
+        <v>17.03965</v>
       </c>
       <c r="H46">
-        <v>17.784594</v>
+        <v>16.963109</v>
       </c>
       <c r="I46">
-        <v>26.559468</v>
+        <v>16.068373</v>
       </c>
       <c r="J46">
-        <v>40.322492</v>
+        <v>28.154772</v>
       </c>
       <c r="K46">
-        <v>41.018539</v>
+        <v>17.669775</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="B47">
-        <v>50.58106</v>
+        <v>15.945852</v>
       </c>
       <c r="C47">
-        <v>48.642613</v>
+        <v>14.779789</v>
       </c>
       <c r="E47" s="1">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="F47">
-        <v>43.483297</v>
+        <v>13.571006</v>
       </c>
       <c r="G47">
-        <v>17.03965</v>
+        <v>4.619344</v>
       </c>
       <c r="H47">
-        <v>16.963109</v>
+        <v>5.916066000000001</v>
       </c>
       <c r="I47">
-        <v>16.068373</v>
+        <v>5.358086</v>
       </c>
       <c r="J47">
-        <v>28.154772</v>
+        <v>7.803354</v>
       </c>
       <c r="K47">
-        <v>17.669775</v>
+        <v>4.770729</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="B48">
-        <v>15.945852</v>
+        <v>5.271320999999999</v>
       </c>
       <c r="C48">
-        <v>14.779789</v>
+        <v>5.362319</v>
       </c>
       <c r="E48" s="1">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="F48">
-        <v>13.571006</v>
+        <v>4.602694000000001</v>
       </c>
       <c r="G48">
-        <v>4.619344</v>
+        <v>2.058611</v>
       </c>
       <c r="H48">
-        <v>5.916066000000001</v>
+        <v>2.114082</v>
       </c>
       <c r="I48">
-        <v>5.358086</v>
+        <v>2.114898</v>
       </c>
       <c r="J48">
-        <v>7.803354</v>
+        <v>2.996337</v>
       </c>
       <c r="K48">
-        <v>4.770729</v>
+        <v>2.125864</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="1">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="B49">
-        <v>5.271320999999999</v>
+        <v>20.280967</v>
       </c>
       <c r="C49">
-        <v>5.362319</v>
+        <v>21.668729</v>
       </c>
       <c r="E49" s="1">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="F49">
-        <v>4.602694000000001</v>
+        <v>17.968659</v>
       </c>
       <c r="G49">
-        <v>2.058611</v>
+        <v>9.399245000000001</v>
       </c>
       <c r="H49">
-        <v>2.114082</v>
+        <v>9.168005000000001</v>
       </c>
       <c r="I49">
-        <v>2.114898</v>
+        <v>9.563288</v>
       </c>
       <c r="J49">
-        <v>2.996337</v>
+        <v>12.45005</v>
       </c>
       <c r="K49">
-        <v>2.125864</v>
+        <v>9.664922000000001</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="1">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="B50">
-        <v>20.280967</v>
+        <v>47.958731</v>
       </c>
       <c r="C50">
-        <v>21.668729</v>
+        <v>55.583249</v>
       </c>
       <c r="E50" s="1">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="F50">
-        <v>17.968659</v>
+        <v>42.66742</v>
       </c>
       <c r="G50">
-        <v>9.399245000000001</v>
+        <v>25.227782</v>
       </c>
       <c r="H50">
-        <v>9.168005000000001</v>
+        <v>23.167331</v>
       </c>
       <c r="I50">
-        <v>9.563288</v>
+        <v>25.837009</v>
       </c>
       <c r="J50">
-        <v>12.45005</v>
+        <v>30.249508</v>
       </c>
       <c r="K50">
-        <v>9.664922000000001</v>
+        <v>25.828186</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="1">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="B51">
-        <v>47.958731</v>
+        <v>84.15586400000001</v>
       </c>
       <c r="C51">
-        <v>55.583249</v>
+        <v>114.355382</v>
       </c>
       <c r="E51" s="1">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="F51">
-        <v>42.66742</v>
+        <v>74.0312</v>
       </c>
       <c r="G51">
-        <v>25.227782</v>
+        <v>48.287295</v>
       </c>
       <c r="H51">
-        <v>23.167331</v>
+        <v>32.558476</v>
       </c>
       <c r="I51">
-        <v>25.837009</v>
+        <v>43.011688</v>
       </c>
       <c r="J51">
-        <v>30.249508</v>
+        <v>51.29153400000001</v>
       </c>
       <c r="K51">
-        <v>25.828186</v>
+        <v>49.376896</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="1">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="B52">
-        <v>84.15586400000001</v>
+        <v>72.093655</v>
       </c>
       <c r="C52">
-        <v>114.355382</v>
+        <v>73.006311</v>
       </c>
       <c r="E52" s="1">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="F52">
-        <v>74.0312</v>
+        <v>62.173136</v>
       </c>
       <c r="G52">
-        <v>48.287295</v>
+        <v>26.206891</v>
       </c>
       <c r="H52">
-        <v>32.558476</v>
+        <v>22.317416</v>
       </c>
       <c r="I52">
-        <v>43.011688</v>
+        <v>24.874586</v>
       </c>
       <c r="J52">
-        <v>51.29153400000001</v>
+        <v>39.002327</v>
       </c>
       <c r="K52">
-        <v>49.376896</v>
+        <v>26.653504</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="1">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="B53">
-        <v>72.093655</v>
+        <v>56.498202</v>
       </c>
       <c r="C53">
-        <v>73.006311</v>
+        <v>48.379344</v>
       </c>
       <c r="E53" s="1">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="F53">
-        <v>62.173136</v>
+        <v>48.62262800000001</v>
       </c>
       <c r="G53">
-        <v>26.206891</v>
+        <v>14.68128</v>
       </c>
       <c r="H53">
-        <v>22.317416</v>
+        <v>26.941594</v>
       </c>
       <c r="I53">
-        <v>24.874586</v>
+        <v>23.611594</v>
       </c>
       <c r="J53">
-        <v>39.002327</v>
+        <v>29.008036</v>
       </c>
       <c r="K53">
-        <v>26.653504</v>
+        <v>15.132953</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="1">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="B54">
-        <v>56.498202</v>
+        <v>30.392696</v>
       </c>
       <c r="C54">
-        <v>48.379344</v>
+        <v>28.56503</v>
       </c>
       <c r="E54" s="1">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="F54">
-        <v>48.62262800000001</v>
+        <v>26.67355</v>
       </c>
       <c r="G54">
-        <v>14.68128</v>
+        <v>11.159158</v>
       </c>
       <c r="H54">
-        <v>26.941594</v>
+        <v>19.750251</v>
       </c>
       <c r="I54">
-        <v>23.611594</v>
+        <v>18.466475</v>
       </c>
       <c r="J54">
-        <v>29.008036</v>
+        <v>17.349716</v>
       </c>
       <c r="K54">
-        <v>15.132953</v>
+        <v>11.396176</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="1">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="B55">
-        <v>30.392696</v>
+        <v>20.916946</v>
       </c>
       <c r="C55">
-        <v>28.56503</v>
+        <v>20.219609</v>
       </c>
       <c r="E55" s="1">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="F55">
-        <v>26.67355</v>
+        <v>18.55902</v>
       </c>
       <c r="G55">
-        <v>11.159158</v>
+        <v>8.583908000000001</v>
       </c>
       <c r="H55">
-        <v>19.750251</v>
+        <v>14.76071</v>
       </c>
       <c r="I55">
-        <v>18.466475</v>
+        <v>14.29982</v>
       </c>
       <c r="J55">
-        <v>17.349716</v>
+        <v>12.601856</v>
       </c>
       <c r="K55">
-        <v>11.396176</v>
+        <v>8.73502</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="1">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="B56">
-        <v>20.916946</v>
+        <v>14.206881</v>
       </c>
       <c r="C56">
-        <v>20.219609</v>
+        <v>13.987996</v>
       </c>
       <c r="E56" s="1">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="F56">
-        <v>18.55902</v>
+        <v>12.816734</v>
       </c>
       <c r="G56">
-        <v>8.583908000000001</v>
+        <v>6.620744</v>
       </c>
       <c r="H56">
-        <v>14.76071</v>
+        <v>19.021235</v>
       </c>
       <c r="I56">
-        <v>14.29982</v>
+        <v>18.771779</v>
       </c>
       <c r="J56">
-        <v>12.601856</v>
+        <v>9.275408000000001</v>
       </c>
       <c r="K56">
-        <v>8.73502</v>
+        <v>6.712081</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="1">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="B57">
-        <v>14.206881</v>
+        <v>11.115701</v>
       </c>
       <c r="C57">
-        <v>13.987996</v>
+        <v>11.029437</v>
       </c>
       <c r="E57" s="1">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="F57">
-        <v>12.816734</v>
+        <v>9.854863</v>
       </c>
       <c r="G57">
-        <v>6.620744</v>
+        <v>4.866738</v>
       </c>
       <c r="H57">
-        <v>19.021235</v>
+        <v>8.297332000000001</v>
       </c>
       <c r="I57">
-        <v>18.771779</v>
+        <v>7.863971</v>
       </c>
       <c r="J57">
-        <v>9.275408000000001</v>
+        <v>6.982161</v>
       </c>
       <c r="K57">
-        <v>6.712081</v>
+        <v>4.91389</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="1">
-        <v>900</v>
+        <v>950</v>
       </c>
       <c r="B58">
-        <v>11.115701</v>
+        <v>7.424647999999999</v>
       </c>
       <c r="C58">
-        <v>11.029437</v>
+        <v>7.350207000000001</v>
       </c>
       <c r="E58" s="1">
-        <v>900</v>
+        <v>950</v>
       </c>
       <c r="F58">
-        <v>9.854863</v>
+        <v>6.549277</v>
       </c>
       <c r="G58">
-        <v>4.866738</v>
+        <v>2.853438</v>
       </c>
       <c r="H58">
-        <v>8.297332000000001</v>
+        <v>9.776388000000001</v>
       </c>
       <c r="I58">
-        <v>7.863971</v>
+        <v>9.75671</v>
       </c>
       <c r="J58">
-        <v>6.982161</v>
+        <v>4.267408000000001</v>
       </c>
       <c r="K58">
-        <v>4.91389</v>
+        <v>2.866213</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="1">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="B59">
-        <v>7.424647999999999</v>
+        <v>4.851747</v>
       </c>
       <c r="C59">
-        <v>7.350207000000001</v>
+        <v>4.822805000000001</v>
       </c>
       <c r="E59" s="1">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="F59">
-        <v>6.549277</v>
+        <v>4.261851</v>
       </c>
       <c r="G59">
-        <v>2.853438</v>
+        <v>1.759982</v>
       </c>
       <c r="H59">
-        <v>9.776388000000001</v>
+        <v>11.1888</v>
       </c>
       <c r="I59">
-        <v>9.75671</v>
+        <v>11.124537</v>
       </c>
       <c r="J59">
-        <v>4.267408000000001</v>
+        <v>2.709729</v>
       </c>
       <c r="K59">
-        <v>2.866213</v>
+        <v>1.773787</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="1">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="B60">
-        <v>4.851747</v>
+        <v>2.635696</v>
       </c>
       <c r="C60">
-        <v>4.822805000000001</v>
+        <v>2.632109</v>
       </c>
       <c r="E60" s="1">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="F60">
-        <v>4.261851</v>
+        <v>2.328484</v>
       </c>
       <c r="G60">
-        <v>1.759982</v>
+        <v>1.0527</v>
       </c>
       <c r="H60">
-        <v>11.1888</v>
+        <v>2.923503</v>
       </c>
       <c r="I60">
-        <v>11.124537</v>
+        <v>2.920428</v>
       </c>
       <c r="J60">
-        <v>2.709729</v>
+        <v>1.522669</v>
       </c>
       <c r="K60">
-        <v>1.773787</v>
+        <v>1.056658</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="1">
-        <v>1050</v>
+        <v>1100</v>
       </c>
       <c r="B61">
-        <v>2.635696</v>
+        <v>1.699662</v>
       </c>
       <c r="C61">
-        <v>2.632109</v>
+        <v>1.701593</v>
       </c>
       <c r="E61" s="1">
-        <v>1050</v>
+        <v>1100</v>
       </c>
       <c r="F61">
-        <v>2.328484</v>
+        <v>1.500329</v>
       </c>
       <c r="G61">
-        <v>1.0527</v>
+        <v>0.6402369999999999</v>
       </c>
       <c r="H61">
-        <v>2.923503</v>
+        <v>1.183216</v>
       </c>
       <c r="I61">
-        <v>2.920428</v>
+        <v>1.184645</v>
       </c>
       <c r="J61">
-        <v>1.522669</v>
+        <v>0.9533450000000001</v>
       </c>
       <c r="K61">
-        <v>1.056658</v>
+        <v>0.636313</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="1">
-        <v>1100</v>
+        <v>1150</v>
       </c>
       <c r="B62">
-        <v>1.699662</v>
+        <v>2.824301</v>
       </c>
       <c r="C62">
-        <v>1.701593</v>
+        <v>2.828585</v>
       </c>
       <c r="E62" s="1">
-        <v>1100</v>
+        <v>1150</v>
       </c>
       <c r="F62">
-        <v>1.500329</v>
+        <v>2.619051</v>
       </c>
       <c r="G62">
-        <v>0.6402369999999999</v>
+        <v>1.655139</v>
       </c>
       <c r="H62">
-        <v>1.183216</v>
+        <v>1.736223</v>
       </c>
       <c r="I62">
-        <v>1.184645</v>
+        <v>1.707228</v>
       </c>
       <c r="J62">
-        <v>0.9533450000000001</v>
+        <v>2.028014</v>
       </c>
       <c r="K62">
-        <v>0.636313</v>
+        <v>1.634063</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="1">
-        <v>1150</v>
+        <v>1200</v>
       </c>
       <c r="B63">
-        <v>2.824301</v>
+        <v>4.545652</v>
       </c>
       <c r="C63">
-        <v>2.828585</v>
+        <v>4.56283</v>
       </c>
       <c r="E63" s="1">
-        <v>1150</v>
+        <v>1200</v>
       </c>
       <c r="F63">
-        <v>2.619051</v>
+        <v>4.112217</v>
       </c>
       <c r="G63">
-        <v>1.655139</v>
+        <v>2.171074</v>
       </c>
       <c r="H63">
-        <v>1.736223</v>
+        <v>1.953787</v>
       </c>
       <c r="I63">
-        <v>1.707228</v>
+        <v>1.948396</v>
       </c>
       <c r="J63">
-        <v>2.028014</v>
+        <v>2.845913</v>
       </c>
       <c r="K63">
-        <v>1.634063</v>
+        <v>2.129205</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="1">
-        <v>1200</v>
+        <v>1250</v>
       </c>
       <c r="B64">
-        <v>4.545652</v>
+        <v>6.356386</v>
       </c>
       <c r="C64">
-        <v>4.56283</v>
+        <v>6.372303</v>
       </c>
       <c r="E64" s="1">
-        <v>1200</v>
+        <v>1250</v>
       </c>
       <c r="F64">
-        <v>4.112217</v>
+        <v>5.892848000000001</v>
       </c>
       <c r="G64">
-        <v>2.171074</v>
+        <v>3.633344</v>
       </c>
       <c r="H64">
-        <v>1.953787</v>
+        <v>1.889625</v>
       </c>
       <c r="I64">
-        <v>1.948396</v>
+        <v>1.968446</v>
       </c>
       <c r="J64">
-        <v>2.845913</v>
+        <v>4.447322</v>
       </c>
       <c r="K64">
-        <v>2.129205</v>
+        <v>3.547209</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="1">
-        <v>1250</v>
+        <v>1300</v>
       </c>
       <c r="B65">
-        <v>6.356386</v>
+        <v>8.107858999999999</v>
       </c>
       <c r="C65">
-        <v>6.372303</v>
+        <v>8.117355999999999</v>
       </c>
       <c r="E65" s="1">
-        <v>1250</v>
+        <v>1300</v>
       </c>
       <c r="F65">
-        <v>5.892848000000001</v>
+        <v>7.630881</v>
       </c>
       <c r="G65">
-        <v>3.633344</v>
+        <v>5.077219</v>
       </c>
       <c r="H65">
-        <v>1.889625</v>
+        <v>2.021508</v>
       </c>
       <c r="I65">
-        <v>1.968446</v>
+        <v>2.114366</v>
       </c>
       <c r="J65">
-        <v>4.447322</v>
+        <v>6.08536</v>
       </c>
       <c r="K65">
-        <v>3.547209</v>
+        <v>4.934837</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="1">
-        <v>1300</v>
+        <v>1350</v>
       </c>
       <c r="B66">
-        <v>8.107858999999999</v>
+        <v>9.812360999999999</v>
       </c>
       <c r="C66">
-        <v>8.117355999999999</v>
+        <v>9.829367999999999</v>
       </c>
       <c r="E66" s="1">
-        <v>1300</v>
+        <v>1350</v>
       </c>
       <c r="F66">
-        <v>7.630881</v>
+        <v>9.206704999999999</v>
       </c>
       <c r="G66">
-        <v>5.077219</v>
+        <v>5.890652999999999</v>
       </c>
       <c r="H66">
-        <v>2.021508</v>
+        <v>2.926635</v>
       </c>
       <c r="I66">
-        <v>2.114366</v>
+        <v>2.870811</v>
       </c>
       <c r="J66">
-        <v>6.08536</v>
+        <v>7.176842</v>
       </c>
       <c r="K66">
-        <v>4.934837</v>
+        <v>5.699039</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="1">
-        <v>1350</v>
+        <v>1400</v>
       </c>
       <c r="B67">
-        <v>9.812360999999999</v>
+        <v>11.401085</v>
       </c>
       <c r="C67">
-        <v>9.829367999999999</v>
+        <v>11.439799</v>
       </c>
       <c r="E67" s="1">
-        <v>1350</v>
+        <v>1400</v>
       </c>
       <c r="F67">
-        <v>9.206704999999999</v>
+        <v>10.459271</v>
       </c>
       <c r="G67">
-        <v>5.890652999999999</v>
+        <v>5.992871</v>
       </c>
       <c r="H67">
-        <v>2.926635</v>
+        <v>2.608833</v>
       </c>
       <c r="I67">
-        <v>2.870811</v>
+        <v>2.568854</v>
       </c>
       <c r="J67">
-        <v>7.176842</v>
+        <v>8.157719999999999</v>
       </c>
       <c r="K67">
-        <v>5.699039</v>
+        <v>5.76355</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="1">
-        <v>1400</v>
+        <v>1450</v>
       </c>
       <c r="B68">
-        <v>11.401085</v>
+        <v>13.124544</v>
       </c>
       <c r="C68">
-        <v>11.439799</v>
+        <v>13.236114</v>
       </c>
       <c r="E68" s="1">
-        <v>1400</v>
+        <v>1450</v>
       </c>
       <c r="F68">
-        <v>10.459271</v>
+        <v>11.858408</v>
       </c>
       <c r="G68">
-        <v>5.992871</v>
+        <v>5.967439</v>
       </c>
       <c r="H68">
-        <v>2.608833</v>
+        <v>2.532491</v>
       </c>
       <c r="I68">
-        <v>2.568854</v>
+        <v>2.532529</v>
       </c>
       <c r="J68">
-        <v>8.157719999999999</v>
+        <v>7.855964</v>
       </c>
       <c r="K68">
-        <v>5.76355</v>
+        <v>5.721258</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="1">
-        <v>1450</v>
+        <v>1500</v>
       </c>
       <c r="B69">
-        <v>13.124544</v>
+        <v>14.995382</v>
       </c>
       <c r="C69">
-        <v>13.236114</v>
+        <v>15.028586</v>
       </c>
       <c r="E69" s="1">
-        <v>1450</v>
+        <v>1500</v>
       </c>
       <c r="F69">
-        <v>11.858408</v>
+        <v>13.981019</v>
       </c>
       <c r="G69">
-        <v>5.967439</v>
+        <v>8.461114</v>
       </c>
       <c r="H69">
-        <v>2.532491</v>
+        <v>2.418047</v>
       </c>
       <c r="I69">
-        <v>2.532529</v>
+        <v>2.413665</v>
       </c>
       <c r="J69">
-        <v>7.855964</v>
+        <v>10.487143</v>
       </c>
       <c r="K69">
-        <v>5.721258</v>
+        <v>8.051691</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="1">
-        <v>1500</v>
+        <v>1550</v>
       </c>
       <c r="B70">
-        <v>14.995382</v>
+        <v>16.966586</v>
       </c>
       <c r="C70">
-        <v>15.028586</v>
+        <v>16.957717</v>
       </c>
       <c r="E70" s="1">
-        <v>1500</v>
+        <v>1550</v>
       </c>
       <c r="F70">
-        <v>13.981019</v>
+        <v>16.063651</v>
       </c>
       <c r="G70">
-        <v>8.461114</v>
+        <v>10.683245</v>
       </c>
       <c r="H70">
-        <v>2.418047</v>
+        <v>2.368704</v>
       </c>
       <c r="I70">
-        <v>2.413665</v>
+        <v>2.365181</v>
       </c>
       <c r="J70">
-        <v>10.487143</v>
+        <v>12.432926</v>
       </c>
       <c r="K70">
-        <v>8.051691</v>
+        <v>10.12111</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="1">
-        <v>1550</v>
+        <v>1600</v>
       </c>
       <c r="B71">
-        <v>16.966586</v>
+        <v>19.137967</v>
       </c>
       <c r="C71">
-        <v>16.957717</v>
+        <v>19.001217</v>
       </c>
       <c r="E71" s="1">
-        <v>1550</v>
+        <v>1600</v>
       </c>
       <c r="F71">
-        <v>16.063651</v>
+        <v>18.686173</v>
       </c>
       <c r="G71">
-        <v>10.683245</v>
+        <v>14.745049</v>
       </c>
       <c r="H71">
-        <v>2.368704</v>
+        <v>2.092302</v>
       </c>
       <c r="I71">
-        <v>2.365181</v>
+        <v>2.130713</v>
       </c>
       <c r="J71">
-        <v>12.432926</v>
+        <v>15.869377</v>
       </c>
       <c r="K71">
-        <v>10.12111</v>
+        <v>13.850725</v>
       </c>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="1">
-        <v>1600</v>
+        <v>1650</v>
       </c>
       <c r="B72">
-        <v>19.137967</v>
+        <v>21.088136</v>
       </c>
       <c r="C72">
-        <v>19.001217</v>
+        <v>20.812118</v>
       </c>
       <c r="E72" s="1">
-        <v>1600</v>
+        <v>1650</v>
       </c>
       <c r="F72">
-        <v>18.686173</v>
+        <v>20.745468</v>
       </c>
       <c r="G72">
-        <v>14.745049</v>
+        <v>16.839499</v>
       </c>
       <c r="H72">
-        <v>2.092302</v>
+        <v>2.535165</v>
       </c>
       <c r="I72">
-        <v>2.130713</v>
+        <v>2.473144</v>
       </c>
       <c r="J72">
-        <v>15.869377</v>
+        <v>18.25067</v>
       </c>
       <c r="K72">
-        <v>13.850725</v>
+        <v>15.761333</v>
       </c>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="1">
-        <v>1650</v>
+        <v>1700</v>
       </c>
       <c r="B73">
-        <v>21.088136</v>
+        <v>23.105796</v>
       </c>
       <c r="C73">
-        <v>20.812118</v>
+        <v>22.136611</v>
       </c>
       <c r="E73" s="1">
-        <v>1650</v>
+        <v>1700</v>
       </c>
       <c r="F73">
-        <v>20.745468</v>
+        <v>23.320198</v>
       </c>
       <c r="G73">
-        <v>16.839499</v>
+        <v>20.020791</v>
       </c>
       <c r="H73">
-        <v>2.535165</v>
+        <v>2.606655</v>
       </c>
       <c r="I73">
-        <v>2.473144</v>
+        <v>2.181452</v>
       </c>
       <c r="J73">
-        <v>18.25067</v>
+        <v>24.028737</v>
       </c>
       <c r="K73">
-        <v>15.761333</v>
+        <v>18.548087</v>
       </c>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="1">
-        <v>1700</v>
+        <v>1750</v>
       </c>
       <c r="B74">
-        <v>23.105796</v>
+        <v>23.747504</v>
       </c>
       <c r="C74">
-        <v>22.136611</v>
+        <v>24.081461</v>
       </c>
       <c r="E74" s="1">
-        <v>1700</v>
+        <v>1750</v>
       </c>
       <c r="F74">
-        <v>23.320198</v>
+        <v>21.183311</v>
       </c>
       <c r="G74">
-        <v>20.020791</v>
+        <v>10.14749</v>
       </c>
       <c r="H74">
-        <v>2.606655</v>
+        <v>1.817551</v>
       </c>
       <c r="I74">
-        <v>2.181452</v>
+        <v>1.99797</v>
       </c>
       <c r="J74">
-        <v>24.028737</v>
+        <v>13.620692</v>
       </c>
       <c r="K74">
-        <v>18.548087</v>
+        <v>9.358292</v>
       </c>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="1">
-        <v>1750</v>
+        <v>1800</v>
       </c>
       <c r="B75">
-        <v>23.747504</v>
+        <v>26.827764</v>
       </c>
       <c r="C75">
-        <v>24.081461</v>
+        <v>26.731787</v>
       </c>
       <c r="E75" s="1">
-        <v>1750</v>
+        <v>1800</v>
       </c>
       <c r="F75">
-        <v>21.183311</v>
+        <v>25.267385</v>
       </c>
       <c r="G75">
-        <v>10.14749</v>
+        <v>15.828087</v>
       </c>
       <c r="H75">
-        <v>1.817551</v>
+        <v>1.969132</v>
       </c>
       <c r="I75">
-        <v>1.99797</v>
+        <v>2.02444</v>
       </c>
       <c r="J75">
-        <v>13.620692</v>
+        <v>18.788736</v>
       </c>
       <c r="K75">
-        <v>9.358292</v>
+        <v>14.470092</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="1">
-        <v>1800</v>
+        <v>1850</v>
       </c>
       <c r="B76">
-        <v>26.827764</v>
+        <v>29.318155</v>
       </c>
       <c r="C76">
-        <v>26.731787</v>
+        <v>29.0464</v>
       </c>
       <c r="E76" s="1">
-        <v>1800</v>
+        <v>1850</v>
       </c>
       <c r="F76">
-        <v>25.267385</v>
+        <v>27.845484</v>
       </c>
       <c r="G76">
-        <v>15.828087</v>
+        <v>18.36131</v>
       </c>
       <c r="H76">
-        <v>1.969132</v>
+        <v>1.312857</v>
       </c>
       <c r="I76">
-        <v>2.02444</v>
+        <v>1.626145</v>
       </c>
       <c r="J76">
-        <v>18.788736</v>
+        <v>21.638178</v>
       </c>
       <c r="K76">
-        <v>14.470092</v>
+        <v>16.689807</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="1">
-        <v>1850</v>
+        <v>1900</v>
       </c>
       <c r="B77">
-        <v>29.318155</v>
+        <v>32.293503</v>
       </c>
       <c r="C77">
-        <v>29.0464</v>
+        <v>31.854199</v>
       </c>
       <c r="E77" s="1">
-        <v>1850</v>
+        <v>1900</v>
       </c>
       <c r="F77">
-        <v>27.845484</v>
+        <v>31.158949</v>
       </c>
       <c r="G77">
-        <v>18.36131</v>
+        <v>22.070597</v>
       </c>
       <c r="H77">
-        <v>1.312857</v>
+        <v>2.447093</v>
       </c>
       <c r="I77">
-        <v>1.626145</v>
+        <v>2.513833</v>
       </c>
       <c r="J77">
-        <v>21.638178</v>
+        <v>24.484654</v>
       </c>
       <c r="K77">
-        <v>16.689807</v>
+        <v>19.86222</v>
       </c>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="1">
-        <v>1900</v>
+        <v>1950</v>
       </c>
       <c r="B78">
-        <v>32.293503</v>
+        <v>34.815922</v>
       </c>
       <c r="C78">
-        <v>31.854199</v>
+        <v>34.451729</v>
       </c>
       <c r="E78" s="1">
-        <v>1900</v>
+        <v>1950</v>
       </c>
       <c r="F78">
-        <v>31.158949</v>
+        <v>33.284847</v>
       </c>
       <c r="G78">
-        <v>22.070597</v>
+        <v>21.882322</v>
       </c>
       <c r="H78">
-        <v>2.447093</v>
+        <v>2.837223</v>
       </c>
       <c r="I78">
-        <v>2.513833</v>
+        <v>2.726997</v>
       </c>
       <c r="J78">
-        <v>24.484654</v>
+        <v>25.089215</v>
       </c>
       <c r="K78">
-        <v>19.86222</v>
+        <v>19.740229</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="1">
-        <v>1950</v>
+        <v>2000</v>
       </c>
       <c r="B79">
-        <v>34.815922</v>
+        <v>40.514823</v>
       </c>
       <c r="C79">
-        <v>34.451729</v>
+        <v>39.333604</v>
       </c>
       <c r="E79" s="1">
-        <v>1950</v>
+        <v>2000</v>
       </c>
       <c r="F79">
-        <v>33.284847</v>
+        <v>41.335368</v>
       </c>
       <c r="G79">
-        <v>21.882322</v>
+        <v>39.040208</v>
       </c>
       <c r="H79">
-        <v>2.837223</v>
+        <v>2.268769</v>
       </c>
       <c r="I79">
-        <v>2.726997</v>
+        <v>2.284618</v>
       </c>
       <c r="J79">
-        <v>25.089215</v>
+        <v>37.060108</v>
       </c>
       <c r="K79">
-        <v>19.740229</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
-      <c r="A80" s="1">
-        <v>2000</v>
-      </c>
-      <c r="B80">
-        <v>40.514823</v>
-      </c>
-      <c r="C80">
-        <v>39.333604</v>
-      </c>
-      <c r="E80" s="1">
-        <v>2000</v>
-      </c>
-      <c r="F80">
-        <v>41.335368</v>
-      </c>
-      <c r="G80">
-        <v>39.040208</v>
-      </c>
-      <c r="H80">
-        <v>2.268769</v>
-      </c>
-      <c r="I80">
-        <v>2.284618</v>
-      </c>
-      <c r="J80">
-        <v>37.060108</v>
-      </c>
-      <c r="K80">
         <v>34.902481</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="10">
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
     <mergeCell ref="F32:K32"/>
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="H33:I33"/>
@@ -7901,9 +7817,6 @@
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="H34:I34"/>
     <mergeCell ref="J34:K34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7912,7 +7825,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A32:K80"/>
+  <dimension ref="A32:K79"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7923,14 +7836,14 @@
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C32" s="1"/>
       <c r="E32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -7943,22 +7856,22 @@
         <v>1</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C33" s="1"/>
       <c r="E33" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K33" s="1"/>
     </row>
@@ -7966,23 +7879,23 @@
       <c r="A34" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="1">
-        <v>220</v>
+      <c r="B34" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C34" s="1"/>
       <c r="E34" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F34" s="1">
-        <v>220</v>
+      <c r="F34" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="G34" s="1"/>
-      <c r="H34" s="1">
-        <v>220</v>
+      <c r="H34" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="I34" s="1"/>
-      <c r="J34" s="1">
-        <v>220</v>
+      <c r="J34" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="K34" s="1"/>
     </row>
@@ -7993,77 +7906,85 @@
       <c r="B35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E35" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G35" s="1"/>
+      <c r="G35" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I35" s="1"/>
+      <c r="I35" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="J35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K35" s="1"/>
+      <c r="K35" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
       <c r="E36" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
+      <c r="B37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
+      <c r="F37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>13</v>
@@ -8072,1350 +7993,1317 @@
         <v>6</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>15</v>
+      <c r="A40" s="1">
+        <v>50</v>
+      </c>
+      <c r="B40">
+        <v>7.367824000000001</v>
+      </c>
+      <c r="C40">
+        <v>7.613001</v>
+      </c>
+      <c r="E40" s="1">
+        <v>50</v>
+      </c>
+      <c r="F40">
+        <v>6.526167</v>
+      </c>
+      <c r="G40">
+        <v>7.538771000000001</v>
+      </c>
+      <c r="H40">
+        <v>2.633348</v>
+      </c>
+      <c r="I40">
+        <v>2.496391</v>
+      </c>
+      <c r="J40">
+        <v>6.225482</v>
+      </c>
+      <c r="K40">
+        <v>5.75264</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B41">
-        <v>7.367824000000001</v>
+        <v>18.152296</v>
       </c>
       <c r="C41">
-        <v>7.613001</v>
+        <v>18.47319</v>
       </c>
       <c r="E41" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F41">
-        <v>6.526167</v>
+        <v>16.661733</v>
       </c>
       <c r="G41">
-        <v>7.538771000000001</v>
+        <v>18.210473</v>
       </c>
       <c r="H41">
-        <v>2.633348</v>
+        <v>6.9884</v>
       </c>
       <c r="I41">
-        <v>2.496391</v>
+        <v>6.728803999999999</v>
       </c>
       <c r="J41">
-        <v>6.225482</v>
+        <v>16.180265</v>
       </c>
       <c r="K41">
-        <v>5.75264</v>
+        <v>15.312774</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="1">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="B42">
-        <v>18.152296</v>
+        <v>35.189236</v>
       </c>
       <c r="C42">
-        <v>18.47319</v>
+        <v>34.397425</v>
       </c>
       <c r="E42" s="1">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="F42">
-        <v>16.661733</v>
+        <v>35.385651</v>
       </c>
       <c r="G42">
-        <v>18.210473</v>
+        <v>33.867124</v>
       </c>
       <c r="H42">
-        <v>6.9884</v>
+        <v>16.544443</v>
       </c>
       <c r="I42">
-        <v>6.728803999999999</v>
+        <v>16.455814</v>
       </c>
       <c r="J42">
-        <v>16.180265</v>
+        <v>35.728177</v>
       </c>
       <c r="K42">
-        <v>15.312774</v>
+        <v>35.688283</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="1">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="B43">
-        <v>35.189236</v>
+        <v>8.612144000000001</v>
       </c>
       <c r="C43">
-        <v>34.397425</v>
+        <v>8.082808</v>
       </c>
       <c r="E43" s="1">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="F43">
-        <v>35.385651</v>
+        <v>10.162542</v>
       </c>
       <c r="G43">
-        <v>33.867124</v>
+        <v>7.917559</v>
       </c>
       <c r="H43">
-        <v>16.544443</v>
+        <v>6.07897</v>
       </c>
       <c r="I43">
-        <v>16.455814</v>
+        <v>6.481036</v>
       </c>
       <c r="J43">
-        <v>35.728177</v>
+        <v>11.132556</v>
       </c>
       <c r="K43">
-        <v>35.688283</v>
+        <v>12.581973</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="B44">
-        <v>8.612144000000001</v>
+        <v>12.866213</v>
       </c>
       <c r="C44">
-        <v>8.082808</v>
+        <v>13.479752</v>
       </c>
       <c r="E44" s="1">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F44">
-        <v>10.162542</v>
+        <v>11.20732</v>
       </c>
       <c r="G44">
-        <v>7.917559</v>
+        <v>12.928409</v>
       </c>
       <c r="H44">
-        <v>6.07897</v>
+        <v>4.520197</v>
       </c>
       <c r="I44">
-        <v>6.481036</v>
+        <v>4.547461</v>
       </c>
       <c r="J44">
-        <v>11.132556</v>
+        <v>11.397066</v>
       </c>
       <c r="K44">
-        <v>12.581973</v>
+        <v>10.64086</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="B45">
-        <v>12.866213</v>
+        <v>36.809568</v>
       </c>
       <c r="C45">
-        <v>13.479752</v>
+        <v>32.932754</v>
       </c>
       <c r="E45" s="1">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="F45">
-        <v>11.20732</v>
+        <v>38.797862</v>
       </c>
       <c r="G45">
-        <v>12.928409</v>
+        <v>31.664034</v>
       </c>
       <c r="H45">
-        <v>4.520197</v>
+        <v>12.183847</v>
       </c>
       <c r="I45">
-        <v>4.547461</v>
+        <v>12.652843</v>
       </c>
       <c r="J45">
-        <v>11.397066</v>
+        <v>40.322492</v>
       </c>
       <c r="K45">
-        <v>10.64086</v>
+        <v>41.018539</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="B46">
-        <v>36.809568</v>
+        <v>9.414451</v>
       </c>
       <c r="C46">
-        <v>32.932754</v>
+        <v>13.590424</v>
       </c>
       <c r="E46" s="1">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="F46">
-        <v>38.797862</v>
+        <v>22.014847</v>
       </c>
       <c r="G46">
-        <v>31.664034</v>
+        <v>13.155294</v>
       </c>
       <c r="H46">
-        <v>12.183847</v>
+        <v>9.273930999999999</v>
       </c>
       <c r="I46">
-        <v>12.652843</v>
+        <v>5.476296</v>
       </c>
       <c r="J46">
-        <v>40.322492</v>
+        <v>28.154772</v>
       </c>
       <c r="K46">
-        <v>41.018539</v>
+        <v>17.669775</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="B47">
-        <v>9.414451</v>
+        <v>11.467956</v>
       </c>
       <c r="C47">
-        <v>13.590424</v>
+        <v>17.902071</v>
       </c>
       <c r="E47" s="1">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="F47">
-        <v>22.014847</v>
+        <v>3.593918</v>
       </c>
       <c r="G47">
-        <v>13.155294</v>
+        <v>17.361006</v>
       </c>
       <c r="H47">
-        <v>9.273930999999999</v>
+        <v>2.60227</v>
       </c>
       <c r="I47">
-        <v>5.476296</v>
+        <v>1.468582</v>
       </c>
       <c r="J47">
-        <v>28.154772</v>
+        <v>7.803354</v>
       </c>
       <c r="K47">
-        <v>17.669775</v>
+        <v>4.770729</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="B48">
-        <v>11.467956</v>
+        <v>20.23629</v>
       </c>
       <c r="C48">
-        <v>17.902071</v>
+        <v>26.764243</v>
       </c>
       <c r="E48" s="1">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="F48">
-        <v>3.593918</v>
+        <v>7.206778999999999</v>
       </c>
       <c r="G48">
-        <v>17.361006</v>
+        <v>25.948198</v>
       </c>
       <c r="H48">
-        <v>2.60227</v>
+        <v>2.246584</v>
       </c>
       <c r="I48">
-        <v>1.468582</v>
+        <v>2.287283</v>
       </c>
       <c r="J48">
-        <v>7.803354</v>
+        <v>2.996337</v>
       </c>
       <c r="K48">
-        <v>4.770729</v>
+        <v>2.125864</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="1">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="B49">
-        <v>20.23629</v>
+        <v>29.713243</v>
       </c>
       <c r="C49">
-        <v>26.764243</v>
+        <v>35.549476</v>
       </c>
       <c r="E49" s="1">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="F49">
-        <v>7.206778999999999</v>
+        <v>17.009994</v>
       </c>
       <c r="G49">
-        <v>25.948198</v>
+        <v>34.533328</v>
       </c>
       <c r="H49">
-        <v>2.246584</v>
+        <v>7.215369</v>
       </c>
       <c r="I49">
-        <v>2.287283</v>
+        <v>6.552224</v>
       </c>
       <c r="J49">
-        <v>2.996337</v>
+        <v>12.45005</v>
       </c>
       <c r="K49">
-        <v>2.125864</v>
+        <v>9.664922000000001</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="1">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="B50">
-        <v>29.713243</v>
+        <v>40.881482</v>
       </c>
       <c r="C50">
-        <v>35.549476</v>
+        <v>43.081693</v>
       </c>
       <c r="E50" s="1">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="F50">
-        <v>17.009994</v>
+        <v>32.815845</v>
       </c>
       <c r="G50">
-        <v>34.533328</v>
+        <v>42.029403</v>
       </c>
       <c r="H50">
-        <v>7.215369</v>
+        <v>17.252217</v>
       </c>
       <c r="I50">
-        <v>6.552224</v>
+        <v>15.873696</v>
       </c>
       <c r="J50">
-        <v>12.45005</v>
+        <v>30.249508</v>
       </c>
       <c r="K50">
-        <v>9.664922000000001</v>
+        <v>25.828186</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="1">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="B51">
-        <v>40.881482</v>
+        <v>40.998227</v>
       </c>
       <c r="C51">
-        <v>43.081693</v>
+        <v>34.367026</v>
       </c>
       <c r="E51" s="1">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="F51">
-        <v>32.815845</v>
+        <v>47.45081500000001</v>
       </c>
       <c r="G51">
-        <v>42.029403</v>
+        <v>33.51667</v>
       </c>
       <c r="H51">
-        <v>17.252217</v>
+        <v>24.610742</v>
       </c>
       <c r="I51">
-        <v>15.873696</v>
+        <v>25.23328</v>
       </c>
       <c r="J51">
-        <v>30.249508</v>
+        <v>51.29153400000001</v>
       </c>
       <c r="K51">
-        <v>25.828186</v>
+        <v>49.376896</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="1">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="B52">
-        <v>40.998227</v>
+        <v>16.848503</v>
       </c>
       <c r="C52">
-        <v>34.367026</v>
+        <v>27.739542</v>
       </c>
       <c r="E52" s="1">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="F52">
-        <v>47.45081500000001</v>
+        <v>29.653277</v>
       </c>
       <c r="G52">
-        <v>33.51667</v>
+        <v>27.125488</v>
       </c>
       <c r="H52">
-        <v>24.610742</v>
+        <v>15.514909</v>
       </c>
       <c r="I52">
-        <v>25.23328</v>
+        <v>14.813388</v>
       </c>
       <c r="J52">
-        <v>51.29153400000001</v>
+        <v>39.002327</v>
       </c>
       <c r="K52">
-        <v>49.376896</v>
+        <v>26.653504</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="1">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="B53">
-        <v>16.848503</v>
+        <v>17.548311</v>
       </c>
       <c r="C53">
-        <v>27.739542</v>
+        <v>38.126596</v>
       </c>
       <c r="E53" s="1">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="F53">
-        <v>29.653277</v>
+        <v>17.532101</v>
       </c>
       <c r="G53">
-        <v>27.125488</v>
+        <v>37.411601</v>
       </c>
       <c r="H53">
-        <v>15.514909</v>
+        <v>15.230878</v>
       </c>
       <c r="I53">
-        <v>14.813388</v>
+        <v>9.402819000000001</v>
       </c>
       <c r="J53">
-        <v>39.002327</v>
+        <v>29.008036</v>
       </c>
       <c r="K53">
-        <v>26.653504</v>
+        <v>15.132953</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="1">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="B54">
-        <v>17.548311</v>
+        <v>22.565267</v>
       </c>
       <c r="C54">
-        <v>38.126596</v>
+        <v>39.691474</v>
       </c>
       <c r="E54" s="1">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="F54">
-        <v>17.532101</v>
+        <v>7.461583</v>
       </c>
       <c r="G54">
-        <v>37.411601</v>
+        <v>38.970165</v>
       </c>
       <c r="H54">
-        <v>15.230878</v>
+        <v>10.862991</v>
       </c>
       <c r="I54">
-        <v>9.402819000000001</v>
+        <v>6.953626</v>
       </c>
       <c r="J54">
-        <v>29.008036</v>
+        <v>17.349716</v>
       </c>
       <c r="K54">
-        <v>15.132953</v>
+        <v>11.396176</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="1">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="B55">
-        <v>22.565267</v>
+        <v>28.099499</v>
       </c>
       <c r="C55">
-        <v>39.691474</v>
+        <v>46.252948</v>
       </c>
       <c r="E55" s="1">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="F55">
-        <v>7.461583</v>
+        <v>2.462679</v>
       </c>
       <c r="G55">
-        <v>38.970165</v>
+        <v>45.469017</v>
       </c>
       <c r="H55">
-        <v>10.862991</v>
+        <v>9.410761000000001</v>
       </c>
       <c r="I55">
-        <v>6.953626</v>
+        <v>6.915427999999999</v>
       </c>
       <c r="J55">
-        <v>17.349716</v>
+        <v>12.601856</v>
       </c>
       <c r="K55">
-        <v>11.396176</v>
+        <v>8.73502</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="1">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="B56">
-        <v>28.099499</v>
+        <v>35.565362</v>
       </c>
       <c r="C56">
-        <v>46.252948</v>
+        <v>57.556987</v>
       </c>
       <c r="E56" s="1">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="F56">
-        <v>2.462679</v>
+        <v>4.094957</v>
       </c>
       <c r="G56">
-        <v>45.469017</v>
+        <v>56.81973000000001</v>
       </c>
       <c r="H56">
-        <v>9.410761000000001</v>
+        <v>13.004591</v>
       </c>
       <c r="I56">
-        <v>6.915427999999999</v>
+        <v>9.841509</v>
       </c>
       <c r="J56">
-        <v>12.601856</v>
+        <v>9.275408000000001</v>
       </c>
       <c r="K56">
-        <v>8.73502</v>
+        <v>6.712081</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="1">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="B57">
-        <v>35.565362</v>
+        <v>37.450872</v>
       </c>
       <c r="C57">
-        <v>57.556987</v>
+        <v>56.36849300000001</v>
       </c>
       <c r="E57" s="1">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="F57">
-        <v>4.094957</v>
+        <v>5.627946</v>
       </c>
       <c r="G57">
-        <v>56.81973000000001</v>
+        <v>55.90490699999999</v>
       </c>
       <c r="H57">
-        <v>13.004591</v>
+        <v>3.763029</v>
       </c>
       <c r="I57">
-        <v>9.841509</v>
+        <v>6.670174</v>
       </c>
       <c r="J57">
-        <v>9.275408000000001</v>
+        <v>6.982161</v>
       </c>
       <c r="K57">
-        <v>6.712081</v>
+        <v>4.91389</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="1">
-        <v>900</v>
+        <v>950</v>
       </c>
       <c r="B58">
-        <v>37.450872</v>
+        <v>39.8016</v>
       </c>
       <c r="C58">
-        <v>56.36849300000001</v>
+        <v>58.295152</v>
       </c>
       <c r="E58" s="1">
-        <v>900</v>
+        <v>950</v>
       </c>
       <c r="F58">
-        <v>5.627946</v>
+        <v>8.335001</v>
       </c>
       <c r="G58">
-        <v>55.90490699999999</v>
+        <v>58.05771899999999</v>
       </c>
       <c r="H58">
-        <v>3.763029</v>
+        <v>7.932604</v>
       </c>
       <c r="I58">
-        <v>6.670174</v>
+        <v>7.027077999999999</v>
       </c>
       <c r="J58">
-        <v>6.982161</v>
+        <v>4.267408000000001</v>
       </c>
       <c r="K58">
-        <v>4.91389</v>
+        <v>2.866213</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="1">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="B59">
-        <v>39.8016</v>
+        <v>42.74782800000001</v>
       </c>
       <c r="C59">
-        <v>58.295152</v>
+        <v>61.503086</v>
       </c>
       <c r="E59" s="1">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="F59">
-        <v>8.335001</v>
+        <v>10.366053</v>
       </c>
       <c r="G59">
-        <v>58.05771899999999</v>
+        <v>61.480769</v>
       </c>
       <c r="H59">
-        <v>7.932604</v>
+        <v>9.795697000000001</v>
       </c>
       <c r="I59">
-        <v>7.027077999999999</v>
+        <v>9.894357000000001</v>
       </c>
       <c r="J59">
-        <v>4.267408000000001</v>
+        <v>2.709729</v>
       </c>
       <c r="K59">
-        <v>2.866213</v>
+        <v>1.773787</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="1">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="B60">
-        <v>42.74782800000001</v>
+        <v>43.770332</v>
       </c>
       <c r="C60">
-        <v>61.503086</v>
+        <v>60.319662</v>
       </c>
       <c r="E60" s="1">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="F60">
-        <v>10.366053</v>
+        <v>11.619127</v>
       </c>
       <c r="G60">
-        <v>61.480769</v>
+        <v>60.466624</v>
       </c>
       <c r="H60">
-        <v>9.795697000000001</v>
+        <v>5.144007</v>
       </c>
       <c r="I60">
-        <v>9.894357000000001</v>
+        <v>6.167729</v>
       </c>
       <c r="J60">
-        <v>2.709729</v>
+        <v>1.522669</v>
       </c>
       <c r="K60">
-        <v>1.773787</v>
+        <v>1.056658</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="1">
-        <v>1050</v>
+        <v>1100</v>
       </c>
       <c r="B61">
-        <v>43.770332</v>
+        <v>48.256409</v>
       </c>
       <c r="C61">
-        <v>60.319662</v>
+        <v>68.25407299999999</v>
       </c>
       <c r="E61" s="1">
-        <v>1050</v>
+        <v>1100</v>
       </c>
       <c r="F61">
-        <v>11.619127</v>
+        <v>13.786169</v>
       </c>
       <c r="G61">
-        <v>60.466624</v>
+        <v>68.71561</v>
       </c>
       <c r="H61">
-        <v>5.144007</v>
+        <v>1.473247</v>
       </c>
       <c r="I61">
-        <v>6.167729</v>
+        <v>2.593152</v>
       </c>
       <c r="J61">
-        <v>1.522669</v>
+        <v>0.9533450000000001</v>
       </c>
       <c r="K61">
-        <v>1.056658</v>
+        <v>0.636313</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="1">
-        <v>1100</v>
+        <v>1150</v>
       </c>
       <c r="B62">
-        <v>48.256409</v>
+        <v>54.163716</v>
       </c>
       <c r="C62">
-        <v>68.25407299999999</v>
+        <v>75.94569200000001</v>
       </c>
       <c r="E62" s="1">
-        <v>1100</v>
+        <v>1150</v>
       </c>
       <c r="F62">
-        <v>13.786169</v>
+        <v>16.603015</v>
       </c>
       <c r="G62">
-        <v>68.71561</v>
+        <v>76.915499</v>
       </c>
       <c r="H62">
-        <v>1.473247</v>
+        <v>5.577643</v>
       </c>
       <c r="I62">
-        <v>2.593152</v>
+        <v>7.468408999999999</v>
       </c>
       <c r="J62">
-        <v>0.9533450000000001</v>
+        <v>2.028014</v>
       </c>
       <c r="K62">
-        <v>0.636313</v>
+        <v>1.634063</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="1">
-        <v>1150</v>
+        <v>1200</v>
       </c>
       <c r="B63">
-        <v>54.163716</v>
+        <v>54.35412700000001</v>
       </c>
       <c r="C63">
-        <v>75.94569200000001</v>
+        <v>75.99045100000001</v>
       </c>
       <c r="E63" s="1">
-        <v>1150</v>
+        <v>1200</v>
       </c>
       <c r="F63">
-        <v>16.603015</v>
+        <v>17.447826</v>
       </c>
       <c r="G63">
-        <v>76.915499</v>
+        <v>77.42549699999999</v>
       </c>
       <c r="H63">
-        <v>5.577643</v>
+        <v>10.025246</v>
       </c>
       <c r="I63">
-        <v>7.468408999999999</v>
+        <v>13.751151</v>
       </c>
       <c r="J63">
-        <v>2.028014</v>
+        <v>2.845913</v>
       </c>
       <c r="K63">
-        <v>1.634063</v>
+        <v>2.129205</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="1">
-        <v>1200</v>
+        <v>1250</v>
       </c>
       <c r="B64">
-        <v>54.35412700000001</v>
+        <v>62.650786</v>
       </c>
       <c r="C64">
-        <v>75.99045100000001</v>
+        <v>90.93864000000001</v>
       </c>
       <c r="E64" s="1">
-        <v>1200</v>
+        <v>1250</v>
       </c>
       <c r="F64">
-        <v>17.447826</v>
+        <v>21.003162</v>
       </c>
       <c r="G64">
-        <v>77.42549699999999</v>
+        <v>93.004475</v>
       </c>
       <c r="H64">
-        <v>10.025246</v>
+        <v>3.948523</v>
       </c>
       <c r="I64">
-        <v>13.751151</v>
+        <v>6.523839</v>
       </c>
       <c r="J64">
-        <v>2.845913</v>
+        <v>4.447322</v>
       </c>
       <c r="K64">
-        <v>2.129205</v>
+        <v>3.547209</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="1">
-        <v>1250</v>
+        <v>1300</v>
       </c>
       <c r="B65">
-        <v>62.650786</v>
+        <v>72.607091</v>
       </c>
       <c r="C65">
-        <v>90.93864000000001</v>
+        <v>109.338026</v>
       </c>
       <c r="E65" s="1">
-        <v>1250</v>
+        <v>1300</v>
       </c>
       <c r="F65">
-        <v>21.003162</v>
+        <v>25.122854</v>
       </c>
       <c r="G65">
-        <v>93.004475</v>
+        <v>112.468556</v>
       </c>
       <c r="H65">
-        <v>3.948523</v>
+        <v>3.491494</v>
       </c>
       <c r="I65">
-        <v>6.523839</v>
+        <v>6.405912</v>
       </c>
       <c r="J65">
-        <v>4.447322</v>
+        <v>6.08536</v>
       </c>
       <c r="K65">
-        <v>3.547209</v>
+        <v>4.934837</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="1">
-        <v>1300</v>
+        <v>1350</v>
       </c>
       <c r="B66">
-        <v>72.607091</v>
+        <v>76.726371</v>
       </c>
       <c r="C66">
-        <v>109.338026</v>
+        <v>116.849286</v>
       </c>
       <c r="E66" s="1">
-        <v>1300</v>
+        <v>1350</v>
       </c>
       <c r="F66">
-        <v>25.122854</v>
+        <v>27.178456</v>
       </c>
       <c r="G66">
-        <v>112.468556</v>
+        <v>120.800891</v>
       </c>
       <c r="H66">
-        <v>3.491494</v>
+        <v>4.966012999999999</v>
       </c>
       <c r="I66">
-        <v>6.405912</v>
+        <v>6.200222</v>
       </c>
       <c r="J66">
-        <v>6.08536</v>
+        <v>7.176842</v>
       </c>
       <c r="K66">
-        <v>4.934837</v>
+        <v>5.699039</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="1">
-        <v>1350</v>
+        <v>1400</v>
       </c>
       <c r="B67">
-        <v>76.726371</v>
+        <v>76.614946</v>
       </c>
       <c r="C67">
-        <v>116.849286</v>
+        <v>102.498733</v>
       </c>
       <c r="E67" s="1">
-        <v>1350</v>
+        <v>1400</v>
       </c>
       <c r="F67">
-        <v>27.178456</v>
+        <v>27.982608</v>
       </c>
       <c r="G67">
-        <v>120.800891</v>
+        <v>106.625966</v>
       </c>
       <c r="H67">
-        <v>4.966012999999999</v>
+        <v>3.355349</v>
       </c>
       <c r="I67">
-        <v>6.200222</v>
+        <v>3.419324</v>
       </c>
       <c r="J67">
-        <v>7.176842</v>
+        <v>8.157719999999999</v>
       </c>
       <c r="K67">
-        <v>5.699039</v>
+        <v>5.76355</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="1">
-        <v>1400</v>
+        <v>1450</v>
       </c>
       <c r="B68">
-        <v>76.614946</v>
+        <v>66.44721899999999</v>
       </c>
       <c r="C68">
-        <v>102.498733</v>
+        <v>90.817554</v>
       </c>
       <c r="E68" s="1">
-        <v>1400</v>
+        <v>1450</v>
       </c>
       <c r="F68">
-        <v>27.982608</v>
+        <v>24.870776</v>
       </c>
       <c r="G68">
-        <v>106.625966</v>
+        <v>94.794624</v>
       </c>
       <c r="H68">
-        <v>3.355349</v>
+        <v>2.269589</v>
       </c>
       <c r="I68">
-        <v>3.419324</v>
+        <v>2.252751</v>
       </c>
       <c r="J68">
-        <v>8.157719999999999</v>
+        <v>7.855964</v>
       </c>
       <c r="K68">
-        <v>5.76355</v>
+        <v>5.721258</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="1">
-        <v>1450</v>
+        <v>1500</v>
       </c>
       <c r="B69">
-        <v>66.44721899999999</v>
+        <v>81.20571700000001</v>
       </c>
       <c r="C69">
-        <v>90.817554</v>
+        <v>116.003369</v>
       </c>
       <c r="E69" s="1">
-        <v>1450</v>
+        <v>1500</v>
       </c>
       <c r="F69">
-        <v>24.870776</v>
+        <v>31.192519</v>
       </c>
       <c r="G69">
-        <v>94.794624</v>
+        <v>122.000938</v>
       </c>
       <c r="H69">
-        <v>2.269589</v>
+        <v>2.80833</v>
       </c>
       <c r="I69">
-        <v>2.252751</v>
+        <v>3.407302</v>
       </c>
       <c r="J69">
-        <v>7.855964</v>
+        <v>10.487143</v>
       </c>
       <c r="K69">
-        <v>5.721258</v>
+        <v>8.051691</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="1">
-        <v>1500</v>
+        <v>1550</v>
       </c>
       <c r="B70">
-        <v>81.20571700000001</v>
+        <v>86.955961</v>
       </c>
       <c r="C70">
-        <v>116.003369</v>
+        <v>127.738508</v>
       </c>
       <c r="E70" s="1">
-        <v>1500</v>
+        <v>1550</v>
       </c>
       <c r="F70">
-        <v>31.192519</v>
+        <v>34.289611</v>
       </c>
       <c r="G70">
-        <v>122.000938</v>
+        <v>134.650862</v>
       </c>
       <c r="H70">
-        <v>2.80833</v>
+        <v>1.938237</v>
       </c>
       <c r="I70">
-        <v>3.407302</v>
+        <v>1.892551</v>
       </c>
       <c r="J70">
-        <v>10.487143</v>
+        <v>12.432926</v>
       </c>
       <c r="K70">
-        <v>8.051691</v>
+        <v>10.12111</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="1">
-        <v>1550</v>
+        <v>1600</v>
       </c>
       <c r="B71">
-        <v>86.955961</v>
+        <v>103.119539</v>
       </c>
       <c r="C71">
-        <v>127.738508</v>
+        <v>161.647604</v>
       </c>
       <c r="E71" s="1">
-        <v>1550</v>
+        <v>1600</v>
       </c>
       <c r="F71">
-        <v>34.289611</v>
+        <v>41.696018</v>
       </c>
       <c r="G71">
-        <v>134.650862</v>
+        <v>171.934909</v>
       </c>
       <c r="H71">
-        <v>1.938237</v>
+        <v>0.48611</v>
       </c>
       <c r="I71">
-        <v>1.892551</v>
+        <v>1.68352</v>
       </c>
       <c r="J71">
-        <v>12.432926</v>
+        <v>15.869377</v>
       </c>
       <c r="K71">
-        <v>10.12111</v>
+        <v>13.850725</v>
       </c>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="1">
-        <v>1600</v>
+        <v>1650</v>
       </c>
       <c r="B72">
-        <v>103.119539</v>
+        <v>113.177914</v>
       </c>
       <c r="C72">
-        <v>161.647604</v>
+        <v>177.616517</v>
       </c>
       <c r="E72" s="1">
-        <v>1600</v>
+        <v>1650</v>
       </c>
       <c r="F72">
-        <v>41.696018</v>
+        <v>46.465658</v>
       </c>
       <c r="G72">
-        <v>171.934909</v>
+        <v>189.806268</v>
       </c>
       <c r="H72">
-        <v>0.48611</v>
+        <v>2.762243</v>
       </c>
       <c r="I72">
-        <v>1.68352</v>
+        <v>2.981101</v>
       </c>
       <c r="J72">
-        <v>15.869377</v>
+        <v>18.25067</v>
       </c>
       <c r="K72">
-        <v>13.850725</v>
+        <v>15.761333</v>
       </c>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="1">
-        <v>1650</v>
+        <v>1700</v>
       </c>
       <c r="B73">
-        <v>113.177914</v>
+        <v>140.965952</v>
       </c>
       <c r="C73">
-        <v>177.616517</v>
+        <v>198.437988</v>
       </c>
       <c r="E73" s="1">
-        <v>1650</v>
+        <v>1700</v>
       </c>
       <c r="F73">
-        <v>46.465658</v>
+        <v>59.179002</v>
       </c>
       <c r="G73">
-        <v>189.806268</v>
+        <v>214.209313</v>
       </c>
       <c r="H73">
-        <v>2.762243</v>
+        <v>6.173961</v>
       </c>
       <c r="I73">
-        <v>2.981101</v>
+        <v>7.446447</v>
       </c>
       <c r="J73">
-        <v>18.25067</v>
+        <v>24.028737</v>
       </c>
       <c r="K73">
-        <v>15.761333</v>
+        <v>18.548087</v>
       </c>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="1">
-        <v>1700</v>
+        <v>1750</v>
       </c>
       <c r="B74">
-        <v>140.965952</v>
+        <v>74.659814</v>
       </c>
       <c r="C74">
-        <v>198.437988</v>
+        <v>92.13547199999999</v>
       </c>
       <c r="E74" s="1">
-        <v>1700</v>
+        <v>1750</v>
       </c>
       <c r="F74">
-        <v>59.179002</v>
+        <v>32.053332</v>
       </c>
       <c r="G74">
-        <v>214.209313</v>
+        <v>99.890225</v>
       </c>
       <c r="H74">
-        <v>6.173961</v>
+        <v>1.495956</v>
       </c>
       <c r="I74">
-        <v>7.446447</v>
+        <v>2.327818</v>
       </c>
       <c r="J74">
-        <v>24.028737</v>
+        <v>13.620692</v>
       </c>
       <c r="K74">
-        <v>18.548087</v>
+        <v>9.358292</v>
       </c>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="1">
-        <v>1750</v>
+        <v>1800</v>
       </c>
       <c r="B75">
-        <v>74.659814</v>
+        <v>97.57382</v>
       </c>
       <c r="C75">
-        <v>92.13547199999999</v>
+        <v>134.997659</v>
       </c>
       <c r="E75" s="1">
-        <v>1750</v>
+        <v>1800</v>
       </c>
       <c r="F75">
-        <v>32.053332</v>
+        <v>42.814744</v>
       </c>
       <c r="G75">
-        <v>99.890225</v>
+        <v>147.635278</v>
       </c>
       <c r="H75">
-        <v>1.495956</v>
+        <v>1.275982</v>
       </c>
       <c r="I75">
-        <v>2.327818</v>
+        <v>1.936215</v>
       </c>
       <c r="J75">
-        <v>13.620692</v>
+        <v>18.788736</v>
       </c>
       <c r="K75">
-        <v>9.358292</v>
+        <v>14.470092</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="1">
-        <v>1800</v>
+        <v>1850</v>
       </c>
       <c r="B76">
-        <v>97.57382</v>
+        <v>105.030865</v>
       </c>
       <c r="C76">
-        <v>134.997659</v>
+        <v>143.19978</v>
       </c>
       <c r="E76" s="1">
-        <v>1800</v>
+        <v>1850</v>
       </c>
       <c r="F76">
-        <v>42.814744</v>
+        <v>47.260513</v>
       </c>
       <c r="G76">
-        <v>147.635278</v>
+        <v>157.543962</v>
       </c>
       <c r="H76">
-        <v>1.275982</v>
+        <v>3.701392</v>
       </c>
       <c r="I76">
-        <v>1.936215</v>
+        <v>6.024259</v>
       </c>
       <c r="J76">
-        <v>18.788736</v>
+        <v>21.638178</v>
       </c>
       <c r="K76">
-        <v>14.470092</v>
+        <v>16.689807</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="1">
-        <v>1850</v>
+        <v>1900</v>
       </c>
       <c r="B77">
-        <v>105.030865</v>
+        <v>113.228346</v>
       </c>
       <c r="C77">
-        <v>143.19978</v>
+        <v>163.073941</v>
       </c>
       <c r="E77" s="1">
-        <v>1850</v>
+        <v>1900</v>
       </c>
       <c r="F77">
-        <v>47.260513</v>
+        <v>52.040869</v>
       </c>
       <c r="G77">
-        <v>157.543962</v>
+        <v>181.120958</v>
       </c>
       <c r="H77">
-        <v>3.701392</v>
+        <v>4.303453</v>
       </c>
       <c r="I77">
-        <v>6.024259</v>
+        <v>6.391245</v>
       </c>
       <c r="J77">
-        <v>21.638178</v>
+        <v>24.484654</v>
       </c>
       <c r="K77">
-        <v>16.689807</v>
+        <v>19.86222</v>
       </c>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="1">
-        <v>1900</v>
+        <v>1950</v>
       </c>
       <c r="B78">
-        <v>113.228346</v>
+        <v>112.799061</v>
       </c>
       <c r="C78">
-        <v>163.073941</v>
+        <v>159.818393</v>
       </c>
       <c r="E78" s="1">
-        <v>1900</v>
+        <v>1950</v>
       </c>
       <c r="F78">
-        <v>52.040869</v>
+        <v>52.254215</v>
       </c>
       <c r="G78">
-        <v>181.120958</v>
+        <v>177.238592</v>
       </c>
       <c r="H78">
-        <v>4.303453</v>
+        <v>3.419316</v>
       </c>
       <c r="I78">
-        <v>6.391245</v>
+        <v>3.850047</v>
       </c>
       <c r="J78">
-        <v>24.484654</v>
+        <v>25.089215</v>
       </c>
       <c r="K78">
-        <v>19.86222</v>
+        <v>19.740229</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="1">
-        <v>1950</v>
+        <v>2000</v>
       </c>
       <c r="B79">
-        <v>112.799061</v>
+        <v>155.160951</v>
       </c>
       <c r="C79">
-        <v>159.818393</v>
+        <v>258.611496</v>
       </c>
       <c r="E79" s="1">
-        <v>1950</v>
+        <v>2000</v>
       </c>
       <c r="F79">
-        <v>52.254215</v>
+        <v>74.110573</v>
       </c>
       <c r="G79">
-        <v>177.238592</v>
+        <v>289.40461</v>
       </c>
       <c r="H79">
-        <v>3.419316</v>
+        <v>1.107591</v>
       </c>
       <c r="I79">
-        <v>3.850047</v>
+        <v>2.771621</v>
       </c>
       <c r="J79">
-        <v>25.089215</v>
+        <v>37.060108</v>
       </c>
       <c r="K79">
-        <v>19.740229</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
-      <c r="A80" s="1">
-        <v>2000</v>
-      </c>
-      <c r="B80">
-        <v>155.160951</v>
-      </c>
-      <c r="C80">
-        <v>258.611496</v>
-      </c>
-      <c r="E80" s="1">
-        <v>2000</v>
-      </c>
-      <c r="F80">
-        <v>74.110573</v>
-      </c>
-      <c r="G80">
-        <v>289.40461</v>
-      </c>
-      <c r="H80">
-        <v>1.107591</v>
-      </c>
-      <c r="I80">
-        <v>2.771621</v>
-      </c>
-      <c r="J80">
-        <v>37.060108</v>
-      </c>
-      <c r="K80">
         <v>34.902481</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="10">
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
     <mergeCell ref="F32:K32"/>
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="H33:I33"/>
@@ -9423,9 +9311,6 @@
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="H34:I34"/>
     <mergeCell ref="J34:K34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/hast2_1/tests/STAGES_v220/Results_stage0_v220.xlsx
+++ b/hast2_1/tests/STAGES_v220/Results_stage0_v220.xlsx
@@ -508,7 +508,7 @@
           <c:spPr>
             <a:ln w="12700">
               <a:solidFill>
-                <a:srgbClr val="01E6F6"/>
+                <a:srgbClr val="19AE03"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -866,7 +866,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -897,7 +897,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Corduff 110 kV'!$B$37</c:f>
+              <c:f>'Woodland 220 kV'!$B$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -918,7 +918,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Corduff 110 kV'!$A$40:$A$80</c:f>
+              <c:f>'Woodland 220 kV'!$A$40:$A$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -1047,129 +1047,129 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Corduff 110 kV'!$B$40:$B$80</c:f>
+              <c:f>'Woodland 220 kV'!$B$40:$B$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>3.583228</c:v>
+                  <c:v>7.367824000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.829267999999999</c:v>
+                  <c:v>18.152296</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.139512</c:v>
+                  <c:v>35.189236</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.280465</c:v>
+                  <c:v>8.612144000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.226001</c:v>
+                  <c:v>12.866213</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.322719</c:v>
+                  <c:v>36.809568</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.762832</c:v>
+                  <c:v>9.414451</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.519794</c:v>
+                  <c:v>11.467956</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26.583023</c:v>
+                  <c:v>20.23629</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>35.274408</c:v>
+                  <c:v>29.713243</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42.054772</c:v>
+                  <c:v>40.881482</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>32.467953</c:v>
+                  <c:v>40.998227</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41.094577</c:v>
+                  <c:v>16.848503</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>38.048852</c:v>
+                  <c:v>17.548311</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>60.828872</c:v>
+                  <c:v>22.565267</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>75.731503</c:v>
+                  <c:v>28.099499</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>150.52167</c:v>
+                  <c:v>35.565362</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>89.25584000000001</c:v>
+                  <c:v>37.450872</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>181.551647</c:v>
+                  <c:v>39.8016</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>339.289972</c:v>
+                  <c:v>42.74782800000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>173.387614</c:v>
+                  <c:v>43.770332</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>115.273193</c:v>
+                  <c:v>48.256409</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>86.05020999999999</c:v>
+                  <c:v>54.163716</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>77.775564</c:v>
+                  <c:v>54.35412700000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>69.021946</c:v>
+                  <c:v>62.650786</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>55.794132</c:v>
+                  <c:v>72.607091</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>53.36069699999999</c:v>
+                  <c:v>76.726371</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>46.611806</c:v>
+                  <c:v>76.614946</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>40.566109</c:v>
+                  <c:v>66.44721899999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>36.807175</c:v>
+                  <c:v>81.20571700000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>32.937537</c:v>
+                  <c:v>86.955961</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>29.839638</c:v>
+                  <c:v>103.119539</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>28.691137</c:v>
+                  <c:v>113.177914</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>27.035308</c:v>
+                  <c:v>140.965952</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>24.875474</c:v>
+                  <c:v>74.659814</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>23.149733</c:v>
+                  <c:v>97.57382</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>22.103807</c:v>
+                  <c:v>105.030865</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>20.417299</c:v>
+                  <c:v>113.228346</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>19.960267</c:v>
+                  <c:v>112.799061</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>20.168576</c:v>
+                  <c:v>155.160951</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1180,7 +1180,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Corduff 110 kV'!$C$37</c:f>
+              <c:f>'Woodland 220 kV'!$C$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1192,7 +1192,7 @@
           <c:spPr>
             <a:ln w="12700">
               <a:solidFill>
-                <a:srgbClr val="01E6F6"/>
+                <a:srgbClr val="19AE03"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -1201,7 +1201,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Corduff 110 kV'!$A$40:$A$80</c:f>
+              <c:f>'Woodland 220 kV'!$A$40:$A$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -1330,129 +1330,1332 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Corduff 110 kV'!$C$40:$C$80</c:f>
+              <c:f>'Woodland 220 kV'!$C$40:$C$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>3.652575</c:v>
+                  <c:v>7.613001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.008365</c:v>
+                  <c:v>18.47319</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.465645</c:v>
+                  <c:v>34.397425</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.533410000000001</c:v>
+                  <c:v>8.082808</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.321255</c:v>
+                  <c:v>13.479752</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.560437</c:v>
+                  <c:v>32.932754</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.468721</c:v>
+                  <c:v>13.590424</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.748802</c:v>
+                  <c:v>17.902071</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26.590373</c:v>
+                  <c:v>26.764243</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>35.408799</c:v>
+                  <c:v>35.549476</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42.871323</c:v>
+                  <c:v>43.081693</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>32.097028</c:v>
+                  <c:v>34.367026</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>39.091474</c:v>
+                  <c:v>27.739542</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>39.278865</c:v>
+                  <c:v>38.126596</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>61.74160799999999</c:v>
+                  <c:v>39.691474</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>76.052465</c:v>
+                  <c:v>46.252948</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>150.972995</c:v>
+                  <c:v>57.556987</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>89.140619</c:v>
+                  <c:v>56.36849300000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>181.628186</c:v>
+                  <c:v>58.295152</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>339.092917</c:v>
+                  <c:v>61.503086</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>173.385943</c:v>
+                  <c:v>60.319662</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>115.346927</c:v>
+                  <c:v>68.25407299999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>85.880589</c:v>
+                  <c:v>75.94569200000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>78.56260999999999</c:v>
+                  <c:v>75.99045100000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>68.79570699999999</c:v>
+                  <c:v>90.93864000000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>55.632276</c:v>
+                  <c:v>109.338026</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>53.326257</c:v>
+                  <c:v>116.849286</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>46.640744</c:v>
+                  <c:v>102.498733</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>40.568391</c:v>
+                  <c:v>90.817554</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>36.8256</c:v>
+                  <c:v>116.003369</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>32.93985</c:v>
+                  <c:v>127.738508</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>29.812636</c:v>
+                  <c:v>161.647604</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>28.70084</c:v>
+                  <c:v>177.616517</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>27.175164</c:v>
+                  <c:v>198.437988</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>24.820439</c:v>
+                  <c:v>92.13547199999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>23.124739</c:v>
+                  <c:v>134.997659</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>21.964177</c:v>
+                  <c:v>143.19978</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>20.489453</c:v>
+                  <c:v>163.073941</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>19.959667</c:v>
+                  <c:v>159.818393</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>20.129558</c:v>
+                  <c:v>258.611496</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="50100001"/>
+        <c:axId val="50100002"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="50100001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency in Hz</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50100002"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="50100002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Impendance in Ohms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50100001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Base_Case</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Woodland 220 kV'!$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>step0_Base_Case</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Woodland 220 kV'!$A$40:$A$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Woodland 220 kV'!$B$40:$B$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>7.367824000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.152296</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.189236</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.612144000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.866213</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36.809568</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.414451</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.467956</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.23629</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29.713243</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40.881482</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40.998227</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16.848503</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.548311</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22.565267</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>28.099499</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35.565362</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37.450872</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>39.8016</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42.74782800000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43.770332</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>48.256409</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>54.163716</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>54.35412700000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>62.650786</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>72.607091</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>76.726371</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>76.614946</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>66.44721899999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>81.20571700000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>86.955961</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>103.119539</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>113.177914</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>140.965952</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>74.659814</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>97.57382</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>105.030865</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>113.228346</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>112.799061</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>155.160951</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="50110001"/>
+        <c:axId val="50110002"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="50110001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency in Hz</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50110002"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="50110002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Impendance in Ohms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50110001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>CLO2-CDU2-ckt1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Woodland 220 kV'!$C$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>step0_CLO2-CDU2-ckt1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Woodland 220 kV'!$A$40:$A$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Woodland 220 kV'!$C$40:$C$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>7.613001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.47319</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.397425</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.082808</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.479752</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.932754</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.590424</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.902071</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26.764243</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35.549476</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43.081693</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34.367026</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27.739542</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38.126596</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39.691474</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>46.252948</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>57.556987</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>56.36849300000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>58.295152</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>61.503086</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>60.319662</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>68.25407299999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>75.94569200000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>75.99045100000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>90.93864000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>109.338026</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>116.849286</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>102.498733</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>90.817554</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>116.003369</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>127.738508</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>161.647604</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>177.616517</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>198.437988</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>92.13547199999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>134.997659</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>143.19978</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>163.073941</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>159.818393</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>258.611496</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="50120001"/>
+        <c:axId val="50120002"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="50120001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency in Hz</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50120002"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="50120002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Impendance in Ohms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50120001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Base_Case</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Clonee 220 kV'!$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>step0_Base_Case</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Clonee 220 kV'!$A$40:$A$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Clonee 220 kV'!$B$40:$B$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>8.821742</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.281185</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.214426</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.181858</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.209482</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55.665317</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.577405</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.425269</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.650503</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32.070075</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>54.187498</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>73.369848</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>46.363414</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21.563238</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.959748</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.022803</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.556403</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21.438589</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>26.09926</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29.945767</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>33.207627</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>36.987286</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40.5018</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43.633087</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>47.553487</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>51.4674</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>54.839709</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>56.526449</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>59.286418</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>64.04996800000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>68.319491</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>73.95109100000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>78.033475</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>82.49533199999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>76.68362500000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>85.200863</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>89.475703</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>95.67699399999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>99.098152</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>113.660148</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1565,7 +2768,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>step0</a:t>
+              <a:t>CLO2-CDU2-ckt1</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1581,11 +2784,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Corduff 220 kV'!$B$37</c:f>
+              <c:f>'Clonee 220 kV'!$C$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>step0_Base_Case</c:v>
+                  <c:v>step0_CLO2-CDU2-ckt1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1602,7 +2805,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Corduff 220 kV'!$A$40:$A$80</c:f>
+              <c:f>'Clonee 220 kV'!$A$40:$A$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -1731,412 +2934,129 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Corduff 220 kV'!$B$40:$B$80</c:f>
+              <c:f>'Clonee 220 kV'!$C$40:$C$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>8.177883999999999</c:v>
+                  <c:v>12.957254</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.278695</c:v>
+                  <c:v>28.630952</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39.737107</c:v>
+                  <c:v>42.324689</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.191863</c:v>
+                  <c:v>23.559856</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.981238</c:v>
+                  <c:v>37.687392</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>61.60369</c:v>
+                  <c:v>56.505259</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50.58106</c:v>
+                  <c:v>48.205792</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.945852</c:v>
+                  <c:v>59.21463000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.271320999999999</c:v>
+                  <c:v>72.74673799999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.280967</c:v>
+                  <c:v>86.22182600000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>47.958731</c:v>
+                  <c:v>97.007689</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>84.15586400000001</c:v>
+                  <c:v>87.517253</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>72.093655</c:v>
+                  <c:v>94.94122</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>56.498202</c:v>
+                  <c:v>110.455529</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30.392696</c:v>
+                  <c:v>116.956808</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.916946</c:v>
+                  <c:v>129.72328</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>14.206881</c:v>
+                  <c:v>146.238603</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11.115701</c:v>
+                  <c:v>148.401482</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.424647999999999</c:v>
+                  <c:v>158.163439</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.851747</c:v>
+                  <c:v>167.367935</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.635696</c:v>
+                  <c:v>169.983231</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.699662</c:v>
+                  <c:v>187.11852</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.824301</c:v>
+                  <c:v>199.5125</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.545652</c:v>
+                  <c:v>207.629818</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.356386</c:v>
+                  <c:v>230.20928</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.107858999999999</c:v>
+                  <c:v>254.529507</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9.812360999999999</c:v>
+                  <c:v>270.331639</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>11.401085</c:v>
+                  <c:v>243.832556</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>13.124544</c:v>
+                  <c:v>256.428747</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>14.995382</c:v>
+                  <c:v>286.949487</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>16.966586</c:v>
+                  <c:v>311.697845</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>19.137967</c:v>
+                  <c:v>356.712605</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>21.088136</c:v>
+                  <c:v>374.014385</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>23.105796</c:v>
+                  <c:v>352.370034</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>23.747504</c:v>
+                  <c:v>286.493373</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>26.827764</c:v>
+                  <c:v>352.090361</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>29.318155</c:v>
+                  <c:v>361.173392</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>32.293503</c:v>
+                  <c:v>404.226119</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>34.815922</c:v>
+                  <c:v>409.067357</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>40.514823</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Corduff 220 kV'!$C$37</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>step0_CLO2-CDU2-ckt1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:srgbClr val="01E6F6"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Corduff 220 kV'!$A$40:$A$80</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>550</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>650</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>850</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>950</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1050</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1100</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1150</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1250</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1300</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1350</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1450</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1550</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1650</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1700</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1750</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1800</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1850</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1900</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1950</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Corduff 220 kV'!$C$40:$C$80</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>9.045693</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>22.382377</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43.127152</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13.987459</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>26.031497</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>92.509884</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>48.642613</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14.779789</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.362319</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>21.668729</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>55.583249</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>114.355382</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>73.006311</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>48.379344</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>28.56503</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>20.219609</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>13.987996</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>11.029437</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7.350207000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.822805000000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.632109</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.701593</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.828585</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4.56283</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6.372303</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>8.117355999999999</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>9.829367999999999</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>11.439799</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>13.236114</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>15.028586</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>16.957717</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>19.001217</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>20.812118</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>22.136611</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>24.081461</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>26.731787</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>29.0464</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>31.854199</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>34.451729</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>39.333604</c:v>
+                  <c:v>544.3387389999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2265,7 +3185,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Woodland 220 kV'!$B$37</c:f>
+              <c:f>'Corduff 110 kV'!$B$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2286,7 +3206,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Woodland 220 kV'!$A$40:$A$80</c:f>
+              <c:f>'Corduff 110 kV'!$A$40:$A$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -2415,129 +3335,129 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Woodland 220 kV'!$B$40:$B$80</c:f>
+              <c:f>'Corduff 110 kV'!$B$40:$B$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>7.367824000000001</c:v>
+                  <c:v>3.583228</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.152296</c:v>
+                  <c:v>7.829267999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.189236</c:v>
+                  <c:v>11.139512</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.612144000000001</c:v>
+                  <c:v>7.280465</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.866213</c:v>
+                  <c:v>11.226001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36.809568</c:v>
+                  <c:v>17.322719</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.414451</c:v>
+                  <c:v>14.762832</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.467956</c:v>
+                  <c:v>19.519794</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.23629</c:v>
+                  <c:v>26.583023</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29.713243</c:v>
+                  <c:v>35.274408</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40.881482</c:v>
+                  <c:v>42.054772</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40.998227</c:v>
+                  <c:v>32.467953</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16.848503</c:v>
+                  <c:v>41.094577</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>17.548311</c:v>
+                  <c:v>38.048852</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>22.565267</c:v>
+                  <c:v>60.828872</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>28.099499</c:v>
+                  <c:v>75.731503</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>35.565362</c:v>
+                  <c:v>150.52167</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>37.450872</c:v>
+                  <c:v>89.25584000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>39.8016</c:v>
+                  <c:v>181.551647</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42.74782800000001</c:v>
+                  <c:v>339.289972</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43.770332</c:v>
+                  <c:v>173.387614</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>48.256409</c:v>
+                  <c:v>115.273193</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>54.163716</c:v>
+                  <c:v>86.05020999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>54.35412700000001</c:v>
+                  <c:v>77.775564</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>62.650786</c:v>
+                  <c:v>69.021946</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>72.607091</c:v>
+                  <c:v>55.794132</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>76.726371</c:v>
+                  <c:v>53.36069699999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>76.614946</c:v>
+                  <c:v>46.611806</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>66.44721899999999</c:v>
+                  <c:v>40.566109</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>81.20571700000001</c:v>
+                  <c:v>36.807175</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>86.955961</c:v>
+                  <c:v>32.937537</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>103.119539</c:v>
+                  <c:v>29.839638</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>113.177914</c:v>
+                  <c:v>28.691137</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>140.965952</c:v>
+                  <c:v>27.035308</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>74.659814</c:v>
+                  <c:v>24.875474</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>97.57382</c:v>
+                  <c:v>23.149733</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>105.030865</c:v>
+                  <c:v>22.103807</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>113.228346</c:v>
+                  <c:v>20.417299</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>112.799061</c:v>
+                  <c:v>19.960267</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>155.160951</c:v>
+                  <c:v>20.168576</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2548,7 +3468,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Woodland 220 kV'!$C$37</c:f>
+              <c:f>'Corduff 110 kV'!$C$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2560,7 +3480,7 @@
           <c:spPr>
             <a:ln w="12700">
               <a:solidFill>
-                <a:srgbClr val="01E6F6"/>
+                <a:srgbClr val="19AE03"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -2569,7 +3489,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Woodland 220 kV'!$A$40:$A$80</c:f>
+              <c:f>'Corduff 110 kV'!$A$40:$A$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -2698,129 +3618,129 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Woodland 220 kV'!$C$40:$C$80</c:f>
+              <c:f>'Corduff 110 kV'!$C$40:$C$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>7.613001</c:v>
+                  <c:v>3.652575</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.47319</c:v>
+                  <c:v>8.008365</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.397425</c:v>
+                  <c:v>11.465645</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.082808</c:v>
+                  <c:v>7.533410000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.479752</c:v>
+                  <c:v>11.321255</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.932754</c:v>
+                  <c:v>18.560437</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.590424</c:v>
+                  <c:v>13.468721</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.902071</c:v>
+                  <c:v>19.748802</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26.764243</c:v>
+                  <c:v>26.590373</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>35.549476</c:v>
+                  <c:v>35.408799</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43.081693</c:v>
+                  <c:v>42.871323</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>34.367026</c:v>
+                  <c:v>32.097028</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>27.739542</c:v>
+                  <c:v>39.091474</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>38.126596</c:v>
+                  <c:v>39.278865</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>39.691474</c:v>
+                  <c:v>61.74160799999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>46.252948</c:v>
+                  <c:v>76.052465</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>57.556987</c:v>
+                  <c:v>150.972995</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>56.36849300000001</c:v>
+                  <c:v>89.140619</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>58.295152</c:v>
+                  <c:v>181.628186</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>61.503086</c:v>
+                  <c:v>339.092917</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>60.319662</c:v>
+                  <c:v>173.385943</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>68.25407299999999</c:v>
+                  <c:v>115.346927</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>75.94569200000001</c:v>
+                  <c:v>85.880589</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>75.99045100000001</c:v>
+                  <c:v>78.56260999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>90.93864000000001</c:v>
+                  <c:v>68.79570699999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>109.338026</c:v>
+                  <c:v>55.632276</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>116.849286</c:v>
+                  <c:v>53.326257</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>102.498733</c:v>
+                  <c:v>46.640744</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>90.817554</c:v>
+                  <c:v>40.568391</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>116.003369</c:v>
+                  <c:v>36.8256</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>127.738508</c:v>
+                  <c:v>32.93985</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>161.647604</c:v>
+                  <c:v>29.812636</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>177.616517</c:v>
+                  <c:v>28.70084</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>198.437988</c:v>
+                  <c:v>27.175164</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>92.13547199999999</c:v>
+                  <c:v>24.820439</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>134.997659</c:v>
+                  <c:v>23.124739</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>143.19978</c:v>
+                  <c:v>21.964177</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>163.073941</c:v>
+                  <c:v>20.489453</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>159.818393</c:v>
+                  <c:v>19.959667</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>258.611496</c:v>
+                  <c:v>20.129558</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2918,6 +3838,2294 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Base_Case</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Corduff 110 kV'!$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>step0_Base_Case</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Corduff 110 kV'!$A$40:$A$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Corduff 110 kV'!$B$40:$B$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>3.583228</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.829267999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.139512</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.280465</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.226001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.322719</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.762832</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.519794</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26.583023</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35.274408</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42.054772</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32.467953</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41.094577</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38.048852</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60.828872</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75.731503</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>150.52167</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>89.25584000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>181.551647</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>339.289972</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>173.387614</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>115.273193</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>86.05020999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>77.775564</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>69.021946</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>55.794132</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>53.36069699999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>46.611806</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>40.566109</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>36.807175</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32.937537</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>29.839638</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>28.691137</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>27.035308</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>24.875474</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>23.149733</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>22.103807</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20.417299</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>19.960267</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20.168576</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="50050001"/>
+        <c:axId val="50050002"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="50050001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency in Hz</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50050002"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="50050002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Impendance in Ohms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50050001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>CLO2-CDU2-ckt1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Corduff 110 kV'!$C$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>step0_CLO2-CDU2-ckt1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Corduff 110 kV'!$A$40:$A$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Corduff 110 kV'!$C$40:$C$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>3.652575</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.008365</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.465645</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.533410000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.321255</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.560437</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.468721</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.748802</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26.590373</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35.408799</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42.871323</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32.097028</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39.091474</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39.278865</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>61.74160799999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>76.052465</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>150.972995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>89.140619</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>181.628186</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>339.092917</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>173.385943</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>115.346927</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>85.880589</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>78.56260999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>68.79570699999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>55.632276</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>53.326257</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>46.640744</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>40.568391</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>36.8256</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32.93985</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>29.812636</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>28.70084</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>27.175164</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>24.820439</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>23.124739</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>21.964177</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20.489453</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>19.959667</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20.129558</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="50060001"/>
+        <c:axId val="50060002"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="50060001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency in Hz</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50060002"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="50060002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Impendance in Ohms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50060001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>step0</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Corduff 220 kV'!$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>step0_Base_Case</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Corduff 220 kV'!$A$40:$A$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Corduff 220 kV'!$B$40:$B$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>8.177883999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.278695</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.737107</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.191863</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.981238</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61.60369</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50.58106</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.945852</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.271320999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.280967</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>47.958731</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>84.15586400000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>72.093655</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>56.498202</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30.392696</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.916946</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14.206881</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.115701</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.424647999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.851747</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.635696</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.699662</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.824301</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.545652</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.356386</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.107858999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.812360999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11.401085</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>13.124544</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14.995382</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>16.966586</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>19.137967</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>21.088136</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>23.105796</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>23.747504</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>26.827764</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>29.318155</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>32.293503</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>34.815922</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40.514823</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Corduff 220 kV'!$C$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>step0_CLO2-CDU2-ckt1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="19AE03"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Corduff 220 kV'!$A$40:$A$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Corduff 220 kV'!$C$40:$C$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>9.045693</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.382377</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.127152</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.987459</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.031497</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92.509884</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48.642613</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.779789</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.362319</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.668729</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55.583249</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>114.355382</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>73.006311</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>48.379344</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28.56503</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.219609</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.987996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.029437</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.350207000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.822805000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.632109</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.701593</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.828585</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.56283</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.372303</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.117355999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.829367999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11.439799</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>13.236114</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15.028586</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>16.957717</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>19.001217</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>20.812118</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>22.136611</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>24.081461</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>26.731787</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>29.0464</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>31.854199</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>34.451729</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39.333604</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="50070001"/>
+        <c:axId val="50070002"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="50070001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency in Hz</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50070002"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="50070002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Impendance in Ohms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50070001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Base_Case</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Corduff 220 kV'!$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>step0_Base_Case</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Corduff 220 kV'!$A$40:$A$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Corduff 220 kV'!$B$40:$B$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>8.177883999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.278695</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.737107</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.191863</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.981238</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61.60369</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50.58106</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.945852</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.271320999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.280967</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>47.958731</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>84.15586400000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>72.093655</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>56.498202</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30.392696</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.916946</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14.206881</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.115701</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.424647999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.851747</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.635696</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.699662</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.824301</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.545652</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.356386</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.107858999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.812360999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11.401085</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>13.124544</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14.995382</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>16.966586</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>19.137967</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>21.088136</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>23.105796</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>23.747504</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>26.827764</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>29.318155</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>32.293503</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>34.815922</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40.514823</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="50080001"/>
+        <c:axId val="50080002"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="50080001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency in Hz</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50080002"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="50080002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Impendance in Ohms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50080001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>CLO2-CDU2-ckt1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Corduff 220 kV'!$C$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>step0_CLO2-CDU2-ckt1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Corduff 220 kV'!$A$40:$A$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Corduff 220 kV'!$C$40:$C$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>9.045693</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.382377</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.127152</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.987459</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.031497</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92.509884</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48.642613</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.779789</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.362319</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.668729</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55.583249</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>114.355382</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>73.006311</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>48.379344</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28.56503</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.219609</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.987996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.029437</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.350207000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.822805000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.632109</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.701593</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.828585</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.56283</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.372303</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.117355999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.829367999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11.439799</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>13.236114</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15.028586</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>16.957717</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>19.001217</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>20.812118</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>22.136611</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>24.081461</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>26.731787</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>29.0464</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>31.854199</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>34.451729</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39.333604</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="50090001"/>
+        <c:axId val="50090002"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="50090001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency in Hz</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50090002"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="50090002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Impendance in Ohms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50090001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2945,6 +6153,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2985,6 +6253,66 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3020,6 +6348,66 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3050,6 +6438,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>

--- a/hast2_1/tests/STAGES_v220/Results_stage0_v220.xlsx
+++ b/hast2_1/tests/STAGES_v220/Results_stage0_v220.xlsx
@@ -371,121 +371,121 @@
                   <c:v>8.821742</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.281185</c:v>
+                  <c:v>21.300029</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39.214426</c:v>
+                  <c:v>45.985938</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.181858</c:v>
+                  <c:v>11.130381</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.209482</c:v>
+                  <c:v>20.209337</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>55.665317</c:v>
+                  <c:v>55.669699</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31.577405</c:v>
+                  <c:v>31.572793</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.425269</c:v>
+                  <c:v>6.425162</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.650503</c:v>
+                  <c:v>17.650497</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>32.070075</c:v>
+                  <c:v>32.07256</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>54.187498</c:v>
+                  <c:v>53.797256</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>73.369848</c:v>
+                  <c:v>73.36498900000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>46.363414</c:v>
+                  <c:v>46.343978</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>21.563238</c:v>
+                  <c:v>21.559483</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.959748</c:v>
+                  <c:v>5.966022</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.022803</c:v>
+                  <c:v>11.022647</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.556403</c:v>
+                  <c:v>17.560156</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>21.438589</c:v>
+                  <c:v>21.438906</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>26.09926</c:v>
+                  <c:v>26.099462</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>29.945767</c:v>
+                  <c:v>29.9449</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>33.207627</c:v>
+                  <c:v>33.212626</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>36.987286</c:v>
+                  <c:v>36.990536</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>40.5018</c:v>
+                  <c:v>40.506938</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43.633087</c:v>
+                  <c:v>43.634377</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>47.553487</c:v>
+                  <c:v>47.552991</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>51.4674</c:v>
+                  <c:v>51.469348</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>54.839709</c:v>
+                  <c:v>54.83702099999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>56.526449</c:v>
+                  <c:v>56.52518000000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>59.286418</c:v>
+                  <c:v>59.285174</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>64.04996800000001</c:v>
+                  <c:v>64.05636</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>68.319491</c:v>
+                  <c:v>68.318039</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>73.95109100000001</c:v>
+                  <c:v>73.949118</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>78.033475</c:v>
+                  <c:v>78.03354</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>82.49533199999999</c:v>
+                  <c:v>82.498891</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>76.68362500000001</c:v>
+                  <c:v>76.68305600000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>85.200863</c:v>
+                  <c:v>85.200929</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>89.475703</c:v>
+                  <c:v>89.475509</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>95.67699399999999</c:v>
+                  <c:v>95.677008</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>99.098152</c:v>
+                  <c:v>99.09781600000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>113.660148</c:v>
+                  <c:v>113.660231</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -654,121 +654,121 @@
                   <c:v>12.957254</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.630952</c:v>
+                  <c:v>28.647855</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42.324689</c:v>
+                  <c:v>48.929413</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.559856</c:v>
+                  <c:v>23.122703</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37.687392</c:v>
+                  <c:v>37.687239</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>56.505259</c:v>
+                  <c:v>56.506209</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>48.205792</c:v>
+                  <c:v>48.208382</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>59.21463000000001</c:v>
+                  <c:v>59.21464399999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>72.74673799999999</c:v>
+                  <c:v>72.74672</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>86.22182600000001</c:v>
+                  <c:v>86.226499</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>97.007689</c:v>
+                  <c:v>96.75505799999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>87.517253</c:v>
+                  <c:v>87.51552</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>94.94122</c:v>
+                  <c:v>94.94127399999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>110.455529</c:v>
+                  <c:v>110.418178</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>116.956808</c:v>
+                  <c:v>116.42836</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>129.72328</c:v>
+                  <c:v>129.707665</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>146.238603</c:v>
+                  <c:v>146.309145</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>148.401482</c:v>
+                  <c:v>148.423706</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>158.163439</c:v>
+                  <c:v>158.174918</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>167.367935</c:v>
+                  <c:v>167.278451</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>169.983231</c:v>
+                  <c:v>170.117052</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>187.11852</c:v>
+                  <c:v>187.190437</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>199.5125</c:v>
+                  <c:v>199.687253</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>207.629818</c:v>
+                  <c:v>207.651588</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>230.20928</c:v>
+                  <c:v>230.208691</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>254.529507</c:v>
+                  <c:v>254.559386</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>270.331639</c:v>
+                  <c:v>270.278139</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>243.832556</c:v>
+                  <c:v>243.815693</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>256.428747</c:v>
+                  <c:v>256.416254</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>286.949487</c:v>
+                  <c:v>287.052656</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>311.697845</c:v>
+                  <c:v>311.675507</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>356.712605</c:v>
+                  <c:v>356.675777</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>374.014385</c:v>
+                  <c:v>374.016735</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>352.370034</c:v>
+                  <c:v>352.413955</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>286.493373</c:v>
+                  <c:v>286.486345</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>352.090361</c:v>
+                  <c:v>352.091778</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>361.173392</c:v>
+                  <c:v>361.171694</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>404.226119</c:v>
+                  <c:v>404.226104</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>409.067357</c:v>
+                  <c:v>409.065151</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>544.3387389999999</c:v>
+                  <c:v>544.340364</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1055,121 +1055,121 @@
                   <c:v>7.367824000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.152296</c:v>
+                  <c:v>18.174882</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.189236</c:v>
+                  <c:v>41.054862</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.612144000000001</c:v>
+                  <c:v>8.995010000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.866213</c:v>
+                  <c:v>12.866156</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36.809568</c:v>
+                  <c:v>36.819976</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.414451</c:v>
+                  <c:v>9.414957000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.467956</c:v>
+                  <c:v>11.467926</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.23629</c:v>
+                  <c:v>20.236275</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29.713243</c:v>
+                  <c:v>29.717225</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40.881482</c:v>
+                  <c:v>40.377275</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40.998227</c:v>
+                  <c:v>40.994929</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16.848503</c:v>
+                  <c:v>16.8421</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>17.548311</c:v>
+                  <c:v>17.533447</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>22.565267</c:v>
+                  <c:v>22.329546</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>28.099499</c:v>
+                  <c:v>28.092282</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>35.565362</c:v>
+                  <c:v>35.605944</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>37.450872</c:v>
+                  <c:v>37.458262</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>39.8016</c:v>
+                  <c:v>39.802619</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42.74782800000001</c:v>
+                  <c:v>42.720437</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43.770332</c:v>
+                  <c:v>43.824582</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>48.256409</c:v>
+                  <c:v>48.303641</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>54.163716</c:v>
+                  <c:v>54.19394699999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>54.35412700000001</c:v>
+                  <c:v>54.36880600000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>62.650786</c:v>
+                  <c:v>62.649323</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>72.607091</c:v>
+                  <c:v>72.61471299999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>76.726371</c:v>
+                  <c:v>76.70864399999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>76.614946</c:v>
+                  <c:v>76.608716</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>66.44721899999999</c:v>
+                  <c:v>66.43789100000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>81.20571700000001</c:v>
+                  <c:v>81.24734699999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>86.955961</c:v>
+                  <c:v>86.944385</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>103.119539</c:v>
+                  <c:v>103.1079</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>113.177914</c:v>
+                  <c:v>113.178827</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>140.965952</c:v>
+                  <c:v>140.983065</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>74.659814</c:v>
+                  <c:v>74.656532</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>97.57382</c:v>
+                  <c:v>97.57499799999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>105.030865</c:v>
+                  <c:v>105.029684</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>113.228346</c:v>
+                  <c:v>113.228353</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>112.799061</c:v>
+                  <c:v>112.79754</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>155.160951</c:v>
+                  <c:v>155.161492</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1338,121 +1338,121 @@
                   <c:v>7.613001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.47319</c:v>
+                  <c:v>18.49564</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.397425</c:v>
+                  <c:v>40.159244</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.082808</c:v>
+                  <c:v>8.310002000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.479752</c:v>
+                  <c:v>13.479644</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.932754</c:v>
+                  <c:v>32.941126</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.590424</c:v>
+                  <c:v>13.593526</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.902071</c:v>
+                  <c:v>17.90209</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26.764243</c:v>
+                  <c:v>26.764222</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>35.549476</c:v>
+                  <c:v>35.554405</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43.081693</c:v>
+                  <c:v>42.637481</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>34.367026</c:v>
+                  <c:v>34.364486</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>27.739542</c:v>
+                  <c:v>27.739751</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>38.126596</c:v>
+                  <c:v>38.085876</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>39.691474</c:v>
+                  <c:v>39.144978</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>46.252948</c:v>
+                  <c:v>46.236505</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>57.556987</c:v>
+                  <c:v>57.639415</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>56.36849300000001</c:v>
+                  <c:v>56.382185</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>58.295152</c:v>
+                  <c:v>58.299391</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>61.503086</c:v>
+                  <c:v>61.432222</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>60.319662</c:v>
+                  <c:v>60.433487</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>68.25407299999999</c:v>
+                  <c:v>68.343011</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>75.94569200000001</c:v>
+                  <c:v>76.06251800000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>75.99045100000001</c:v>
+                  <c:v>76.01580899999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>90.93864000000001</c:v>
+                  <c:v>90.937107</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>109.338026</c:v>
+                  <c:v>109.358301</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>116.849286</c:v>
+                  <c:v>116.805469</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>102.498733</c:v>
+                  <c:v>102.485288</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>90.817554</c:v>
+                  <c:v>90.802267</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>116.003369</c:v>
+                  <c:v>116.093085</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>127.738508</c:v>
+                  <c:v>127.715028</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>161.647604</c:v>
+                  <c:v>161.616946</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>177.616517</c:v>
+                  <c:v>177.618934</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>198.437988</c:v>
+                  <c:v>198.478491</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>92.13547199999999</c:v>
+                  <c:v>92.129802</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>134.997659</c:v>
+                  <c:v>134.999673</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>143.19978</c:v>
+                  <c:v>143.19783</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>163.073941</c:v>
+                  <c:v>163.07392</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>159.818393</c:v>
+                  <c:v>159.81592</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>258.611496</c:v>
+                  <c:v>258.612993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1739,121 +1739,121 @@
                   <c:v>7.367824000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.152296</c:v>
+                  <c:v>18.174882</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.189236</c:v>
+                  <c:v>41.054862</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.612144000000001</c:v>
+                  <c:v>8.995010000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.866213</c:v>
+                  <c:v>12.866156</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36.809568</c:v>
+                  <c:v>36.819976</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.414451</c:v>
+                  <c:v>9.414957000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.467956</c:v>
+                  <c:v>11.467926</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.23629</c:v>
+                  <c:v>20.236275</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29.713243</c:v>
+                  <c:v>29.717225</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40.881482</c:v>
+                  <c:v>40.377275</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40.998227</c:v>
+                  <c:v>40.994929</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16.848503</c:v>
+                  <c:v>16.8421</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>17.548311</c:v>
+                  <c:v>17.533447</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>22.565267</c:v>
+                  <c:v>22.329546</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>28.099499</c:v>
+                  <c:v>28.092282</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>35.565362</c:v>
+                  <c:v>35.605944</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>37.450872</c:v>
+                  <c:v>37.458262</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>39.8016</c:v>
+                  <c:v>39.802619</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42.74782800000001</c:v>
+                  <c:v>42.720437</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43.770332</c:v>
+                  <c:v>43.824582</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>48.256409</c:v>
+                  <c:v>48.303641</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>54.163716</c:v>
+                  <c:v>54.19394699999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>54.35412700000001</c:v>
+                  <c:v>54.36880600000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>62.650786</c:v>
+                  <c:v>62.649323</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>72.607091</c:v>
+                  <c:v>72.61471299999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>76.726371</c:v>
+                  <c:v>76.70864399999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>76.614946</c:v>
+                  <c:v>76.608716</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>66.44721899999999</c:v>
+                  <c:v>66.43789100000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>81.20571700000001</c:v>
+                  <c:v>81.24734699999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>86.955961</c:v>
+                  <c:v>86.944385</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>103.119539</c:v>
+                  <c:v>103.1079</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>113.177914</c:v>
+                  <c:v>113.178827</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>140.965952</c:v>
+                  <c:v>140.983065</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>74.659814</c:v>
+                  <c:v>74.656532</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>97.57382</c:v>
+                  <c:v>97.57499799999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>105.030865</c:v>
+                  <c:v>105.029684</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>113.228346</c:v>
+                  <c:v>113.228353</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>112.799061</c:v>
+                  <c:v>112.79754</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>155.160951</c:v>
+                  <c:v>155.161492</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2140,121 +2140,121 @@
                   <c:v>7.613001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.47319</c:v>
+                  <c:v>18.49564</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.397425</c:v>
+                  <c:v>40.159244</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.082808</c:v>
+                  <c:v>8.310002000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.479752</c:v>
+                  <c:v>13.479644</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.932754</c:v>
+                  <c:v>32.941126</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.590424</c:v>
+                  <c:v>13.593526</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.902071</c:v>
+                  <c:v>17.90209</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26.764243</c:v>
+                  <c:v>26.764222</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>35.549476</c:v>
+                  <c:v>35.554405</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43.081693</c:v>
+                  <c:v>42.637481</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>34.367026</c:v>
+                  <c:v>34.364486</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>27.739542</c:v>
+                  <c:v>27.739751</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>38.126596</c:v>
+                  <c:v>38.085876</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>39.691474</c:v>
+                  <c:v>39.144978</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>46.252948</c:v>
+                  <c:v>46.236505</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>57.556987</c:v>
+                  <c:v>57.639415</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>56.36849300000001</c:v>
+                  <c:v>56.382185</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>58.295152</c:v>
+                  <c:v>58.299391</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>61.503086</c:v>
+                  <c:v>61.432222</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>60.319662</c:v>
+                  <c:v>60.433487</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>68.25407299999999</c:v>
+                  <c:v>68.343011</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>75.94569200000001</c:v>
+                  <c:v>76.06251800000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>75.99045100000001</c:v>
+                  <c:v>76.01580899999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>90.93864000000001</c:v>
+                  <c:v>90.937107</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>109.338026</c:v>
+                  <c:v>109.358301</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>116.849286</c:v>
+                  <c:v>116.805469</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>102.498733</c:v>
+                  <c:v>102.485288</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>90.817554</c:v>
+                  <c:v>90.802267</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>116.003369</c:v>
+                  <c:v>116.093085</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>127.738508</c:v>
+                  <c:v>127.715028</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>161.647604</c:v>
+                  <c:v>161.616946</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>177.616517</c:v>
+                  <c:v>177.618934</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>198.437988</c:v>
+                  <c:v>198.478491</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>92.13547199999999</c:v>
+                  <c:v>92.129802</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>134.997659</c:v>
+                  <c:v>134.999673</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>143.19978</c:v>
+                  <c:v>143.19783</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>163.073941</c:v>
+                  <c:v>163.07392</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>159.818393</c:v>
+                  <c:v>159.81592</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>258.611496</c:v>
+                  <c:v>258.612993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2541,121 +2541,121 @@
                   <c:v>8.821742</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.281185</c:v>
+                  <c:v>21.300029</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39.214426</c:v>
+                  <c:v>45.985938</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.181858</c:v>
+                  <c:v>11.130381</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.209482</c:v>
+                  <c:v>20.209337</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>55.665317</c:v>
+                  <c:v>55.669699</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31.577405</c:v>
+                  <c:v>31.572793</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.425269</c:v>
+                  <c:v>6.425162</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.650503</c:v>
+                  <c:v>17.650497</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>32.070075</c:v>
+                  <c:v>32.07256</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>54.187498</c:v>
+                  <c:v>53.797256</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>73.369848</c:v>
+                  <c:v>73.36498900000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>46.363414</c:v>
+                  <c:v>46.343978</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>21.563238</c:v>
+                  <c:v>21.559483</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.959748</c:v>
+                  <c:v>5.966022</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.022803</c:v>
+                  <c:v>11.022647</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.556403</c:v>
+                  <c:v>17.560156</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>21.438589</c:v>
+                  <c:v>21.438906</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>26.09926</c:v>
+                  <c:v>26.099462</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>29.945767</c:v>
+                  <c:v>29.9449</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>33.207627</c:v>
+                  <c:v>33.212626</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>36.987286</c:v>
+                  <c:v>36.990536</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>40.5018</c:v>
+                  <c:v>40.506938</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43.633087</c:v>
+                  <c:v>43.634377</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>47.553487</c:v>
+                  <c:v>47.552991</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>51.4674</c:v>
+                  <c:v>51.469348</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>54.839709</c:v>
+                  <c:v>54.83702099999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>56.526449</c:v>
+                  <c:v>56.52518000000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>59.286418</c:v>
+                  <c:v>59.285174</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>64.04996800000001</c:v>
+                  <c:v>64.05636</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>68.319491</c:v>
+                  <c:v>68.318039</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>73.95109100000001</c:v>
+                  <c:v>73.949118</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>78.033475</c:v>
+                  <c:v>78.03354</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>82.49533199999999</c:v>
+                  <c:v>82.498891</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>76.68362500000001</c:v>
+                  <c:v>76.68305600000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>85.200863</c:v>
+                  <c:v>85.200929</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>89.475703</c:v>
+                  <c:v>89.475509</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>95.67699399999999</c:v>
+                  <c:v>95.677008</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>99.098152</c:v>
+                  <c:v>99.09781600000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>113.660148</c:v>
+                  <c:v>113.660231</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2942,121 +2942,121 @@
                   <c:v>12.957254</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.630952</c:v>
+                  <c:v>28.647855</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42.324689</c:v>
+                  <c:v>48.929413</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.559856</c:v>
+                  <c:v>23.122703</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37.687392</c:v>
+                  <c:v>37.687239</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>56.505259</c:v>
+                  <c:v>56.506209</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>48.205792</c:v>
+                  <c:v>48.208382</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>59.21463000000001</c:v>
+                  <c:v>59.21464399999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>72.74673799999999</c:v>
+                  <c:v>72.74672</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>86.22182600000001</c:v>
+                  <c:v>86.226499</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>97.007689</c:v>
+                  <c:v>96.75505799999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>87.517253</c:v>
+                  <c:v>87.51552</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>94.94122</c:v>
+                  <c:v>94.94127399999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>110.455529</c:v>
+                  <c:v>110.418178</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>116.956808</c:v>
+                  <c:v>116.42836</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>129.72328</c:v>
+                  <c:v>129.707665</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>146.238603</c:v>
+                  <c:v>146.309145</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>148.401482</c:v>
+                  <c:v>148.423706</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>158.163439</c:v>
+                  <c:v>158.174918</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>167.367935</c:v>
+                  <c:v>167.278451</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>169.983231</c:v>
+                  <c:v>170.117052</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>187.11852</c:v>
+                  <c:v>187.190437</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>199.5125</c:v>
+                  <c:v>199.687253</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>207.629818</c:v>
+                  <c:v>207.651588</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>230.20928</c:v>
+                  <c:v>230.208691</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>254.529507</c:v>
+                  <c:v>254.559386</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>270.331639</c:v>
+                  <c:v>270.278139</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>243.832556</c:v>
+                  <c:v>243.815693</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>256.428747</c:v>
+                  <c:v>256.416254</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>286.949487</c:v>
+                  <c:v>287.052656</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>311.697845</c:v>
+                  <c:v>311.675507</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>356.712605</c:v>
+                  <c:v>356.675777</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>374.014385</c:v>
+                  <c:v>374.016735</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>352.370034</c:v>
+                  <c:v>352.413955</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>286.493373</c:v>
+                  <c:v>286.486345</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>352.090361</c:v>
+                  <c:v>352.091778</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>361.173392</c:v>
+                  <c:v>361.171694</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>404.226119</c:v>
+                  <c:v>404.226104</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>409.067357</c:v>
+                  <c:v>409.065151</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>544.3387389999999</c:v>
+                  <c:v>544.340364</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3343,121 +3343,121 @@
                   <c:v>3.583228</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.829267999999999</c:v>
+                  <c:v>7.834599000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.139512</c:v>
+                  <c:v>12.926178</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.280465</c:v>
+                  <c:v>7.128504</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.226001</c:v>
+                  <c:v>11.225865</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.322719</c:v>
+                  <c:v>17.322094</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.762832</c:v>
+                  <c:v>14.76373</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.519794</c:v>
+                  <c:v>19.52108</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26.583023</c:v>
+                  <c:v>26.583122</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>35.274408</c:v>
+                  <c:v>35.286041</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42.054772</c:v>
+                  <c:v>41.467582</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>32.467953</c:v>
+                  <c:v>32.467526</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41.094577</c:v>
+                  <c:v>41.10530900000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>38.048852</c:v>
+                  <c:v>38.042319</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>60.828872</c:v>
+                  <c:v>61.04561700000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>75.731503</c:v>
+                  <c:v>75.711089</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>150.52167</c:v>
+                  <c:v>150.862295</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>89.25584000000001</c:v>
+                  <c:v>89.176051</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>181.551647</c:v>
+                  <c:v>181.33419</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>339.289972</c:v>
+                  <c:v>339.007406</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>173.387614</c:v>
+                  <c:v>173.414613</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>115.273193</c:v>
+                  <c:v>115.000189</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>86.05020999999999</c:v>
+                  <c:v>86.14018100000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>77.775564</c:v>
+                  <c:v>77.86027900000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>69.021946</c:v>
+                  <c:v>69.073859</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>55.794132</c:v>
+                  <c:v>55.785788</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>53.36069699999999</c:v>
+                  <c:v>53.337361</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>46.611806</c:v>
+                  <c:v>46.611439</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>40.566109</c:v>
+                  <c:v>40.567087</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>36.807175</c:v>
+                  <c:v>36.806913</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>32.937537</c:v>
+                  <c:v>32.94025999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>29.839638</c:v>
+                  <c:v>29.839729</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>28.691137</c:v>
+                  <c:v>28.69054</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>27.035308</c:v>
+                  <c:v>27.038911</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>24.875474</c:v>
+                  <c:v>24.876479</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>23.149733</c:v>
+                  <c:v>23.151902</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>22.103807</c:v>
+                  <c:v>22.098014</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>20.417299</c:v>
+                  <c:v>20.416819</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>19.960267</c:v>
+                  <c:v>19.956959</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>20.168576</c:v>
+                  <c:v>20.169891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3626,121 +3626,121 @@
                   <c:v>3.652575</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.008365</c:v>
+                  <c:v>8.01356</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.465645</c:v>
+                  <c:v>13.319046</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.533410000000001</c:v>
+                  <c:v>7.358672</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.321255</c:v>
+                  <c:v>11.321062</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.560437</c:v>
+                  <c:v>18.559132</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.468721</c:v>
+                  <c:v>13.47022</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.748802</c:v>
+                  <c:v>19.750194</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26.590373</c:v>
+                  <c:v>26.590472</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>35.408799</c:v>
+                  <c:v>35.420255</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42.871323</c:v>
+                  <c:v>42.280481</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>32.097028</c:v>
+                  <c:v>32.096472</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>39.091474</c:v>
+                  <c:v>39.097971</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>39.278865</c:v>
+                  <c:v>39.281741</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>61.74160799999999</c:v>
+                  <c:v>61.99801</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>76.052465</c:v>
+                  <c:v>76.03389799999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>150.972995</c:v>
+                  <c:v>151.293673</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>89.140619</c:v>
+                  <c:v>89.05508499999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>181.628186</c:v>
+                  <c:v>181.406103</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>339.092917</c:v>
+                  <c:v>338.807717</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>173.385943</c:v>
+                  <c:v>173.415565</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>115.346927</c:v>
+                  <c:v>115.060385</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>85.880589</c:v>
+                  <c:v>85.96025400000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>78.56260999999999</c:v>
+                  <c:v>78.653828</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>68.79570699999999</c:v>
+                  <c:v>68.849</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>55.632276</c:v>
+                  <c:v>55.62087</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>53.326257</c:v>
+                  <c:v>53.303141</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>46.640744</c:v>
+                  <c:v>46.640237</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>40.568391</c:v>
+                  <c:v>40.569406</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>36.8256</c:v>
+                  <c:v>36.82575300000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>32.93985</c:v>
+                  <c:v>32.942462</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>29.812636</c:v>
+                  <c:v>29.812688</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>28.70084</c:v>
+                  <c:v>28.700269</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>27.175164</c:v>
+                  <c:v>27.179195</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>24.820439</c:v>
+                  <c:v>24.821368</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>23.124739</c:v>
+                  <c:v>23.12691</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>21.964177</c:v>
+                  <c:v>21.958414</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>20.489453</c:v>
+                  <c:v>20.488978</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>19.959667</c:v>
+                  <c:v>19.956349</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>20.129558</c:v>
+                  <c:v>20.130867</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4027,121 +4027,121 @@
                   <c:v>3.583228</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.829267999999999</c:v>
+                  <c:v>7.834599000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.139512</c:v>
+                  <c:v>12.926178</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.280465</c:v>
+                  <c:v>7.128504</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.226001</c:v>
+                  <c:v>11.225865</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.322719</c:v>
+                  <c:v>17.322094</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.762832</c:v>
+                  <c:v>14.76373</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.519794</c:v>
+                  <c:v>19.52108</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26.583023</c:v>
+                  <c:v>26.583122</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>35.274408</c:v>
+                  <c:v>35.286041</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42.054772</c:v>
+                  <c:v>41.467582</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>32.467953</c:v>
+                  <c:v>32.467526</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41.094577</c:v>
+                  <c:v>41.10530900000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>38.048852</c:v>
+                  <c:v>38.042319</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>60.828872</c:v>
+                  <c:v>61.04561700000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>75.731503</c:v>
+                  <c:v>75.711089</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>150.52167</c:v>
+                  <c:v>150.862295</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>89.25584000000001</c:v>
+                  <c:v>89.176051</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>181.551647</c:v>
+                  <c:v>181.33419</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>339.289972</c:v>
+                  <c:v>339.007406</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>173.387614</c:v>
+                  <c:v>173.414613</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>115.273193</c:v>
+                  <c:v>115.000189</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>86.05020999999999</c:v>
+                  <c:v>86.14018100000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>77.775564</c:v>
+                  <c:v>77.86027900000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>69.021946</c:v>
+                  <c:v>69.073859</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>55.794132</c:v>
+                  <c:v>55.785788</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>53.36069699999999</c:v>
+                  <c:v>53.337361</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>46.611806</c:v>
+                  <c:v>46.611439</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>40.566109</c:v>
+                  <c:v>40.567087</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>36.807175</c:v>
+                  <c:v>36.806913</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>32.937537</c:v>
+                  <c:v>32.94025999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>29.839638</c:v>
+                  <c:v>29.839729</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>28.691137</c:v>
+                  <c:v>28.69054</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>27.035308</c:v>
+                  <c:v>27.038911</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>24.875474</c:v>
+                  <c:v>24.876479</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>23.149733</c:v>
+                  <c:v>23.151902</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>22.103807</c:v>
+                  <c:v>22.098014</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>20.417299</c:v>
+                  <c:v>20.416819</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>19.960267</c:v>
+                  <c:v>19.956959</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>20.168576</c:v>
+                  <c:v>20.169891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4428,121 +4428,121 @@
                   <c:v>3.652575</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.008365</c:v>
+                  <c:v>8.01356</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.465645</c:v>
+                  <c:v>13.319046</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.533410000000001</c:v>
+                  <c:v>7.358672</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.321255</c:v>
+                  <c:v>11.321062</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.560437</c:v>
+                  <c:v>18.559132</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.468721</c:v>
+                  <c:v>13.47022</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.748802</c:v>
+                  <c:v>19.750194</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26.590373</c:v>
+                  <c:v>26.590472</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>35.408799</c:v>
+                  <c:v>35.420255</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42.871323</c:v>
+                  <c:v>42.280481</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>32.097028</c:v>
+                  <c:v>32.096472</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>39.091474</c:v>
+                  <c:v>39.097971</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>39.278865</c:v>
+                  <c:v>39.281741</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>61.74160799999999</c:v>
+                  <c:v>61.99801</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>76.052465</c:v>
+                  <c:v>76.03389799999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>150.972995</c:v>
+                  <c:v>151.293673</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>89.140619</c:v>
+                  <c:v>89.05508499999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>181.628186</c:v>
+                  <c:v>181.406103</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>339.092917</c:v>
+                  <c:v>338.807717</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>173.385943</c:v>
+                  <c:v>173.415565</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>115.346927</c:v>
+                  <c:v>115.060385</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>85.880589</c:v>
+                  <c:v>85.96025400000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>78.56260999999999</c:v>
+                  <c:v>78.653828</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>68.79570699999999</c:v>
+                  <c:v>68.849</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>55.632276</c:v>
+                  <c:v>55.62087</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>53.326257</c:v>
+                  <c:v>53.303141</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>46.640744</c:v>
+                  <c:v>46.640237</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>40.568391</c:v>
+                  <c:v>40.569406</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>36.8256</c:v>
+                  <c:v>36.82575300000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>32.93985</c:v>
+                  <c:v>32.942462</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>29.812636</c:v>
+                  <c:v>29.812688</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>28.70084</c:v>
+                  <c:v>28.700269</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>27.175164</c:v>
+                  <c:v>27.179195</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>24.820439</c:v>
+                  <c:v>24.821368</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>23.124739</c:v>
+                  <c:v>23.12691</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>21.964177</c:v>
+                  <c:v>21.958414</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>20.489453</c:v>
+                  <c:v>20.488978</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>19.959667</c:v>
+                  <c:v>19.956349</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>20.129558</c:v>
+                  <c:v>20.130867</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4829,121 +4829,121 @@
                   <c:v>8.177883999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.278695</c:v>
+                  <c:v>20.297868</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39.737107</c:v>
+                  <c:v>46.624943</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.191863</c:v>
+                  <c:v>11.369486</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.981238</c:v>
+                  <c:v>19.981279</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>61.60369</c:v>
+                  <c:v>61.607725</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50.58106</c:v>
+                  <c:v>50.572822</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.945852</c:v>
+                  <c:v>15.945443</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.271320999999999</c:v>
+                  <c:v>5.271318</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.280967</c:v>
+                  <c:v>20.283045</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>47.958731</c:v>
+                  <c:v>47.531929</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>84.15586400000001</c:v>
+                  <c:v>84.150432</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>72.093655</c:v>
+                  <c:v>72.081512</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>56.498202</c:v>
+                  <c:v>56.473307</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30.392696</c:v>
+                  <c:v>30.388593</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.916946</c:v>
+                  <c:v>20.91703</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>14.206881</c:v>
+                  <c:v>14.210516</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11.115701</c:v>
+                  <c:v>11.120392</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.424647999999999</c:v>
+                  <c:v>7.425008</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.851747</c:v>
+                  <c:v>4.852331</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.635696</c:v>
+                  <c:v>2.635722</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.699662</c:v>
+                  <c:v>1.699672</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.824301</c:v>
+                  <c:v>2.824125</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.545652</c:v>
+                  <c:v>4.545662</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.356386</c:v>
+                  <c:v>6.356203</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.107858999999999</c:v>
+                  <c:v>8.108149000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9.812360999999999</c:v>
+                  <c:v>9.812199</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>11.401085</c:v>
+                  <c:v>11.400917</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>13.124544</c:v>
+                  <c:v>13.124346</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>14.995382</c:v>
+                  <c:v>14.995991</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>16.966586</c:v>
+                  <c:v>16.966436</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>19.137967</c:v>
+                  <c:v>19.137713</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>21.088136</c:v>
+                  <c:v>21.088135</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>23.105796</c:v>
+                  <c:v>23.10635</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>23.747504</c:v>
+                  <c:v>23.747445</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>26.827764</c:v>
+                  <c:v>26.827737</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>29.318155</c:v>
+                  <c:v>29.318129</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>32.293503</c:v>
+                  <c:v>32.293513</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>34.815922</c:v>
+                  <c:v>34.815844</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>40.514823</c:v>
+                  <c:v>40.514826</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5112,121 +5112,121 @@
                   <c:v>9.045693</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.382377</c:v>
+                  <c:v>22.399652</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43.127152</c:v>
+                  <c:v>50.739883</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.987459</c:v>
+                  <c:v>13.750565</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.031497</c:v>
+                  <c:v>26.031216</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>92.509884</c:v>
+                  <c:v>92.504711</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>48.642613</c:v>
+                  <c:v>48.639841</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.779789</c:v>
+                  <c:v>14.779488</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.362319</c:v>
+                  <c:v>5.362316000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21.668729</c:v>
+                  <c:v>21.670575</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>55.583249</c:v>
+                  <c:v>55.196203</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>114.355382</c:v>
+                  <c:v>114.348241</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>73.006311</c:v>
+                  <c:v>72.97484300000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>48.379344</c:v>
+                  <c:v>48.370139</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>28.56503</c:v>
+                  <c:v>28.557449</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.219609</c:v>
+                  <c:v>20.219539</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>13.987996</c:v>
+                  <c:v>13.990976</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11.029437</c:v>
+                  <c:v>11.033031</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.350207000000001</c:v>
+                  <c:v>7.350428</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.822805000000001</c:v>
+                  <c:v>4.823145999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.632109</c:v>
+                  <c:v>2.632128</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.701593</c:v>
+                  <c:v>1.701598</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.828585</c:v>
+                  <c:v>2.828434</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.56283</c:v>
+                  <c:v>4.562825</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.372303</c:v>
+                  <c:v>6.372143</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.117355999999999</c:v>
+                  <c:v>8.117628999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9.829367999999999</c:v>
+                  <c:v>9.829255</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>11.439799</c:v>
+                  <c:v>11.439683</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>13.236114</c:v>
+                  <c:v>13.235998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>15.028586</c:v>
+                  <c:v>15.028924</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>16.957717</c:v>
+                  <c:v>16.957647</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>19.001217</c:v>
+                  <c:v>19.001013</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>20.812118</c:v>
+                  <c:v>20.812119</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>22.136611</c:v>
+                  <c:v>22.136859</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>24.081461</c:v>
+                  <c:v>24.081444</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>26.731787</c:v>
+                  <c:v>26.731743</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>29.0464</c:v>
+                  <c:v>29.046419</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>31.854199</c:v>
+                  <c:v>31.854206</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>34.451729</c:v>
+                  <c:v>34.451689</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>39.333604</c:v>
+                  <c:v>39.333609</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5513,121 +5513,121 @@
                   <c:v>8.177883999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.278695</c:v>
+                  <c:v>20.297868</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39.737107</c:v>
+                  <c:v>46.624943</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.191863</c:v>
+                  <c:v>11.369486</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.981238</c:v>
+                  <c:v>19.981279</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>61.60369</c:v>
+                  <c:v>61.607725</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50.58106</c:v>
+                  <c:v>50.572822</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.945852</c:v>
+                  <c:v>15.945443</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.271320999999999</c:v>
+                  <c:v>5.271318</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.280967</c:v>
+                  <c:v>20.283045</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>47.958731</c:v>
+                  <c:v>47.531929</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>84.15586400000001</c:v>
+                  <c:v>84.150432</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>72.093655</c:v>
+                  <c:v>72.081512</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>56.498202</c:v>
+                  <c:v>56.473307</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30.392696</c:v>
+                  <c:v>30.388593</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.916946</c:v>
+                  <c:v>20.91703</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>14.206881</c:v>
+                  <c:v>14.210516</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11.115701</c:v>
+                  <c:v>11.120392</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.424647999999999</c:v>
+                  <c:v>7.425008</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.851747</c:v>
+                  <c:v>4.852331</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.635696</c:v>
+                  <c:v>2.635722</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.699662</c:v>
+                  <c:v>1.699672</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.824301</c:v>
+                  <c:v>2.824125</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.545652</c:v>
+                  <c:v>4.545662</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.356386</c:v>
+                  <c:v>6.356203</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.107858999999999</c:v>
+                  <c:v>8.108149000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9.812360999999999</c:v>
+                  <c:v>9.812199</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>11.401085</c:v>
+                  <c:v>11.400917</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>13.124544</c:v>
+                  <c:v>13.124346</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>14.995382</c:v>
+                  <c:v>14.995991</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>16.966586</c:v>
+                  <c:v>16.966436</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>19.137967</c:v>
+                  <c:v>19.137713</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>21.088136</c:v>
+                  <c:v>21.088135</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>23.105796</c:v>
+                  <c:v>23.10635</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>23.747504</c:v>
+                  <c:v>23.747445</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>26.827764</c:v>
+                  <c:v>26.827737</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>29.318155</c:v>
+                  <c:v>29.318129</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>32.293503</c:v>
+                  <c:v>32.293513</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>34.815922</c:v>
+                  <c:v>34.815844</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>40.514823</c:v>
+                  <c:v>40.514826</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5914,121 +5914,121 @@
                   <c:v>9.045693</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.382377</c:v>
+                  <c:v>22.399652</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43.127152</c:v>
+                  <c:v>50.739883</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.987459</c:v>
+                  <c:v>13.750565</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.031497</c:v>
+                  <c:v>26.031216</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>92.509884</c:v>
+                  <c:v>92.504711</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>48.642613</c:v>
+                  <c:v>48.639841</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.779789</c:v>
+                  <c:v>14.779488</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.362319</c:v>
+                  <c:v>5.362316000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21.668729</c:v>
+                  <c:v>21.670575</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>55.583249</c:v>
+                  <c:v>55.196203</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>114.355382</c:v>
+                  <c:v>114.348241</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>73.006311</c:v>
+                  <c:v>72.97484300000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>48.379344</c:v>
+                  <c:v>48.370139</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>28.56503</c:v>
+                  <c:v>28.557449</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.219609</c:v>
+                  <c:v>20.219539</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>13.987996</c:v>
+                  <c:v>13.990976</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11.029437</c:v>
+                  <c:v>11.033031</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.350207000000001</c:v>
+                  <c:v>7.350428</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.822805000000001</c:v>
+                  <c:v>4.823145999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.632109</c:v>
+                  <c:v>2.632128</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.701593</c:v>
+                  <c:v>1.701598</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.828585</c:v>
+                  <c:v>2.828434</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.56283</c:v>
+                  <c:v>4.562825</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.372303</c:v>
+                  <c:v>6.372143</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.117355999999999</c:v>
+                  <c:v>8.117628999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9.829367999999999</c:v>
+                  <c:v>9.829255</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>11.439799</c:v>
+                  <c:v>11.439683</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>13.236114</c:v>
+                  <c:v>13.235998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>15.028586</c:v>
+                  <c:v>15.028924</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>16.957717</c:v>
+                  <c:v>16.957647</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>19.001217</c:v>
+                  <c:v>19.001013</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>20.812118</c:v>
+                  <c:v>20.812119</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>22.136611</c:v>
+                  <c:v>22.136859</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>24.081461</c:v>
+                  <c:v>24.081444</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>26.731787</c:v>
+                  <c:v>26.731743</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>29.0464</c:v>
+                  <c:v>29.046419</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>31.854199</c:v>
+                  <c:v>31.854206</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>34.451729</c:v>
+                  <c:v>34.451689</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>39.333604</c:v>
+                  <c:v>39.333609</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7022,31 +7022,31 @@
         <v>100</v>
       </c>
       <c r="B41">
-        <v>21.281185</v>
+        <v>21.300029</v>
       </c>
       <c r="C41">
-        <v>28.630952</v>
+        <v>28.647855</v>
       </c>
       <c r="E41" s="1">
         <v>100</v>
       </c>
       <c r="F41">
-        <v>7.822211</v>
+        <v>7.836607000000001</v>
       </c>
       <c r="G41">
-        <v>6.658963000000001</v>
+        <v>6.674746000000001</v>
       </c>
       <c r="H41">
-        <v>19.067335</v>
+        <v>19.087566</v>
       </c>
       <c r="I41">
-        <v>15.128627</v>
+        <v>15.152418</v>
       </c>
       <c r="J41">
-        <v>16.661733</v>
+        <v>16.68483</v>
       </c>
       <c r="K41">
-        <v>18.210473</v>
+        <v>18.232773</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -7054,31 +7054,31 @@
         <v>150</v>
       </c>
       <c r="B42">
-        <v>39.214426</v>
+        <v>45.985938</v>
       </c>
       <c r="C42">
-        <v>42.324689</v>
+        <v>48.929413</v>
       </c>
       <c r="E42" s="1">
         <v>150</v>
       </c>
       <c r="F42">
-        <v>17.384717</v>
+        <v>20.142942</v>
       </c>
       <c r="G42">
-        <v>16.226204</v>
+        <v>18.605418</v>
       </c>
       <c r="H42">
-        <v>38.400972</v>
+        <v>44.992894</v>
       </c>
       <c r="I42">
-        <v>35.180322</v>
+        <v>40.88086</v>
       </c>
       <c r="J42">
-        <v>35.385651</v>
+        <v>41.219457</v>
       </c>
       <c r="K42">
-        <v>33.867124</v>
+        <v>39.53568</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -7086,31 +7086,31 @@
         <v>200</v>
       </c>
       <c r="B43">
-        <v>11.181858</v>
+        <v>11.130381</v>
       </c>
       <c r="C43">
-        <v>23.559856</v>
+        <v>23.122703</v>
       </c>
       <c r="E43" s="1">
         <v>200</v>
       </c>
       <c r="F43">
-        <v>5.443902</v>
+        <v>5.79431</v>
       </c>
       <c r="G43">
-        <v>6.395862</v>
+        <v>6.740164999999999</v>
       </c>
       <c r="H43">
-        <v>10.533597</v>
+        <v>10.927542</v>
       </c>
       <c r="I43">
-        <v>12.461905</v>
+        <v>13.286119</v>
       </c>
       <c r="J43">
-        <v>10.162542</v>
+        <v>10.828518</v>
       </c>
       <c r="K43">
-        <v>7.917559</v>
+        <v>8.157857</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -7118,31 +7118,31 @@
         <v>250</v>
       </c>
       <c r="B44">
-        <v>20.209482</v>
+        <v>20.209337</v>
       </c>
       <c r="C44">
-        <v>37.687392</v>
+        <v>37.687239</v>
       </c>
       <c r="E44" s="1">
         <v>250</v>
       </c>
       <c r="F44">
-        <v>5.591971</v>
+        <v>5.592162</v>
       </c>
       <c r="G44">
-        <v>4.496051</v>
+        <v>4.496206</v>
       </c>
       <c r="H44">
-        <v>17.195813</v>
+        <v>17.195932</v>
       </c>
       <c r="I44">
-        <v>10.475897</v>
+        <v>10.476227</v>
       </c>
       <c r="J44">
-        <v>11.20732</v>
+        <v>11.207481</v>
       </c>
       <c r="K44">
-        <v>12.928409</v>
+        <v>12.928306</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -7150,31 +7150,31 @@
         <v>300</v>
       </c>
       <c r="B45">
-        <v>55.665317</v>
+        <v>55.669699</v>
       </c>
       <c r="C45">
-        <v>56.505259</v>
+        <v>56.506209</v>
       </c>
       <c r="E45" s="1">
         <v>300</v>
       </c>
       <c r="F45">
-        <v>15.992804</v>
+        <v>15.996532</v>
       </c>
       <c r="G45">
-        <v>12.156685</v>
+        <v>12.161401</v>
       </c>
       <c r="H45">
-        <v>54.93826600000001</v>
+        <v>54.94421800000001</v>
       </c>
       <c r="I45">
-        <v>39.358243</v>
+        <v>39.36941599999999</v>
       </c>
       <c r="J45">
-        <v>38.797862</v>
+        <v>38.809224</v>
       </c>
       <c r="K45">
-        <v>31.664034</v>
+        <v>31.6721</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -7182,31 +7182,31 @@
         <v>350</v>
       </c>
       <c r="B46">
-        <v>31.577405</v>
+        <v>31.572793</v>
       </c>
       <c r="C46">
-        <v>48.205792</v>
+        <v>48.208382</v>
       </c>
       <c r="E46" s="1">
         <v>350</v>
       </c>
       <c r="F46">
-        <v>14.564876</v>
+        <v>14.561254</v>
       </c>
       <c r="G46">
-        <v>5.263637</v>
+        <v>5.265878</v>
       </c>
       <c r="H46">
-        <v>43.483297</v>
+        <v>43.477608</v>
       </c>
       <c r="I46">
-        <v>17.03965</v>
+        <v>17.042496</v>
       </c>
       <c r="J46">
-        <v>22.014847</v>
+        <v>22.015582</v>
       </c>
       <c r="K46">
-        <v>13.155294</v>
+        <v>13.158294</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -7214,31 +7214,31 @@
         <v>400</v>
       </c>
       <c r="B47">
-        <v>6.425269</v>
+        <v>6.425162</v>
       </c>
       <c r="C47">
-        <v>59.21463000000001</v>
+        <v>59.21464399999999</v>
       </c>
       <c r="E47" s="1">
         <v>400</v>
       </c>
       <c r="F47">
-        <v>4.936188</v>
+        <v>4.93682</v>
       </c>
       <c r="G47">
-        <v>1.41646</v>
+        <v>1.416616</v>
       </c>
       <c r="H47">
-        <v>13.571006</v>
+        <v>13.570706</v>
       </c>
       <c r="I47">
-        <v>4.619344</v>
+        <v>4.619443</v>
       </c>
       <c r="J47">
-        <v>3.593918</v>
+        <v>3.593866</v>
       </c>
       <c r="K47">
-        <v>17.361006</v>
+        <v>17.361024</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -7246,31 +7246,31 @@
         <v>450</v>
       </c>
       <c r="B48">
-        <v>17.650503</v>
+        <v>17.650497</v>
       </c>
       <c r="C48">
-        <v>72.74673799999999</v>
+        <v>72.74672</v>
       </c>
       <c r="E48" s="1">
         <v>450</v>
       </c>
       <c r="F48">
-        <v>2.146044</v>
+        <v>2.146059</v>
       </c>
       <c r="G48">
-        <v>2.258988</v>
+        <v>2.259027</v>
       </c>
       <c r="H48">
-        <v>4.602694000000001</v>
+        <v>4.60269</v>
       </c>
       <c r="I48">
-        <v>2.058611</v>
+        <v>2.058607</v>
       </c>
       <c r="J48">
-        <v>7.206778999999999</v>
+        <v>7.20677</v>
       </c>
       <c r="K48">
-        <v>25.948198</v>
+        <v>25.948178</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -7278,31 +7278,31 @@
         <v>500</v>
       </c>
       <c r="B49">
-        <v>32.070075</v>
+        <v>32.07256</v>
       </c>
       <c r="C49">
-        <v>86.22182600000001</v>
+        <v>86.226499</v>
       </c>
       <c r="E49" s="1">
         <v>500</v>
       </c>
       <c r="F49">
-        <v>8.565154</v>
+        <v>8.570028000000001</v>
       </c>
       <c r="G49">
-        <v>6.452026</v>
+        <v>6.457148</v>
       </c>
       <c r="H49">
-        <v>17.968659</v>
+        <v>17.970958</v>
       </c>
       <c r="I49">
-        <v>9.399245000000001</v>
+        <v>9.402194</v>
       </c>
       <c r="J49">
-        <v>17.009994</v>
+        <v>17.013174</v>
       </c>
       <c r="K49">
-        <v>34.533328</v>
+        <v>34.538149</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -7310,31 +7310,31 @@
         <v>550</v>
       </c>
       <c r="B50">
-        <v>54.187498</v>
+        <v>53.797256</v>
       </c>
       <c r="C50">
-        <v>97.007689</v>
+        <v>96.75505799999999</v>
       </c>
       <c r="E50" s="1">
         <v>550</v>
       </c>
       <c r="F50">
-        <v>21.402044</v>
+        <v>20.765912</v>
       </c>
       <c r="G50">
-        <v>15.642112</v>
+        <v>14.98092</v>
       </c>
       <c r="H50">
-        <v>42.66742</v>
+        <v>42.210089</v>
       </c>
       <c r="I50">
-        <v>25.227782</v>
+        <v>24.659509</v>
       </c>
       <c r="J50">
-        <v>32.815845</v>
+        <v>32.266992</v>
       </c>
       <c r="K50">
-        <v>42.029403</v>
+        <v>41.59438400000001</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -7342,31 +7342,31 @@
         <v>600</v>
       </c>
       <c r="B51">
-        <v>73.369848</v>
+        <v>73.36498900000001</v>
       </c>
       <c r="C51">
-        <v>87.517253</v>
+        <v>87.51552</v>
       </c>
       <c r="E51" s="1">
         <v>600</v>
       </c>
       <c r="F51">
-        <v>29.932394</v>
+        <v>29.932766</v>
       </c>
       <c r="G51">
-        <v>24.774093</v>
+        <v>24.774748</v>
       </c>
       <c r="H51">
-        <v>74.0312</v>
+        <v>74.026258</v>
       </c>
       <c r="I51">
-        <v>48.287295</v>
+        <v>48.284206</v>
       </c>
       <c r="J51">
-        <v>47.45081500000001</v>
+        <v>47.447299</v>
       </c>
       <c r="K51">
-        <v>33.51667</v>
+        <v>33.514209</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -7374,31 +7374,31 @@
         <v>650</v>
       </c>
       <c r="B52">
-        <v>46.363414</v>
+        <v>46.343978</v>
       </c>
       <c r="C52">
-        <v>94.94122</v>
+        <v>94.94127399999999</v>
       </c>
       <c r="E52" s="1">
         <v>650</v>
       </c>
       <c r="F52">
-        <v>19.932985</v>
+        <v>19.959124</v>
       </c>
       <c r="G52">
-        <v>14.688644</v>
+        <v>14.68902</v>
       </c>
       <c r="H52">
-        <v>62.173136</v>
+        <v>62.16512700000001</v>
       </c>
       <c r="I52">
-        <v>26.206891</v>
+        <v>26.202049</v>
       </c>
       <c r="J52">
-        <v>29.653277</v>
+        <v>29.650146</v>
       </c>
       <c r="K52">
-        <v>27.125488</v>
+        <v>27.12566</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -7406,31 +7406,31 @@
         <v>700</v>
       </c>
       <c r="B53">
-        <v>21.563238</v>
+        <v>21.559483</v>
       </c>
       <c r="C53">
-        <v>110.455529</v>
+        <v>110.418178</v>
       </c>
       <c r="E53" s="1">
         <v>700</v>
       </c>
       <c r="F53">
-        <v>23.561379</v>
+        <v>23.565337</v>
       </c>
       <c r="G53">
-        <v>9.186596</v>
+        <v>9.153157</v>
       </c>
       <c r="H53">
-        <v>48.62262800000001</v>
+        <v>48.606118</v>
       </c>
       <c r="I53">
-        <v>14.68128</v>
+        <v>14.705729</v>
       </c>
       <c r="J53">
-        <v>17.532101</v>
+        <v>17.54334</v>
       </c>
       <c r="K53">
-        <v>37.411601</v>
+        <v>37.37133</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -7438,31 +7438,31 @@
         <v>750</v>
       </c>
       <c r="B54">
-        <v>5.959748</v>
+        <v>5.966022</v>
       </c>
       <c r="C54">
-        <v>116.956808</v>
+        <v>116.42836</v>
       </c>
       <c r="E54" s="1">
         <v>750</v>
       </c>
       <c r="F54">
-        <v>17.213036</v>
+        <v>17.217294</v>
       </c>
       <c r="G54">
-        <v>6.775133</v>
+        <v>6.516789</v>
       </c>
       <c r="H54">
-        <v>26.67355</v>
+        <v>26.663599</v>
       </c>
       <c r="I54">
-        <v>11.159158</v>
+        <v>11.190117</v>
       </c>
       <c r="J54">
-        <v>7.461583</v>
+        <v>7.507047999999999</v>
       </c>
       <c r="K54">
-        <v>38.970165</v>
+        <v>38.42294099999999</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -7470,31 +7470,31 @@
         <v>800</v>
       </c>
       <c r="B55">
-        <v>11.022803</v>
+        <v>11.022647</v>
       </c>
       <c r="C55">
-        <v>129.72328</v>
+        <v>129.707665</v>
       </c>
       <c r="E55" s="1">
         <v>800</v>
       </c>
       <c r="F55">
-        <v>13.247001</v>
+        <v>13.245048</v>
       </c>
       <c r="G55">
-        <v>6.800375</v>
+        <v>6.782424000000001</v>
       </c>
       <c r="H55">
-        <v>18.55902</v>
+        <v>18.558837</v>
       </c>
       <c r="I55">
-        <v>8.583908000000001</v>
+        <v>8.583701</v>
       </c>
       <c r="J55">
-        <v>2.462679</v>
+        <v>2.463204</v>
       </c>
       <c r="K55">
-        <v>45.469017</v>
+        <v>45.452827</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -7502,31 +7502,31 @@
         <v>850</v>
       </c>
       <c r="B56">
-        <v>17.556403</v>
+        <v>17.560156</v>
       </c>
       <c r="C56">
-        <v>146.238603</v>
+        <v>146.309145</v>
       </c>
       <c r="E56" s="1">
         <v>850</v>
       </c>
       <c r="F56">
-        <v>17.300433</v>
+        <v>17.340809</v>
       </c>
       <c r="G56">
-        <v>9.654264999999999</v>
+        <v>9.882333000000001</v>
       </c>
       <c r="H56">
-        <v>12.816734</v>
+        <v>12.820631</v>
       </c>
       <c r="I56">
-        <v>6.620744</v>
+        <v>6.620246000000001</v>
       </c>
       <c r="J56">
-        <v>4.094957</v>
+        <v>4.121043</v>
       </c>
       <c r="K56">
-        <v>56.81973000000001</v>
+        <v>56.901435</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -7534,31 +7534,31 @@
         <v>900</v>
       </c>
       <c r="B57">
-        <v>21.438589</v>
+        <v>21.438906</v>
       </c>
       <c r="C57">
-        <v>148.401482</v>
+        <v>148.423706</v>
       </c>
       <c r="E57" s="1">
         <v>900</v>
       </c>
       <c r="F57">
-        <v>6.336917</v>
+        <v>6.339931</v>
       </c>
       <c r="G57">
-        <v>6.62402</v>
+        <v>6.582872999999999</v>
       </c>
       <c r="H57">
-        <v>9.854863</v>
+        <v>9.857654</v>
       </c>
       <c r="I57">
-        <v>4.866738</v>
+        <v>4.858059</v>
       </c>
       <c r="J57">
-        <v>5.627946</v>
+        <v>5.634275</v>
       </c>
       <c r="K57">
-        <v>55.90490699999999</v>
+        <v>55.91833199999999</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -7566,31 +7566,31 @@
         <v>950</v>
       </c>
       <c r="B58">
-        <v>26.09926</v>
+        <v>26.099462</v>
       </c>
       <c r="C58">
-        <v>158.163439</v>
+        <v>158.174918</v>
       </c>
       <c r="E58" s="1">
         <v>950</v>
       </c>
       <c r="F58">
-        <v>9.163814</v>
+        <v>9.161261999999999</v>
       </c>
       <c r="G58">
-        <v>6.816024000000001</v>
+        <v>6.904161999999999</v>
       </c>
       <c r="H58">
-        <v>6.549277</v>
+        <v>6.549827</v>
       </c>
       <c r="I58">
-        <v>2.853438</v>
+        <v>2.853818</v>
       </c>
       <c r="J58">
-        <v>8.335001</v>
+        <v>8.336580999999999</v>
       </c>
       <c r="K58">
-        <v>58.05771899999999</v>
+        <v>58.061852</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -7598,31 +7598,31 @@
         <v>1000</v>
       </c>
       <c r="B59">
-        <v>29.945767</v>
+        <v>29.9449</v>
       </c>
       <c r="C59">
-        <v>167.367935</v>
+        <v>167.278451</v>
       </c>
       <c r="E59" s="1">
         <v>1000</v>
       </c>
       <c r="F59">
-        <v>10.675495</v>
+        <v>10.694826</v>
       </c>
       <c r="G59">
-        <v>9.785569000000001</v>
+        <v>9.986654</v>
       </c>
       <c r="H59">
-        <v>4.261851</v>
+        <v>4.260452</v>
       </c>
       <c r="I59">
-        <v>1.759982</v>
+        <v>1.75169</v>
       </c>
       <c r="J59">
-        <v>10.366053</v>
+        <v>10.363268</v>
       </c>
       <c r="K59">
-        <v>61.480769</v>
+        <v>61.409913</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -7630,31 +7630,31 @@
         <v>1050</v>
       </c>
       <c r="B60">
-        <v>33.207627</v>
+        <v>33.212626</v>
       </c>
       <c r="C60">
-        <v>169.983231</v>
+        <v>170.117052</v>
       </c>
       <c r="E60" s="1">
         <v>1050</v>
       </c>
       <c r="F60">
-        <v>3.49981</v>
+        <v>3.506659</v>
       </c>
       <c r="G60">
-        <v>6.175339</v>
+        <v>6.239409999999999</v>
       </c>
       <c r="H60">
-        <v>2.328484</v>
+        <v>2.329218</v>
       </c>
       <c r="I60">
-        <v>1.0527</v>
+        <v>1.055128</v>
       </c>
       <c r="J60">
-        <v>11.619127</v>
+        <v>11.634004</v>
       </c>
       <c r="K60">
-        <v>60.466624</v>
+        <v>60.580573</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -7662,31 +7662,31 @@
         <v>1100</v>
       </c>
       <c r="B61">
-        <v>36.987286</v>
+        <v>36.990536</v>
       </c>
       <c r="C61">
-        <v>187.11852</v>
+        <v>187.190437</v>
       </c>
       <c r="E61" s="1">
         <v>1100</v>
       </c>
       <c r="F61">
-        <v>0.560128</v>
+        <v>0.498694</v>
       </c>
       <c r="G61">
-        <v>2.488208</v>
+        <v>2.557807</v>
       </c>
       <c r="H61">
-        <v>1.500329</v>
+        <v>1.500604</v>
       </c>
       <c r="I61">
-        <v>0.6402369999999999</v>
+        <v>0.641123</v>
       </c>
       <c r="J61">
-        <v>13.786169</v>
+        <v>13.80025</v>
       </c>
       <c r="K61">
-        <v>68.71561</v>
+        <v>68.803584</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -7694,31 +7694,31 @@
         <v>1150</v>
       </c>
       <c r="B62">
-        <v>40.5018</v>
+        <v>40.506938</v>
       </c>
       <c r="C62">
-        <v>199.5125</v>
+        <v>199.687253</v>
       </c>
       <c r="E62" s="1">
         <v>1150</v>
       </c>
       <c r="F62">
-        <v>2.857702</v>
+        <v>2.900601</v>
       </c>
       <c r="G62">
-        <v>7.72602</v>
+        <v>7.905010000000001</v>
       </c>
       <c r="H62">
-        <v>2.619051</v>
+        <v>2.61812</v>
       </c>
       <c r="I62">
-        <v>1.655139</v>
+        <v>1.650841</v>
       </c>
       <c r="J62">
-        <v>16.603015</v>
+        <v>16.609475</v>
       </c>
       <c r="K62">
-        <v>76.915499</v>
+        <v>77.03322299999999</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -7726,31 +7726,31 @@
         <v>1200</v>
       </c>
       <c r="B63">
-        <v>43.633087</v>
+        <v>43.634377</v>
       </c>
       <c r="C63">
-        <v>207.629818</v>
+        <v>207.651588</v>
       </c>
       <c r="E63" s="1">
         <v>1200</v>
       </c>
       <c r="F63">
-        <v>3.757037</v>
+        <v>3.769562</v>
       </c>
       <c r="G63">
-        <v>14.238688</v>
+        <v>14.304105</v>
       </c>
       <c r="H63">
-        <v>4.112217</v>
+        <v>4.112393</v>
       </c>
       <c r="I63">
-        <v>2.171074</v>
+        <v>2.171623</v>
       </c>
       <c r="J63">
-        <v>17.447826</v>
+        <v>17.452561</v>
       </c>
       <c r="K63">
-        <v>77.42549699999999</v>
+        <v>77.451297</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -7758,31 +7758,31 @@
         <v>1250</v>
       </c>
       <c r="B64">
-        <v>47.553487</v>
+        <v>47.552991</v>
       </c>
       <c r="C64">
-        <v>230.20928</v>
+        <v>230.208691</v>
       </c>
       <c r="E64" s="1">
         <v>1250</v>
       </c>
       <c r="F64">
-        <v>0.8656739999999999</v>
+        <v>0.8717280000000001</v>
       </c>
       <c r="G64">
-        <v>6.776766</v>
+        <v>6.757896000000001</v>
       </c>
       <c r="H64">
-        <v>5.892848000000001</v>
+        <v>5.892448</v>
       </c>
       <c r="I64">
-        <v>3.633344</v>
+        <v>3.631979</v>
       </c>
       <c r="J64">
-        <v>21.003162</v>
+        <v>21.002029</v>
       </c>
       <c r="K64">
-        <v>93.004475</v>
+        <v>93.002655</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -7790,31 +7790,31 @@
         <v>1300</v>
       </c>
       <c r="B65">
-        <v>51.4674</v>
+        <v>51.469348</v>
       </c>
       <c r="C65">
-        <v>254.529507</v>
+        <v>254.559386</v>
       </c>
       <c r="E65" s="1">
         <v>1300</v>
       </c>
       <c r="F65">
-        <v>0.922168</v>
+        <v>0.901431</v>
       </c>
       <c r="G65">
-        <v>6.632109</v>
+        <v>6.610931</v>
       </c>
       <c r="H65">
-        <v>7.630881</v>
+        <v>7.631438</v>
       </c>
       <c r="I65">
-        <v>5.077219</v>
+        <v>5.078144</v>
       </c>
       <c r="J65">
-        <v>25.122854</v>
+        <v>25.125682</v>
       </c>
       <c r="K65">
-        <v>112.468556</v>
+        <v>112.488883</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -7822,31 +7822,31 @@
         <v>1350</v>
       </c>
       <c r="B66">
-        <v>54.839709</v>
+        <v>54.83702099999999</v>
       </c>
       <c r="C66">
-        <v>270.331639</v>
+        <v>270.278139</v>
       </c>
       <c r="E66" s="1">
         <v>1350</v>
       </c>
       <c r="F66">
-        <v>3.56241</v>
+        <v>3.561235</v>
       </c>
       <c r="G66">
-        <v>6.434983</v>
+        <v>6.43745</v>
       </c>
       <c r="H66">
-        <v>9.206704999999999</v>
+        <v>9.206119000000001</v>
       </c>
       <c r="I66">
-        <v>5.890652999999999</v>
+        <v>5.889105000000001</v>
       </c>
       <c r="J66">
-        <v>27.178456</v>
+        <v>27.172346</v>
       </c>
       <c r="K66">
-        <v>120.800891</v>
+        <v>120.755582</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -7854,31 +7854,31 @@
         <v>1400</v>
       </c>
       <c r="B67">
-        <v>56.526449</v>
+        <v>56.52518000000001</v>
       </c>
       <c r="C67">
-        <v>243.832556</v>
+        <v>243.815693</v>
       </c>
       <c r="E67" s="1">
         <v>1400</v>
       </c>
       <c r="F67">
-        <v>2.681136</v>
+        <v>2.681953</v>
       </c>
       <c r="G67">
-        <v>3.571881</v>
+        <v>3.566545</v>
       </c>
       <c r="H67">
-        <v>10.459271</v>
+        <v>10.458845</v>
       </c>
       <c r="I67">
-        <v>5.992871</v>
+        <v>5.992004</v>
       </c>
       <c r="J67">
-        <v>27.982608</v>
+        <v>27.980279</v>
       </c>
       <c r="K67">
-        <v>106.625966</v>
+        <v>106.612078</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -7886,31 +7886,31 @@
         <v>1450</v>
       </c>
       <c r="B68">
-        <v>59.286418</v>
+        <v>59.285174</v>
       </c>
       <c r="C68">
-        <v>256.428747</v>
+        <v>256.416254</v>
       </c>
       <c r="E68" s="1">
         <v>1450</v>
       </c>
       <c r="F68">
-        <v>2.471844</v>
+        <v>2.47466</v>
       </c>
       <c r="G68">
-        <v>2.387076</v>
+        <v>2.395251</v>
       </c>
       <c r="H68">
-        <v>11.858408</v>
+        <v>11.857863</v>
       </c>
       <c r="I68">
-        <v>5.967439</v>
+        <v>5.965761</v>
       </c>
       <c r="J68">
-        <v>24.870776</v>
+        <v>24.866929</v>
       </c>
       <c r="K68">
-        <v>94.794624</v>
+        <v>94.77855</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -7918,31 +7918,31 @@
         <v>1500</v>
       </c>
       <c r="B69">
-        <v>64.04996800000001</v>
+        <v>64.05636</v>
       </c>
       <c r="C69">
-        <v>286.949487</v>
+        <v>287.052656</v>
       </c>
       <c r="E69" s="1">
         <v>1500</v>
       </c>
       <c r="F69">
-        <v>2.292549</v>
+        <v>2.296924</v>
       </c>
       <c r="G69">
-        <v>3.614172</v>
+        <v>3.628179</v>
       </c>
       <c r="H69">
-        <v>13.981019</v>
+        <v>13.982959</v>
       </c>
       <c r="I69">
-        <v>8.461114</v>
+        <v>8.466661</v>
       </c>
       <c r="J69">
-        <v>31.192519</v>
+        <v>31.208221</v>
       </c>
       <c r="K69">
-        <v>122.000938</v>
+        <v>122.0962</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -7950,31 +7950,31 @@
         <v>1550</v>
       </c>
       <c r="B70">
-        <v>68.319491</v>
+        <v>68.318039</v>
       </c>
       <c r="C70">
-        <v>311.697845</v>
+        <v>311.675507</v>
       </c>
       <c r="E70" s="1">
         <v>1550</v>
       </c>
       <c r="F70">
-        <v>2.233015</v>
+        <v>2.230661</v>
       </c>
       <c r="G70">
-        <v>1.973316</v>
+        <v>1.963228</v>
       </c>
       <c r="H70">
-        <v>16.063651</v>
+        <v>16.063147</v>
       </c>
       <c r="I70">
-        <v>10.683245</v>
+        <v>10.681559</v>
       </c>
       <c r="J70">
-        <v>34.289611</v>
+        <v>34.285157</v>
       </c>
       <c r="K70">
-        <v>134.650862</v>
+        <v>134.626084</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -7982,31 +7982,31 @@
         <v>1600</v>
       </c>
       <c r="B71">
-        <v>73.95109100000001</v>
+        <v>73.949118</v>
       </c>
       <c r="C71">
-        <v>356.712605</v>
+        <v>356.675777</v>
       </c>
       <c r="E71" s="1">
         <v>1600</v>
       </c>
       <c r="F71">
-        <v>1.563377</v>
+        <v>1.56271</v>
       </c>
       <c r="G71">
-        <v>1.888898</v>
+        <v>1.892036</v>
       </c>
       <c r="H71">
-        <v>18.686173</v>
+        <v>18.685488</v>
       </c>
       <c r="I71">
-        <v>14.745049</v>
+        <v>14.742614</v>
       </c>
       <c r="J71">
-        <v>41.696018</v>
+        <v>41.691476</v>
       </c>
       <c r="K71">
-        <v>171.934909</v>
+        <v>171.902414</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -8014,31 +8014,31 @@
         <v>1650</v>
       </c>
       <c r="B72">
-        <v>78.033475</v>
+        <v>78.03354</v>
       </c>
       <c r="C72">
-        <v>374.014385</v>
+        <v>374.016735</v>
       </c>
       <c r="E72" s="1">
         <v>1650</v>
       </c>
       <c r="F72">
-        <v>2.666182</v>
+        <v>2.666505</v>
       </c>
       <c r="G72">
-        <v>3.268919</v>
+        <v>3.271478</v>
       </c>
       <c r="H72">
-        <v>20.745468</v>
+        <v>20.74547</v>
       </c>
       <c r="I72">
-        <v>16.839499</v>
+        <v>16.839467</v>
       </c>
       <c r="J72">
-        <v>46.465658</v>
+        <v>46.465917</v>
       </c>
       <c r="K72">
-        <v>189.806268</v>
+        <v>189.808777</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -8046,31 +8046,31 @@
         <v>1700</v>
       </c>
       <c r="B73">
-        <v>82.49533199999999</v>
+        <v>82.498891</v>
       </c>
       <c r="C73">
-        <v>352.370034</v>
+        <v>352.413955</v>
       </c>
       <c r="E73" s="1">
         <v>1700</v>
       </c>
       <c r="F73">
-        <v>3.403757</v>
+        <v>3.406713</v>
       </c>
       <c r="G73">
-        <v>8.045511999999999</v>
+        <v>8.059144</v>
       </c>
       <c r="H73">
-        <v>23.320198</v>
+        <v>23.321513</v>
       </c>
       <c r="I73">
-        <v>20.020791</v>
+        <v>20.023996</v>
       </c>
       <c r="J73">
-        <v>59.179002</v>
+        <v>59.185728</v>
       </c>
       <c r="K73">
-        <v>214.209313</v>
+        <v>214.252673</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -8078,31 +8078,31 @@
         <v>1750</v>
       </c>
       <c r="B74">
-        <v>76.68362500000001</v>
+        <v>76.68305600000001</v>
       </c>
       <c r="C74">
-        <v>286.493373</v>
+        <v>286.486345</v>
       </c>
       <c r="E74" s="1">
         <v>1750</v>
       </c>
       <c r="F74">
-        <v>0.9753059999999999</v>
+        <v>0.974244</v>
       </c>
       <c r="G74">
-        <v>2.490465</v>
+        <v>2.493436</v>
       </c>
       <c r="H74">
-        <v>21.183311</v>
+        <v>21.183138</v>
       </c>
       <c r="I74">
-        <v>10.14749</v>
+        <v>10.147234</v>
       </c>
       <c r="J74">
-        <v>32.053332</v>
+        <v>32.052152</v>
       </c>
       <c r="K74">
-        <v>99.890225</v>
+        <v>99.884242</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -8110,31 +8110,31 @@
         <v>1800</v>
       </c>
       <c r="B75">
-        <v>85.200863</v>
+        <v>85.200929</v>
       </c>
       <c r="C75">
-        <v>352.090361</v>
+        <v>352.091778</v>
       </c>
       <c r="E75" s="1">
         <v>1800</v>
       </c>
       <c r="F75">
-        <v>1.466334</v>
+        <v>1.466596</v>
       </c>
       <c r="G75">
-        <v>2.077316</v>
+        <v>2.074808</v>
       </c>
       <c r="H75">
-        <v>25.267385</v>
+        <v>25.267393</v>
       </c>
       <c r="I75">
-        <v>15.828087</v>
+        <v>15.828247</v>
       </c>
       <c r="J75">
-        <v>42.814744</v>
+        <v>42.815159</v>
       </c>
       <c r="K75">
-        <v>147.635278</v>
+        <v>147.637194</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -8142,31 +8142,31 @@
         <v>1850</v>
       </c>
       <c r="B76">
-        <v>89.475703</v>
+        <v>89.475509</v>
       </c>
       <c r="C76">
-        <v>361.173392</v>
+        <v>361.171694</v>
       </c>
       <c r="E76" s="1">
         <v>1850</v>
       </c>
       <c r="F76">
-        <v>0.333316</v>
+        <v>0.331628</v>
       </c>
       <c r="G76">
-        <v>6.587652</v>
+        <v>6.585483</v>
       </c>
       <c r="H76">
-        <v>27.845484</v>
+        <v>27.845366</v>
       </c>
       <c r="I76">
-        <v>18.36131</v>
+        <v>18.360791</v>
       </c>
       <c r="J76">
-        <v>47.260513</v>
+        <v>47.259922</v>
       </c>
       <c r="K76">
-        <v>157.543962</v>
+        <v>157.542098</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -8174,31 +8174,31 @@
         <v>1900</v>
       </c>
       <c r="B77">
-        <v>95.67699399999999</v>
+        <v>95.677008</v>
       </c>
       <c r="C77">
-        <v>404.226119</v>
+        <v>404.226104</v>
       </c>
       <c r="E77" s="1">
         <v>1900</v>
       </c>
       <c r="F77">
-        <v>2.808292</v>
+        <v>2.808288</v>
       </c>
       <c r="G77">
-        <v>7.149445</v>
+        <v>7.149678999999999</v>
       </c>
       <c r="H77">
-        <v>31.158949</v>
+        <v>31.158962</v>
       </c>
       <c r="I77">
-        <v>22.070597</v>
+        <v>22.070623</v>
       </c>
       <c r="J77">
-        <v>52.040869</v>
+        <v>52.040892</v>
       </c>
       <c r="K77">
-        <v>181.120958</v>
+        <v>181.12096</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -8206,31 +8206,31 @@
         <v>1950</v>
       </c>
       <c r="B78">
-        <v>99.098152</v>
+        <v>99.09781600000001</v>
       </c>
       <c r="C78">
-        <v>409.067357</v>
+        <v>409.065151</v>
       </c>
       <c r="E78" s="1">
         <v>1950</v>
       </c>
       <c r="F78">
-        <v>3.173919</v>
+        <v>3.174462</v>
       </c>
       <c r="G78">
-        <v>4.40313</v>
+        <v>4.406073</v>
       </c>
       <c r="H78">
-        <v>33.284847</v>
+        <v>33.284674</v>
       </c>
       <c r="I78">
-        <v>21.882322</v>
+        <v>21.88187</v>
       </c>
       <c r="J78">
-        <v>52.254215</v>
+        <v>52.25346500000001</v>
       </c>
       <c r="K78">
-        <v>177.238592</v>
+        <v>177.235852</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -8238,31 +8238,31 @@
         <v>2000</v>
       </c>
       <c r="B79">
-        <v>113.660148</v>
+        <v>113.660231</v>
       </c>
       <c r="C79">
-        <v>544.3387389999999</v>
+        <v>544.340364</v>
       </c>
       <c r="E79" s="1">
         <v>2000</v>
       </c>
       <c r="F79">
-        <v>1.844088</v>
+        <v>1.844068</v>
       </c>
       <c r="G79">
-        <v>2.986045</v>
+        <v>2.985015</v>
       </c>
       <c r="H79">
-        <v>41.335368</v>
+        <v>41.335399</v>
       </c>
       <c r="I79">
-        <v>39.040208</v>
+        <v>39.040374</v>
       </c>
       <c r="J79">
-        <v>74.110573</v>
+        <v>74.110799</v>
       </c>
       <c r="K79">
-        <v>289.40461</v>
+        <v>289.406239</v>
       </c>
     </row>
   </sheetData>
@@ -8516,31 +8516,31 @@
         <v>100</v>
       </c>
       <c r="B41">
-        <v>7.829267999999999</v>
+        <v>7.834599000000001</v>
       </c>
       <c r="C41">
-        <v>8.008365</v>
+        <v>8.01356</v>
       </c>
       <c r="E41" s="1">
         <v>100</v>
       </c>
       <c r="F41">
-        <v>7.822211</v>
+        <v>7.836607000000001</v>
       </c>
       <c r="G41">
-        <v>6.658963000000001</v>
+        <v>6.674746000000001</v>
       </c>
       <c r="H41">
-        <v>8.177826</v>
+        <v>8.191773</v>
       </c>
       <c r="I41">
-        <v>8.791442</v>
+        <v>8.80456</v>
       </c>
       <c r="J41">
-        <v>6.9884</v>
+        <v>7.004147</v>
       </c>
       <c r="K41">
-        <v>6.728803999999999</v>
+        <v>6.744741</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -8548,31 +8548,31 @@
         <v>150</v>
       </c>
       <c r="B42">
-        <v>11.139512</v>
+        <v>12.926178</v>
       </c>
       <c r="C42">
-        <v>11.465645</v>
+        <v>13.319046</v>
       </c>
       <c r="E42" s="1">
         <v>150</v>
       </c>
       <c r="F42">
-        <v>17.384717</v>
+        <v>20.142942</v>
       </c>
       <c r="G42">
-        <v>16.226204</v>
+        <v>18.605418</v>
       </c>
       <c r="H42">
-        <v>17.817365</v>
+        <v>20.701427</v>
       </c>
       <c r="I42">
-        <v>18.858437</v>
+        <v>22.025032</v>
       </c>
       <c r="J42">
-        <v>16.544443</v>
+        <v>19.003888</v>
       </c>
       <c r="K42">
-        <v>16.455814</v>
+        <v>18.869291</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -8580,31 +8580,31 @@
         <v>200</v>
       </c>
       <c r="B43">
-        <v>7.280465</v>
+        <v>7.128504</v>
       </c>
       <c r="C43">
-        <v>7.533410000000001</v>
+        <v>7.358672</v>
       </c>
       <c r="E43" s="1">
         <v>200</v>
       </c>
       <c r="F43">
-        <v>5.443902</v>
+        <v>5.79431</v>
       </c>
       <c r="G43">
-        <v>6.395862</v>
+        <v>6.740164999999999</v>
       </c>
       <c r="H43">
-        <v>5.312112</v>
+        <v>5.650125</v>
       </c>
       <c r="I43">
-        <v>5.451698</v>
+        <v>5.737384</v>
       </c>
       <c r="J43">
-        <v>6.07897</v>
+        <v>6.430009</v>
       </c>
       <c r="K43">
-        <v>6.481036</v>
+        <v>6.830139999999999</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -8612,31 +8612,31 @@
         <v>250</v>
       </c>
       <c r="B44">
-        <v>11.226001</v>
+        <v>11.225865</v>
       </c>
       <c r="C44">
-        <v>11.321255</v>
+        <v>11.321062</v>
       </c>
       <c r="E44" s="1">
         <v>250</v>
       </c>
       <c r="F44">
-        <v>5.591971</v>
+        <v>5.592162</v>
       </c>
       <c r="G44">
-        <v>4.496051</v>
+        <v>4.496206</v>
       </c>
       <c r="H44">
-        <v>6.178711</v>
+        <v>6.178891</v>
       </c>
       <c r="I44">
-        <v>7.758551</v>
+        <v>7.758655</v>
       </c>
       <c r="J44">
-        <v>4.520197</v>
+        <v>4.520381</v>
       </c>
       <c r="K44">
-        <v>4.547461</v>
+        <v>4.547614</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -8644,31 +8644,31 @@
         <v>300</v>
       </c>
       <c r="B45">
-        <v>17.322719</v>
+        <v>17.322094</v>
       </c>
       <c r="C45">
-        <v>18.560437</v>
+        <v>18.559132</v>
       </c>
       <c r="E45" s="1">
         <v>300</v>
       </c>
       <c r="F45">
-        <v>15.992804</v>
+        <v>15.996532</v>
       </c>
       <c r="G45">
-        <v>12.156685</v>
+        <v>12.161401</v>
       </c>
       <c r="H45">
-        <v>17.784594</v>
+        <v>17.787781</v>
       </c>
       <c r="I45">
-        <v>26.559468</v>
+        <v>26.559819</v>
       </c>
       <c r="J45">
-        <v>12.183847</v>
+        <v>12.189212</v>
       </c>
       <c r="K45">
-        <v>12.652843</v>
+        <v>12.657714</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -8676,31 +8676,31 @@
         <v>350</v>
       </c>
       <c r="B46">
-        <v>14.762832</v>
+        <v>14.76373</v>
       </c>
       <c r="C46">
-        <v>13.468721</v>
+        <v>13.47022</v>
       </c>
       <c r="E46" s="1">
         <v>350</v>
       </c>
       <c r="F46">
-        <v>14.564876</v>
+        <v>14.561254</v>
       </c>
       <c r="G46">
-        <v>5.263637</v>
+        <v>5.265878</v>
       </c>
       <c r="H46">
-        <v>16.963109</v>
+        <v>16.958017</v>
       </c>
       <c r="I46">
-        <v>16.068373</v>
+        <v>16.066089</v>
       </c>
       <c r="J46">
-        <v>9.273930999999999</v>
+        <v>9.274232000000001</v>
       </c>
       <c r="K46">
-        <v>5.476296</v>
+        <v>5.478611</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -8708,31 +8708,31 @@
         <v>400</v>
       </c>
       <c r="B47">
-        <v>19.519794</v>
+        <v>19.52108</v>
       </c>
       <c r="C47">
-        <v>19.748802</v>
+        <v>19.750194</v>
       </c>
       <c r="E47" s="1">
         <v>400</v>
       </c>
       <c r="F47">
-        <v>4.936188</v>
+        <v>4.93682</v>
       </c>
       <c r="G47">
-        <v>1.41646</v>
+        <v>1.416616</v>
       </c>
       <c r="H47">
-        <v>5.916066000000001</v>
+        <v>5.916881</v>
       </c>
       <c r="I47">
-        <v>5.358086</v>
+        <v>5.358798</v>
       </c>
       <c r="J47">
-        <v>2.60227</v>
+        <v>2.602495</v>
       </c>
       <c r="K47">
-        <v>1.468582</v>
+        <v>1.468726</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -8740,31 +8740,31 @@
         <v>450</v>
       </c>
       <c r="B48">
-        <v>26.583023</v>
+        <v>26.583122</v>
       </c>
       <c r="C48">
-        <v>26.590373</v>
+        <v>26.590472</v>
       </c>
       <c r="E48" s="1">
         <v>450</v>
       </c>
       <c r="F48">
-        <v>2.146044</v>
+        <v>2.146059</v>
       </c>
       <c r="G48">
-        <v>2.258988</v>
+        <v>2.259027</v>
       </c>
       <c r="H48">
-        <v>2.114082</v>
+        <v>2.114093</v>
       </c>
       <c r="I48">
-        <v>2.114898</v>
+        <v>2.114908</v>
       </c>
       <c r="J48">
-        <v>2.246584</v>
+        <v>2.246615</v>
       </c>
       <c r="K48">
-        <v>2.287283</v>
+        <v>2.287325</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -8772,31 +8772,31 @@
         <v>500</v>
       </c>
       <c r="B49">
-        <v>35.274408</v>
+        <v>35.286041</v>
       </c>
       <c r="C49">
-        <v>35.408799</v>
+        <v>35.420255</v>
       </c>
       <c r="E49" s="1">
         <v>500</v>
       </c>
       <c r="F49">
-        <v>8.565154</v>
+        <v>8.570028000000001</v>
       </c>
       <c r="G49">
-        <v>6.452026</v>
+        <v>6.457148</v>
       </c>
       <c r="H49">
-        <v>9.168005000000001</v>
+        <v>9.172637</v>
       </c>
       <c r="I49">
-        <v>9.563288</v>
+        <v>9.567703</v>
       </c>
       <c r="J49">
-        <v>7.215369</v>
+        <v>7.220613</v>
       </c>
       <c r="K49">
-        <v>6.552224</v>
+        <v>6.557473</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -8804,31 +8804,31 @@
         <v>550</v>
       </c>
       <c r="B50">
-        <v>42.054772</v>
+        <v>41.467582</v>
       </c>
       <c r="C50">
-        <v>42.871323</v>
+        <v>42.280481</v>
       </c>
       <c r="E50" s="1">
         <v>550</v>
       </c>
       <c r="F50">
-        <v>21.402044</v>
+        <v>20.765912</v>
       </c>
       <c r="G50">
-        <v>15.642112</v>
+        <v>14.98092</v>
       </c>
       <c r="H50">
-        <v>23.167331</v>
+        <v>22.545142</v>
       </c>
       <c r="I50">
-        <v>25.837009</v>
+        <v>25.236214</v>
       </c>
       <c r="J50">
-        <v>17.252217</v>
+        <v>16.569368</v>
       </c>
       <c r="K50">
-        <v>15.873696</v>
+        <v>15.190535</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -8836,31 +8836,31 @@
         <v>600</v>
       </c>
       <c r="B51">
-        <v>32.467953</v>
+        <v>32.467526</v>
       </c>
       <c r="C51">
-        <v>32.097028</v>
+        <v>32.096472</v>
       </c>
       <c r="E51" s="1">
         <v>600</v>
       </c>
       <c r="F51">
-        <v>29.932394</v>
+        <v>29.932766</v>
       </c>
       <c r="G51">
-        <v>24.774093</v>
+        <v>24.774748</v>
       </c>
       <c r="H51">
-        <v>32.558476</v>
+        <v>32.558676</v>
       </c>
       <c r="I51">
-        <v>43.011688</v>
+        <v>43.011282</v>
       </c>
       <c r="J51">
-        <v>24.610742</v>
+        <v>24.611552</v>
       </c>
       <c r="K51">
-        <v>25.23328</v>
+        <v>25.23395</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -8868,31 +8868,31 @@
         <v>650</v>
       </c>
       <c r="B52">
-        <v>41.094577</v>
+        <v>41.10530900000001</v>
       </c>
       <c r="C52">
-        <v>39.091474</v>
+        <v>39.097971</v>
       </c>
       <c r="E52" s="1">
         <v>650</v>
       </c>
       <c r="F52">
-        <v>19.932985</v>
+        <v>19.959124</v>
       </c>
       <c r="G52">
-        <v>14.688644</v>
+        <v>14.68902</v>
       </c>
       <c r="H52">
-        <v>22.317416</v>
+        <v>22.34896</v>
       </c>
       <c r="I52">
-        <v>24.874586</v>
+        <v>24.896554</v>
       </c>
       <c r="J52">
-        <v>15.514909</v>
+        <v>15.525917</v>
       </c>
       <c r="K52">
-        <v>14.813388</v>
+        <v>14.813943</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -8900,31 +8900,31 @@
         <v>700</v>
       </c>
       <c r="B53">
-        <v>38.048852</v>
+        <v>38.042319</v>
       </c>
       <c r="C53">
-        <v>39.278865</v>
+        <v>39.281741</v>
       </c>
       <c r="E53" s="1">
         <v>700</v>
       </c>
       <c r="F53">
-        <v>23.561379</v>
+        <v>23.565337</v>
       </c>
       <c r="G53">
-        <v>9.186596</v>
+        <v>9.153157</v>
       </c>
       <c r="H53">
-        <v>26.941594</v>
+        <v>26.955526</v>
       </c>
       <c r="I53">
-        <v>23.611594</v>
+        <v>23.618261</v>
       </c>
       <c r="J53">
-        <v>15.230878</v>
+        <v>15.209563</v>
       </c>
       <c r="K53">
-        <v>9.402819000000001</v>
+        <v>9.369076</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -8932,31 +8932,31 @@
         <v>750</v>
       </c>
       <c r="B54">
-        <v>60.828872</v>
+        <v>61.04561700000001</v>
       </c>
       <c r="C54">
-        <v>61.74160799999999</v>
+        <v>61.99801</v>
       </c>
       <c r="E54" s="1">
         <v>750</v>
       </c>
       <c r="F54">
-        <v>17.213036</v>
+        <v>17.217294</v>
       </c>
       <c r="G54">
-        <v>6.775133</v>
+        <v>6.516789</v>
       </c>
       <c r="H54">
-        <v>19.750251</v>
+        <v>19.816425</v>
       </c>
       <c r="I54">
-        <v>18.466475</v>
+        <v>18.51166</v>
       </c>
       <c r="J54">
-        <v>10.862991</v>
+        <v>10.71328</v>
       </c>
       <c r="K54">
-        <v>6.953626</v>
+        <v>6.699716</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -8964,31 +8964,31 @@
         <v>800</v>
       </c>
       <c r="B55">
-        <v>75.731503</v>
+        <v>75.711089</v>
       </c>
       <c r="C55">
-        <v>76.052465</v>
+        <v>76.03389799999999</v>
       </c>
       <c r="E55" s="1">
         <v>800</v>
       </c>
       <c r="F55">
-        <v>13.247001</v>
+        <v>13.245048</v>
       </c>
       <c r="G55">
-        <v>6.800375</v>
+        <v>6.782424000000001</v>
       </c>
       <c r="H55">
-        <v>14.76071</v>
+        <v>14.762848</v>
       </c>
       <c r="I55">
-        <v>14.29982</v>
+        <v>14.300537</v>
       </c>
       <c r="J55">
-        <v>9.410761000000001</v>
+        <v>9.398239</v>
       </c>
       <c r="K55">
-        <v>6.915427999999999</v>
+        <v>6.897205</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -8996,31 +8996,31 @@
         <v>850</v>
       </c>
       <c r="B56">
-        <v>150.52167</v>
+        <v>150.862295</v>
       </c>
       <c r="C56">
-        <v>150.972995</v>
+        <v>151.293673</v>
       </c>
       <c r="E56" s="1">
         <v>850</v>
       </c>
       <c r="F56">
-        <v>17.300433</v>
+        <v>17.340809</v>
       </c>
       <c r="G56">
-        <v>9.654264999999999</v>
+        <v>9.882333000000001</v>
       </c>
       <c r="H56">
-        <v>19.021235</v>
+        <v>19.023824</v>
       </c>
       <c r="I56">
-        <v>18.771779</v>
+        <v>18.784601</v>
       </c>
       <c r="J56">
-        <v>13.004591</v>
+        <v>13.157409</v>
       </c>
       <c r="K56">
-        <v>9.841509</v>
+        <v>10.072004</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -9028,31 +9028,31 @@
         <v>900</v>
       </c>
       <c r="B57">
-        <v>89.25584000000001</v>
+        <v>89.176051</v>
       </c>
       <c r="C57">
-        <v>89.140619</v>
+        <v>89.05508499999999</v>
       </c>
       <c r="E57" s="1">
         <v>900</v>
       </c>
       <c r="F57">
-        <v>6.336917</v>
+        <v>6.339931</v>
       </c>
       <c r="G57">
-        <v>6.62402</v>
+        <v>6.582872999999999</v>
       </c>
       <c r="H57">
-        <v>8.297332000000001</v>
+        <v>8.278184</v>
       </c>
       <c r="I57">
-        <v>7.863971</v>
+        <v>7.848292</v>
       </c>
       <c r="J57">
-        <v>3.763029</v>
+        <v>3.773715</v>
       </c>
       <c r="K57">
-        <v>6.670174</v>
+        <v>6.628514</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -9060,31 +9060,31 @@
         <v>950</v>
       </c>
       <c r="B58">
-        <v>181.551647</v>
+        <v>181.33419</v>
       </c>
       <c r="C58">
-        <v>181.628186</v>
+        <v>181.406103</v>
       </c>
       <c r="E58" s="1">
         <v>950</v>
       </c>
       <c r="F58">
-        <v>9.163814</v>
+        <v>9.161261999999999</v>
       </c>
       <c r="G58">
-        <v>6.816024000000001</v>
+        <v>6.904161999999999</v>
       </c>
       <c r="H58">
-        <v>9.776388000000001</v>
+        <v>9.759602000000001</v>
       </c>
       <c r="I58">
-        <v>9.75671</v>
+        <v>9.742227</v>
       </c>
       <c r="J58">
-        <v>7.932604</v>
+        <v>7.983032000000001</v>
       </c>
       <c r="K58">
-        <v>7.027077999999999</v>
+        <v>7.114264</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -9092,31 +9092,31 @@
         <v>1000</v>
       </c>
       <c r="B59">
-        <v>339.289972</v>
+        <v>339.007406</v>
       </c>
       <c r="C59">
-        <v>339.092917</v>
+        <v>338.807717</v>
       </c>
       <c r="E59" s="1">
         <v>1000</v>
       </c>
       <c r="F59">
-        <v>10.675495</v>
+        <v>10.694826</v>
       </c>
       <c r="G59">
-        <v>9.785569000000001</v>
+        <v>9.986654</v>
       </c>
       <c r="H59">
-        <v>11.1888</v>
+        <v>11.17657</v>
       </c>
       <c r="I59">
-        <v>11.124537</v>
+        <v>11.112735</v>
       </c>
       <c r="J59">
-        <v>9.795697000000001</v>
+        <v>9.916675999999999</v>
       </c>
       <c r="K59">
-        <v>9.894357000000001</v>
+        <v>10.092522</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -9124,31 +9124,31 @@
         <v>1050</v>
       </c>
       <c r="B60">
-        <v>173.387614</v>
+        <v>173.414613</v>
       </c>
       <c r="C60">
-        <v>173.385943</v>
+        <v>173.415565</v>
       </c>
       <c r="E60" s="1">
         <v>1050</v>
       </c>
       <c r="F60">
-        <v>3.49981</v>
+        <v>3.506659</v>
       </c>
       <c r="G60">
-        <v>6.175339</v>
+        <v>6.239409999999999</v>
       </c>
       <c r="H60">
-        <v>2.923503</v>
+        <v>2.926925</v>
       </c>
       <c r="I60">
-        <v>2.920428</v>
+        <v>2.923111</v>
       </c>
       <c r="J60">
-        <v>5.144007</v>
+        <v>5.176908999999999</v>
       </c>
       <c r="K60">
-        <v>6.167729</v>
+        <v>6.227965</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -9156,31 +9156,31 @@
         <v>1100</v>
       </c>
       <c r="B61">
-        <v>115.273193</v>
+        <v>115.000189</v>
       </c>
       <c r="C61">
-        <v>115.346927</v>
+        <v>115.060385</v>
       </c>
       <c r="E61" s="1">
         <v>1100</v>
       </c>
       <c r="F61">
-        <v>0.560128</v>
+        <v>0.498694</v>
       </c>
       <c r="G61">
-        <v>2.488208</v>
+        <v>2.557807</v>
       </c>
       <c r="H61">
-        <v>1.183216</v>
+        <v>1.180647</v>
       </c>
       <c r="I61">
-        <v>1.184645</v>
+        <v>1.183925</v>
       </c>
       <c r="J61">
-        <v>1.473247</v>
+        <v>1.528216</v>
       </c>
       <c r="K61">
-        <v>2.593152</v>
+        <v>2.679118</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -9188,31 +9188,31 @@
         <v>1150</v>
       </c>
       <c r="B62">
-        <v>86.05020999999999</v>
+        <v>86.14018100000001</v>
       </c>
       <c r="C62">
-        <v>85.880589</v>
+        <v>85.96025400000001</v>
       </c>
       <c r="E62" s="1">
         <v>1150</v>
       </c>
       <c r="F62">
-        <v>2.857702</v>
+        <v>2.900601</v>
       </c>
       <c r="G62">
-        <v>7.72602</v>
+        <v>7.905010000000001</v>
       </c>
       <c r="H62">
-        <v>1.736223</v>
+        <v>1.743279</v>
       </c>
       <c r="I62">
-        <v>1.707228</v>
+        <v>1.713282</v>
       </c>
       <c r="J62">
-        <v>5.577643</v>
+        <v>5.706002</v>
       </c>
       <c r="K62">
-        <v>7.468408999999999</v>
+        <v>7.645805</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -9220,31 +9220,31 @@
         <v>1200</v>
       </c>
       <c r="B63">
-        <v>77.775564</v>
+        <v>77.86027900000001</v>
       </c>
       <c r="C63">
-        <v>78.56260999999999</v>
+        <v>78.653828</v>
       </c>
       <c r="E63" s="1">
         <v>1200</v>
       </c>
       <c r="F63">
-        <v>3.757037</v>
+        <v>3.769562</v>
       </c>
       <c r="G63">
-        <v>14.238688</v>
+        <v>14.304105</v>
       </c>
       <c r="H63">
-        <v>1.953787</v>
+        <v>1.954968</v>
       </c>
       <c r="I63">
-        <v>1.948396</v>
+        <v>1.949577</v>
       </c>
       <c r="J63">
-        <v>10.025246</v>
+        <v>10.071229</v>
       </c>
       <c r="K63">
-        <v>13.751151</v>
+        <v>13.815343</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -9252,31 +9252,31 @@
         <v>1250</v>
       </c>
       <c r="B64">
-        <v>69.021946</v>
+        <v>69.073859</v>
       </c>
       <c r="C64">
-        <v>68.79570699999999</v>
+        <v>68.849</v>
       </c>
       <c r="E64" s="1">
         <v>1250</v>
       </c>
       <c r="F64">
-        <v>0.8656739999999999</v>
+        <v>0.8717280000000001</v>
       </c>
       <c r="G64">
-        <v>6.776766</v>
+        <v>6.757896000000001</v>
       </c>
       <c r="H64">
-        <v>1.889625</v>
+        <v>1.89296</v>
       </c>
       <c r="I64">
-        <v>1.968446</v>
+        <v>1.971542</v>
       </c>
       <c r="J64">
-        <v>3.948523</v>
+        <v>3.93721</v>
       </c>
       <c r="K64">
-        <v>6.523839</v>
+        <v>6.505795</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -9284,31 +9284,31 @@
         <v>1300</v>
       </c>
       <c r="B65">
-        <v>55.794132</v>
+        <v>55.785788</v>
       </c>
       <c r="C65">
-        <v>55.632276</v>
+        <v>55.62087</v>
       </c>
       <c r="E65" s="1">
         <v>1300</v>
       </c>
       <c r="F65">
-        <v>0.922168</v>
+        <v>0.901431</v>
       </c>
       <c r="G65">
-        <v>6.632109</v>
+        <v>6.610931</v>
       </c>
       <c r="H65">
-        <v>2.021508</v>
+        <v>2.017797</v>
       </c>
       <c r="I65">
-        <v>2.114366</v>
+        <v>2.110723</v>
       </c>
       <c r="J65">
-        <v>3.491494</v>
+        <v>3.473363</v>
       </c>
       <c r="K65">
-        <v>6.405912</v>
+        <v>6.385435</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -9316,31 +9316,31 @@
         <v>1350</v>
       </c>
       <c r="B66">
-        <v>53.36069699999999</v>
+        <v>53.337361</v>
       </c>
       <c r="C66">
-        <v>53.326257</v>
+        <v>53.303141</v>
       </c>
       <c r="E66" s="1">
         <v>1350</v>
       </c>
       <c r="F66">
-        <v>3.56241</v>
+        <v>3.561235</v>
       </c>
       <c r="G66">
-        <v>6.434983</v>
+        <v>6.43745</v>
       </c>
       <c r="H66">
-        <v>2.926635</v>
+        <v>2.92564</v>
       </c>
       <c r="I66">
-        <v>2.870811</v>
+        <v>2.869923</v>
       </c>
       <c r="J66">
-        <v>4.966012999999999</v>
+        <v>4.966099</v>
       </c>
       <c r="K66">
-        <v>6.200222</v>
+        <v>6.202618</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -9348,31 +9348,31 @@
         <v>1400</v>
       </c>
       <c r="B67">
-        <v>46.611806</v>
+        <v>46.611439</v>
       </c>
       <c r="C67">
-        <v>46.640744</v>
+        <v>46.640237</v>
       </c>
       <c r="E67" s="1">
         <v>1400</v>
       </c>
       <c r="F67">
-        <v>2.681136</v>
+        <v>2.681953</v>
       </c>
       <c r="G67">
-        <v>3.571881</v>
+        <v>3.566545</v>
       </c>
       <c r="H67">
-        <v>2.608833</v>
+        <v>2.609388</v>
       </c>
       <c r="I67">
-        <v>2.568854</v>
+        <v>2.5694</v>
       </c>
       <c r="J67">
-        <v>3.355349</v>
+        <v>3.352807</v>
       </c>
       <c r="K67">
-        <v>3.419324</v>
+        <v>3.414245</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -9380,31 +9380,31 @@
         <v>1450</v>
       </c>
       <c r="B68">
-        <v>40.566109</v>
+        <v>40.567087</v>
       </c>
       <c r="C68">
-        <v>40.568391</v>
+        <v>40.569406</v>
       </c>
       <c r="E68" s="1">
         <v>1450</v>
       </c>
       <c r="F68">
-        <v>2.471844</v>
+        <v>2.47466</v>
       </c>
       <c r="G68">
-        <v>2.387076</v>
+        <v>2.395251</v>
       </c>
       <c r="H68">
-        <v>2.532491</v>
+        <v>2.533464</v>
       </c>
       <c r="I68">
-        <v>2.532529</v>
+        <v>2.53327</v>
       </c>
       <c r="J68">
-        <v>2.269589</v>
+        <v>2.27576</v>
       </c>
       <c r="K68">
-        <v>2.252751</v>
+        <v>2.260503</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -9412,31 +9412,31 @@
         <v>1500</v>
       </c>
       <c r="B69">
-        <v>36.807175</v>
+        <v>36.806913</v>
       </c>
       <c r="C69">
-        <v>36.8256</v>
+        <v>36.82575300000001</v>
       </c>
       <c r="E69" s="1">
         <v>1500</v>
       </c>
       <c r="F69">
-        <v>2.292549</v>
+        <v>2.296924</v>
       </c>
       <c r="G69">
-        <v>3.614172</v>
+        <v>3.628179</v>
       </c>
       <c r="H69">
-        <v>2.418047</v>
+        <v>2.419298</v>
       </c>
       <c r="I69">
-        <v>2.413665</v>
+        <v>2.414488</v>
       </c>
       <c r="J69">
-        <v>2.80833</v>
+        <v>2.81877</v>
       </c>
       <c r="K69">
-        <v>3.407302</v>
+        <v>3.42055</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -9444,31 +9444,31 @@
         <v>1550</v>
       </c>
       <c r="B70">
-        <v>32.937537</v>
+        <v>32.94025999999999</v>
       </c>
       <c r="C70">
-        <v>32.93985</v>
+        <v>32.942462</v>
       </c>
       <c r="E70" s="1">
         <v>1550</v>
       </c>
       <c r="F70">
-        <v>2.233015</v>
+        <v>2.230661</v>
       </c>
       <c r="G70">
-        <v>1.973316</v>
+        <v>1.963228</v>
       </c>
       <c r="H70">
-        <v>2.368704</v>
+        <v>2.368006</v>
       </c>
       <c r="I70">
-        <v>2.365181</v>
+        <v>2.364684</v>
       </c>
       <c r="J70">
-        <v>1.938237</v>
+        <v>1.931477</v>
       </c>
       <c r="K70">
-        <v>1.892551</v>
+        <v>1.883077</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -9476,31 +9476,31 @@
         <v>1600</v>
       </c>
       <c r="B71">
-        <v>29.839638</v>
+        <v>29.839729</v>
       </c>
       <c r="C71">
-        <v>29.812636</v>
+        <v>29.812688</v>
       </c>
       <c r="E71" s="1">
         <v>1600</v>
       </c>
       <c r="F71">
-        <v>1.563377</v>
+        <v>1.56271</v>
       </c>
       <c r="G71">
-        <v>1.888898</v>
+        <v>1.892036</v>
       </c>
       <c r="H71">
-        <v>2.092302</v>
+        <v>2.092045</v>
       </c>
       <c r="I71">
-        <v>2.130713</v>
+        <v>2.130535</v>
       </c>
       <c r="J71">
-        <v>0.48611</v>
+        <v>0.486882</v>
       </c>
       <c r="K71">
-        <v>1.68352</v>
+        <v>1.686486</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -9508,31 +9508,31 @@
         <v>1650</v>
       </c>
       <c r="B72">
-        <v>28.691137</v>
+        <v>28.69054</v>
       </c>
       <c r="C72">
-        <v>28.70084</v>
+        <v>28.700269</v>
       </c>
       <c r="E72" s="1">
         <v>1650</v>
       </c>
       <c r="F72">
-        <v>2.666182</v>
+        <v>2.666505</v>
       </c>
       <c r="G72">
-        <v>3.268919</v>
+        <v>3.271478</v>
       </c>
       <c r="H72">
-        <v>2.535165</v>
+        <v>2.535161</v>
       </c>
       <c r="I72">
-        <v>2.473144</v>
+        <v>2.473074</v>
       </c>
       <c r="J72">
-        <v>2.762243</v>
+        <v>2.76371</v>
       </c>
       <c r="K72">
-        <v>2.981101</v>
+        <v>2.983624</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -9540,31 +9540,31 @@
         <v>1700</v>
       </c>
       <c r="B73">
-        <v>27.035308</v>
+        <v>27.038911</v>
       </c>
       <c r="C73">
-        <v>27.175164</v>
+        <v>27.179195</v>
       </c>
       <c r="E73" s="1">
         <v>1700</v>
       </c>
       <c r="F73">
-        <v>3.403757</v>
+        <v>3.406713</v>
       </c>
       <c r="G73">
-        <v>8.045511999999999</v>
+        <v>8.059144</v>
       </c>
       <c r="H73">
-        <v>2.606655</v>
+        <v>2.607513</v>
       </c>
       <c r="I73">
-        <v>2.181452</v>
+        <v>2.181532</v>
       </c>
       <c r="J73">
-        <v>6.173961</v>
+        <v>6.18248</v>
       </c>
       <c r="K73">
-        <v>7.446447</v>
+        <v>7.459157</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -9572,31 +9572,31 @@
         <v>1750</v>
       </c>
       <c r="B74">
-        <v>24.875474</v>
+        <v>24.876479</v>
       </c>
       <c r="C74">
-        <v>24.820439</v>
+        <v>24.821368</v>
       </c>
       <c r="E74" s="1">
         <v>1750</v>
       </c>
       <c r="F74">
-        <v>0.9753059999999999</v>
+        <v>0.974244</v>
       </c>
       <c r="G74">
-        <v>2.490465</v>
+        <v>2.493436</v>
       </c>
       <c r="H74">
-        <v>1.817551</v>
+        <v>1.817196</v>
       </c>
       <c r="I74">
-        <v>1.99797</v>
+        <v>1.9978</v>
       </c>
       <c r="J74">
-        <v>1.495956</v>
+        <v>1.497825</v>
       </c>
       <c r="K74">
-        <v>2.327818</v>
+        <v>2.330591</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -9604,31 +9604,31 @@
         <v>1800</v>
       </c>
       <c r="B75">
-        <v>23.149733</v>
+        <v>23.151902</v>
       </c>
       <c r="C75">
-        <v>23.124739</v>
+        <v>23.12691</v>
       </c>
       <c r="E75" s="1">
         <v>1800</v>
       </c>
       <c r="F75">
-        <v>1.466334</v>
+        <v>1.466596</v>
       </c>
       <c r="G75">
-        <v>2.077316</v>
+        <v>2.074808</v>
       </c>
       <c r="H75">
-        <v>1.969132</v>
+        <v>1.969469</v>
       </c>
       <c r="I75">
-        <v>2.02444</v>
+        <v>2.024799</v>
       </c>
       <c r="J75">
-        <v>1.275982</v>
+        <v>1.274068</v>
       </c>
       <c r="K75">
-        <v>1.936215</v>
+        <v>1.933761</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -9636,31 +9636,31 @@
         <v>1850</v>
       </c>
       <c r="B76">
-        <v>22.103807</v>
+        <v>22.098014</v>
       </c>
       <c r="C76">
-        <v>21.964177</v>
+        <v>21.958414</v>
       </c>
       <c r="E76" s="1">
         <v>1850</v>
       </c>
       <c r="F76">
-        <v>0.333316</v>
+        <v>0.331628</v>
       </c>
       <c r="G76">
-        <v>6.587652</v>
+        <v>6.585483</v>
       </c>
       <c r="H76">
-        <v>1.312857</v>
+        <v>1.312276</v>
       </c>
       <c r="I76">
-        <v>1.626145</v>
+        <v>1.625384</v>
       </c>
       <c r="J76">
-        <v>3.701392</v>
+        <v>3.700306</v>
       </c>
       <c r="K76">
-        <v>6.024259</v>
+        <v>6.022231</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -9668,31 +9668,31 @@
         <v>1900</v>
       </c>
       <c r="B77">
-        <v>20.417299</v>
+        <v>20.416819</v>
       </c>
       <c r="C77">
-        <v>20.489453</v>
+        <v>20.488978</v>
       </c>
       <c r="E77" s="1">
         <v>1900</v>
       </c>
       <c r="F77">
-        <v>2.808292</v>
+        <v>2.808288</v>
       </c>
       <c r="G77">
-        <v>7.149445</v>
+        <v>7.149678999999999</v>
       </c>
       <c r="H77">
-        <v>2.447093</v>
+        <v>2.447048</v>
       </c>
       <c r="I77">
-        <v>2.513833</v>
+        <v>2.513791</v>
       </c>
       <c r="J77">
-        <v>4.303453</v>
+        <v>4.30363</v>
       </c>
       <c r="K77">
-        <v>6.391245</v>
+        <v>6.391508</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -9700,31 +9700,31 @@
         <v>1950</v>
       </c>
       <c r="B78">
-        <v>19.960267</v>
+        <v>19.956959</v>
       </c>
       <c r="C78">
-        <v>19.959667</v>
+        <v>19.956349</v>
       </c>
       <c r="E78" s="1">
         <v>1950</v>
       </c>
       <c r="F78">
-        <v>3.173919</v>
+        <v>3.174462</v>
       </c>
       <c r="G78">
-        <v>4.40313</v>
+        <v>4.406073</v>
       </c>
       <c r="H78">
-        <v>2.837223</v>
+        <v>2.837285</v>
       </c>
       <c r="I78">
-        <v>2.726997</v>
+        <v>2.726992</v>
       </c>
       <c r="J78">
-        <v>3.419316</v>
+        <v>3.420979</v>
       </c>
       <c r="K78">
-        <v>3.850047</v>
+        <v>3.852699</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -9732,31 +9732,31 @@
         <v>2000</v>
       </c>
       <c r="B79">
-        <v>20.168576</v>
+        <v>20.169891</v>
       </c>
       <c r="C79">
-        <v>20.129558</v>
+        <v>20.130867</v>
       </c>
       <c r="E79" s="1">
         <v>2000</v>
       </c>
       <c r="F79">
-        <v>1.844088</v>
+        <v>1.844068</v>
       </c>
       <c r="G79">
-        <v>2.986045</v>
+        <v>2.985015</v>
       </c>
       <c r="H79">
-        <v>2.268769</v>
+        <v>2.268866</v>
       </c>
       <c r="I79">
-        <v>2.284618</v>
+        <v>2.284683</v>
       </c>
       <c r="J79">
-        <v>1.107591</v>
+        <v>1.10681</v>
       </c>
       <c r="K79">
-        <v>2.771621</v>
+        <v>2.770685</v>
       </c>
     </row>
   </sheetData>
@@ -10010,31 +10010,31 @@
         <v>100</v>
       </c>
       <c r="B41">
-        <v>20.278695</v>
+        <v>20.297868</v>
       </c>
       <c r="C41">
-        <v>22.382377</v>
+        <v>22.399652</v>
       </c>
       <c r="E41" s="1">
         <v>100</v>
       </c>
       <c r="F41">
-        <v>19.067335</v>
+        <v>19.087566</v>
       </c>
       <c r="G41">
-        <v>15.128627</v>
+        <v>15.152418</v>
       </c>
       <c r="H41">
-        <v>8.177826</v>
+        <v>8.191773</v>
       </c>
       <c r="I41">
-        <v>8.791442</v>
+        <v>8.80456</v>
       </c>
       <c r="J41">
-        <v>16.180265</v>
+        <v>16.203695</v>
       </c>
       <c r="K41">
-        <v>15.312774</v>
+        <v>15.336757</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -10042,31 +10042,31 @@
         <v>150</v>
       </c>
       <c r="B42">
-        <v>39.737107</v>
+        <v>46.624943</v>
       </c>
       <c r="C42">
-        <v>43.127152</v>
+        <v>50.739883</v>
       </c>
       <c r="E42" s="1">
         <v>150</v>
       </c>
       <c r="F42">
-        <v>38.400972</v>
+        <v>44.992894</v>
       </c>
       <c r="G42">
-        <v>35.180322</v>
+        <v>40.88086</v>
       </c>
       <c r="H42">
-        <v>17.817365</v>
+        <v>20.701427</v>
       </c>
       <c r="I42">
-        <v>18.858437</v>
+        <v>22.025032</v>
       </c>
       <c r="J42">
-        <v>35.728177</v>
+        <v>41.580195</v>
       </c>
       <c r="K42">
-        <v>35.688283</v>
+        <v>41.476445</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -10074,31 +10074,31 @@
         <v>200</v>
       </c>
       <c r="B43">
-        <v>11.191863</v>
+        <v>11.369486</v>
       </c>
       <c r="C43">
-        <v>13.987459</v>
+        <v>13.750565</v>
       </c>
       <c r="E43" s="1">
         <v>200</v>
       </c>
       <c r="F43">
-        <v>10.533597</v>
+        <v>10.927542</v>
       </c>
       <c r="G43">
-        <v>12.461905</v>
+        <v>13.286119</v>
       </c>
       <c r="H43">
-        <v>5.312112</v>
+        <v>5.650125</v>
       </c>
       <c r="I43">
-        <v>5.451698</v>
+        <v>5.737384</v>
       </c>
       <c r="J43">
-        <v>11.132556</v>
+        <v>11.887943</v>
       </c>
       <c r="K43">
-        <v>12.581973</v>
+        <v>13.415233</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -10106,31 +10106,31 @@
         <v>250</v>
       </c>
       <c r="B44">
-        <v>19.981238</v>
+        <v>19.981279</v>
       </c>
       <c r="C44">
-        <v>26.031497</v>
+        <v>26.031216</v>
       </c>
       <c r="E44" s="1">
         <v>250</v>
       </c>
       <c r="F44">
-        <v>17.195813</v>
+        <v>17.195932</v>
       </c>
       <c r="G44">
-        <v>10.475897</v>
+        <v>10.476227</v>
       </c>
       <c r="H44">
-        <v>6.178711</v>
+        <v>6.178891</v>
       </c>
       <c r="I44">
-        <v>7.758551</v>
+        <v>7.758655</v>
       </c>
       <c r="J44">
-        <v>11.397066</v>
+        <v>11.397357</v>
       </c>
       <c r="K44">
-        <v>10.64086</v>
+        <v>10.641176</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -10138,31 +10138,31 @@
         <v>300</v>
       </c>
       <c r="B45">
-        <v>61.60369</v>
+        <v>61.607725</v>
       </c>
       <c r="C45">
-        <v>92.509884</v>
+        <v>92.504711</v>
       </c>
       <c r="E45" s="1">
         <v>300</v>
       </c>
       <c r="F45">
-        <v>54.93826600000001</v>
+        <v>54.94421800000001</v>
       </c>
       <c r="G45">
-        <v>39.358243</v>
+        <v>39.36941599999999</v>
       </c>
       <c r="H45">
-        <v>17.784594</v>
+        <v>17.787781</v>
       </c>
       <c r="I45">
-        <v>26.559468</v>
+        <v>26.559819</v>
       </c>
       <c r="J45">
-        <v>40.322492</v>
+        <v>40.334409</v>
       </c>
       <c r="K45">
-        <v>41.018539</v>
+        <v>41.030032</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -10170,31 +10170,31 @@
         <v>350</v>
       </c>
       <c r="B46">
-        <v>50.58106</v>
+        <v>50.572822</v>
       </c>
       <c r="C46">
-        <v>48.642613</v>
+        <v>48.639841</v>
       </c>
       <c r="E46" s="1">
         <v>350</v>
       </c>
       <c r="F46">
-        <v>43.483297</v>
+        <v>43.477608</v>
       </c>
       <c r="G46">
-        <v>17.03965</v>
+        <v>17.042496</v>
       </c>
       <c r="H46">
-        <v>16.963109</v>
+        <v>16.958017</v>
       </c>
       <c r="I46">
-        <v>16.068373</v>
+        <v>16.066089</v>
       </c>
       <c r="J46">
-        <v>28.154772</v>
+        <v>28.155709</v>
       </c>
       <c r="K46">
-        <v>17.669775</v>
+        <v>17.67271</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -10202,31 +10202,31 @@
         <v>400</v>
       </c>
       <c r="B47">
-        <v>15.945852</v>
+        <v>15.945443</v>
       </c>
       <c r="C47">
-        <v>14.779789</v>
+        <v>14.779488</v>
       </c>
       <c r="E47" s="1">
         <v>400</v>
       </c>
       <c r="F47">
-        <v>13.571006</v>
+        <v>13.570706</v>
       </c>
       <c r="G47">
-        <v>4.619344</v>
+        <v>4.619443</v>
       </c>
       <c r="H47">
-        <v>5.916066000000001</v>
+        <v>5.916881</v>
       </c>
       <c r="I47">
-        <v>5.358086</v>
+        <v>5.358798</v>
       </c>
       <c r="J47">
-        <v>7.803354</v>
+        <v>7.803331</v>
       </c>
       <c r="K47">
-        <v>4.770729</v>
+        <v>4.770830999999999</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -10234,31 +10234,31 @@
         <v>450</v>
       </c>
       <c r="B48">
-        <v>5.271320999999999</v>
+        <v>5.271318</v>
       </c>
       <c r="C48">
-        <v>5.362319</v>
+        <v>5.362316000000001</v>
       </c>
       <c r="E48" s="1">
         <v>450</v>
       </c>
       <c r="F48">
-        <v>4.602694000000001</v>
+        <v>4.60269</v>
       </c>
       <c r="G48">
-        <v>2.058611</v>
+        <v>2.058607</v>
       </c>
       <c r="H48">
-        <v>2.114082</v>
+        <v>2.114093</v>
       </c>
       <c r="I48">
-        <v>2.114898</v>
+        <v>2.114908</v>
       </c>
       <c r="J48">
-        <v>2.996337</v>
+        <v>2.996331</v>
       </c>
       <c r="K48">
-        <v>2.125864</v>
+        <v>2.125859</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -10266,31 +10266,31 @@
         <v>500</v>
       </c>
       <c r="B49">
-        <v>20.280967</v>
+        <v>20.283045</v>
       </c>
       <c r="C49">
-        <v>21.668729</v>
+        <v>21.670575</v>
       </c>
       <c r="E49" s="1">
         <v>500</v>
       </c>
       <c r="F49">
-        <v>17.968659</v>
+        <v>17.970958</v>
       </c>
       <c r="G49">
-        <v>9.399245000000001</v>
+        <v>9.402194</v>
       </c>
       <c r="H49">
-        <v>9.168005000000001</v>
+        <v>9.172637</v>
       </c>
       <c r="I49">
-        <v>9.563288</v>
+        <v>9.567703</v>
       </c>
       <c r="J49">
-        <v>12.45005</v>
+        <v>12.452937</v>
       </c>
       <c r="K49">
-        <v>9.664922000000001</v>
+        <v>9.667939000000001</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -10298,31 +10298,31 @@
         <v>550</v>
       </c>
       <c r="B50">
-        <v>47.958731</v>
+        <v>47.531929</v>
       </c>
       <c r="C50">
-        <v>55.583249</v>
+        <v>55.196203</v>
       </c>
       <c r="E50" s="1">
         <v>550</v>
       </c>
       <c r="F50">
-        <v>42.66742</v>
+        <v>42.210089</v>
       </c>
       <c r="G50">
-        <v>25.227782</v>
+        <v>24.659509</v>
       </c>
       <c r="H50">
-        <v>23.167331</v>
+        <v>22.545142</v>
       </c>
       <c r="I50">
-        <v>25.837009</v>
+        <v>25.236214</v>
       </c>
       <c r="J50">
-        <v>30.249508</v>
+        <v>29.675952</v>
       </c>
       <c r="K50">
-        <v>25.828186</v>
+        <v>25.246072</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -10330,31 +10330,31 @@
         <v>600</v>
       </c>
       <c r="B51">
-        <v>84.15586400000001</v>
+        <v>84.150432</v>
       </c>
       <c r="C51">
-        <v>114.355382</v>
+        <v>114.348241</v>
       </c>
       <c r="E51" s="1">
         <v>600</v>
       </c>
       <c r="F51">
-        <v>74.0312</v>
+        <v>74.026258</v>
       </c>
       <c r="G51">
-        <v>48.287295</v>
+        <v>48.284206</v>
       </c>
       <c r="H51">
-        <v>32.558476</v>
+        <v>32.558676</v>
       </c>
       <c r="I51">
-        <v>43.011688</v>
+        <v>43.011282</v>
       </c>
       <c r="J51">
-        <v>51.29153400000001</v>
+        <v>51.287984</v>
       </c>
       <c r="K51">
-        <v>49.376896</v>
+        <v>49.373689</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -10362,31 +10362,31 @@
         <v>650</v>
       </c>
       <c r="B52">
-        <v>72.093655</v>
+        <v>72.081512</v>
       </c>
       <c r="C52">
-        <v>73.006311</v>
+        <v>72.97484300000001</v>
       </c>
       <c r="E52" s="1">
         <v>650</v>
       </c>
       <c r="F52">
-        <v>62.173136</v>
+        <v>62.16512700000001</v>
       </c>
       <c r="G52">
-        <v>26.206891</v>
+        <v>26.202049</v>
       </c>
       <c r="H52">
-        <v>22.317416</v>
+        <v>22.34896</v>
       </c>
       <c r="I52">
-        <v>24.874586</v>
+        <v>24.896554</v>
       </c>
       <c r="J52">
-        <v>39.002327</v>
+        <v>39.001635</v>
       </c>
       <c r="K52">
-        <v>26.653504</v>
+        <v>26.648624</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -10394,31 +10394,31 @@
         <v>700</v>
       </c>
       <c r="B53">
-        <v>56.498202</v>
+        <v>56.473307</v>
       </c>
       <c r="C53">
-        <v>48.379344</v>
+        <v>48.370139</v>
       </c>
       <c r="E53" s="1">
         <v>700</v>
       </c>
       <c r="F53">
-        <v>48.62262800000001</v>
+        <v>48.606118</v>
       </c>
       <c r="G53">
-        <v>14.68128</v>
+        <v>14.705729</v>
       </c>
       <c r="H53">
-        <v>26.941594</v>
+        <v>26.955526</v>
       </c>
       <c r="I53">
-        <v>23.611594</v>
+        <v>23.618261</v>
       </c>
       <c r="J53">
-        <v>29.008036</v>
+        <v>29.012077</v>
       </c>
       <c r="K53">
-        <v>15.132953</v>
+        <v>15.157568</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -10426,31 +10426,31 @@
         <v>750</v>
       </c>
       <c r="B54">
-        <v>30.392696</v>
+        <v>30.388593</v>
       </c>
       <c r="C54">
-        <v>28.56503</v>
+        <v>28.557449</v>
       </c>
       <c r="E54" s="1">
         <v>750</v>
       </c>
       <c r="F54">
-        <v>26.67355</v>
+        <v>26.663599</v>
       </c>
       <c r="G54">
-        <v>11.159158</v>
+        <v>11.190117</v>
       </c>
       <c r="H54">
-        <v>19.750251</v>
+        <v>19.816425</v>
       </c>
       <c r="I54">
-        <v>18.466475</v>
+        <v>18.51166</v>
       </c>
       <c r="J54">
-        <v>17.349716</v>
+        <v>17.321465</v>
       </c>
       <c r="K54">
-        <v>11.396176</v>
+        <v>11.426607</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -10458,31 +10458,31 @@
         <v>800</v>
       </c>
       <c r="B55">
-        <v>20.916946</v>
+        <v>20.91703</v>
       </c>
       <c r="C55">
-        <v>20.219609</v>
+        <v>20.219539</v>
       </c>
       <c r="E55" s="1">
         <v>800</v>
       </c>
       <c r="F55">
-        <v>18.55902</v>
+        <v>18.558837</v>
       </c>
       <c r="G55">
-        <v>8.583908000000001</v>
+        <v>8.583701</v>
       </c>
       <c r="H55">
-        <v>14.76071</v>
+        <v>14.762848</v>
       </c>
       <c r="I55">
-        <v>14.29982</v>
+        <v>14.300537</v>
       </c>
       <c r="J55">
-        <v>12.601856</v>
+        <v>12.600909</v>
       </c>
       <c r="K55">
-        <v>8.73502</v>
+        <v>8.734807</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -10490,31 +10490,31 @@
         <v>850</v>
       </c>
       <c r="B56">
-        <v>14.206881</v>
+        <v>14.210516</v>
       </c>
       <c r="C56">
-        <v>13.987996</v>
+        <v>13.990976</v>
       </c>
       <c r="E56" s="1">
         <v>850</v>
       </c>
       <c r="F56">
-        <v>12.816734</v>
+        <v>12.820631</v>
       </c>
       <c r="G56">
-        <v>6.620744</v>
+        <v>6.620246000000001</v>
       </c>
       <c r="H56">
-        <v>19.021235</v>
+        <v>19.023824</v>
       </c>
       <c r="I56">
-        <v>18.771779</v>
+        <v>18.784601</v>
       </c>
       <c r="J56">
-        <v>9.275408000000001</v>
+        <v>9.278830000000001</v>
       </c>
       <c r="K56">
-        <v>6.712081</v>
+        <v>6.711639999999999</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -10522,31 +10522,31 @@
         <v>900</v>
       </c>
       <c r="B57">
-        <v>11.115701</v>
+        <v>11.120392</v>
       </c>
       <c r="C57">
-        <v>11.029437</v>
+        <v>11.033031</v>
       </c>
       <c r="E57" s="1">
         <v>900</v>
       </c>
       <c r="F57">
-        <v>9.854863</v>
+        <v>9.857654</v>
       </c>
       <c r="G57">
-        <v>4.866738</v>
+        <v>4.858059</v>
       </c>
       <c r="H57">
-        <v>8.297332000000001</v>
+        <v>8.278184</v>
       </c>
       <c r="I57">
-        <v>7.863971</v>
+        <v>7.848292</v>
       </c>
       <c r="J57">
-        <v>6.982161</v>
+        <v>6.977600999999999</v>
       </c>
       <c r="K57">
-        <v>4.91389</v>
+        <v>4.905228</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -10554,31 +10554,31 @@
         <v>950</v>
       </c>
       <c r="B58">
-        <v>7.424647999999999</v>
+        <v>7.425008</v>
       </c>
       <c r="C58">
-        <v>7.350207000000001</v>
+        <v>7.350428</v>
       </c>
       <c r="E58" s="1">
         <v>950</v>
       </c>
       <c r="F58">
-        <v>6.549277</v>
+        <v>6.549827</v>
       </c>
       <c r="G58">
-        <v>2.853438</v>
+        <v>2.853818</v>
       </c>
       <c r="H58">
-        <v>9.776388000000001</v>
+        <v>9.759602000000001</v>
       </c>
       <c r="I58">
-        <v>9.75671</v>
+        <v>9.742227</v>
       </c>
       <c r="J58">
-        <v>4.267408000000001</v>
+        <v>4.267574</v>
       </c>
       <c r="K58">
-        <v>2.866213</v>
+        <v>2.866632</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -10586,31 +10586,31 @@
         <v>1000</v>
       </c>
       <c r="B59">
-        <v>4.851747</v>
+        <v>4.852331</v>
       </c>
       <c r="C59">
-        <v>4.822805000000001</v>
+        <v>4.823145999999999</v>
       </c>
       <c r="E59" s="1">
         <v>1000</v>
       </c>
       <c r="F59">
-        <v>4.261851</v>
+        <v>4.260452</v>
       </c>
       <c r="G59">
-        <v>1.759982</v>
+        <v>1.75169</v>
       </c>
       <c r="H59">
-        <v>11.1888</v>
+        <v>11.17657</v>
       </c>
       <c r="I59">
-        <v>11.124537</v>
+        <v>11.112735</v>
       </c>
       <c r="J59">
-        <v>2.709729</v>
+        <v>2.703382</v>
       </c>
       <c r="K59">
-        <v>1.773787</v>
+        <v>1.765563</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -10618,31 +10618,31 @@
         <v>1050</v>
       </c>
       <c r="B60">
-        <v>2.635696</v>
+        <v>2.635722</v>
       </c>
       <c r="C60">
-        <v>2.632109</v>
+        <v>2.632128</v>
       </c>
       <c r="E60" s="1">
         <v>1050</v>
       </c>
       <c r="F60">
-        <v>2.328484</v>
+        <v>2.329218</v>
       </c>
       <c r="G60">
-        <v>1.0527</v>
+        <v>1.055128</v>
       </c>
       <c r="H60">
-        <v>2.923503</v>
+        <v>2.926925</v>
       </c>
       <c r="I60">
-        <v>2.920428</v>
+        <v>2.923111</v>
       </c>
       <c r="J60">
-        <v>1.522669</v>
+        <v>1.524771</v>
       </c>
       <c r="K60">
-        <v>1.056658</v>
+        <v>1.059075</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -10650,31 +10650,31 @@
         <v>1100</v>
       </c>
       <c r="B61">
-        <v>1.699662</v>
+        <v>1.699672</v>
       </c>
       <c r="C61">
-        <v>1.701593</v>
+        <v>1.701598</v>
       </c>
       <c r="E61" s="1">
         <v>1100</v>
       </c>
       <c r="F61">
-        <v>1.500329</v>
+        <v>1.500604</v>
       </c>
       <c r="G61">
-        <v>0.6402369999999999</v>
+        <v>0.641123</v>
       </c>
       <c r="H61">
-        <v>1.183216</v>
+        <v>1.180647</v>
       </c>
       <c r="I61">
-        <v>1.184645</v>
+        <v>1.183925</v>
       </c>
       <c r="J61">
-        <v>0.9533450000000001</v>
+        <v>0.9543149999999999</v>
       </c>
       <c r="K61">
-        <v>0.636313</v>
+        <v>0.637191</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -10682,31 +10682,31 @@
         <v>1150</v>
       </c>
       <c r="B62">
-        <v>2.824301</v>
+        <v>2.824125</v>
       </c>
       <c r="C62">
-        <v>2.828585</v>
+        <v>2.828434</v>
       </c>
       <c r="E62" s="1">
         <v>1150</v>
       </c>
       <c r="F62">
-        <v>2.619051</v>
+        <v>2.61812</v>
       </c>
       <c r="G62">
-        <v>1.655139</v>
+        <v>1.650841</v>
       </c>
       <c r="H62">
-        <v>1.736223</v>
+        <v>1.743279</v>
       </c>
       <c r="I62">
-        <v>1.707228</v>
+        <v>1.713282</v>
       </c>
       <c r="J62">
-        <v>2.028014</v>
+        <v>2.024264</v>
       </c>
       <c r="K62">
-        <v>1.634063</v>
+        <v>1.629776</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -10714,31 +10714,31 @@
         <v>1200</v>
       </c>
       <c r="B63">
-        <v>4.545652</v>
+        <v>4.545662</v>
       </c>
       <c r="C63">
-        <v>4.56283</v>
+        <v>4.562825</v>
       </c>
       <c r="E63" s="1">
         <v>1200</v>
       </c>
       <c r="F63">
-        <v>4.112217</v>
+        <v>4.112393</v>
       </c>
       <c r="G63">
-        <v>2.171074</v>
+        <v>2.171623</v>
       </c>
       <c r="H63">
-        <v>1.953787</v>
+        <v>1.954968</v>
       </c>
       <c r="I63">
-        <v>1.948396</v>
+        <v>1.949577</v>
       </c>
       <c r="J63">
-        <v>2.845913</v>
+        <v>2.846496</v>
       </c>
       <c r="K63">
-        <v>2.129205</v>
+        <v>2.129741</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -10746,31 +10746,31 @@
         <v>1250</v>
       </c>
       <c r="B64">
-        <v>6.356386</v>
+        <v>6.356203</v>
       </c>
       <c r="C64">
-        <v>6.372303</v>
+        <v>6.372143</v>
       </c>
       <c r="E64" s="1">
         <v>1250</v>
       </c>
       <c r="F64">
-        <v>5.892848000000001</v>
+        <v>5.892448</v>
       </c>
       <c r="G64">
-        <v>3.633344</v>
+        <v>3.631979</v>
       </c>
       <c r="H64">
-        <v>1.889625</v>
+        <v>1.89296</v>
       </c>
       <c r="I64">
-        <v>1.968446</v>
+        <v>1.971542</v>
       </c>
       <c r="J64">
-        <v>4.447322</v>
+        <v>4.446347</v>
       </c>
       <c r="K64">
-        <v>3.547209</v>
+        <v>3.54589</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -10778,31 +10778,31 @@
         <v>1300</v>
       </c>
       <c r="B65">
-        <v>8.107858999999999</v>
+        <v>8.108149000000001</v>
       </c>
       <c r="C65">
-        <v>8.117355999999999</v>
+        <v>8.117628999999999</v>
       </c>
       <c r="E65" s="1">
         <v>1300</v>
       </c>
       <c r="F65">
-        <v>7.630881</v>
+        <v>7.631438</v>
       </c>
       <c r="G65">
-        <v>5.077219</v>
+        <v>5.078144</v>
       </c>
       <c r="H65">
-        <v>2.021508</v>
+        <v>2.017797</v>
       </c>
       <c r="I65">
-        <v>2.114366</v>
+        <v>2.110723</v>
       </c>
       <c r="J65">
-        <v>6.08536</v>
+        <v>6.086051</v>
       </c>
       <c r="K65">
-        <v>4.934837</v>
+        <v>4.935793</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -10810,31 +10810,31 @@
         <v>1350</v>
       </c>
       <c r="B66">
-        <v>9.812360999999999</v>
+        <v>9.812199</v>
       </c>
       <c r="C66">
-        <v>9.829367999999999</v>
+        <v>9.829255</v>
       </c>
       <c r="E66" s="1">
         <v>1350</v>
       </c>
       <c r="F66">
-        <v>9.206704999999999</v>
+        <v>9.206119000000001</v>
       </c>
       <c r="G66">
-        <v>5.890652999999999</v>
+        <v>5.889105000000001</v>
       </c>
       <c r="H66">
-        <v>2.926635</v>
+        <v>2.92564</v>
       </c>
       <c r="I66">
-        <v>2.870811</v>
+        <v>2.869923</v>
       </c>
       <c r="J66">
-        <v>7.176842</v>
+        <v>7.175588</v>
       </c>
       <c r="K66">
-        <v>5.699039</v>
+        <v>5.697539</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -10842,31 +10842,31 @@
         <v>1400</v>
       </c>
       <c r="B67">
-        <v>11.401085</v>
+        <v>11.400917</v>
       </c>
       <c r="C67">
-        <v>11.439799</v>
+        <v>11.439683</v>
       </c>
       <c r="E67" s="1">
         <v>1400</v>
       </c>
       <c r="F67">
-        <v>10.459271</v>
+        <v>10.458845</v>
       </c>
       <c r="G67">
-        <v>5.992871</v>
+        <v>5.992004</v>
       </c>
       <c r="H67">
-        <v>2.608833</v>
+        <v>2.609388</v>
       </c>
       <c r="I67">
-        <v>2.568854</v>
+        <v>2.5694</v>
       </c>
       <c r="J67">
-        <v>8.157719999999999</v>
+        <v>8.156997</v>
       </c>
       <c r="K67">
-        <v>5.76355</v>
+        <v>5.762704</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -10874,31 +10874,31 @@
         <v>1450</v>
       </c>
       <c r="B68">
-        <v>13.124544</v>
+        <v>13.124346</v>
       </c>
       <c r="C68">
-        <v>13.236114</v>
+        <v>13.235998</v>
       </c>
       <c r="E68" s="1">
         <v>1450</v>
       </c>
       <c r="F68">
-        <v>11.858408</v>
+        <v>11.857863</v>
       </c>
       <c r="G68">
-        <v>5.967439</v>
+        <v>5.965761</v>
       </c>
       <c r="H68">
-        <v>2.532491</v>
+        <v>2.533464</v>
       </c>
       <c r="I68">
-        <v>2.532529</v>
+        <v>2.53327</v>
       </c>
       <c r="J68">
-        <v>7.855964</v>
+        <v>7.854419</v>
       </c>
       <c r="K68">
-        <v>5.721258</v>
+        <v>5.719662</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -10906,31 +10906,31 @@
         <v>1500</v>
       </c>
       <c r="B69">
-        <v>14.995382</v>
+        <v>14.995991</v>
       </c>
       <c r="C69">
-        <v>15.028586</v>
+        <v>15.028924</v>
       </c>
       <c r="E69" s="1">
         <v>1500</v>
       </c>
       <c r="F69">
-        <v>13.981019</v>
+        <v>13.982959</v>
       </c>
       <c r="G69">
-        <v>8.461114</v>
+        <v>8.466661</v>
       </c>
       <c r="H69">
-        <v>2.418047</v>
+        <v>2.419298</v>
       </c>
       <c r="I69">
-        <v>2.413665</v>
+        <v>2.414488</v>
       </c>
       <c r="J69">
-        <v>10.487143</v>
+        <v>10.491867</v>
       </c>
       <c r="K69">
-        <v>8.051691</v>
+        <v>8.056908999999999</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -10938,31 +10938,31 @@
         <v>1550</v>
       </c>
       <c r="B70">
-        <v>16.966586</v>
+        <v>16.966436</v>
       </c>
       <c r="C70">
-        <v>16.957717</v>
+        <v>16.957647</v>
       </c>
       <c r="E70" s="1">
         <v>1550</v>
       </c>
       <c r="F70">
-        <v>16.063651</v>
+        <v>16.063147</v>
       </c>
       <c r="G70">
-        <v>10.683245</v>
+        <v>10.681559</v>
       </c>
       <c r="H70">
-        <v>2.368704</v>
+        <v>2.368006</v>
       </c>
       <c r="I70">
-        <v>2.365181</v>
+        <v>2.364684</v>
       </c>
       <c r="J70">
-        <v>12.432926</v>
+        <v>12.431437</v>
       </c>
       <c r="K70">
-        <v>10.12111</v>
+        <v>10.119511</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -10970,31 +10970,31 @@
         <v>1600</v>
       </c>
       <c r="B71">
-        <v>19.137967</v>
+        <v>19.137713</v>
       </c>
       <c r="C71">
-        <v>19.001217</v>
+        <v>19.001013</v>
       </c>
       <c r="E71" s="1">
         <v>1600</v>
       </c>
       <c r="F71">
-        <v>18.686173</v>
+        <v>18.685488</v>
       </c>
       <c r="G71">
-        <v>14.745049</v>
+        <v>14.742614</v>
       </c>
       <c r="H71">
-        <v>2.092302</v>
+        <v>2.092045</v>
       </c>
       <c r="I71">
-        <v>2.130713</v>
+        <v>2.130535</v>
       </c>
       <c r="J71">
-        <v>15.869377</v>
+        <v>15.867785</v>
       </c>
       <c r="K71">
-        <v>13.850725</v>
+        <v>13.848424</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -11002,31 +11002,31 @@
         <v>1650</v>
       </c>
       <c r="B72">
-        <v>21.088136</v>
+        <v>21.088135</v>
       </c>
       <c r="C72">
-        <v>20.812118</v>
+        <v>20.812119</v>
       </c>
       <c r="E72" s="1">
         <v>1650</v>
       </c>
       <c r="F72">
-        <v>20.745468</v>
+        <v>20.74547</v>
       </c>
       <c r="G72">
-        <v>16.839499</v>
+        <v>16.839467</v>
       </c>
       <c r="H72">
-        <v>2.535165</v>
+        <v>2.535161</v>
       </c>
       <c r="I72">
-        <v>2.473144</v>
+        <v>2.473074</v>
       </c>
       <c r="J72">
-        <v>18.25067</v>
+        <v>18.250676</v>
       </c>
       <c r="K72">
-        <v>15.761333</v>
+        <v>15.761302</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -11034,31 +11034,31 @@
         <v>1700</v>
       </c>
       <c r="B73">
-        <v>23.105796</v>
+        <v>23.10635</v>
       </c>
       <c r="C73">
-        <v>22.136611</v>
+        <v>22.136859</v>
       </c>
       <c r="E73" s="1">
         <v>1700</v>
       </c>
       <c r="F73">
-        <v>23.320198</v>
+        <v>23.321513</v>
       </c>
       <c r="G73">
-        <v>20.020791</v>
+        <v>20.023996</v>
       </c>
       <c r="H73">
-        <v>2.606655</v>
+        <v>2.607513</v>
       </c>
       <c r="I73">
-        <v>2.181452</v>
+        <v>2.181532</v>
       </c>
       <c r="J73">
-        <v>24.028737</v>
+        <v>24.031105</v>
       </c>
       <c r="K73">
-        <v>18.548087</v>
+        <v>18.551092</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -11066,31 +11066,31 @@
         <v>1750</v>
       </c>
       <c r="B74">
-        <v>23.747504</v>
+        <v>23.747445</v>
       </c>
       <c r="C74">
-        <v>24.081461</v>
+        <v>24.081444</v>
       </c>
       <c r="E74" s="1">
         <v>1750</v>
       </c>
       <c r="F74">
-        <v>21.183311</v>
+        <v>21.183138</v>
       </c>
       <c r="G74">
-        <v>10.14749</v>
+        <v>10.147234</v>
       </c>
       <c r="H74">
-        <v>1.817551</v>
+        <v>1.817196</v>
       </c>
       <c r="I74">
-        <v>1.99797</v>
+        <v>1.9978</v>
       </c>
       <c r="J74">
-        <v>13.620692</v>
+        <v>13.620352</v>
       </c>
       <c r="K74">
-        <v>9.358292</v>
+        <v>9.358049000000001</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -11098,31 +11098,31 @@
         <v>1800</v>
       </c>
       <c r="B75">
-        <v>26.827764</v>
+        <v>26.827737</v>
       </c>
       <c r="C75">
-        <v>26.731787</v>
+        <v>26.731743</v>
       </c>
       <c r="E75" s="1">
         <v>1800</v>
       </c>
       <c r="F75">
-        <v>25.267385</v>
+        <v>25.267393</v>
       </c>
       <c r="G75">
-        <v>15.828087</v>
+        <v>15.828247</v>
       </c>
       <c r="H75">
-        <v>1.969132</v>
+        <v>1.969469</v>
       </c>
       <c r="I75">
-        <v>2.02444</v>
+        <v>2.024799</v>
       </c>
       <c r="J75">
-        <v>18.788736</v>
+        <v>18.788911</v>
       </c>
       <c r="K75">
-        <v>14.470092</v>
+        <v>14.470263</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -11130,31 +11130,31 @@
         <v>1850</v>
       </c>
       <c r="B76">
-        <v>29.318155</v>
+        <v>29.318129</v>
       </c>
       <c r="C76">
-        <v>29.0464</v>
+        <v>29.046419</v>
       </c>
       <c r="E76" s="1">
         <v>1850</v>
       </c>
       <c r="F76">
-        <v>27.845484</v>
+        <v>27.845366</v>
       </c>
       <c r="G76">
-        <v>18.36131</v>
+        <v>18.360791</v>
       </c>
       <c r="H76">
-        <v>1.312857</v>
+        <v>1.312276</v>
       </c>
       <c r="I76">
-        <v>1.626145</v>
+        <v>1.625384</v>
       </c>
       <c r="J76">
-        <v>21.638178</v>
+        <v>21.63777</v>
       </c>
       <c r="K76">
-        <v>16.689807</v>
+        <v>16.689297</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -11162,31 +11162,31 @@
         <v>1900</v>
       </c>
       <c r="B77">
-        <v>32.293503</v>
+        <v>32.293513</v>
       </c>
       <c r="C77">
-        <v>31.854199</v>
+        <v>31.854206</v>
       </c>
       <c r="E77" s="1">
         <v>1900</v>
       </c>
       <c r="F77">
-        <v>31.158949</v>
+        <v>31.158962</v>
       </c>
       <c r="G77">
-        <v>22.070597</v>
+        <v>22.070623</v>
       </c>
       <c r="H77">
-        <v>2.447093</v>
+        <v>2.447048</v>
       </c>
       <c r="I77">
-        <v>2.513833</v>
+        <v>2.513791</v>
       </c>
       <c r="J77">
-        <v>24.484654</v>
+        <v>24.484677</v>
       </c>
       <c r="K77">
-        <v>19.86222</v>
+        <v>19.862245</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -11194,31 +11194,31 @@
         <v>1950</v>
       </c>
       <c r="B78">
-        <v>34.815922</v>
+        <v>34.815844</v>
       </c>
       <c r="C78">
-        <v>34.451729</v>
+        <v>34.451689</v>
       </c>
       <c r="E78" s="1">
         <v>1950</v>
       </c>
       <c r="F78">
-        <v>33.284847</v>
+        <v>33.284674</v>
       </c>
       <c r="G78">
-        <v>21.882322</v>
+        <v>21.88187</v>
       </c>
       <c r="H78">
-        <v>2.837223</v>
+        <v>2.837285</v>
       </c>
       <c r="I78">
-        <v>2.726997</v>
+        <v>2.726992</v>
       </c>
       <c r="J78">
-        <v>25.089215</v>
+        <v>25.088827</v>
       </c>
       <c r="K78">
-        <v>19.740229</v>
+        <v>19.739822</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -11226,31 +11226,31 @@
         <v>2000</v>
       </c>
       <c r="B79">
-        <v>40.514823</v>
+        <v>40.514826</v>
       </c>
       <c r="C79">
-        <v>39.333604</v>
+        <v>39.333609</v>
       </c>
       <c r="E79" s="1">
         <v>2000</v>
       </c>
       <c r="F79">
-        <v>41.335368</v>
+        <v>41.335399</v>
       </c>
       <c r="G79">
-        <v>39.040208</v>
+        <v>39.040374</v>
       </c>
       <c r="H79">
-        <v>2.268769</v>
+        <v>2.268866</v>
       </c>
       <c r="I79">
-        <v>2.284618</v>
+        <v>2.284683</v>
       </c>
       <c r="J79">
-        <v>37.060108</v>
+        <v>37.0602</v>
       </c>
       <c r="K79">
-        <v>34.902481</v>
+        <v>34.902633</v>
       </c>
     </row>
   </sheetData>
@@ -11504,31 +11504,31 @@
         <v>100</v>
       </c>
       <c r="B41">
-        <v>18.152296</v>
+        <v>18.174882</v>
       </c>
       <c r="C41">
-        <v>18.47319</v>
+        <v>18.49564</v>
       </c>
       <c r="E41" s="1">
         <v>100</v>
       </c>
       <c r="F41">
-        <v>16.661733</v>
+        <v>16.68483</v>
       </c>
       <c r="G41">
-        <v>18.210473</v>
+        <v>18.232773</v>
       </c>
       <c r="H41">
-        <v>6.9884</v>
+        <v>7.004147</v>
       </c>
       <c r="I41">
-        <v>6.728803999999999</v>
+        <v>6.744741</v>
       </c>
       <c r="J41">
-        <v>16.180265</v>
+        <v>16.203695</v>
       </c>
       <c r="K41">
-        <v>15.312774</v>
+        <v>15.336757</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -11536,31 +11536,31 @@
         <v>150</v>
       </c>
       <c r="B42">
-        <v>35.189236</v>
+        <v>41.054862</v>
       </c>
       <c r="C42">
-        <v>34.397425</v>
+        <v>40.159244</v>
       </c>
       <c r="E42" s="1">
         <v>150</v>
       </c>
       <c r="F42">
-        <v>35.385651</v>
+        <v>41.219457</v>
       </c>
       <c r="G42">
-        <v>33.867124</v>
+        <v>39.53568</v>
       </c>
       <c r="H42">
-        <v>16.544443</v>
+        <v>19.003888</v>
       </c>
       <c r="I42">
-        <v>16.455814</v>
+        <v>18.869291</v>
       </c>
       <c r="J42">
-        <v>35.728177</v>
+        <v>41.580195</v>
       </c>
       <c r="K42">
-        <v>35.688283</v>
+        <v>41.476445</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -11568,31 +11568,31 @@
         <v>200</v>
       </c>
       <c r="B43">
-        <v>8.612144000000001</v>
+        <v>8.995010000000001</v>
       </c>
       <c r="C43">
-        <v>8.082808</v>
+        <v>8.310002000000001</v>
       </c>
       <c r="E43" s="1">
         <v>200</v>
       </c>
       <c r="F43">
-        <v>10.162542</v>
+        <v>10.828518</v>
       </c>
       <c r="G43">
-        <v>7.917559</v>
+        <v>8.157857</v>
       </c>
       <c r="H43">
-        <v>6.07897</v>
+        <v>6.430009</v>
       </c>
       <c r="I43">
-        <v>6.481036</v>
+        <v>6.830139999999999</v>
       </c>
       <c r="J43">
-        <v>11.132556</v>
+        <v>11.887943</v>
       </c>
       <c r="K43">
-        <v>12.581973</v>
+        <v>13.415233</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -11600,31 +11600,31 @@
         <v>250</v>
       </c>
       <c r="B44">
-        <v>12.866213</v>
+        <v>12.866156</v>
       </c>
       <c r="C44">
-        <v>13.479752</v>
+        <v>13.479644</v>
       </c>
       <c r="E44" s="1">
         <v>250</v>
       </c>
       <c r="F44">
-        <v>11.20732</v>
+        <v>11.207481</v>
       </c>
       <c r="G44">
-        <v>12.928409</v>
+        <v>12.928306</v>
       </c>
       <c r="H44">
-        <v>4.520197</v>
+        <v>4.520381</v>
       </c>
       <c r="I44">
-        <v>4.547461</v>
+        <v>4.547614</v>
       </c>
       <c r="J44">
-        <v>11.397066</v>
+        <v>11.397357</v>
       </c>
       <c r="K44">
-        <v>10.64086</v>
+        <v>10.641176</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -11632,31 +11632,31 @@
         <v>300</v>
       </c>
       <c r="B45">
-        <v>36.809568</v>
+        <v>36.819976</v>
       </c>
       <c r="C45">
-        <v>32.932754</v>
+        <v>32.941126</v>
       </c>
       <c r="E45" s="1">
         <v>300</v>
       </c>
       <c r="F45">
-        <v>38.797862</v>
+        <v>38.809224</v>
       </c>
       <c r="G45">
-        <v>31.664034</v>
+        <v>31.6721</v>
       </c>
       <c r="H45">
-        <v>12.183847</v>
+        <v>12.189212</v>
       </c>
       <c r="I45">
-        <v>12.652843</v>
+        <v>12.657714</v>
       </c>
       <c r="J45">
-        <v>40.322492</v>
+        <v>40.334409</v>
       </c>
       <c r="K45">
-        <v>41.018539</v>
+        <v>41.030032</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -11664,31 +11664,31 @@
         <v>350</v>
       </c>
       <c r="B46">
-        <v>9.414451</v>
+        <v>9.414957000000001</v>
       </c>
       <c r="C46">
-        <v>13.590424</v>
+        <v>13.593526</v>
       </c>
       <c r="E46" s="1">
         <v>350</v>
       </c>
       <c r="F46">
-        <v>22.014847</v>
+        <v>22.015582</v>
       </c>
       <c r="G46">
-        <v>13.155294</v>
+        <v>13.158294</v>
       </c>
       <c r="H46">
-        <v>9.273930999999999</v>
+        <v>9.274232000000001</v>
       </c>
       <c r="I46">
-        <v>5.476296</v>
+        <v>5.478611</v>
       </c>
       <c r="J46">
-        <v>28.154772</v>
+        <v>28.155709</v>
       </c>
       <c r="K46">
-        <v>17.669775</v>
+        <v>17.67271</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -11696,31 +11696,31 @@
         <v>400</v>
       </c>
       <c r="B47">
-        <v>11.467956</v>
+        <v>11.467926</v>
       </c>
       <c r="C47">
-        <v>17.902071</v>
+        <v>17.90209</v>
       </c>
       <c r="E47" s="1">
         <v>400</v>
       </c>
       <c r="F47">
-        <v>3.593918</v>
+        <v>3.593866</v>
       </c>
       <c r="G47">
-        <v>17.361006</v>
+        <v>17.361024</v>
       </c>
       <c r="H47">
-        <v>2.60227</v>
+        <v>2.602495</v>
       </c>
       <c r="I47">
-        <v>1.468582</v>
+        <v>1.468726</v>
       </c>
       <c r="J47">
-        <v>7.803354</v>
+        <v>7.803331</v>
       </c>
       <c r="K47">
-        <v>4.770729</v>
+        <v>4.770830999999999</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -11728,31 +11728,31 @@
         <v>450</v>
       </c>
       <c r="B48">
-        <v>20.23629</v>
+        <v>20.236275</v>
       </c>
       <c r="C48">
-        <v>26.764243</v>
+        <v>26.764222</v>
       </c>
       <c r="E48" s="1">
         <v>450</v>
       </c>
       <c r="F48">
-        <v>7.206778999999999</v>
+        <v>7.20677</v>
       </c>
       <c r="G48">
-        <v>25.948198</v>
+        <v>25.948178</v>
       </c>
       <c r="H48">
-        <v>2.246584</v>
+        <v>2.246615</v>
       </c>
       <c r="I48">
-        <v>2.287283</v>
+        <v>2.287325</v>
       </c>
       <c r="J48">
-        <v>2.996337</v>
+        <v>2.996331</v>
       </c>
       <c r="K48">
-        <v>2.125864</v>
+        <v>2.125859</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -11760,31 +11760,31 @@
         <v>500</v>
       </c>
       <c r="B49">
-        <v>29.713243</v>
+        <v>29.717225</v>
       </c>
       <c r="C49">
-        <v>35.549476</v>
+        <v>35.554405</v>
       </c>
       <c r="E49" s="1">
         <v>500</v>
       </c>
       <c r="F49">
-        <v>17.009994</v>
+        <v>17.013174</v>
       </c>
       <c r="G49">
-        <v>34.533328</v>
+        <v>34.538149</v>
       </c>
       <c r="H49">
-        <v>7.215369</v>
+        <v>7.220613</v>
       </c>
       <c r="I49">
-        <v>6.552224</v>
+        <v>6.557473</v>
       </c>
       <c r="J49">
-        <v>12.45005</v>
+        <v>12.452937</v>
       </c>
       <c r="K49">
-        <v>9.664922000000001</v>
+        <v>9.667939000000001</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -11792,31 +11792,31 @@
         <v>550</v>
       </c>
       <c r="B50">
-        <v>40.881482</v>
+        <v>40.377275</v>
       </c>
       <c r="C50">
-        <v>43.081693</v>
+        <v>42.637481</v>
       </c>
       <c r="E50" s="1">
         <v>550</v>
       </c>
       <c r="F50">
-        <v>32.815845</v>
+        <v>32.266992</v>
       </c>
       <c r="G50">
-        <v>42.029403</v>
+        <v>41.59438400000001</v>
       </c>
       <c r="H50">
-        <v>17.252217</v>
+        <v>16.569368</v>
       </c>
       <c r="I50">
-        <v>15.873696</v>
+        <v>15.190535</v>
       </c>
       <c r="J50">
-        <v>30.249508</v>
+        <v>29.675952</v>
       </c>
       <c r="K50">
-        <v>25.828186</v>
+        <v>25.246072</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -11824,31 +11824,31 @@
         <v>600</v>
       </c>
       <c r="B51">
-        <v>40.998227</v>
+        <v>40.994929</v>
       </c>
       <c r="C51">
-        <v>34.367026</v>
+        <v>34.364486</v>
       </c>
       <c r="E51" s="1">
         <v>600</v>
       </c>
       <c r="F51">
-        <v>47.45081500000001</v>
+        <v>47.447299</v>
       </c>
       <c r="G51">
-        <v>33.51667</v>
+        <v>33.514209</v>
       </c>
       <c r="H51">
-        <v>24.610742</v>
+        <v>24.611552</v>
       </c>
       <c r="I51">
-        <v>25.23328</v>
+        <v>25.23395</v>
       </c>
       <c r="J51">
-        <v>51.29153400000001</v>
+        <v>51.287984</v>
       </c>
       <c r="K51">
-        <v>49.376896</v>
+        <v>49.373689</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -11856,31 +11856,31 @@
         <v>650</v>
       </c>
       <c r="B52">
-        <v>16.848503</v>
+        <v>16.8421</v>
       </c>
       <c r="C52">
-        <v>27.739542</v>
+        <v>27.739751</v>
       </c>
       <c r="E52" s="1">
         <v>650</v>
       </c>
       <c r="F52">
-        <v>29.653277</v>
+        <v>29.650146</v>
       </c>
       <c r="G52">
-        <v>27.125488</v>
+        <v>27.12566</v>
       </c>
       <c r="H52">
-        <v>15.514909</v>
+        <v>15.525917</v>
       </c>
       <c r="I52">
-        <v>14.813388</v>
+        <v>14.813943</v>
       </c>
       <c r="J52">
-        <v>39.002327</v>
+        <v>39.001635</v>
       </c>
       <c r="K52">
-        <v>26.653504</v>
+        <v>26.648624</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -11888,31 +11888,31 @@
         <v>700</v>
       </c>
       <c r="B53">
-        <v>17.548311</v>
+        <v>17.533447</v>
       </c>
       <c r="C53">
-        <v>38.126596</v>
+        <v>38.085876</v>
       </c>
       <c r="E53" s="1">
         <v>700</v>
       </c>
       <c r="F53">
-        <v>17.532101</v>
+        <v>17.54334</v>
       </c>
       <c r="G53">
-        <v>37.411601</v>
+        <v>37.37133</v>
       </c>
       <c r="H53">
-        <v>15.230878</v>
+        <v>15.209563</v>
       </c>
       <c r="I53">
-        <v>9.402819000000001</v>
+        <v>9.369076</v>
       </c>
       <c r="J53">
-        <v>29.008036</v>
+        <v>29.012077</v>
       </c>
       <c r="K53">
-        <v>15.132953</v>
+        <v>15.157568</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -11920,31 +11920,31 @@
         <v>750</v>
       </c>
       <c r="B54">
-        <v>22.565267</v>
+        <v>22.329546</v>
       </c>
       <c r="C54">
-        <v>39.691474</v>
+        <v>39.144978</v>
       </c>
       <c r="E54" s="1">
         <v>750</v>
       </c>
       <c r="F54">
-        <v>7.461583</v>
+        <v>7.507047999999999</v>
       </c>
       <c r="G54">
-        <v>38.970165</v>
+        <v>38.42294099999999</v>
       </c>
       <c r="H54">
-        <v>10.862991</v>
+        <v>10.71328</v>
       </c>
       <c r="I54">
-        <v>6.953626</v>
+        <v>6.699716</v>
       </c>
       <c r="J54">
-        <v>17.349716</v>
+        <v>17.321465</v>
       </c>
       <c r="K54">
-        <v>11.396176</v>
+        <v>11.426607</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -11952,31 +11952,31 @@
         <v>800</v>
       </c>
       <c r="B55">
-        <v>28.099499</v>
+        <v>28.092282</v>
       </c>
       <c r="C55">
-        <v>46.252948</v>
+        <v>46.236505</v>
       </c>
       <c r="E55" s="1">
         <v>800</v>
       </c>
       <c r="F55">
-        <v>2.462679</v>
+        <v>2.463204</v>
       </c>
       <c r="G55">
-        <v>45.469017</v>
+        <v>45.452827</v>
       </c>
       <c r="H55">
-        <v>9.410761000000001</v>
+        <v>9.398239</v>
       </c>
       <c r="I55">
-        <v>6.915427999999999</v>
+        <v>6.897205</v>
       </c>
       <c r="J55">
-        <v>12.601856</v>
+        <v>12.600909</v>
       </c>
       <c r="K55">
-        <v>8.73502</v>
+        <v>8.734807</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -11984,31 +11984,31 @@
         <v>850</v>
       </c>
       <c r="B56">
-        <v>35.565362</v>
+        <v>35.605944</v>
       </c>
       <c r="C56">
-        <v>57.556987</v>
+        <v>57.639415</v>
       </c>
       <c r="E56" s="1">
         <v>850</v>
       </c>
       <c r="F56">
-        <v>4.094957</v>
+        <v>4.121043</v>
       </c>
       <c r="G56">
-        <v>56.81973000000001</v>
+        <v>56.901435</v>
       </c>
       <c r="H56">
-        <v>13.004591</v>
+        <v>13.157409</v>
       </c>
       <c r="I56">
-        <v>9.841509</v>
+        <v>10.072004</v>
       </c>
       <c r="J56">
-        <v>9.275408000000001</v>
+        <v>9.278830000000001</v>
       </c>
       <c r="K56">
-        <v>6.712081</v>
+        <v>6.711639999999999</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -12016,31 +12016,31 @@
         <v>900</v>
       </c>
       <c r="B57">
-        <v>37.450872</v>
+        <v>37.458262</v>
       </c>
       <c r="C57">
-        <v>56.36849300000001</v>
+        <v>56.382185</v>
       </c>
       <c r="E57" s="1">
         <v>900</v>
       </c>
       <c r="F57">
-        <v>5.627946</v>
+        <v>5.634275</v>
       </c>
       <c r="G57">
-        <v>55.90490699999999</v>
+        <v>55.91833199999999</v>
       </c>
       <c r="H57">
-        <v>3.763029</v>
+        <v>3.773715</v>
       </c>
       <c r="I57">
-        <v>6.670174</v>
+        <v>6.628514</v>
       </c>
       <c r="J57">
-        <v>6.982161</v>
+        <v>6.977600999999999</v>
       </c>
       <c r="K57">
-        <v>4.91389</v>
+        <v>4.905228</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -12048,31 +12048,31 @@
         <v>950</v>
       </c>
       <c r="B58">
-        <v>39.8016</v>
+        <v>39.802619</v>
       </c>
       <c r="C58">
-        <v>58.295152</v>
+        <v>58.299391</v>
       </c>
       <c r="E58" s="1">
         <v>950</v>
       </c>
       <c r="F58">
-        <v>8.335001</v>
+        <v>8.336580999999999</v>
       </c>
       <c r="G58">
-        <v>58.05771899999999</v>
+        <v>58.061852</v>
       </c>
       <c r="H58">
-        <v>7.932604</v>
+        <v>7.983032000000001</v>
       </c>
       <c r="I58">
-        <v>7.027077999999999</v>
+        <v>7.114264</v>
       </c>
       <c r="J58">
-        <v>4.267408000000001</v>
+        <v>4.267574</v>
       </c>
       <c r="K58">
-        <v>2.866213</v>
+        <v>2.866632</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -12080,31 +12080,31 @@
         <v>1000</v>
       </c>
       <c r="B59">
-        <v>42.74782800000001</v>
+        <v>42.720437</v>
       </c>
       <c r="C59">
-        <v>61.503086</v>
+        <v>61.432222</v>
       </c>
       <c r="E59" s="1">
         <v>1000</v>
       </c>
       <c r="F59">
-        <v>10.366053</v>
+        <v>10.363268</v>
       </c>
       <c r="G59">
-        <v>61.480769</v>
+        <v>61.409913</v>
       </c>
       <c r="H59">
-        <v>9.795697000000001</v>
+        <v>9.916675999999999</v>
       </c>
       <c r="I59">
-        <v>9.894357000000001</v>
+        <v>10.092522</v>
       </c>
       <c r="J59">
-        <v>2.709729</v>
+        <v>2.703382</v>
       </c>
       <c r="K59">
-        <v>1.773787</v>
+        <v>1.765563</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -12112,31 +12112,31 @@
         <v>1050</v>
       </c>
       <c r="B60">
-        <v>43.770332</v>
+        <v>43.824582</v>
       </c>
       <c r="C60">
-        <v>60.319662</v>
+        <v>60.433487</v>
       </c>
       <c r="E60" s="1">
         <v>1050</v>
       </c>
       <c r="F60">
-        <v>11.619127</v>
+        <v>11.634004</v>
       </c>
       <c r="G60">
-        <v>60.466624</v>
+        <v>60.580573</v>
       </c>
       <c r="H60">
-        <v>5.144007</v>
+        <v>5.176908999999999</v>
       </c>
       <c r="I60">
-        <v>6.167729</v>
+        <v>6.227965</v>
       </c>
       <c r="J60">
-        <v>1.522669</v>
+        <v>1.524771</v>
       </c>
       <c r="K60">
-        <v>1.056658</v>
+        <v>1.059075</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -12144,31 +12144,31 @@
         <v>1100</v>
       </c>
       <c r="B61">
-        <v>48.256409</v>
+        <v>48.303641</v>
       </c>
       <c r="C61">
-        <v>68.25407299999999</v>
+        <v>68.343011</v>
       </c>
       <c r="E61" s="1">
         <v>1100</v>
       </c>
       <c r="F61">
-        <v>13.786169</v>
+        <v>13.80025</v>
       </c>
       <c r="G61">
-        <v>68.71561</v>
+        <v>68.803584</v>
       </c>
       <c r="H61">
-        <v>1.473247</v>
+        <v>1.528216</v>
       </c>
       <c r="I61">
-        <v>2.593152</v>
+        <v>2.679118</v>
       </c>
       <c r="J61">
-        <v>0.9533450000000001</v>
+        <v>0.9543149999999999</v>
       </c>
       <c r="K61">
-        <v>0.636313</v>
+        <v>0.637191</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -12176,31 +12176,31 @@
         <v>1150</v>
       </c>
       <c r="B62">
-        <v>54.163716</v>
+        <v>54.19394699999999</v>
       </c>
       <c r="C62">
-        <v>75.94569200000001</v>
+        <v>76.06251800000001</v>
       </c>
       <c r="E62" s="1">
         <v>1150</v>
       </c>
       <c r="F62">
-        <v>16.603015</v>
+        <v>16.609475</v>
       </c>
       <c r="G62">
-        <v>76.915499</v>
+        <v>77.03322299999999</v>
       </c>
       <c r="H62">
-        <v>5.577643</v>
+        <v>5.706002</v>
       </c>
       <c r="I62">
-        <v>7.468408999999999</v>
+        <v>7.645805</v>
       </c>
       <c r="J62">
-        <v>2.028014</v>
+        <v>2.024264</v>
       </c>
       <c r="K62">
-        <v>1.634063</v>
+        <v>1.629776</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -12208,31 +12208,31 @@
         <v>1200</v>
       </c>
       <c r="B63">
-        <v>54.35412700000001</v>
+        <v>54.36880600000001</v>
       </c>
       <c r="C63">
-        <v>75.99045100000001</v>
+        <v>76.01580899999999</v>
       </c>
       <c r="E63" s="1">
         <v>1200</v>
       </c>
       <c r="F63">
-        <v>17.447826</v>
+        <v>17.452561</v>
       </c>
       <c r="G63">
-        <v>77.42549699999999</v>
+        <v>77.451297</v>
       </c>
       <c r="H63">
-        <v>10.025246</v>
+        <v>10.071229</v>
       </c>
       <c r="I63">
-        <v>13.751151</v>
+        <v>13.815343</v>
       </c>
       <c r="J63">
-        <v>2.845913</v>
+        <v>2.846496</v>
       </c>
       <c r="K63">
-        <v>2.129205</v>
+        <v>2.129741</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -12240,31 +12240,31 @@
         <v>1250</v>
       </c>
       <c r="B64">
-        <v>62.650786</v>
+        <v>62.649323</v>
       </c>
       <c r="C64">
-        <v>90.93864000000001</v>
+        <v>90.937107</v>
       </c>
       <c r="E64" s="1">
         <v>1250</v>
       </c>
       <c r="F64">
-        <v>21.003162</v>
+        <v>21.002029</v>
       </c>
       <c r="G64">
-        <v>93.004475</v>
+        <v>93.002655</v>
       </c>
       <c r="H64">
-        <v>3.948523</v>
+        <v>3.93721</v>
       </c>
       <c r="I64">
-        <v>6.523839</v>
+        <v>6.505795</v>
       </c>
       <c r="J64">
-        <v>4.447322</v>
+        <v>4.446347</v>
       </c>
       <c r="K64">
-        <v>3.547209</v>
+        <v>3.54589</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -12272,31 +12272,31 @@
         <v>1300</v>
       </c>
       <c r="B65">
-        <v>72.607091</v>
+        <v>72.61471299999999</v>
       </c>
       <c r="C65">
-        <v>109.338026</v>
+        <v>109.358301</v>
       </c>
       <c r="E65" s="1">
         <v>1300</v>
       </c>
       <c r="F65">
-        <v>25.122854</v>
+        <v>25.125682</v>
       </c>
       <c r="G65">
-        <v>112.468556</v>
+        <v>112.488883</v>
       </c>
       <c r="H65">
-        <v>3.491494</v>
+        <v>3.473363</v>
       </c>
       <c r="I65">
-        <v>6.405912</v>
+        <v>6.385435</v>
       </c>
       <c r="J65">
-        <v>6.08536</v>
+        <v>6.086051</v>
       </c>
       <c r="K65">
-        <v>4.934837</v>
+        <v>4.935793</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -12304,31 +12304,31 @@
         <v>1350</v>
       </c>
       <c r="B66">
-        <v>76.726371</v>
+        <v>76.70864399999999</v>
       </c>
       <c r="C66">
-        <v>116.849286</v>
+        <v>116.805469</v>
       </c>
       <c r="E66" s="1">
         <v>1350</v>
       </c>
       <c r="F66">
-        <v>27.178456</v>
+        <v>27.172346</v>
       </c>
       <c r="G66">
-        <v>120.800891</v>
+        <v>120.755582</v>
       </c>
       <c r="H66">
-        <v>4.966012999999999</v>
+        <v>4.966099</v>
       </c>
       <c r="I66">
-        <v>6.200222</v>
+        <v>6.202618</v>
       </c>
       <c r="J66">
-        <v>7.176842</v>
+        <v>7.175588</v>
       </c>
       <c r="K66">
-        <v>5.699039</v>
+        <v>5.697539</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -12336,31 +12336,31 @@
         <v>1400</v>
       </c>
       <c r="B67">
-        <v>76.614946</v>
+        <v>76.608716</v>
       </c>
       <c r="C67">
-        <v>102.498733</v>
+        <v>102.485288</v>
       </c>
       <c r="E67" s="1">
         <v>1400</v>
       </c>
       <c r="F67">
-        <v>27.982608</v>
+        <v>27.980279</v>
       </c>
       <c r="G67">
-        <v>106.625966</v>
+        <v>106.612078</v>
       </c>
       <c r="H67">
-        <v>3.355349</v>
+        <v>3.352807</v>
       </c>
       <c r="I67">
-        <v>3.419324</v>
+        <v>3.414245</v>
       </c>
       <c r="J67">
-        <v>8.157719999999999</v>
+        <v>8.156997</v>
       </c>
       <c r="K67">
-        <v>5.76355</v>
+        <v>5.762704</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -12368,31 +12368,31 @@
         <v>1450</v>
       </c>
       <c r="B68">
-        <v>66.44721899999999</v>
+        <v>66.43789100000001</v>
       </c>
       <c r="C68">
-        <v>90.817554</v>
+        <v>90.802267</v>
       </c>
       <c r="E68" s="1">
         <v>1450</v>
       </c>
       <c r="F68">
-        <v>24.870776</v>
+        <v>24.866929</v>
       </c>
       <c r="G68">
-        <v>94.794624</v>
+        <v>94.77855</v>
       </c>
       <c r="H68">
-        <v>2.269589</v>
+        <v>2.27576</v>
       </c>
       <c r="I68">
-        <v>2.252751</v>
+        <v>2.260503</v>
       </c>
       <c r="J68">
-        <v>7.855964</v>
+        <v>7.854419</v>
       </c>
       <c r="K68">
-        <v>5.721258</v>
+        <v>5.719662</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -12400,31 +12400,31 @@
         <v>1500</v>
       </c>
       <c r="B69">
-        <v>81.20571700000001</v>
+        <v>81.24734699999999</v>
       </c>
       <c r="C69">
-        <v>116.003369</v>
+        <v>116.093085</v>
       </c>
       <c r="E69" s="1">
         <v>1500</v>
       </c>
       <c r="F69">
-        <v>31.192519</v>
+        <v>31.208221</v>
       </c>
       <c r="G69">
-        <v>122.000938</v>
+        <v>122.0962</v>
       </c>
       <c r="H69">
-        <v>2.80833</v>
+        <v>2.81877</v>
       </c>
       <c r="I69">
-        <v>3.407302</v>
+        <v>3.42055</v>
       </c>
       <c r="J69">
-        <v>10.487143</v>
+        <v>10.491867</v>
       </c>
       <c r="K69">
-        <v>8.051691</v>
+        <v>8.056908999999999</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -12432,31 +12432,31 @@
         <v>1550</v>
       </c>
       <c r="B70">
-        <v>86.955961</v>
+        <v>86.944385</v>
       </c>
       <c r="C70">
-        <v>127.738508</v>
+        <v>127.715028</v>
       </c>
       <c r="E70" s="1">
         <v>1550</v>
       </c>
       <c r="F70">
-        <v>34.289611</v>
+        <v>34.285157</v>
       </c>
       <c r="G70">
-        <v>134.650862</v>
+        <v>134.626084</v>
       </c>
       <c r="H70">
-        <v>1.938237</v>
+        <v>1.931477</v>
       </c>
       <c r="I70">
-        <v>1.892551</v>
+        <v>1.883077</v>
       </c>
       <c r="J70">
-        <v>12.432926</v>
+        <v>12.431437</v>
       </c>
       <c r="K70">
-        <v>10.12111</v>
+        <v>10.119511</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -12464,31 +12464,31 @@
         <v>1600</v>
       </c>
       <c r="B71">
-        <v>103.119539</v>
+        <v>103.1079</v>
       </c>
       <c r="C71">
-        <v>161.647604</v>
+        <v>161.616946</v>
       </c>
       <c r="E71" s="1">
         <v>1600</v>
       </c>
       <c r="F71">
-        <v>41.696018</v>
+        <v>41.691476</v>
       </c>
       <c r="G71">
-        <v>171.934909</v>
+        <v>171.902414</v>
       </c>
       <c r="H71">
-        <v>0.48611</v>
+        <v>0.486882</v>
       </c>
       <c r="I71">
-        <v>1.68352</v>
+        <v>1.686486</v>
       </c>
       <c r="J71">
-        <v>15.869377</v>
+        <v>15.867785</v>
       </c>
       <c r="K71">
-        <v>13.850725</v>
+        <v>13.848424</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -12496,31 +12496,31 @@
         <v>1650</v>
       </c>
       <c r="B72">
-        <v>113.177914</v>
+        <v>113.178827</v>
       </c>
       <c r="C72">
-        <v>177.616517</v>
+        <v>177.618934</v>
       </c>
       <c r="E72" s="1">
         <v>1650</v>
       </c>
       <c r="F72">
-        <v>46.465658</v>
+        <v>46.465917</v>
       </c>
       <c r="G72">
-        <v>189.806268</v>
+        <v>189.808777</v>
       </c>
       <c r="H72">
-        <v>2.762243</v>
+        <v>2.76371</v>
       </c>
       <c r="I72">
-        <v>2.981101</v>
+        <v>2.983624</v>
       </c>
       <c r="J72">
-        <v>18.25067</v>
+        <v>18.250676</v>
       </c>
       <c r="K72">
-        <v>15.761333</v>
+        <v>15.761302</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -12528,31 +12528,31 @@
         <v>1700</v>
       </c>
       <c r="B73">
-        <v>140.965952</v>
+        <v>140.983065</v>
       </c>
       <c r="C73">
-        <v>198.437988</v>
+        <v>198.478491</v>
       </c>
       <c r="E73" s="1">
         <v>1700</v>
       </c>
       <c r="F73">
-        <v>59.179002</v>
+        <v>59.185728</v>
       </c>
       <c r="G73">
-        <v>214.209313</v>
+        <v>214.252673</v>
       </c>
       <c r="H73">
-        <v>6.173961</v>
+        <v>6.18248</v>
       </c>
       <c r="I73">
-        <v>7.446447</v>
+        <v>7.459157</v>
       </c>
       <c r="J73">
-        <v>24.028737</v>
+        <v>24.031105</v>
       </c>
       <c r="K73">
-        <v>18.548087</v>
+        <v>18.551092</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -12560,31 +12560,31 @@
         <v>1750</v>
       </c>
       <c r="B74">
-        <v>74.659814</v>
+        <v>74.656532</v>
       </c>
       <c r="C74">
-        <v>92.13547199999999</v>
+        <v>92.129802</v>
       </c>
       <c r="E74" s="1">
         <v>1750</v>
       </c>
       <c r="F74">
-        <v>32.053332</v>
+        <v>32.052152</v>
       </c>
       <c r="G74">
-        <v>99.890225</v>
+        <v>99.884242</v>
       </c>
       <c r="H74">
-        <v>1.495956</v>
+        <v>1.497825</v>
       </c>
       <c r="I74">
-        <v>2.327818</v>
+        <v>2.330591</v>
       </c>
       <c r="J74">
-        <v>13.620692</v>
+        <v>13.620352</v>
       </c>
       <c r="K74">
-        <v>9.358292</v>
+        <v>9.358049000000001</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -12592,31 +12592,31 @@
         <v>1800</v>
       </c>
       <c r="B75">
-        <v>97.57382</v>
+        <v>97.57499799999999</v>
       </c>
       <c r="C75">
-        <v>134.997659</v>
+        <v>134.999673</v>
       </c>
       <c r="E75" s="1">
         <v>1800</v>
       </c>
       <c r="F75">
-        <v>42.814744</v>
+        <v>42.815159</v>
       </c>
       <c r="G75">
-        <v>147.635278</v>
+        <v>147.637194</v>
       </c>
       <c r="H75">
-        <v>1.275982</v>
+        <v>1.274068</v>
       </c>
       <c r="I75">
-        <v>1.936215</v>
+        <v>1.933761</v>
       </c>
       <c r="J75">
-        <v>18.788736</v>
+        <v>18.788911</v>
       </c>
       <c r="K75">
-        <v>14.470092</v>
+        <v>14.470263</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -12624,31 +12624,31 @@
         <v>1850</v>
       </c>
       <c r="B76">
-        <v>105.030865</v>
+        <v>105.029684</v>
       </c>
       <c r="C76">
-        <v>143.19978</v>
+        <v>143.19783</v>
       </c>
       <c r="E76" s="1">
         <v>1850</v>
       </c>
       <c r="F76">
-        <v>47.260513</v>
+        <v>47.259922</v>
       </c>
       <c r="G76">
-        <v>157.543962</v>
+        <v>157.542098</v>
       </c>
       <c r="H76">
-        <v>3.701392</v>
+        <v>3.700306</v>
       </c>
       <c r="I76">
-        <v>6.024259</v>
+        <v>6.022231</v>
       </c>
       <c r="J76">
-        <v>21.638178</v>
+        <v>21.63777</v>
       </c>
       <c r="K76">
-        <v>16.689807</v>
+        <v>16.689297</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -12656,31 +12656,31 @@
         <v>1900</v>
       </c>
       <c r="B77">
-        <v>113.228346</v>
+        <v>113.228353</v>
       </c>
       <c r="C77">
-        <v>163.073941</v>
+        <v>163.07392</v>
       </c>
       <c r="E77" s="1">
         <v>1900</v>
       </c>
       <c r="F77">
-        <v>52.040869</v>
+        <v>52.040892</v>
       </c>
       <c r="G77">
-        <v>181.120958</v>
+        <v>181.12096</v>
       </c>
       <c r="H77">
-        <v>4.303453</v>
+        <v>4.30363</v>
       </c>
       <c r="I77">
-        <v>6.391245</v>
+        <v>6.391508</v>
       </c>
       <c r="J77">
-        <v>24.484654</v>
+        <v>24.484677</v>
       </c>
       <c r="K77">
-        <v>19.86222</v>
+        <v>19.862245</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -12688,31 +12688,31 @@
         <v>1950</v>
       </c>
       <c r="B78">
-        <v>112.799061</v>
+        <v>112.79754</v>
       </c>
       <c r="C78">
-        <v>159.818393</v>
+        <v>159.81592</v>
       </c>
       <c r="E78" s="1">
         <v>1950</v>
       </c>
       <c r="F78">
-        <v>52.254215</v>
+        <v>52.25346500000001</v>
       </c>
       <c r="G78">
-        <v>177.238592</v>
+        <v>177.235852</v>
       </c>
       <c r="H78">
-        <v>3.419316</v>
+        <v>3.420979</v>
       </c>
       <c r="I78">
-        <v>3.850047</v>
+        <v>3.852699</v>
       </c>
       <c r="J78">
-        <v>25.089215</v>
+        <v>25.088827</v>
       </c>
       <c r="K78">
-        <v>19.740229</v>
+        <v>19.739822</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -12720,31 +12720,31 @@
         <v>2000</v>
       </c>
       <c r="B79">
-        <v>155.160951</v>
+        <v>155.161492</v>
       </c>
       <c r="C79">
-        <v>258.611496</v>
+        <v>258.612993</v>
       </c>
       <c r="E79" s="1">
         <v>2000</v>
       </c>
       <c r="F79">
-        <v>74.110573</v>
+        <v>74.110799</v>
       </c>
       <c r="G79">
-        <v>289.40461</v>
+        <v>289.406239</v>
       </c>
       <c r="H79">
-        <v>1.107591</v>
+        <v>1.10681</v>
       </c>
       <c r="I79">
-        <v>2.771621</v>
+        <v>2.770685</v>
       </c>
       <c r="J79">
-        <v>37.060108</v>
+        <v>37.0602</v>
       </c>
       <c r="K79">
-        <v>34.902481</v>
+        <v>34.902633</v>
       </c>
     </row>
   </sheetData>
